--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242C741-77B9-4A53-9B32-8BA0FE4F6152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{555BAD4C-462E-4AA7-BDC0-63CF02968443}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -129,26 +129,6 @@
     <t>Проверка на один гиперкуб в роли в Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">with aa as
-(
-select * from arcs 
-where arctype='definition' 
-and version=HID
-),
-o52 AS
-(
-select aa.version,aa.rinok,aa.entity,aa.parentrole,aa.arcfrom,aa.arcto,el.id,abstract
-from aa
-left join locators l on l.label=aa.arcfrom and l.version=aa.version and l.rinok=aa.rinok and l.entity=aa.entity and aa.parentrole=l.parentrole 
-left join elements_labels el on el.version=l.version and  el.id=l.href_id and el.lang='ru' and el.role='http://www.xbrl.org/2003/role/label'
-where arcrole='http://xbrl.org/int/dim/arcrole/all'
-)
-select version "Версия",rinok "Рынок",entity "Файл",parentrole "Раздел",id "ID элемента",abstract "Абстрактность"
-from o52
-where abstract!='true'
-</t>
-  </si>
-  <si>
     <t>Проверка на то, что каждая роль начинается с Abstract в Definition</t>
   </si>
   <si>
@@ -165,24 +145,6 @@
   </si>
   <si>
     <t>Проверка на наличие лишних пробелов в лейблах элементов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",text "Текуший",text_final "Корректный"
-from
-(
-select version,rinok,entity,lang,id,text,
-delete_space(txt_space) text_wo_space,
-delete_space(string_to_array(COALESCE(delete_space(txt_space),''),' ')) text_final
-from
-(
-select version,rinok,entity,lang,text,id,
-string_to_array(text,' ') txt_space
-from elements_labels
-where version=HID
-)l
-)l
-where text!=text_final
-</t>
   </si>
   <si>
     <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",href_id "severity"
@@ -262,14 +224,6 @@
     <t>Проверка Table Link, что у абстрактного ruleNode должны быть дети</t>
   </si>
   <si>
-    <t>select r.version "Версия",r.rinok "Рынок",r.entity "Файл",r.parentrole "URI",r.id "ID рулнода",r.abstract "Абстрактность",a.arcto "Дети"
-from rulenodes r
-left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcfrom=r.label
-where abstract='true'
-and a.arcto is null
-and r.version=HID</t>
-  </si>
-  <si>
     <t>Проверка, что merge узел должен быть абстрактным</t>
   </si>
   <si>
@@ -347,14 +301,6 @@
   </si>
   <si>
     <t>Проверка, что каждый ID контрольного соотношения уникален.</t>
-  </si>
-  <si>
-    <t>select version "Версия",id "ID КС",STRING_AGG(distinct label,';') "Label КС",
-STRING_AGG(distinct rinok,';') "Рынок",STRING_AGG(distinct entity,';') "Файл", count(*) 
-from va_assertions
-where version=HID
-group by version,id
-having count(*)&gt;1</t>
   </si>
   <si>
     <t>в наименовании каждой роли в таксономии (Role definition) хотя бы один раз присутствует цифровой код ОКУД – 7 цифр</t>
@@ -402,7 +348,360 @@
     <t>Показатель есть в Definition, но нет в Table</t>
   </si>
   <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",array_to_string(roles,'; ') "Роли"
+    <t>Одинаковые показатели и оси в ролях в рамках одной таблицы</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID",split_part(id,'_',1) "Префикс"
+from elements e
+where version= HID and split_part(id,'_',1) ~ '\d'
+</t>
+  </si>
+  <si>
+    <t>select tp.version "Версия",tp.rinok "Рынок",tp.entity "Файл",tp.uri_table "URI таблицы",tp.uri_razdel "URI раздела",uo_gen 
+from tableparts tp
+join roletypes rt on rt.version=tp.version and rt.rinok=tp.rinok and rt.roleuri=uri_razdel
+where uri_razdel !~ '\d\d\d\d\d\d\d'
+and uo_gen=1
+and tp.version=HID</t>
+  </si>
+  <si>
+    <t>Проверка существования файлов PathToXsd из META-INF\entry_point.xml</t>
+  </si>
+  <si>
+    <t>select * from entrypoints
+where is_exist = False 
+and version=HID</t>
+  </si>
+  <si>
+    <t>select * from taxpackage
+where is_exist = False 
+and version=HID</t>
+  </si>
+  <si>
+    <t>Проверка существования файлов entryPointDocument из META-INF\taxonomyPackage.xml</t>
+  </si>
+  <si>
+    <t>Проверка существования каталогов rewriteURI/@rewritePrefix из META-INF\catalog.xml</t>
+  </si>
+  <si>
+    <t>select * from catalog
+where is_exist = False 
+and version=HID</t>
+  </si>
+  <si>
+    <t>Файл .xsd точки входа найден в таксономии, но не задекларирован в META-INF\taxonomyPackage.xml</t>
+  </si>
+  <si>
+    <t>select targetnamespace,version "Версия",rinok "Рынок",entity "Файл",schemalocation,namespace
+from tables t
+where targetnamespace not in (
+select replace(ep_href,'.xsd','') from taxpackage
+) and version=HID</t>
+  </si>
+  <si>
+    <t>select rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "URI", rs.tag "ruleset"
+from rulenodes rn
+left join rulesets rs on rs.version=rn.version and rs.rinok=rn.rinok and rs.entity=rn.entity and rs.parentrole=rn.parentrole
+and rs.rulenode_id=rn.id
+where merge='true'
+and tag is not null
+and rn.version=HID</t>
+  </si>
+  <si>
+    <t>Если RuleNode c merge = true, то у него не должно быть RuleSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arcrole "Arcrole",lf.href_id "Ось",
+array_to_string(array_agg(lt.href_id),'; ') "Дефолтные мемберы" 
+from arcs a
+join locators lf on lf.entity=a.entity and lf.parentrole=a.parentrole and lf.label=a.arcfrom and lf.version=a.version
+join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
+where arcrole='http://xbrl.org/int/dim/arcrole/dimension-default' 
+and a.version=HID
+group by a.version,a.rinok,a.entity,a.arctype,a.arcrole,lf.href_id
+having array_length(array_agg(lt.href_id),1)&gt;1</t>
+  </si>
+  <si>
+    <t>Проверка уникальности дефолтного мембера для каждой оси в Definition</t>
+  </si>
+  <si>
+    <t>Проверка корректности arcrole в слое Definition № 1 - мемберы</t>
+  </si>
+  <si>
+    <t>Проверка корректности arcrole в слое Definition № 2 - неабстрактные показатели</t>
+  </si>
+  <si>
+    <t>Проверка корректности arcrole в слое Definition № 3 - оси</t>
+  </si>
+  <si>
+    <t>select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arcrole "Arcrole",lf.href_id "Ось",
+lt.href_id "Мембер",e.type "Тип мембера"
+from arcs a
+join locators lf on lf.entity=a.entity and lf.parentrole=a.parentrole and lf.label=a.arcfrom and lf.version=a.version
+join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
+left join elements e on e.id=lt.href_id and e.version=lt.version
+where arcrole='http://xbrl.org/int/dim/arcrole/dimension-default' 
+and (e.type!='nonnum:domainItemType' or e.type is null) 
+and a.version=HID</t>
+  </si>
+  <si>
+    <t>Проверка корректности использования arcrole dimension-default в Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
+lt.href_id "ID элемента",arcrole "Arcrole"
+from arcs a
+join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
+join elements e on e.id=lt.href_id and e.version=lt.version
+where arctype='definition'
+and arcrole not in ('http://xbrl.org/int/dim/arcrole/hypercube-dimension')
+and (substitutiongroup='xbrldt:dimensionItem' or substitutiongroup is null)
+and a.version=HID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
+lt.href_id "ID элемента",arcrole "Arcrole"
+from arcs a
+join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
+join elements e on e.id=lt.href_id and e.version=lt.version
+where e.abstract!='true' and arctype='definition'
+and (substitutiongroup='xbrli:item' or substitutiongroup is null)
+and arcrole not in ('http://xbrl.org/int/dim/arcrole/dimension-default',
+       'http://xbrl.org/int/dim/arcrole/dimension-domain',
+       'http://xbrl.org/int/dim/arcrole/domain-member')
+and a.version=HID   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
+lt.href_id "ID элемента",e.type "Тип элемента",arcrole "Arcrole"
+from arcs a
+join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
+join elements e on e.id=lt.href_id and e.version=lt.version
+where (e.type='nonnum:domainItemType' or e.type is null) and arctype='definition'
+and arcrole not in ('http://xbrl.org/int/dim/arcrole/dimension-default',
+       'http://xbrl.org/int/dim/arcrole/dimension-domain',
+       'http://xbrl.org/int/dim/arcrole/domain-member')
+and a.version=HID   
+</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",targetnamespace "URI",href "href" 
+from linkbaserefs 
+where href similar to '%formula%'
+and href similar to '%formula\D.xml'
+and version=HID</t>
+  </si>
+  <si>
+    <t>Проверка, что формул нет в базе ссылок, отличной от *-formula.xml</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",parentrole "URI таблицы",string_agg(distinct axis,'; ') "Список осей"
+from arcs where arcrole='http://xbrl.org/arcrole/2014/table-breakdown'
+and version=HID
+group by version,rinok,entity,parentrole
+having array_position(array_agg(distinct axis) , 'x') IS NULL or 
+array_position(array_agg(distinct axis) , 'y') IS NULL</t>
+  </si>
+  <si>
+    <t>Проверка структуры осей  Table Link  (должна быть ось X и ось Y)</t>
+  </si>
+  <si>
+    <t>Проверка targetNamespace не совпадает с наименованием/локацией точки входа</t>
+  </si>
+  <si>
+    <t>select distinct version "Версия",rinok "Рынок",entity "Файл",uri_table "URI"  
+from tableparts
+where uri_table not in (select namespace from tables)
+and version=HID</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",qname "Qname",type "Тип элемента",enumdomain,enum2domain 
+from elements 
+where type in ('enum:enumerationItemType','enum2:enumerationSetItemType') 
+and enumdomain is not null and enum2domain is not null
+and version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запрос на выявление ситуации, когда к одному enumerator-у прикреплено 2 ссылки на атрибуты enum и enum2 </t>
+  </si>
+  <si>
+    <t>Для открытых осей (Taxis): Проверка на наличие типа данных домена, либо наличия маски.</t>
+  </si>
+  <si>
+    <t>Запрос на выявление ситуации повторного использования мембера в Table-слое (в дефинишн использован 1 раз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select an.version "Версия",an.rinok "Рынок",an.entity "Файл",an.parentrole "URI",an.id "ID",r.label "Label",r.dimension,linkrole,m.axis,
+arcs_role
+from aspectnodes an
+join arcs a on a.version=an.version 
+and a.rinok=an.rinok and a.entity=an.entity and a.parentrole=an.parentrole and a.arcfrom=an.label
+and arctype='table:aspectnodefilterarc'
+join rend_edimensions r on r.version=an.version 
+and r.rinok=an.rinok and r.entity=an.entity and r.parentrole=an.parentrole and r.label=a.arcto
+join rend_edmembers m on r.version=m.version 
+and r.rinok=m.rinok and r.entity=m.entity and r.parentrole=m.parentrole and r.id=m.dimension_id
+left join
+(
+select a.version,parentrole arcs_role
+from arcs a
+where a.version=HID
+and arctype='definition'
+) rl on rl.version=an.version and arcs_role=linkrole
+where an.version=HID
+and arcs_role is null
+</t>
+  </si>
+  <si>
+    <t>Запрос на вывод всех доменов с маской для ручной проверки маски.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select r.version "Версия",r.rinok "Рынок",r.entity "Файл",r.parentrole "Раздел",abstract,merge,r.label "Рулнод",an.label "Аспектнод" 
+from rulenodes r
+join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcfrom=r.label
+left join aspectnodes an on an.version=a.version and an.rinok=a.rinok and an.entity=a.entity and an.parentrole=a.parentrole and an.label=a.arcto
+where an.id is not null and abstract='true' and merge='true'
+and r.version=HID
+</t>
+  </si>
+  <si>
+    <t>Неверно настроен TableLink: в ruleNode (abstract = true и merge = true) добавлен aspectNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select fv.version "Версия",fv.rinok "Рынок",fv.entity "Файл",fv.parentrole "Роль",fv.id "FactVarible",
+coalesce(a.arcto,aa.arcto) "Дети"
+from va_factvars fv
+left join locators l on l.version=fv.version and l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
+left join arcs a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=fv.parentrole and a.arcfrom=l.label 
+left join arcs aa on fv.version=aa.version and fv.rinok=aa.rinok and fv.entity=aa.entity and aa.parentrole=fv.parentrole and aa.arcfrom=fv.label 
+where coalesce(a.arcto,aa.arcto) is null and fv.version=HID
+</t>
+  </si>
+  <si>
+    <t>Для variable:factVariable не указаны дочерние элементы</t>
+  </si>
+  <si>
+    <t>select an.version "Версия",an.rinok "Рынок",an.entity "Файл",an.parentrole "Роль",an.id "aspectNode",an.dimension "Закрытая ось",re.dimension "Фильтр"
+from aspectnodes an
+join elements e on e.version=an.version and e.qname=an.dimension
+left join arcs a on a.version=an.version and a.rinok=an.rinok and a.entity=an.entity and a.parentrole=an.parentrole and a.arcfrom=an.label
+left join rend_edimensions re on re.version=an.version and re.rinok=an.rinok and re.entity=an.entity and re.parentrole=an.parentrole and a.arcto=re.label
+where substitutiongroup='xbrldt:dimensionItem' and arctype='table:aspectnodefilterarc'
+and re.dimension is null and typeddomainref is null
+and an.version=HID</t>
+  </si>
+  <si>
+    <t>У каждого aspectNode с закрытой осью должен быть dimension filter</t>
+  </si>
+  <si>
+    <t>select distinct version "Версия",entity "Файл",parentrole "Роль",id "ID" from
+(
+select version,entity,parentrole,id,'va_edimensions' chto from va_edimensions where version=HID union all
+select version,entity,parentrole,id,'va_tdimensions' from va_tdimensions where version=HID union all
+select version,entity,parentrole,id,'va_concepts' from va_concepts where version=HID union all
+select version,entity,parentrole,id,'va_factvars' from va_factvars where version=HID union all
+select version,entity,parentrole,id,'va_assertions' from va_assertions where version=HID union all
+select version,entity,parentrole,id,'va_generals' from va_generals where version=HID union all
+select version,entity,parentrole,id,'va_aspectcovers' from va_aspectcovers where version=HID union all
+select version,entity,parentrole,id,'va_assertionsets' from va_assertionsets where version=HID union all
+select version,entity,parentrole,id,'tableschemas' from tableschemas where version=HID union all
+select version,entity,parentrole,id,'labels' from labels where version=HID union all
+select version,entity,parentrole,id,'rend_edimensions' from rend_edimensions where version=HID union all
+select version,entity,parentrole,id,'rulenodes' from rulenodes where version=HID union all
+select version,entity,parentrole,id,'aspectnodes' from aspectnodes where version=HID union all
+select version,entity,parentrole,id,'preconditions' from preconditions where version=HID union all
+select version,entity,parentrole,id,'messages' from messages where version=HID 
+) all_id
+where entity in 
+(select href from linkbaserefs where version=HID)
+and id SIMILAR TO '%[\u0410-\u044f]%'</t>
+  </si>
+  <si>
+    <t>Проверка на наличие кириллических символов в идентификаторе generic resource</t>
+  </si>
+  <si>
+    <t>select e.version "Версия",e.entity "Файл элемента",e.id "ID элемента",e.enumlinkrole "enumlinkrole",roleuri "Роль",r.entity "Файл роли"
+from elements e
+left join roletypes r on r.roleuri=e.enumlinkrole and e.version=r.version
+where e.type ='enum:enumerationItemType'
+and e.entity!=r.entity
+and e.version=HID</t>
+  </si>
+  <si>
+    <t>Проверка на то, что роль enum:linkrole определена исключительно на уровне словаря (для обычных инумераторов)</t>
+  </si>
+  <si>
+    <t>select e.version "Версия",e.entity "Файл элемента",e.id "ID элемента",e.enum2linkrole "enumlinkrole",roleuri "Роль",r.entity "Файл роли"
+from elements e
+left join roletypes r on r.roleuri=e.enum2linkrole and e.version=r.version
+where e.type ='enum2:enumerationSetItemType'
+and e.entity!=r.entity
+and e.version=HID</t>
+  </si>
+  <si>
+    <t>Проверка на то, что роль из enum2:linkrole определена исключительно на уровне словаря (для инумераторов с множественным выбором)</t>
+  </si>
+  <si>
+    <t>select e.version "Версия",e.entity "Файл элемента",e.id "ID элемента",linkrole,rl.entity "Файл definition",rl.roleuri "roleRef definition"
+from
+(
+select version,entity,id,enum2linkrole linkrole from elements e 
+where type in ('enum2:enumerationSetItemType') and version=HID
+union all
+select version,entity,id,enumlinkrole from elements e 
+where type in ('enum:enumerationItemType') and version=HID
+) e
+left join rolerefs rl on rl.roleuri=e.linkrole and rl.version=e.version
+where rolefrom='definition' and roleuri is null</t>
+  </si>
+  <si>
+    <t>Проверка на отсутствие битых Linkrole, которые были удалены из definition</t>
+  </si>
+  <si>
+    <t>select rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "URI",rn.id, 
+array_to_string(array_agg(rs.tag),'|') rulesets,array_to_string(array_agg(distinct rs.tag),'|') unique_rulesets
+from rulenodes rn
+join rulesets rs on rs.version=rn.version and rs.rinok=rn.rinok and rs.entity=rn.entity and rs.parentrole=rn.parentrole
+and rs.rulenode_id=rn.id
+where rn.version=HID
+group by rn.version,rn.rinok,rn.entity,rn.parentrole,rn.id
+having array_length(array_agg(rs.tag),1)!=array_length(array_agg(distinct rs.tag),1)</t>
+  </si>
+  <si>
+    <t>Ищет дублирующиеся идентификаторы ruleSetов в рамках одного ruleNode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with aa as
+(
+select * from arcs 
+where arctype='definition' 
+and version=HID
+),
+o52 AS
+(
+select aa.version,aa.rinok,aa.entity,aa.parentrole,aa.arcfrom,aa.arcto,e.id,abstract
+from aa
+left join locators l on l.label=aa.arcfrom and l.version=aa.version and l.rinok=aa.rinok and l.entity=aa.entity and aa.parentrole=l.parentrole 
+left join elements e on e.version=l.version and  e.id=l.href_id
+where arcrole='http://xbrl.org/int/dim/arcrole/all'
+)
+select version "Версия",rinok "Рынок",entity "Файл",parentrole "Раздел",id "ID элемента",abstract "Абстрактность"
+from o52
+where abstract!='true'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",elements,array_to_string(roles,'; ') "Роли"
 from
 (
 select version,rinok,entity,elements,array_agg(distinct parentrole) roles
@@ -410,6 +709,7 @@
 (
 select a.version,a.entity,a.rinok,a.parentrole,array_unique(array_agg(l.href_id)) elements
 from arcs a
+join tableparts tp on tp.version=a.version and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
 join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
 join elements e on e.version=l.version and e.id=l.href_id
 where arctype='definition' and a.version=HID
@@ -418,200 +718,90 @@
 group by version,rinok,elements,entity
 having array_length(array_agg(distinct parentrole),1)&gt;1
 ) r
-order by 1,2,3</t>
-  </si>
-  <si>
-    <t>Одинаковые показатели и оси в ролях в рамках одной таблицы</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID",split_part(id,'_',1) "Префикс"
-from elements e
-where version= HID and split_part(id,'_',1) ~ '\d'
+order by 1,2,3
 </t>
   </si>
   <si>
-    <t>select tp.version "Версия",tp.rinok "Рынок",tp.entity "Файл",tp.uri_table "URI таблицы",tp.uri_razdel "URI раздела",uo_gen 
-from tableparts tp
-join roletypes rt on rt.version=tp.version and rt.rinok=tp.rinok and rt.roleuri=uri_razdel
-where uri_razdel !~ '\d\d\d\d\d\d\d'
-and uo_gen=1
-and tp.version=HID</t>
-  </si>
-  <si>
-    <t>Проверка существования файлов PathToXsd из META-INF\entry_point.xml</t>
-  </si>
-  <si>
-    <t>select * from entrypoints
-where is_exist = False 
-and version=HID</t>
-  </si>
-  <si>
-    <t>select * from taxpackage
-where is_exist = False 
-and version=HID</t>
-  </si>
-  <si>
-    <t>Проверка существования файлов entryPointDocument из META-INF\taxonomyPackage.xml</t>
-  </si>
-  <si>
-    <t>Проверка существования каталогов rewriteURI/@rewritePrefix из META-INF\catalog.xml</t>
-  </si>
-  <si>
-    <t>select * from catalog
-where is_exist = False 
-and version=HID</t>
-  </si>
-  <si>
-    <t>Файл .xsd точки входа найден в таксономии, но не задекларирован в META-INF\taxonomyPackage.xml</t>
-  </si>
-  <si>
-    <t>select targetnamespace,version "Версия",rinok "Рынок",entity "Файл",schemalocation,namespace
-from tables t
-where targetnamespace not in (
-select replace(ep_href,'.xsd','') from taxpackage
-) and version=HID</t>
-  </si>
-  <si>
-    <t>select rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "URI", rs.tag "ruleset"
-from rulenodes rn
-left join rulesets rs on rs.version=rn.version and rs.rinok=rn.rinok and rs.entity=rn.entity and rs.parentrole=rn.parentrole
-and rs.rulenode_id=rn.id
-where merge='true'
-and tag is not null
-and rn.version=HID</t>
-  </si>
-  <si>
-    <t>Если RuleNode c merge = true, то у него не должно быть RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arcrole "Arcrole",lf.href_id "Ось",
-array_to_string(array_agg(lt.href_id),'; ') "Дефолтные мемберы" 
-from arcs a
-join locators lf on lf.entity=a.entity and lf.parentrole=a.parentrole and lf.label=a.arcfrom and lf.version=a.version
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-where arcrole='http://xbrl.org/int/dim/arcrole/dimension-default' 
+    <t>select r.version "Версия",r.rinok "Рынок",r.entity "Файл",r.parentrole "URI",r.id "ID рулнода",r.abstract "Абстрактность",a.arcto "Арки",rc.value "Концепт",re.dimension "Ось",rp.period_type "Период"
+from rulenodes r
+left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcfrom=r.label
+left join rulenodes_c rc on rc.version=r.version and rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and rc.rulenode_id=r.id
+left join rulenodes_e re on re.version=r.version and re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and re.rulenode_id=r.id
+left join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and rp.rulenode_id=r.id
+where abstract='true'
+and a.arcto is null and rc.value is null and re.dimension is null and rp.period_type is null
+and r.version=HID</t>
+  </si>
+  <si>
+    <t>select version "Версия",id "ID КС",STRING_AGG(distinct label,';') "Label КС",
+STRING_AGG(distinct rinok,';') "Рынок",STRING_AGG(distinct entity,';') "Файл", count(*) 
+from va_assertions
+where version=HID
+group by version,id
+having array_length(array_agg(distinct entity),1)&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with 
+va as
+(
+select va.version,va.rinok,va.entity,va.parentrole,va.label va_label,va.id va_id,test
+ from va_assertions va
+ where va.version=HID
+),
+fv as
+(
+select fv.version,fv.rinok,fv.entity,fv.parentrole, label fv_label,arcfrom,id fv_id,name var_name,fallbackvalue
+from va_factvars fv
+join arcs a on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole 
+and a.arcto=fv.label
+and fv.version=HID
+),
+cc as 
+(
+select c.version,c.rinok,c.entity,c.parentrole,value,arcfrom,arcto,e.type e_type
+from va_concepts c
+left join elements e on e.qname=value and e.version=c.version
+join arcs a on a.version=c.version and a.rinok=c.rinok and a.entity=c.entity and a.parentrole=c.parentrole and a.arcto=c.label
+where c.version=HID
+),
+fv_dim as
+(
+select fv.version,fv.rinok,fv.entity,fv.parentrole,fv.arcfrom,cc.value concept,fv_id,var_name,fallbackvalue,e_type
+from fv
+left join cc on cc.version=fv.version and cc.rinok=fv.rinok and cc.entity=fv.entity and cc.parentrole=fv.parentrole and cc.arcfrom=fv.fv_label
+)
+select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va_id "ID контроля",var_name "Varible",concept "Концепт",fallbackvalue,e_type "Тип элемента",test
+from va
+left join fv_dim fv on fv.version=va.version and fv.rinok=va.rinok and fv.entity=va.entity and fv.parentrole=va.parentrole
+and fv.arcfrom=va.va_label
+where fallbackvalue is not null and 
+((fallbackvalue ~ '^\d+(\.\d+)?$' and e_type not in ('xbrli:integerItemType','xbrli:monetaryItemType','xbrli:decimalItemType')) or
+ (fallbackvalue !~ '^\d+(\.\d+)?$' and e_type not in ('enum2:enumerationSetItemType','nonnum:textBlockItemType','xbrli:timeItemType','enum:enumerationItemType','xbrli:dateItemType','xbrli:stringItemType')))
+order by va.parentrole,va_id
+</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",table_entity,role_razdel,id "ID элемента",
+case when element_id is not null then 'да' else 'нет' end "Используется в definition",
+text "Текуший",text_final "Корректный"
+from
+(
+select version,rinok,entity,lang,text,id,
+delete_space_and_tab(text) text_final
+from elements_labels
+where version=HID and text is not null
+) l
+left join 
+(
+select distinct l.href_id element_id,tp.entity table_entity,tp.uri_razdel role_razdel
+from arcs a
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
 and a.version=HID
-group by a.version,a.rinok,a.entity,a.arctype,a.arcrole,lf.href_id
-having array_length(array_agg(lt.href_id),1)&gt;1</t>
-  </si>
-  <si>
-    <t>Проверка уникальности дефолтного мембера для каждой оси в Definition</t>
-  </si>
-  <si>
-    <t>Проверка корректности arcrole в слое Definition № 1 - мемберы</t>
-  </si>
-  <si>
-    <t>Проверка корректности arcrole в слое Definition № 2 - неабстрактные показатели</t>
-  </si>
-  <si>
-    <t>Проверка корректности arcrole в слое Definition № 3 - оси</t>
-  </si>
-  <si>
-    <t>select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arcrole "Arcrole",lf.href_id "Ось",
-lt.href_id "Мембер",e.type "Тип мембера"
-from arcs a
-join locators lf on lf.entity=a.entity and lf.parentrole=a.parentrole and lf.label=a.arcfrom and lf.version=a.version
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-left join elements e on e.id=lt.href_id and e.version=lt.version
-where arcrole='http://xbrl.org/int/dim/arcrole/dimension-default' 
-and (e.type!='nonnum:domainItemType' or e.type is null) 
-and a.version=HID</t>
-  </si>
-  <si>
-    <t>Проверка корректности использования arcrole dimension-default в Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
-lt.href_id "ID элемента",arcrole "Arcrole"
-from arcs a
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-join elements e on e.id=lt.href_id and e.version=lt.version
-where arctype='definition'
-and arcrole not in ('http://xbrl.org/int/dim/arcrole/hypercube-dimension')
-and (substitutiongroup='xbrldt:dimensionItem' or substitutiongroup is null)
-and a.version=HID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
-lt.href_id "ID элемента",arcrole "Arcrole"
-from arcs a
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-join elements e on e.id=lt.href_id and e.version=lt.version
-where e.abstract!='true' and arctype='definition'
-and (substitutiongroup='xbrli:item' or substitutiongroup is null)
-and arcrole not in ('http://xbrl.org/int/dim/arcrole/dimension-default',
-       'http://xbrl.org/int/dim/arcrole/dimension-domain',
-       'http://xbrl.org/int/dim/arcrole/domain-member')
-and a.version=HID   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
-lt.href_id "ID элемента",e.type "Тип элемента",arcrole "Arcrole"
-from arcs a
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-join elements e on e.id=lt.href_id and e.version=lt.version
-where (e.type='nonnum:domainItemType' or e.type is null) and arctype='definition'
-and arcrole not in ('http://xbrl.org/int/dim/arcrole/dimension-default',
-       'http://xbrl.org/int/dim/arcrole/dimension-domain',
-       'http://xbrl.org/int/dim/arcrole/domain-member')
-and a.version=HID   
-</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",targetnamespace "URI",href "href" 
-from linkbaserefs 
-where href similar to '%formula%'
-and href similar to '%formula\D.xml'
-and version=HID</t>
-  </si>
-  <si>
-    <t>Проверка, что формул нет в базе ссылок, отличной от *-formula.xml</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",parentrole "URI таблицы",string_agg(distinct axis,'; ') "Список осей"
-from arcs where arcrole='http://xbrl.org/arcrole/2014/table-breakdown'
-and version=HID
-group by version,rinok,entity,parentrole
-having array_position(array_agg(distinct axis) , 'x') IS NULL or 
-array_position(array_agg(distinct axis) , 'y') IS NULL</t>
-  </si>
-  <si>
-    <t>Проверка структуры осей  Table Link  (должна быть ось X и ось Y)</t>
-  </si>
-  <si>
-    <t>Проверка targetNamespace не совпадает с наименованием/локацией точки входа</t>
-  </si>
-  <si>
-    <t>select distinct version "Версия",rinok "Рынок",entity "Файл",uri_table "URI"  
-from tableparts
-where uri_table not in (select namespace from tables)
-and version=HID</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",qname "Qname",type "Тип элемента",enumdomain,enum2domain 
-from elements 
-where type in ('enum:enumerationItemType','enum2:enumerationSetItemType') 
-and enumdomain is not null and enum2domain is not null
-and version=HID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запрос на выявление ситуации, когда к одному enumerator-у прикреплено 2 ссылки на атрибуты enum и enum2 </t>
-  </si>
-  <si>
-    <t>Для открытых осей (Taxis): Проверка на наличие типа данных домена, либо наличия маски.</t>
-  </si>
-  <si>
-    <t>Запрос на выявление ситуации повторного использования мембера в Table-слое (в дефинишн использован 1 раз)</t>
+) df on df.element_id=id
+where text!=text_final
+order by table_entity,case when element_id is not null then 'да' else 'нет' end</t>
   </si>
   <si>
     <t>with rn_t as
@@ -658,9 +848,9 @@
 left join arcs a5 on a5.version=rn.version and a5.rinok=rn.rinok and a5.entity=rn.entity
 and a5.parentrole=rn.parentrole and a5.arcto=a4.arcfrom and a5.arcrole='http://xbrl.org/arcrole/2014/definition-node-subtree'
 )
-select version "Версия",rinok "Рынок",entity "Файл",parentrole "Раздел",
+select version "Версия",rinok "Рынок",entity "Файл",parentrole "Раздел",opis "Значения",
 string_agg(group_rulenode,' | ') "Рулноды",
-opis "СОстав рулнода",count(*) "Кол-во повторений"
+opis "Состав рулнода",count(*) "Кол-во повторений"
 from
 (
 select version,rinok,entity,parentrole,group_rulenode,
@@ -671,8 +861,7 @@
 select 
  coalesce(coalesce(coalesce(coalesce(case when a5 = any (root_rulenodes) then null else a5 end,case when a4 = any (root_rulenodes) then null else a4 end),
  case when a3 = any (root_rulenodes) then null else a3 end),case when a2 = any (root_rulenodes) then null else a2 end),
- case when a1 = any (root_rulenodes) or a1 is null then label else a1 end) group_rulenode,
- rn_arr.*
+ case when a1 = any (root_rulenodes) or a1 is null then label else a1 end) group_rulenode,rn_arr.*
 from rn_arr
 ) gr
 where group_rulenode is not null
@@ -683,30 +872,8 @@
 having count(*)&gt;1 and opis!='{}'</t>
   </si>
   <si>
-    <t xml:space="preserve">select an.version "Версия",an.rinok "Рынок",an.entity "Файл",an.parentrole "URI",an.id "ID",r.label "Label",r.dimension,linkrole,m.axis,
-arcs_role
-from aspectnodes an
-join arcs a on a.version=an.version 
-and a.rinok=an.rinok and a.entity=an.entity and a.parentrole=an.parentrole and a.arcfrom=an.label
-and arctype='table:aspectnodefilterarc'
-join rend_edimensions r on r.version=an.version 
-and r.rinok=an.rinok and r.entity=an.entity and r.parentrole=an.parentrole and r.label=a.arcto
-join rend_edmembers m on r.version=m.version 
-and r.rinok=m.rinok and r.entity=m.entity and r.parentrole=m.parentrole and r.id=m.dimension_id
-left join
-(
-select a.version,parentrole arcs_role
-from arcs a
-where a.version=HID
-and arctype='definition'
-) rl on rl.version=an.version and arcs_role=linkrole
-where an.version=HID
-and arcs_role is null
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл",taxis "Открытая ось",e.id "Домен",pattern,minlength,
-substitutiongroup,case when element_id is not null then 'да' else 'нет' end "Используется в definition"
+    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Справочник",rinok_form "Рынок формы",table_entity,uri_razdel,e.entity "Файл",taxis "Открытая ось",e.id "Домен",pattern,
+case when element_id is not null then 'да' else 'нет' end "Используется в definition"
 from elements e
 join
 (
@@ -716,7 +883,30 @@
 ) ee on ee.typdename=id
 left join 
 (
-select distinct l.href_id element_id
+select distinct l.href_id element_id,tp.uri_razdel,tp.entity table_entity,tp.rinok rinok_form
+from arcs a
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+and a.version=HID
+) df on (df.element_id=taxis or df.element_id=id)
+where e.version=HID and pattern is not null
+order by case when element_id is not null then 'да' else 'нет' end
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Справочник",rinok_form "Рынок формы",table_entity,uri_razdel,e.entity "Файл",taxis "Открытая ось",e.id "Домен",pattern,minlength,
+substitutiongroup,case when element_id is not null then 'да' else 'нет' end "Используется в definition"
+from elements e
+join
+(
+select id taxis,split_part(typeddomainref,'#',-1) typdename 
+from elements where typeddomainref is not null  
+and version=HID
+) ee on ee.typdename=id
+left join 
+(
+select distinct l.href_id element_id,tp.uri_razdel,tp.entity table_entity,tp.rinok rinok_form
 from arcs a
 join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
 join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
@@ -725,32 +915,17 @@
 ) df on df.element_id=taxis
 where
 (
-(pattern is null and minlength is null) 
+pattern is null or minlength is null
 or substitutiongroup is not null
 ) and e.version=HID
-order by case when element_id is not null then 'да' else 'нет' end
+order by rinok_form,e.rinok,e.id,case when element_id is not null then 'да' else 'нет' end
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл",taxis "Открытая ось",e.id "Домен",pattern
-from elements e
-join
-(
-select id taxis,split_part(typeddomainref,'#',-1) typdename 
-from elements where typeddomainref is not null  
-and version=HID
-) ee on ee.typdename=id
-where e.version=HID and pattern is not null
-</t>
-  </si>
-  <si>
-    <t>Запрос на вывод всех доменов с маской для ручной проверки маски.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1141,42 +1316,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ACE02E-5E71-4566-A3AE-DBE37B77150D}">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="131.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="131.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1187,84 +1362,84 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>14</v>
       </c>
@@ -1275,7 +1450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -1286,18 +1461,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>17</v>
       </c>
@@ -1308,7 +1483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>18</v>
       </c>
@@ -1319,51 +1494,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="166.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>23</v>
       </c>
@@ -1374,307 +1549,421 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>32</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>34</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>36</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>37</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="300" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>38</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>39</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>43</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="360" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>61</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
+        <v>53</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>57</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>58</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>61</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
         <v>64</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="B47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>66</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="B48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>67</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="B49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>68</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B50" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>70</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>71</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>72</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>70</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>71</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    <row r="54" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <v>59</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>72</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>75</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>54</v>
+      <c r="B55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
-    <sortCondition ref="A46:A47"/>
+  <sortState ref="A2:C54">
+    <sortCondition ref="A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="100.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E2424F-1B3E-4078-A5BF-F0FB05A7A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11730"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="75" sheetId="3" r:id="rId4"/>
+    <sheet name="67" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -84,33 +89,9 @@
 and a.version=HID</t>
   </si>
   <si>
-    <t>select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",
-count(distinct l.href_id) "Кол-во гиперкубов"
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and arcrole='http://xbrl.org/int/dim/arcrole/all'
-and a.version=HID
-group by a.version,a.rinok,uri_table,a.parentrole
-having count(distinct l.href_id)&gt;1</t>
-  </si>
-  <si>
     <t>Проверка того, что targetRole ссылается на существующую роль в Definition</t>
   </si>
   <si>
-    <t>select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",l.href_id "ID элемента",
-targetrole "targetrole",rt.roleuri "Роль в definition"
-from arcs a
-left join roletypes rt on rt.version=a.version and rt.roleuri=a.targetrole
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and targetrole is not null
-and rt.roleuri is null
-and a.version=HID</t>
-  </si>
-  <si>
     <t>Проверка наличия во всех схемах и базах паразитных префиксов пространств имен вида fp1, ins-dic1, npf-dic1, uk-dic1, purcb-dic1, brk-dic1, kra-dic1, где вместо 1 может быть любая цифра</t>
   </si>
   <si>
@@ -130,15 +111,6 @@
   </si>
   <si>
     <t>Проверка на то, что каждая роль начинается с Abstract в Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",lang,text 
-from elements_labels
-where (version,rinok,entity,id) not in 
-(select distinct version,rinok,entity,id
-from elements_labels where lang='ru')
-and version=HID
-</t>
   </si>
   <si>
     <t>Проверка наличия стандартного русского лейбла у показателей в словаре</t>
@@ -165,24 +137,6 @@
     <t>Проверка в Formula link наличия у всех контролей стандартного message с атрибутом xml:lang=ru</t>
   </si>
   <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",parentrole "URI",va.id "ID КС",
-max(case when lang='ru' then text end) message,
-max(case when lang='ru' then 'ru' end) lang_ru
-from va_assertions va
-left join 
-(
-select version,rinok,entity,href_id va_id,arcto mes_id,la.lang,la.text
-from locators l
-join arcs a using(version,rinok,entity,parentrole) 
-join labels la using(version,rinok,entity,parentrole) 
-where a.arcfrom=l.label and la.id=arcto
-and version=HID
-) loc using (version,rinok,entity)
-where va_id=va.id
-group by version,rinok,entity,parentrole,va.id
-having max(case when lang='ru' then 'ru' else null end)!='ru'</t>
-  </si>
-  <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента" 
 from elements where  (id SIMILAR TO '%[\u0410-\u044f]%')
 and version=HID</t>
@@ -192,15 +146,6 @@
   </si>
   <si>
     <t>Проверка в Table Link наличия у каждой таблицы стандартного заголовка на русском языке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select distinct tp.version "Версия",tp.rinok "Рынок",tp.entity "Файл",tp.uri_table "URI",definition "Заголовок роли"
-from tableparts tp
-left join roletypes rt
-on rt.version=tp.version and rt.roleuri=tp.uri_razdel and rt.rinok=tp.rinok
-and tp.entity=rt.entity
-where tp.version=HID
-and definition is null </t>
   </si>
   <si>
     <t>Проверка, что у всех инумераторов enum:linkrole начинается с http в Dict</t>
@@ -213,12 +158,6 @@
   </si>
   <si>
     <t>Проверка баланса скобок в выражениях generalVariable в Formula link</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",parentrole "URI",label,test
-from va_generals
-where version=HID and (length(replace(test,'(','')) != length(replace(test,')',''))
-or length(replace(test,'[','')) != length(replace(test,']','')))</t>
   </si>
   <si>
     <t>Проверка Table Link, что у абстрактного ruleNode должны быть дети</t>
@@ -382,11 +321,6 @@
 and version=HID</t>
   </si>
   <si>
-    <t>select * from taxpackage
-where is_exist = False 
-and version=HID</t>
-  </si>
-  <si>
     <t>Проверка существования файлов entryPointDocument из META-INF\taxonomyPackage.xml</t>
   </si>
   <si>
@@ -444,17 +378,6 @@
     <t>Проверка корректности arcrole в слое Definition № 3 - оси</t>
   </si>
   <si>
-    <t>select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arcrole "Arcrole",lf.href_id "Ось",
-lt.href_id "Мембер",e.type "Тип мембера"
-from arcs a
-join locators lf on lf.entity=a.entity and lf.parentrole=a.parentrole and lf.label=a.arcfrom and lf.version=a.version
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-left join elements e on e.id=lt.href_id and e.version=lt.version
-where arcrole='http://xbrl.org/int/dim/arcrole/dimension-default' 
-and (e.type!='nonnum:domainItemType' or e.type is null) 
-and a.version=HID</t>
-  </si>
-  <si>
     <t>Проверка корректности использования arcrole dimension-default в Definition</t>
   </si>
   <si>
@@ -467,19 +390,6 @@
 and arcrole not in ('http://xbrl.org/int/dim/arcrole/hypercube-dimension')
 and (substitutiongroup='xbrldt:dimensionItem' or substitutiongroup is null)
 and a.version=HID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
-lt.href_id "ID элемента",arcrole "Arcrole"
-from arcs a
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-join elements e on e.id=lt.href_id and e.version=lt.version
-where e.abstract!='true' and arctype='definition'
-and (substitutiongroup='xbrli:item' or substitutiongroup is null)
-and arcrole not in ('http://xbrl.org/int/dim/arcrole/dimension-default',
-       'http://xbrl.org/int/dim/arcrole/dimension-domain',
-       'http://xbrl.org/int/dim/arcrole/domain-member')
-and a.version=HID   </t>
   </si>
   <si>
     <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
@@ -495,13 +405,6 @@
 </t>
   </si>
   <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",targetnamespace "URI",href "href" 
-from linkbaserefs 
-where href similar to '%formula%'
-and href similar to '%formula\D.xml'
-and version=HID</t>
-  </si>
-  <si>
     <t>Проверка, что формул нет в базе ссылок, отличной от *-formula.xml</t>
   </si>
   <si>
@@ -517,12 +420,6 @@
   </si>
   <si>
     <t>Проверка targetNamespace не совпадает с наименованием/локацией точки входа</t>
-  </si>
-  <si>
-    <t>select distinct version "Версия",rinok "Рынок",entity "Файл",uri_table "URI"  
-from tableparts
-where uri_table not in (select namespace from tables)
-and version=HID</t>
   </si>
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",qname "Qname",type "Тип элемента",enumdomain,enum2domain 
@@ -589,16 +486,6 @@
   </si>
   <si>
     <t>Для variable:factVariable не указаны дочерние элементы</t>
-  </si>
-  <si>
-    <t>select an.version "Версия",an.rinok "Рынок",an.entity "Файл",an.parentrole "Роль",an.id "aspectNode",an.dimension "Закрытая ось",re.dimension "Фильтр"
-from aspectnodes an
-join elements e on e.version=an.version and e.qname=an.dimension
-left join arcs a on a.version=an.version and a.rinok=an.rinok and a.entity=an.entity and a.parentrole=an.parentrole and a.arcfrom=an.label
-left join rend_edimensions re on re.version=an.version and re.rinok=an.rinok and re.entity=an.entity and re.parentrole=an.parentrole and a.arcto=re.label
-where substitutiongroup='xbrldt:dimensionItem' and arctype='table:aspectnodefilterarc'
-and re.dimension is null and typeddomainref is null
-and an.version=HID</t>
   </si>
   <si>
     <t>У каждого aspectNode с закрытой осью должен быть dimension filter</t>
@@ -630,23 +517,7 @@
     <t>Проверка на наличие кириллических символов в идентификаторе generic resource</t>
   </si>
   <si>
-    <t>select e.version "Версия",e.entity "Файл элемента",e.id "ID элемента",e.enumlinkrole "enumlinkrole",roleuri "Роль",r.entity "Файл роли"
-from elements e
-left join roletypes r on r.roleuri=e.enumlinkrole and e.version=r.version
-where e.type ='enum:enumerationItemType'
-and e.entity!=r.entity
-and e.version=HID</t>
-  </si>
-  <si>
     <t>Проверка на то, что роль enum:linkrole определена исключительно на уровне словаря (для обычных инумераторов)</t>
-  </si>
-  <si>
-    <t>select e.version "Версия",e.entity "Файл элемента",e.id "ID элемента",e.enum2linkrole "enumlinkrole",roleuri "Роль",r.entity "Файл роли"
-from elements e
-left join roletypes r on r.roleuri=e.enum2linkrole and e.version=r.version
-where e.type ='enum2:enumerationSetItemType'
-and e.entity!=r.entity
-and e.version=HID</t>
   </si>
   <si>
     <t>Проверка на то, что роль из enum2:linkrole определена исключительно на уровне словаря (для инумераторов с множественным выбором)</t>
@@ -679,26 +550,6 @@
   </si>
   <si>
     <t>Ищет дублирующиеся идентификаторы ruleSetов в рамках одного ruleNode.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with aa as
-(
-select * from arcs 
-where arctype='definition' 
-and version=HID
-),
-o52 AS
-(
-select aa.version,aa.rinok,aa.entity,aa.parentrole,aa.arcfrom,aa.arcto,e.id,abstract
-from aa
-left join locators l on l.label=aa.arcfrom and l.version=aa.version and l.rinok=aa.rinok and l.entity=aa.entity and aa.parentrole=l.parentrole 
-left join elements e on e.version=l.version and  e.id=l.href_id
-where arcrole='http://xbrl.org/int/dim/arcrole/all'
-)
-select version "Версия",rinok "Рынок",entity "Файл",parentrole "Раздел",id "ID элемента",abstract "Абстрактность"
-from o52
-where abstract!='true'
-</t>
   </si>
   <si>
     <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",elements,array_to_string(roles,'; ') "Роли"
@@ -731,14 +582,6 @@
 where abstract='true'
 and a.arcto is null and rc.value is null and re.dimension is null and rp.period_type is null
 and r.version=HID</t>
-  </si>
-  <si>
-    <t>select version "Версия",id "ID КС",STRING_AGG(distinct label,';') "Label КС",
-STRING_AGG(distinct rinok,';') "Рынок",STRING_AGG(distinct entity,';') "Файл", count(*) 
-from va_assertions
-where version=HID
-group by version,id
-having array_length(array_agg(distinct entity),1)&gt;1</t>
   </si>
   <si>
     <t xml:space="preserve">with 
@@ -872,10 +715,369 @@
 having count(*)&gt;1 and opis!='{}'</t>
   </si>
   <si>
-    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Справочник",rinok_form "Рынок формы",table_entity,uri_razdel,e.entity "Файл",taxis "Открытая ось",e.id "Домен",pattern,
+    <t xml:space="preserve">select tp.version,tp.ep_name,split_part(ep_href,'.xsd',1) ep,'объявлена но физически не существует' error_type from taxpackage tp
+where is_exist = False and tp.version=HID
+union all
+select distinct t.version,split_part(entity,'.xsd',1),targetnamespace,'не объявлена в taxonomyPackage' from tables t
+left join taxpackage tp on t.entity=tp.xsd and t.version=HID
+where tp.xsd is null
+</t>
+  </si>
+  <si>
+    <t>select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arcrole "Arcrole",lf.href_id "Ось",
+lt.href_id "Мембер",ee.substitutiongroup "Тип оси",e.type "Тип мембера"
+from arcs a
+join locators lf on lf.entity=a.entity and lf.parentrole=a.parentrole and lf.label=a.arcfrom and lf.version=a.version
+join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
+left join elements e on e.id=lt.href_id and e.version=lt.version
+left join elements ee on ee.id=lf.href_id and ee.version=lf.version
+where arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+and (ee.substitutiongroup!='xbrldt:dimensionItem' or e.type!='nonnum:domainItemType')
+and a.version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
+lt.href_id "ID элемента",arcrole "Arcrole"
+from arcs a
+join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
+join elements e on e.id=lt.href_id and e.version=lt.version
+where e.abstract!='true' and arctype='definition'
+and (substitutiongroup='xbrli:item' or substitutiongroup is null)
+and arcrole not in ('http://xbrl.org/int/dim/arcrole/dimension-default',
+       'http://xbrl.org/int/dim/arcrole/domain-member')
+and a.version=HID    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with aa as
+(
+select aa.version,aa.rinok,aa.entity,aa.parentrole,
+max(case when abstract='true' and arcrole='http://xbrl.org/int/dim/arcrole/all' then 1 else 0 end) is_sluz
+from arcs aa
+join locators l on l.label=aa.arcfrom and l.version=aa.version and l.rinok=aa.rinok and l.entity=aa.entity and aa.parentrole=l.parentrole 
+join elements e on e.version=l.version and  e.id=l.href_id
+where aa.arctype='definition' and arcrole!='http://xbrl.org/int/dim/arcrole/notAll'
+and replace(aa.entity,'-definition.xml','.xsd') in (select distinct entity from tableparts)
+and aa.version=HID
+group by aa.version,aa.rinok,aa.entity,aa.parentrole
+)
+select rl.version "Версия",rl.rinok "Рынок",rl.entity "Файл",roleuri "Роль",is_sluz "Начинается со служебного 1-да/0-нет" from 
+(select version,rinok,entity, roleuri  from rolerefs where rolefrom='definition' and roleuri is not null and version=HID) rl
+join aa on aa.version=rl.version and aa.rinok=rl.rinok and aa.entity=rl.entity and aa.parentrole=rl.roleuri
+where is_sluz=0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",lang,text,e.substitutiongroup,e.type,role
+from elements_labels e
+where (version,rinok,entity,id) not in 
+(select distinct version,rinok,entity,id
+from elements_labels where lang='ru' and role='http://www.xbrl.org/2003/role/label'
+and text!='') and e.qname in 
+(select e.qname 
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+join elements e on e.id=l.href_id and e.version=l.version)
+and e.rinok not in ('ifrs-full','eps') and split_part(e.qname,':',1)!='ifrs-ru'
+and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
+and e.version=HID
+</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",lang,text,e.substitutiongroup,e.type
+from elements_labels e
+where (version,rinok,entity,id) not in 
+(select distinct version,rinok,entity,id
+from elements_labels where lang='ru' and role='http://www.xbrl.org/2003/role/label'
+and text!='') and e.qname in 
+(select e.qname 
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+join elements e on e.id=l.href_id and e.version=l.version)
+and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
+and e.rinok='bfo' and e.version=HID</t>
+  </si>
+  <si>
+    <t>Проверка наличия стандартного русского лейбла у показателей в словаре БФО</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",entity
+from va_assertions 
+where entity similar to '%formula\d.xml'
+and version=HID</t>
+  </si>
+  <si>
+    <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
+max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) "Сообщение"
+from va_assertions va
+left join locators l on l.version=va.version and l.entity=va.entity and l.rinok=va.rinok and l.href_id=va.id
+left join arcs a on a.version=va.version and a.entity=va.entity and a.rinok=va.rinok and a.arcfrom=coalesce(l.label,va.label)
+left join messages m on a.version=m.version and a.rinok=m.rinok and a.entity=m.entity and a.parentrole=m.parentrole and m.label=a.arcto and m.lang='ru'
+where va.version=HID
+group by va.version ,va.rinok,va.entity,va.parentrole,va.id
+having max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) is null</t>
+  </si>
+  <si>
+    <t>with ll as 
+(
+select l.version,l.rinok,l.parentrole,l.entity,split_part(href,'#',1) entity_rend,max(case when la.role='http://www.xbrl.org/2008/role/label' then la.text else null end) text
+from locators l 
+join arcs a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.arcfrom=l.label and a.parentrole=l.parentrole
+join labels la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole and la.label=a.arcto
+and la.role in ('http://www.xbrl.org/2008/role/label','http://www.xbrl.org/2008/role/documentation')
+group by l.version,l.rinok,l.parentrole,l.entity,split_part(href,'#',1)
+ )
+select  t.version "Версия",t.rinok "Рынок",t.entity "Файл",t.parentrole "Раздел",text "Заголовок" 
+from tableschemas t 
+left join ll on ll.entity_rend=t.entity and ll.version=t.version and ll.rinok=t.rinok
+where rolefrom='table' and text is null and t.version=HID</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",targetnamespace 
+from tables
+where split_part(entity,'.xsd',1)!=split_part(targetnamespace,'/',-1)
+and version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select an.version "Версия",an.rinok "Рынок",an.entity "Файл",an.parentrole "Роль",an.id "aspectNode",an.dimension "Закрытая ось",
+max(case when arctype='table:aspectnodefilterarc' then re.dimension else null end) dim_filter
+from aspectnodes an
+join elements e on e.version=an.version and e.qname=an.dimension
+left join arcs a on a.version=an.version and a.rinok=an.rinok and a.entity=an.entity and a.parentrole=an.parentrole and a.arcfrom=an.label
+left join rend_edimensions re on re.version=an.version and re.rinok=an.rinok and re.entity=an.entity and re.parentrole=an.parentrole and a.arcto=re.label
+where substitutiongroup='xbrldt:dimensionItem' and typeddomainref is null
+and an.version=HID
+group by an.version,an.rinok,an.entity,an.parentrole,an.id,an.dimension
+having max(case when arctype='table:aspectnodefilterarc' then re.dimension else null end) is null
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select e.version "Версия",e.entity "Файл элемента",e.id "ID элемента",e.enumlinkrole "enumlinkrole",roleuri "Роль",r.entity "Файл роли"
+from elements e
+left join roletypes r on r.roleuri=e.enumlinkrole and e.version=r.version
+where e.type ='enum:enumerationItemType'
+and (e.entity!=r.entity or roleuri is null)
+and e.version=HID
+</t>
+  </si>
+  <si>
+    <t>select e.version "Версия",e.entity "Файл элемента",e.id "ID элемента",e.enum2linkrole "enumlinkrole",roleuri "Роль",r.entity "Файл роли"
+from elements e
+left join roletypes r on r.roleuri=e.enum2linkrole and e.version=r.version
+where e.type ='enum2:enumerationSetItemType'
+and (e.entity!=r.entity or roleuri is null)
+and e.version=HID</t>
+  </si>
+  <si>
+    <t>select version "Версия",id "ID КС",STRING_AGG(distinct label,';') "Label КС",
+STRING_AGG(distinct rinok,';') "Рынок",STRING_AGG(distinct entity,';') "Файл", count(*) 
+from (select distinct * from va_assertions) va
+where version=HID
+group by version,id
+having (array_length(array_agg(distinct entity),1)&gt;1 or count(*)&gt;1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version,entity,rinok,parentrole,id,test,name
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'')||' | '||coalesce(p_test,'') test,'$'||a.name name
+from va_assertions va
+join arcs a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join arcs a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+where va.version=HID
+) zz
+where test not similar to '%'||name||'%'
+</t>
+  </si>
+  <si>
+    <t>Неиспользуемые фильтры и переменные в КС</t>
+  </si>
+  <si>
+    <t>В КС найдены элементы таксономии (показатели, оси, мемберы), которые не предусмотрены словарями</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",value 
+from va_concepts
+where value not in (select qname from elements where version=HID)
+and version=HID
+union all
+select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",dimension 
+from va_edimensions
+where dimension not in (select qname from elements where version=HID)
+and version=HID
+union all
+select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",member 
+from va_edmembers
+where member not in (select qname from elements where version=HID)
+and version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",
+coalesce(vc.value,ve.dimension) "Элемент"
+from
+(
+select fv.rinok,fv.version,fv.entity,fv.parentrole,fv.id,coalesce(l.label,fv.label) label
+from va_factvars fv
+left join locators l on l.version=fv.version and l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
+where fv.version=HID
+) fv
+join arcs a on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.arcfrom=fv.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-filter'
+left join
+(
+select fc.rinok,fc.version,fc.entity,fc.parentrole,fc.id,coalesce(l.label,fc.label) label,value
+from va_concepts fc
+left join locators l on l.version=fc.version and l.rinok=fc.rinok and l.entity=fc.entity and l.href_id=fc.id
+where fc.version=HID
+) vc on a.version=vc.version and a.rinok=vc.rinok and a.entity=vc.entity and a.arcto=vc.label
+left join
+(
+select ve.rinok,ve.version,ve.entity,ve.parentrole,ve.id,coalesce(l.label,ve.label) label,dimension
+from va_edimensions ve
+left join locators l on l.version=ve.version and l.rinok=ve.rinok and l.entity=ve.entity and l.href_id=ve.id
+where ve.version=HID
+) ve on a.version=ve.version and a.rinok=ve.rinok and a.entity=ve.entity and a.arcto=ve.label
+where coalesce(vc.value,ve.dimension) is not null
+and coalesce(vc.value,ve.dimension) not in (select qname from elements)
+</t>
+  </si>
+  <si>
+    <t>Проверка на наличие повторяющихся cf:conceptName, df:explicitDimension, df:typedDimension в формулах</t>
+  </si>
+  <si>
+    <t>with df as 
+(select replace(entity,'.xsd','-formula.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+  where tp.version=HID
+        ) ee 
+        group by entity),
+dim as 
+(
+select ve.rinok,ve.version,ve.entity,ve.parentrole,ve.id,coalesce(l.label,ve.label) label,
+dimension||'#'||member dim
+from va_edimensions ve
+left join locators l on l.version=ve.version and l.rinok=ve.rinok and l.entity=ve.entity and l.href_id=ve.id
+left join va_edmembers vm on vm.version=ve.version and vm.entity=ve.entity and vm.rinok=ve.rinok and vm.parentrole=ve.parentrole
+and vm.dimension_id=ve.id
+left join df on df.entity=ve.entity
+where dimension||'#'||member = ANY(dim_def) and ve.version=HID
+),
+fv as
+(
+select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",dim,complement
+from
+(
+select fv.rinok,fv.version,fv.entity,fv.parentrole,fv.id,coalesce(l.label,fv.label) label
+from va_factvars fv
+left join locators l on l.version=fv.version and l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
+ where fv.version=HID
+) fv
+join arcs a on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.arcfrom=fv.label and a.parentrole=fv.parentrole
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-filter' and a.complement='true'
+left join dim on dim.version=a.version and dim.rinok=a.rinok and dim.entity=a.entity and dim.label=a.arcto and dim.parentrole=fv.parentrole
+)
+select * from fv
+except
+select * from fv where dim is null</t>
+  </si>
+  <si>
+    <t>Контрольные соотношения с complement = true и дефолтным мембером в оси</t>
+  </si>
+  <si>
+    <t>select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",l.href_id "ID элемента",
+targetrole "targetrole",rt.parentrole "Роль в definition"
+from arcs a
+left join (select distinct version,parentrole from arcs where arctype='definition') rt on rt.version=a.version and rt.parentrole=a.targetrole
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+and targetrole is not null
+and rt.parentrole is null
+and a.version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select a.version "Версия",a.entity "Файл",a.rinok "Рынок",a.parentrole "URI раздела",
+count(l.href_id) "Кол-во гиперкубов"
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition'
+and arcrole='http://xbrl.org/int/dim/arcrole/all'
+and a.version=HID
+group by a.version,a.rinok,a.parentrole,a.entity
+having count(l.href_id)&gt;1
+</t>
+  </si>
+  <si>
+    <t>select distinct va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
+va.test "Выражение assertions",vg.test "Выражение generalVariable"
+from va_assertions va
+left join arcs a on a.version=va.version and a.entity=va.entity and a.rinok=va.rinok and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+left join va_generals vg on a.version=vg.version and a.entity=vg.entity and a.rinok=vg.rinok and a.parentrole=vg.parentrole and a.arcto=vg.label
+where va.version=HID and
+(
+ (length(replace(vg.test,'(','')) != length(replace(vg.test,')',''))or length(replace(vg.test,'[','')) != length(replace(vg.test,']','')))
+  or
+ (length(replace(va.test,'(','')) != length(replace(va.test,')',''))or length(replace(va.test,'[','')) != length(replace(va.test,']',''))) 
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Справочник",rinok_form "Рынок формы",table_entity,uri_razdel,e.entity "Файл",
+e.id "Открытая ось",typdename "typedName",pattern,minlength,
+substitutiongroup,case when element_id is not null then 'да' else 'нет' end "Используется в definition"
+from elements e
+left join
+(
+select id taxis,split_part(typeddomainref,'#',-1) typdename 
+from elements where typeddomainref is not null  
+ and version=HID
+) ee on ee.typdename=id
+left join 
+(
+select distinct l.href_id element_id,tp.uri_razdel,tp.entity table_entity,tp.rinok rinok_form
+from arcs a
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+and a.version=HID
+) df on df.element_id=taxis
+where
+(
+pattern is null or minlength is null
+or substitutiongroup is not null or typdename is null
+)  
+and e.version=HID
+order by rinok_form,e.rinok,e.id,case when element_id is not null then 'да' else 'нет' end
+</t>
+  </si>
+  <si>
+    <t>select distinct e.version "Версия",e.rinok "Справочник",rinok_form "Рынок формы",table_entity,uri_razdel,e.entity "Файл",e.id "Открытая ось",e.id "Домен",pattern,
 case when element_id is not null then 'да' else 'нет' end "Используется в definition"
 from elements e
-join
+left join
 (
 select id taxis,split_part(typeddomainref,'#',-1) typdename 
 from elements where typeddomainref is not null  
@@ -891,41 +1093,13 @@
 and a.version=HID
 ) df on (df.element_id=taxis or df.element_id=id)
 where e.version=HID and pattern is not null
-order by case when element_id is not null then 'да' else 'нет' end
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Справочник",rinok_form "Рынок формы",table_entity,uri_razdel,e.entity "Файл",taxis "Открытая ось",e.id "Домен",pattern,minlength,
-substitutiongroup,case when element_id is not null then 'да' else 'нет' end "Используется в definition"
-from elements e
-join
-(
-select id taxis,split_part(typeddomainref,'#',-1) typdename 
-from elements where typeddomainref is not null  
-and version=HID
-) ee on ee.typdename=id
-left join 
-(
-select distinct l.href_id element_id,tp.uri_razdel,tp.entity table_entity,tp.rinok rinok_form
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and a.version=HID
-) df on df.element_id=taxis
-where
-(
-pattern is null or minlength is null
-or substitutiongroup is not null
-) and e.version=HID
-order by rinok_form,e.rinok,e.id,case when element_id is not null then 'да' else 'нет' end
-</t>
+order by case when element_id is not null then 'да' else 'нет' end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1316,42 +1490,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="131.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="131.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1359,87 +1533,87 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>14</v>
       </c>
@@ -1447,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="163.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -1458,21 +1632,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>17</v>
       </c>
@@ -1480,487 +1654,593 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>29</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="27" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>36</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>37</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>38</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>39</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>43</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>52</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>53</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>56</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>57</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>58</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>59</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>61</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>64</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>66</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>68</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>70</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>29</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>31</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>32</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>33</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="C55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    </row>
+    <row r="56" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>71</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+    </row>
+    <row r="57" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>72</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>37</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>38</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>39</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>43</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>44</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>48</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>53</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>55</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>56</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>57</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>58</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>61</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>63</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>64</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>66</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>67</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>68</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <v>70</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>71</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>72</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>75</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>59</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C54">
-    <sortCondition ref="A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C59">
+    <sortCondition ref="A58:A59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F01DE59-A19A-4D81-9A3F-433D132FD034}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="98.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="100.140625" customWidth="1"/>
+    <col min="2" max="2" width="100.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EF7211-F5BE-490E-A999-3E88385DE66C}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="75.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A1" s="6">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAB4881-1466-46D0-AB93-EAA229224EE0}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E2424F-1B3E-4078-A5BF-F0FB05A7A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,6 @@
     <sheet name="67" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -53,28 +51,6 @@
 where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
 and a.version=HID
 </t>
-  </si>
-  <si>
-    <t>with pp as
-(
-select a.version,a.rinok,uri_table,a.parentrole uri_razdel,l.href_id element_id,preferredlabel
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='presentation' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and preferredlabel is not null
-and a.version=HID
-)
-select version "Версия",rinok "Рынок",uri_table "URI таблицы",uri_razdel "URI раздела",element_id "ID элемента",cnt_pl "Кол-во префёрдов" 
-from pp
-join 
-(
-select version,rinok,uri_table,uri_razdel,element_id,count(distinct preferredlabel) cnt_pl
-from pp
-where preferredlabel not in ('http://www.xbrl.org/2003/role/periodEndLabel','http://www.xbrl.org/2003/role/periodStartLabel')
-group by version,rinok,uri_table,uri_razdel,element_id
-having count(distinct preferredlabel)&gt;1
-) pl using (version,rinok,uri_table,uri_razdel,element_id)</t>
   </si>
   <si>
     <t>select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",
@@ -267,23 +243,6 @@
     <t>Файл .xsd точки входа найден в таксономии, но не задекларирован в META-INF\entry_point.xml</t>
   </si>
   <si>
-    <t xml:space="preserve">select a.version "Версия",a.parentrole "URI definition",rn.parentrole "URI table",a.entity "Файл",a.rinok "Рынок",e.qname "Концепт в definition",value "Концепт в table"
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-join elements e on e.id=l.href_id and e.version=l.version and abstract!='true'
-left join 
-(
-select distinct version,rinok,parentrole,value  
-from rulenodes_c
-) rn on rn.version=a.version and rn.rinok=a.rinok and (a.parentrole=rn.parentrole or a.parentrole SIMILAR TO rn.parentrole||'\D%') 
-and rn.value=e.qname
-where arctype='definition' and a.version=HID
-and arcrole='http://xbrl.org/int/dim/arcrole/domain-member'
-and value is null
-order by a.parentrole
-</t>
-  </si>
-  <si>
     <t>Показатель есть в Definition, но нет в Table</t>
   </si>
   <si>
@@ -352,18 +311,6 @@
   </si>
   <si>
     <t>Если RuleNode c merge = true, то у него не должно быть RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arcrole "Arcrole",lf.href_id "Ось",
-array_to_string(array_agg(lt.href_id),'; ') "Дефолтные мемберы" 
-from arcs a
-join locators lf on lf.entity=a.entity and lf.parentrole=a.parentrole and lf.label=a.arcfrom and lf.version=a.version
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-where arcrole='http://xbrl.org/int/dim/arcrole/dimension-default' 
-and a.version=HID
-group by a.version,a.rinok,a.entity,a.arctype,a.arcrole,lf.href_id
-having array_length(array_agg(lt.href_id),1)&gt;1</t>
   </si>
   <si>
     <t>Проверка уникальности дефолтного мембера для каждой оси в Definition</t>
@@ -390,19 +337,6 @@
 and arcrole not in ('http://xbrl.org/int/dim/arcrole/hypercube-dimension')
 and (substitutiongroup='xbrldt:dimensionItem' or substitutiongroup is null)
 and a.version=HID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
-lt.href_id "ID элемента",e.type "Тип элемента",arcrole "Arcrole"
-from arcs a
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-join elements e on e.id=lt.href_id and e.version=lt.version
-where (e.type='nonnum:domainItemType' or e.type is null) and arctype='definition'
-and arcrole not in ('http://xbrl.org/int/dim/arcrole/dimension-default',
-       'http://xbrl.org/int/dim/arcrole/dimension-domain',
-       'http://xbrl.org/int/dim/arcrole/domain-member')
-and a.version=HID   
-</t>
   </si>
   <si>
     <t>Проверка, что формул нет в базе ссылок, отличной от *-formula.xml</t>
@@ -458,9 +392,6 @@
 where an.version=HID
 and arcs_role is null
 </t>
-  </si>
-  <si>
-    <t>Запрос на вывод всех доменов с маской для ручной проверки маски.</t>
   </si>
   <si>
     <t xml:space="preserve">select r.version "Версия",r.rinok "Рынок",r.entity "Файл",r.parentrole "Раздел",abstract,merge,r.label "Рулнод",an.label "Аспектнод" 
@@ -1045,61 +976,303 @@
 )</t>
   </si>
   <si>
-    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Справочник",rinok_form "Рынок формы",table_entity,uri_razdel,e.entity "Файл",
-e.id "Открытая ось",typdename "typedName",pattern,minlength,
-substitutiongroup,case when element_id is not null then 'да' else 'нет' end "Используется в definition"
-from elements e
-left join
-(
-select id taxis,split_part(typeddomainref,'#',-1) typdename 
-from elements where typeddomainref is not null  
- and version=HID
-) ee on ee.typdename=id
-left join 
-(
-select distinct l.href_id element_id,tp.uri_razdel,tp.entity table_entity,tp.rinok rinok_form
+    <t>with def_temp as 
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' and l.version=HID
+        order by arcrole
+),
+def as 
+(
+        select distinct version,rinok,entity,parentrole,qname concept
+        from def_temp
+        where type_elem=1
+        and coalesce(abstract,'false')='false'
+), 
+rn as 
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false'
+ and rn.version=HID
+) 
+select rn.version "Версия",rn.rinok "Рынок",rn.parentrole "Роль table",def.parentrole "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def)) "Сопоставление ролей пройдено"
+from rn
+left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
+where check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def))=1 and coalesce(concept,'')=''
+order by rn.rinok</t>
+  </si>
+  <si>
+    <t>Показатель есть в Table, но нет в Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def_temp as 
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' 
+  where l.version=HID
+        order by arcrole
+),
+def as 
+(
+        select distinct version,rinok,entity,parentrole,qname concept
+        from def_temp
+        where type_elem=1
+        and coalesce(abstract,'false')='false'
+), 
+rn as 
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false' and rn.version=HID
+) 
+select rn.version "Версия",rn.rinok "Рынок",rn.parentrole "Роль table",def.parentrole "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def)) "Сопоставление ролей пройдено"
+from def
+left join rn on rn.version=def.version and rn.rinok=def.rinok and value=concept and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
+where check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def))=1 and coalesce(value,'')=''
+order by rn.rinok
+</t>
+  </si>
+  <si>
+    <t>Запрос на вывод всех элементов с маской для ручной проверки маски.</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",qname "Qname",
+case when id in (select split_part(typeddomainref,'#',-1) typdename 
+from elements where typeddomainref is not null) then 'TypedName' else 'Item' end "Элемент",
+substitutiongroup "Тип",minlength,pattern
+from elements where pattern is not null
+and version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID",qname "Qname",el_t,substitutiongroup "Тип",minlength,pattern
+from
+(
+select version,rinok,entity,id,qname,
+case when id in (select split_part(typeddomainref,'#',-1) typdename 
+from elements where typeddomainref is not null) then 'TypedName' else 'Item' end el_t,
+substitutiongroup,minlength,pattern
+from elements where pattern is not null  
+) e
+where el_t='TypedName' and version=HID
+</t>
+  </si>
+  <si>
+    <t>with pp as
+(
+select distinct a.version,a.rinok,uri_table,a.parentrole uri_razdel,l.label,l.href_id element_id,coalesce(preferredlabel,'') preferredlabel
 from arcs a
 join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
 join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+where arctype='presentation' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
 and a.version=HID
-) df on df.element_id=taxis
-where
-(
-pattern is null or minlength is null
-or substitutiongroup is not null or typdename is null
-)  
-and e.version=HID
-order by rinok_form,e.rinok,e.id,case when element_id is not null then 'да' else 'нет' end
+order by l.href_id
+)
+select version,rinok,uri_table,uri_razdel,element_id||' - '||case when preferredlabel='' then 'нет preferredlabel' else preferredlabel end element,count(preferredlabel) cnt_pl
+from pp
+where preferredlabel not in ('http://www.xbrl.org/2003/role/periodEndLabel','http://www.xbrl.org/2003/role/periodStartLabel')
+group by version,rinok,uri_table,uri_razdel,element_id||' - '||case when preferredlabel='' then 'нет preferredlabel' else preferredlabel end
+having count(preferredlabel)&gt;1</t>
+  </si>
+  <si>
+    <t>select l.version "Версия",l.rinok "Рынок",a.entity "Файл",a.parentrole "Роль",l.href_id "Axis",string_agg(ll.href_id,';') "Дефолтные мемберы"
+from locators l
+join arcs a on a.version=l.version and a.rinok=l.rinok and a.arcfrom=l.label and a.parentrole=l.parentrole
+join locators ll on a.version=ll.version and a.rinok=ll.rinok and a.arcto=ll.label and ll.parentrole=a.parentrole and ll.entity=a.entity
+where l.locfrom='definition'
+and a.arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+and l.version=HID
+group by l.version,l.rinok,a.entity,a.parentrole,l.href_id
+having count(distinct ll.href_id)&gt;1</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",closed,contextelement 
+from arcs 
+where arcrole='http://xbrl.org/int/dim/arcrole/all'
+and (coalesce(closed,'false')!='true' or contextelement !='scenario')
+and version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def as  
+(   
+select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition'
+  and l.version=HID
+        order by l.parentrole,qname
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref,type as parent_type, type,arcrole as parent_arcrole,arcrole  
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref,p.type,c.type,p.arcrole,c.arcrole
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select *
+FROM 
+recursive_hierarchy
+where type='nonnum:domainItemType'
+)
+select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",child_qname "Member",arcrole "Arcrole",parent_arcrole "Arcrole родителя"
+from dd
+where parent_arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' and arcrole!='http://xbrl.org/int/dim/arcrole/domain-member'
 </t>
   </si>
   <si>
-    <t>select distinct e.version "Версия",e.rinok "Справочник",rinok_form "Рынок формы",table_entity,uri_razdel,e.entity "Файл",e.id "Открытая ось",e.id "Домен",pattern,
-case when element_id is not null then 'да' else 'нет' end "Используется в definition"
-from elements e
-left join
-(
-select id taxis,split_part(typeddomainref,'#',-1) typdename 
-from elements where typeddomainref is not null  
-and version=HID
-) ee on ee.typdename=id
-left join 
-(
-select distinct l.href_id element_id,tp.uri_razdel,tp.entity table_entity,tp.rinok rinok_form
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and a.version=HID
-) df on (df.element_id=taxis or df.element_id=id)
-where e.version=HID and pattern is not null
-order by case when element_id is not null then 'да' else 'нет' end</t>
+    <t xml:space="preserve">with def as
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' and l.rinok!='bfo'
+  and l.version=HID
+        order by arcrole
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where (type_elem&gt;2 and typeddomainref is null or type_elem&gt;=2 and typeddomainref is not null)
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+)
+  select version,rinok,entity,concept,dimensions,array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,array_to_string(dims,';') dimensions
+        from
+        (
+        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
+  compare_arrays(dims,dims_minus) is_minus
+        from 
+        (
+        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+        from def
+        where type_elem=1
+        and abstract='false'
+        ) cc 
+        left join dd using (version,rinok,entity,parentrole)
+        left join 
+        (
+  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
+        from def d1 
+        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+  and d1.type_elem=5
+  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+  ) dd
+        left join roletypes rt on rt.roleuri=dd.parentrole
+        where is_minus=0
+  ) zz
+  group by version,rinok,entity,concept,dimensions
+  having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,concept
+</t>
+  </si>
+  <si>
+    <t>Проверка совпадения точек данных в разных ролях def</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1490,42 +1663,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="131.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="131.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1533,633 +1706,666 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="20" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="163.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    </row>
+    <row r="29" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    </row>
+    <row r="31" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    </row>
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>20</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    </row>
+    <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    </row>
+    <row r="37" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>39</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>27</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>28</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>29</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>30</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>31</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>32</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>33</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>34</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>36</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>37</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>38</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>39</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+    </row>
+    <row r="39" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <v>40</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>43</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>43</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
         <v>46</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="B42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
         <v>48</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <v>49</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="B44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
         <v>52</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>53</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>55</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>56</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    <row r="51" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>57</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>58</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>59</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="360" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+    <row r="52" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>61</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>66</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>68</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>63</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>70</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>71</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
-        <v>64</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>66</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
-        <v>68</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
-        <v>70</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
-        <v>71</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
-        <v>72</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>36</v>
+    <row r="60" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>41</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C59">
-    <sortCondition ref="A58:A59"/>
+  <sortState ref="A2:C59">
+    <sortCondition ref="A55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F01DE59-A19A-4D81-9A3F-433D132FD034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="98.6640625" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2168,24 +2374,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.109375" customWidth="1"/>
+    <col min="2" max="2" width="100.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2194,27 +2400,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EF7211-F5BE-490E-A999-3E88385DE66C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="75.44140625" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2223,24 +2429,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAB4881-1466-46D0-AB93-EAA229224EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C792E9-8EB4-4BD6-9956-8B3EE3351FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="75" sheetId="3" r:id="rId4"/>
     <sheet name="67" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -452,19 +453,6 @@
   </si>
   <si>
     <t>Проверка на то, что роль из enum2:linkrole определена исключительно на уровне словаря (для инумераторов с множественным выбором)</t>
-  </si>
-  <si>
-    <t>select e.version "Версия",e.entity "Файл элемента",e.id "ID элемента",linkrole,rl.entity "Файл definition",rl.roleuri "roleRef definition"
-from
-(
-select version,entity,id,enum2linkrole linkrole from elements e 
-where type in ('enum2:enumerationSetItemType') and version=HID
-union all
-select version,entity,id,enumlinkrole from elements e 
-where type in ('enum:enumerationItemType') and version=HID
-) e
-left join rolerefs rl on rl.roleuri=e.linkrole and rl.version=e.version
-where rolefrom='definition' and roleuri is null</t>
   </si>
   <si>
     <t>Проверка на отсутствие битых Linkrole, которые были удалены из definition</t>
@@ -1268,11 +1256,167 @@
   <si>
     <t>Проверка совпадения точек данных в разных ролях def</t>
   </si>
+  <si>
+    <t>select version "Версия",entity "Файл",rinok "Рынок",parentrole "Роль",r.id "rulenode ID", tag "Tag",count(*) "Кол-во ruleSet" 
+from rulenodes r
+join rulesets using(version,entity,rinok,parentrole)
+where rulenode_id=id and version=HID
+group by version,entity,rinok,parentrole,r.id,tag
+having count(*)&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def as  
+(   
+select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition'
+ --and l.parentrole ='http://www.cbr.ru/xbrl/nso/ins/rep/2023-03-31/tab/sr_0420154/sr_0420154_R2_P12/1'
+   and l.version=HID
+        order by l.parentrole,qname
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref,type as parent_type, type,arcrole as parent_arcrole,arcrole  
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref,p.type,c.type,p.arcrole,c.arcrole
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select *
+FROM 
+recursive_hierarchy
+where type='nonnum:domainItemType'
+)
+select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",parent_qname "Родитель",child_qname "Мембер",
+count(*) "Кол-во повторений"
+from dd
+group by version,rinok,entity,parentrole,parent_qname,child_qname
+having count(*)&gt;1
+</t>
+  </si>
+  <si>
+    <t>Проверка дублирования мемберов в рамках одного дерева (definition)</t>
+  </si>
+  <si>
+    <t>62-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def as  
+(   
+select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+ a.title,  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='presentation'
+   and l.version=HID
+        order by l.parentrole,qname
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    dd.version,dd.rinok,dd.entity,dd.parentrole,dd.targetrole,
+ dd.qname AS child_qname, 
+ dd.label as child_label,
+ dd.qname as parent_qname,
+    dd.arcfrom arcfrom_parent, 
+ dd.arcfrom arcfrom_child,
+    dd.arcto, 
+    dd.label, 
+    dd.type_elem,dd.typeddomainref,dd.type as parent_type, dd.type,dd.arcrole as parent_arcrole,dd.arcrole  
+  FROM 
+    def dd
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,
+ c.qname child_qname,
+ p.label child_label,
+    p.parent_qname,  -- Передаем "qname" родителя 
+ p.arcfrom_child arcfrom_parent,c.arcfrom arcfrom_child, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref,p.type,c.type,p.arcrole,c.arcrole
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole 
+-- where c.type='nonnum:domainItemType'
+)
+select *
+FROM 
+recursive_hierarchy
+where parent_qname!=child_qname 
+)
+select dd.version "Версия",dd.rinok "Рынок",dd.entity "Файл",dd.parentrole "Роль",parent_qname "Родитель",child_qname "Мембер",count(*)
+  from dd
+  where dd.type='nonnum:domainItemType'
+  group by dd.version,dd.rinok,dd.entity,dd.parentrole,arcfrom_parent,parent_qname,child_qname
+  having count(*)&gt;1
+</t>
+  </si>
+  <si>
+    <t>Проверка дублирования мемберов в рамках одного дерева (presentation)</t>
+  </si>
+  <si>
+    <t>62-1</t>
+  </si>
+  <si>
+    <t>with ee as
+(
+select version,entity,id,enum2linkrole linkrole 
+from elements e 
+where type in ('enum2:enumerationSetItemType') 
+union all
+select version,entity,id,enumlinkrole from elements e 
+where type in ('enum:enumerationItemType') 
+)
+select ee.entity "Файл",ee.linkrole "Linkrole",a.parentrole "Роль листа в definition" from ee
+left join arcs a on a.parentrole=ee.linkrole and ee.version=a.version
+where a.parentrole is null
+and a.version=HID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1663,20 +1807,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="131.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="131.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -1687,7 +1831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1698,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1709,7 +1853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>5</v>
       </c>
@@ -1720,18 +1864,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>7</v>
       </c>
@@ -1742,7 +1886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -1753,7 +1897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>10</v>
       </c>
@@ -1764,7 +1908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>11</v>
       </c>
@@ -1775,29 +1919,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="163.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>14</v>
       </c>
@@ -1808,29 +1952,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>17</v>
       </c>
@@ -1841,62 +1985,62 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>22</v>
       </c>
@@ -1907,73 +2051,73 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>29</v>
       </c>
@@ -1984,18 +2128,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -2006,18 +2150,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>33</v>
       </c>
@@ -2028,18 +2172,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>34</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>35</v>
       </c>
@@ -2050,18 +2194,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>36</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>37</v>
       </c>
@@ -2072,7 +2216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>38</v>
       </c>
@@ -2083,7 +2227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>39</v>
       </c>
@@ -2094,278 +2238,311 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>43</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="44" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>49</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>52</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>53</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="C48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>57</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>59</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>61</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>66</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>68</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>70</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>71</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>49</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>53</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>56</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>58</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>59</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>61</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>63</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>64</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>66</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <v>68</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>70</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>71</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
-        <v>72</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>41</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>126</v>
+    <row r="62" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C59">
-    <sortCondition ref="A55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C63">
+    <sortCondition ref="A43:A63"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="98.7109375" customWidth="1"/>
+    <col min="2" max="2" width="98.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6">
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2374,24 +2551,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="100.140625" customWidth="1"/>
+    <col min="2" max="2" width="100.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2400,24 +2577,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6">
         <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
@@ -2429,21 +2606,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="82" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6">
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>69</v>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C792E9-8EB4-4BD6-9956-8B3EE3351FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
-    <sheet name="75" sheetId="3" r:id="rId4"/>
-    <sheet name="67" sheetId="4" r:id="rId5"/>
+    <sheet name="49" sheetId="6" r:id="rId2"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
+    <sheet name="75" sheetId="3" r:id="rId5"/>
+    <sheet name="67" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -54,18 +54,6 @@
 </t>
   </si>
   <si>
-    <t>select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",
-a.parentrole "URI раздела",l.href_id "ID элемента",closed,contextelement
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-left join linkbaserefs lr on lr.version=tp.version and lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and arcrole='http://xbrl.org/int/dim/arcrole/all'
-and (closed!='true' or contextelement!='scenario')
-and a.version=HID</t>
-  </si>
-  <si>
     <t>Проверка того, что targetRole ссылается на существующую роль в Definition</t>
   </si>
   <si>
@@ -177,30 +165,6 @@
     <t>Ищет элементы, которые есть в роли definition, но нет в аналогичной роли в presentation.</t>
   </si>
   <si>
-    <t>with pp as
-(
-select distinct parentrole uri
-from arcs a
-where arctype='presentation'
-and a.version=HID
-)
-select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",l.href_id "ID элемента"
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-left join linkbaserefs lr on lr.version=tp.version and lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and a.version=HID
-and a.parentrole in (select * from pp)
-except 
-select a.version,a.rinok,uri_table,a.parentrole uri_razdel,l.href_id element_id
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='presentation' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and a.version=HID</t>
-  </si>
-  <si>
     <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",
 l.href_id "ID элемента",LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1)) "Длина ID элемента"
 from arcs a
@@ -231,9 +195,6 @@
 and version=HID</t>
   </si>
   <si>
-    <t>Проверка, что в Table Linkе df:linkrole у df:explicitDimension присутствует в Definition Linkbase</t>
-  </si>
-  <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",schemalocation,namespace from tables t
 where replace(targetnamespace,'.xsd','') not in (
  select replace(replace(pathtoxsd,'..','http:/'),'.xsd','') from entrypoints
@@ -371,28 +332,6 @@
   </si>
   <si>
     <t>Запрос на выявление ситуации повторного использования мембера в Table-слое (в дефинишн использован 1 раз)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select an.version "Версия",an.rinok "Рынок",an.entity "Файл",an.parentrole "URI",an.id "ID",r.label "Label",r.dimension,linkrole,m.axis,
-arcs_role
-from aspectnodes an
-join arcs a on a.version=an.version 
-and a.rinok=an.rinok and a.entity=an.entity and a.parentrole=an.parentrole and a.arcfrom=an.label
-and arctype='table:aspectnodefilterarc'
-join rend_edimensions r on r.version=an.version 
-and r.rinok=an.rinok and r.entity=an.entity and r.parentrole=an.parentrole and r.label=a.arcto
-join rend_edmembers m on r.version=m.version 
-and r.rinok=m.rinok and r.entity=m.entity and r.parentrole=m.parentrole and r.id=m.dimension_id
-left join
-(
-select a.version,parentrole arcs_role
-from arcs a
-where a.version=HID
-and arctype='definition'
-) rl on rl.version=an.version and arcs_role=linkrole
-where an.version=HID
-and arcs_role is null
-</t>
   </si>
   <si>
     <t xml:space="preserve">select r.version "Версия",r.rinok "Рынок",r.entity "Файл",r.parentrole "Раздел",abstract,merge,r.label "Рулнод",an.label "Аспектнод" 
@@ -458,16 +397,6 @@
     <t>Проверка на отсутствие битых Linkrole, которые были удалены из definition</t>
   </si>
   <si>
-    <t>select rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "URI",rn.id, 
-array_to_string(array_agg(rs.tag),'|') rulesets,array_to_string(array_agg(distinct rs.tag),'|') unique_rulesets
-from rulenodes rn
-join rulesets rs on rs.version=rn.version and rs.rinok=rn.rinok and rs.entity=rn.entity and rs.parentrole=rn.parentrole
-and rs.rulenode_id=rn.id
-where rn.version=HID
-group by rn.version,rn.rinok,rn.entity,rn.parentrole,rn.id
-having array_length(array_agg(rs.tag),1)!=array_length(array_agg(distinct rs.tag),1)</t>
-  </si>
-  <si>
     <t>Ищет дублирующиеся идентификаторы ruleSetов в рамках одного ruleNode.</t>
   </si>
   <si>
@@ -793,26 +722,6 @@
 where version=HID
 group by version,id
 having (array_length(array_agg(distinct entity),1)&gt;1 or count(*)&gt;1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version,entity,rinok,parentrole,id,test,name
-from
-(
-select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'')||' | '||coalesce(p_test,'') test,'$'||a.name name
-from va_assertions va
-join arcs a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
-left join 
-(
-select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
-from preconditions p
-join arcs a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
-) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
-where va.version=HID
-) zz
-where test not similar to '%'||name||'%'
-</t>
   </si>
   <si>
     <t>Неиспользуемые фильтры и переменные в КС</t>
@@ -964,97 +873,10 @@
 )</t>
   </si>
   <si>
-    <t>with def_temp as 
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' and l.version=HID
-        order by arcrole
-),
-def as 
-(
-        select distinct version,rinok,entity,parentrole,qname concept
-        from def_temp
-        where type_elem=1
-        and coalesce(abstract,'false')='false'
-), 
-rn as 
-(
-select distinct rn.version,rn.rinok,rn.parentrole,rn.value
-from rulenodes_c rn
-join elements e on e.qname=rn.value and e.version=rn.version
-where coalesce(abstract,'false')='false'
- and rn.version=HID
-) 
-select rn.version "Версия",rn.rinok "Рынок",rn.parentrole "Роль table",def.parentrole "Роль definition",value "Концепт table",concept "Концепт definition",
-check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def)) "Сопоставление ролей пройдено"
-from rn
-left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
-where check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def))=1 and coalesce(concept,'')=''
-order by rn.rinok</t>
-  </si>
-  <si>
     <t>Показатель есть в Table, но нет в Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">with def_temp as 
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' 
-  where l.version=HID
-        order by arcrole
-),
-def as 
-(
-        select distinct version,rinok,entity,parentrole,qname concept
-        from def_temp
-        where type_elem=1
-        and coalesce(abstract,'false')='false'
-), 
-rn as 
-(
-select distinct rn.version,rn.rinok,rn.parentrole,rn.value
-from rulenodes_c rn
-join elements e on e.qname=rn.value and e.version=rn.version
-where coalesce(abstract,'false')='false' and rn.version=HID
-) 
-select rn.version "Версия",rn.rinok "Рынок",rn.parentrole "Роль table",def.parentrole "Роль definition",value "Концепт table",concept "Концепт definition",
-check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def)) "Сопоставление ролей пройдено"
-from def
-left join rn on rn.version=def.version and rn.rinok=def.rinok and value=concept and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
-where check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def))=1 and coalesce(value,'')=''
-order by rn.rinok
-</t>
-  </si>
-  <si>
     <t>Запрос на вывод всех элементов с маской для ручной проверки маски.</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",qname "Qname",
-case when id in (select split_part(typeddomainref,'#',-1) typdename 
-from elements where typeddomainref is not null) then 'TypedName' else 'Item' end "Элемент",
-substitutiongroup "Тип",minlength,pattern
-from elements where pattern is not null
-and version=HID</t>
   </si>
   <si>
     <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID",qname "Qname",el_t,substitutiongroup "Тип",minlength,pattern
@@ -1410,13 +1232,303 @@
 select ee.entity "Файл",ee.linkrole "Linkrole",a.parentrole "Роль листа в definition" from ee
 left join arcs a on a.parentrole=ee.linkrole and ee.version=a.version
 where a.parentrole is null
-and a.version=HID</t>
+and ee.version=HID</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with ep as
+(
+select distinct replace(tp.entity,'.xsd','-definition.xml') entity_def,targetnamespace ep
+from tableparts tp 
+join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+where tp.version=HID
+order by 1
+),
+df as 
+(
+        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+     where l.version=HID
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by replace(entity,'.xsd','-definition.xml')
+),
+def as
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' and l.rinok='bfo' and e.rinok!='eps'
+  where l.version=HID
+        order by arcrole
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where (type_elem&gt;2 and typeddomainref is null or type_elem&gt;=2 and typeddomainref is not null)
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+)
+  select version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
+   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
+        from
+        (
+        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
+  compare_arrays(dims,dims_minus) is_minus
+        from 
+        (
+        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+        from def
+        where type_elem=1
+        and abstract='false'
+        ) cc 
+        left join dd using (version,rinok,entity,parentrole)
+        left join 
+        (
+  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
+        from def d1 
+        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+  and d1.type_elem=5
+  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+  ) dd
+  left join df on df.entity=dd.entity 
+        left join roletypes rt on rt.roleuri=dd.parentrole
+        where is_minus=0
+  ) zz
+  left join ep on ep.entity_def=zz.entity
+   group by version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
+   having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,ep,concept
+</t>
+  </si>
+  <si>
+    <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) БФО</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with tp as
+(
+select tp.*,
+DENSE_RANK() OVER (
+    PARTITION BY uri_table
+    ORDER BY uri_razdel) rn
+from tableparts tp
+ where version=HID
+order by uri_table,tp.order
+)
+select version "Версия",rinok "Рынок",entity "Файл",uri_table "URI таблицы",uri_razdel "URI раздела",tp.order "Сортировка в файле",rn "Сортировка (как должно быть)" from tp
+where uri_table in (select uri_table from tp where tp.order-tp.rn !=0)
+order by uri_table,tp.order
+</t>
+  </si>
+  <si>
+    <t>Проверка на порядок разделов в xsd таблиц</t>
+  </si>
+  <si>
+    <t>with def_temp as 
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition'
+  where l.version=HID
+        order by arcrole
+),
+def as 
+(
+        select distinct version,rinok,entity,parentrole,qname concept
+        from def_temp
+        where type_elem=1
+        and coalesce(abstract,'false')='false'
+), 
+rn as 
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false' and rn.version=HID
+) 
+select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity "Сопоставление ролей пройдено"
+from
+(
+select rn.version,rn.rinok,rn.parentrole role_table,def.parentrole role_def,value,coalesce(concept,'') concept,
+check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def)) check_similarity
+from rn
+left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
+) rr
+where check_similarity=1 and concept=''
+order by rinok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def_temp as 
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' 
+  where l.version=HID
+        order by arcrole
+),
+def as 
+(
+        select distinct version,rinok,entity,parentrole,qname concept
+        from def_temp
+        where type_elem=1
+        and coalesce(abstract,'false')='false'
+), 
+rn as 
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false' and rn.version=HID
+) 
+select def.version "Версия",def.rinok "Рынок",rn2.parentrole "Роль table",def.parentrole "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity(rn2.parentrole,(select array_agg(distinct parentrole) from def)) "Сопоставление ролей пройдено"
+from def
+left join (select distinct version,rinok,parentrole from rn) rn2 on rn2.version=def.version and rn2.rinok=def.rinok and (def.parentrole=rn2.parentrole or def.parentrole SIMILAR TO rn2.parentrole||'\D%')
+left join rn on rn.version=def.version and rn.rinok=def.rinok and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%') and value=concept
+where check_similarity(rn2.parentrole,(select array_agg(distinct parentrole) from def))=1 and coalesce(value,'')=''
+order by def.rinok,def.parentrole
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with pp as
+(
+select distinct parentrole uri
+from arcs a
+where arctype='presentation'  and a.version=HID
+)
+select a.version "Версия",a.rinok "Рынок",a.parentrole "URI раздела",l.href_id "ID элемента"
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition' and a.version=HID
+and a.parentrole in (select * from pp)
+except 
+select a.version,a.rinok,a.parentrole uri_razdel,l.href_id element_id
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='presentation'  and a.version=HID 
+</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",qname "Qname",
+case when id in (select split_part(typeddomainref,'#',-1) typdename 
+from elements where typeddomainref is not null) then 'TypedName' else 'Item' end "Элемент",
+substitutiongroup "Тип",minlength,pattern,
+length(replace(pattern,'(','')) = length(replace(pattern,')','')) "Проверка квадратных скобок",
+length(replace(pattern,'[','')) = length(replace(pattern,']','')) "Проверка круглых скобок"
+from elements where pattern is not null
+and version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version,entity,rinok,parentrole,id,test,precond,name
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name
+from va_assertions va
+join arcs a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join arcs a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+where va.version=HID
+) zz
+where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%'
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1473,7 +1585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1481,7 +1593,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1489,11 +1600,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1807,826 +1922,834 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="131.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="131.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="163.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="21" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>112</v>
+    <row r="22" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>91</v>
+    <row r="23" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>92</v>
+    <row r="24" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>86</v>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>29</v>
-      </c>
-      <c r="B28" s="5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>96</v>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>97</v>
+    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>33</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>33</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>34</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>34</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>113</v>
+    </row>
+    <row r="33" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>36</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <v>35</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>36</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>84</v>
+    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>37</v>
-      </c>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>39</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>38</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>43</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>46</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>53</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>39</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>41</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+    <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>61</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>66</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>68</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>70</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>71</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>44</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>48</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="C60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>72</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C62">
+    <sortCondition ref="A61"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="125.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
         <v>49</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>52</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>55</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>56</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>57</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>58</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
-        <v>59</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>59</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="360" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
-        <v>61</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
-        <v>63</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
-        <v>64</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
-        <v>66</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
-        <v>68</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
-        <v>70</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
-        <v>71</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
-        <v>72</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>131</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C63">
-    <sortCondition ref="A43:A63"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="98.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="100.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="98.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
-        <v>54</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="100.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="75.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="49" sheetId="6" r:id="rId2"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
-    <sheet name="75" sheetId="3" r:id="rId5"/>
-    <sheet name="67" sheetId="4" r:id="rId6"/>
+    <sheet name="54" sheetId="9" r:id="rId2"/>
+    <sheet name="49" sheetId="6" r:id="rId3"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet name="75" sheetId="3" r:id="rId6"/>
+    <sheet name="67" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,29 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
 where roleuri ~ ' ' or roleuri ~ ' '
 and version=HID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",l.href_id "ID элемента"
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='presentation' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and a.version=HID
-except 
-select a.version,a.rinok,uri_table,a.parentrole uri_razdel,l.href_id element_id
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-left join linkbaserefs lr on lr.version=tp.version and lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and a.version=HID
-</t>
   </si>
   <si>
     <t>Проверка того, что targetRole ссылается на существующую роль в Definition</t>
@@ -183,22 +167,12 @@
     <t>Проверка, что каждый ID контрольного соотношения уникален.</t>
   </si>
   <si>
-    <t>в наименовании каждой роли в таксономии (Role definition) хотя бы один раз присутствует цифровой код ОКУД – 7 цифр</t>
-  </si>
-  <si>
     <t>Несоответствие наименования (name) и иднтификатора (id) элемента</t>
   </si>
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",name 
 from elements 
 where substr(id,length(split_part(id,'_',1))+2,length(id))!=name
-and version=HID</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",schemalocation,namespace from tables t
-where replace(targetnamespace,'.xsd','') not in (
- select replace(replace(pathtoxsd,'..','http:/'),'.xsd','') from entrypoints
-) and entity not like '%support%'
 and version=HID</t>
   </si>
   <si>
@@ -237,11 +211,6 @@
     <t>Проверка существования файлов PathToXsd из META-INF\entry_point.xml</t>
   </si>
   <si>
-    <t>select * from entrypoints
-where is_exist = False 
-and version=HID</t>
-  </si>
-  <si>
     <t>Проверка существования файлов entryPointDocument из META-INF\taxonomyPackage.xml</t>
   </si>
   <si>
@@ -254,13 +223,6 @@
   </si>
   <si>
     <t>Файл .xsd точки входа найден в таксономии, но не задекларирован в META-INF\taxonomyPackage.xml</t>
-  </si>
-  <si>
-    <t>select targetnamespace,version "Версия",rinok "Рынок",entity "Файл",schemalocation,namespace
-from tables t
-where targetnamespace not in (
-select replace(ep_href,'.xsd','') from taxpackage
-) and version=HID</t>
   </si>
   <si>
     <t>select rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "URI", rs.tag "ruleset"
@@ -728,22 +690,6 @@
   </si>
   <si>
     <t>В КС найдены элементы таксономии (показатели, оси, мемберы), которые не предусмотрены словарями</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",value 
-from va_concepts
-where value not in (select qname from elements where version=HID)
-and version=HID
-union all
-select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",dimension 
-from va_edimensions
-where dimension not in (select qname from elements where version=HID)
-and version=HID
-union all
-select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",member 
-from va_edmembers
-where member not in (select qname from elements where version=HID)
-and version=HID</t>
   </si>
   <si>
     <t xml:space="preserve">select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",
@@ -982,101 +928,6 @@
 from dd
 where parent_arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' and arcrole!='http://xbrl.org/int/dim/arcrole/domain-member'
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">with def as
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' and l.rinok!='bfo'
-  and l.version=HID
-        order by arcrole
-),
-dd as
-(
-WITH RECURSIVE recursive_hierarchy AS ( 
-  SELECT 
-    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
-    qname AS parent_qname,  -- Сохраняем "qname" родителя 
-    arcfrom, 
-    arcto, 
-    label, 
-    type_elem,typeddomainref
-  FROM 
-    def z
-  WHERE 
-    type_elem = 2  -- Начинаем с элементов типа 2 
-  UNION ALL 
-  SELECT 
-    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
-    p.parent_qname,  -- Передаем "qname" родителя 
-    c.arcfrom, 
-    c.arcto, 
-    c.label, 
-    c.type_elem,c.typeddomainref
-  FROM 
-    def c 
-  INNER JOIN 
-    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
-  WHERE 
-    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
-)
-select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
- from
- (
-select version,rinok,entity,parentrole,targetrole,parent_qname dim,
-string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
-FROM 
-recursive_hierarchy
-where (type_elem&gt;2 and typeddomainref is null or type_elem&gt;=2 and typeddomainref is not null)
-group by version,rinok,entity,parentrole,targetrole,parent_qname 
-  )dd
-group by version,rinok,entity,parentrole  
-)
-  select version,rinok,entity,concept,dimensions,array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
-  from
-  (
-    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,array_to_string(dims,';') dimensions
-        from
-        (
-        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
-  compare_arrays(dims,dims_minus) is_minus
-        from 
-        (
-        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
-        from def
-        where type_elem=1
-        and abstract='false'
-        ) cc 
-        left join dd using (version,rinok,entity,parentrole)
-        left join 
-        (
-  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
-        from def d1 
-        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
-  and d1.type_elem=5
-  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
-        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
-  ) dd
-        left join roletypes rt on rt.roleuri=dd.parentrole
-        where is_minus=0
-  ) zz
-  group by version,rinok,entity,concept,dimensions
-  having array_length(array_agg(distinct parentrole),1)&gt;1
-        order by version,rinok,concept
-</t>
-  </si>
-  <si>
-    <t>Проверка совпадения точек данных в разных ролях def</t>
   </si>
   <si>
     <t>select version "Версия",entity "Файл",rinok "Рынок",parentrole "Роль",r.id "rulenode ID", tag "Tag",count(*) "Кол-во ruleSet" 
@@ -1238,7 +1089,153 @@
     <t>42</t>
   </si>
   <si>
-    <t xml:space="preserve">with ep as
+    <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) БФО</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with tp as
+(
+select tp.*,
+DENSE_RANK() OVER (
+    PARTITION BY uri_table
+    ORDER BY uri_razdel) rn
+from tableparts tp
+ where version=HID
+order by uri_table,tp.order
+)
+select version "Версия",rinok "Рынок",entity "Файл",uri_table "URI таблицы",uri_razdel "URI раздела",tp.order "Сортировка в файле",rn "Сортировка (как должно быть)" from tp
+where uri_table in (select uri_table from tp where tp.order-tp.rn !=0)
+order by uri_table,tp.order
+</t>
+  </si>
+  <si>
+    <t>Проверка на порядок разделов в xsd таблиц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with pp as
+(
+select distinct parentrole uri
+from arcs a
+where arctype='presentation'  and a.version=HID
+)
+select a.version "Версия",a.rinok "Рынок",a.parentrole "URI раздела",l.href_id "ID элемента"
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition' and a.version=HID
+and a.parentrole in (select * from pp)
+except 
+select a.version,a.rinok,a.parentrole uri_razdel,l.href_id element_id
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='presentation'  and a.version=HID 
+</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",qname "Qname",
+case when id in (select split_part(typeddomainref,'#',-1) typdename 
+from elements where typeddomainref is not null) then 'TypedName' else 'Item' end "Элемент",
+substitutiongroup "Тип",minlength,pattern,
+length(replace(pattern,'(','')) = length(replace(pattern,')','')) "Проверка квадратных скобок",
+length(replace(pattern,'[','')) = length(replace(pattern,']','')) "Проверка круглых скобок"
+from elements where pattern is not null
+and version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version,entity,rinok,parentrole,id,test,precond,name
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name
+from va_assertions va
+join arcs a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join arcs a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+where va.version=HID
+) zz
+where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%'
+</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>select distinct version,split_part(pathtoxsd,'/',-1) entity_tables,'объявлена но физически не существует' from entrypoints
+where is_exist = False 
+and version=HID
+union all
+select distinct t.version,t.entity,'не объявлена в entrypoints' from tables t
+left join (select version,pathtoxsd,split_part(pathtoxsd,'/',-1) entity_tables from entrypoints) ep on ep.entity_tables=t.entity
+where ep.entity_tables is null and entity not similar to '%support%'
+and t.version=HID</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",targetnamespace
+from (select distinct version,rinok,entity,targetnamespace from tables
+ order by 1,2,3) t
+where replace(targetnamespace,'.xsd','') not in (
+ select replace(replace(pathtoxsd,'..','http:/'),'.xsd','') from entrypoints
+) and entity not like '%support%'
+and t.version=HID</t>
+  </si>
+  <si>
+    <t>select targetnamespace,version "Версия",rinok "Рынок",entity "Файл"
+from ((select distinct version,rinok,entity,targetnamespace from tables
+ order by 1,2,3)) t
+where targetnamespace not in (
+select replace(ep_href,'.xsd','') from taxpackage
+) and t.version=HID</t>
+  </si>
+  <si>
+    <t>select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",l.href_id "ID элемента"
+from arcs a
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='presentation' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+and a.version=HID
+except 
+select a.version,a.rinok,uri_table,a.parentrole uri_razdel,l.href_id element_id
+from arcs a
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+left join linkbaserefs lr on lr.version=tp.version and lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+and a.version=HID
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t>в наименовании каждой роли в таксономии хотя бы один раз присутствует цифровой код ОКУД – 7 цифр</t>
+  </si>
+  <si>
+    <t>select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",value 
+from va_concepts
+where value not in (select qname from elements 
+     where version=HID
+       )
+and version=HID
+union all
+select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",dimension 
+from va_edimensions
+where dimension not in (select qname from elements 
+      where version=HID
+        )
+and version=HID
+union all
+select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",member 
+from va_edmembers
+where member not in (select qname from elements 
+      where version=HID
+     )
+and version=HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with ep as materialized
 (
 select distinct replace(tp.entity,'.xsd','-definition.xml') entity_def,targetnamespace ep
 from tableparts tp 
@@ -1366,32 +1363,39 @@
 </t>
   </si>
   <si>
-    <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) БФО</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with tp as
-(
-select tp.*,
-DENSE_RANK() OVER (
-    PARTITION BY uri_table
-    ORDER BY uri_razdel) rn
-from tableparts tp
- where version=HID
-order by uri_table,tp.order
-)
-select version "Версия",rinok "Рынок",entity "Файл",uri_table "URI таблицы",uri_razdel "URI раздела",tp.order "Сортировка в файле",rn "Сортировка (как должно быть)" from tp
-where uri_table in (select uri_table from tp where tp.order-tp.rn !=0)
-order by uri_table,tp.order
-</t>
-  </si>
-  <si>
-    <t>Проверка на порядок разделов в xsd таблиц</t>
-  </si>
-  <si>
-    <t>with def_temp as 
+    <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) Надзорка</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with 
+df as 
+(
+        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+--      where l.version=HID
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by replace(entity,'.xsd','-definition.xml')
+),
+def as not materialized
 (
  select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
          case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
@@ -1404,38 +1408,88 @@
         from locators l
         join elements e on e.id=href_id and e.version=l.version
         join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition'
-  where l.version=HID
+        and a.arctype='definition' and l.rinok!='bfo'
+--   where l.version=HID
         order by arcrole
 ),
-def as 
-(
-        select distinct version,rinok,entity,parentrole,qname concept
-        from def_temp
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where (type_elem&gt;2 and typeddomainref is null or type_elem&gt;=2 and typeddomainref is not null)
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+)
+  select version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
+   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
+        from
+        (
+        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
+  compare_arrays(dims,dims_minus) is_minus
+        from 
+        (
+        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+        from def
         where type_elem=1
-        and coalesce(abstract,'false')='false'
-), 
-rn as 
-(
-select distinct rn.version,rn.rinok,rn.parentrole,rn.value
-from rulenodes_c rn
-join elements e on e.qname=rn.value and e.version=rn.version
-where coalesce(abstract,'false')='false' and rn.version=HID
-) 
-select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
-check_similarity "Сопоставление ролей пройдено"
-from
-(
-select rn.version,rn.rinok,rn.parentrole role_table,def.parentrole role_def,value,coalesce(concept,'') concept,
-check_similarity(rn.parentrole,(select array_agg(distinct parentrole) from def)) check_similarity
-from rn
-left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
-) rr
-where check_similarity=1 and concept=''
-order by rinok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with def_temp as 
+        and abstract='false'
+        ) cc 
+        left join dd using (version,rinok,entity,parentrole)
+        left join 
+        (
+  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
+        from def d1 
+        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+  and d1.type_elem=5
+  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+  ) dd
+  left join df on df.entity=dd.entity 
+        left join roletypes rt on rt.roleuri=dd.parentrole
+        where is_minus=0
+  ) zz
+   group by version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
+   having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,entity,concept
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def_temp as not materialized
 (
  select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
          case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
@@ -1476,53 +1530,50 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">with pp as
-(
-select distinct parentrole uri
-from arcs a
-where arctype='presentation'  and a.version=HID
-)
-select a.version "Версия",a.rinok "Рынок",a.parentrole "URI раздела",l.href_id "ID элемента"
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and a.version=HID
-and a.parentrole in (select * from pp)
-except 
-select a.version,a.rinok,a.parentrole uri_razdel,l.href_id element_id
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='presentation'  and a.version=HID 
-</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",qname "Qname",
-case when id in (select split_part(typeddomainref,'#',-1) typdename 
-from elements where typeddomainref is not null) then 'TypedName' else 'Item' end "Элемент",
-substitutiongroup "Тип",minlength,pattern,
-length(replace(pattern,'(','')) = length(replace(pattern,')','')) "Проверка квадратных скобок",
-length(replace(pattern,'[','')) = length(replace(pattern,']','')) "Проверка круглых скобок"
-from elements where pattern is not null
-and version=HID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version,entity,rinok,parentrole,id,test,precond,name
+    <t>with def_temp as not materialized
+(
+ select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+  left join roles_table_definition rtd on rtd.role_definition=l.parentrole
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition'
+  where l.version=HID
+        order by arcrole
+),
+def as 
+(
+        select distinct version,rinok,entity,parentrole,role_table,qname concept
+        from def_temp
+        where type_elem=1
+        and coalesce(abstract,'false')='false'
+), 
+rn as 
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false' 
+and rn.version=HID
+) 
+select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity "Сопоставление ролей пройдено"
 from
 (
-select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name
-from va_assertions va
-join arcs a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
-left join 
-(
-select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
-from preconditions p
-join arcs a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
-) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
-where va.version=HID
-) zz
-where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%'
-</t>
+select rn.version,rn.rinok,rn.parentrole role_table,def.parentrole role_def,value,coalesce(concept,'') concept,
+check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
+from rn
+left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (coalesce(role_table,def.parentrole)=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
+) rr
+where concept=''
+order by rinok</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1609,6 +1660,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1923,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,13 +1990,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1952,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1966,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1974,10 +2026,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -1985,10 +2037,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -1996,32 +2048,32 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -2029,10 +2081,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2040,21 +2092,21 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>13</v>
+      <c r="A11" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,10 +2114,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -2073,10 +2125,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -2084,10 +2136,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2095,10 +2147,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2106,10 +2158,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2117,10 +2169,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2128,10 +2180,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,10 +2191,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -2150,10 +2202,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2161,10 +2213,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="285" x14ac:dyDescent="0.25">
@@ -2172,10 +2224,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -2183,10 +2235,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -2194,10 +2246,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="315" x14ac:dyDescent="0.25">
@@ -2205,10 +2257,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2216,10 +2268,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2227,10 +2279,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2238,10 +2290,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2249,10 +2301,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -2260,10 +2312,10 @@
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2271,10 +2323,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -2282,10 +2334,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2293,10 +2345,10 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -2304,10 +2356,10 @@
         <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2315,10 +2367,10 @@
         <v>37</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2326,10 +2378,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="285" x14ac:dyDescent="0.25">
@@ -2337,32 +2389,32 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -2370,10 +2422,10 @@
         <v>43</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2381,21 +2433,21 @@
         <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="300" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -2403,10 +2455,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -2414,10 +2466,10 @@
         <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -2425,150 +2477,150 @@
         <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>57</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>58</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>56</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>61</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>64</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>66</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="C56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>61</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="1" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>68</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>63</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>64</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <v>66</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>30</v>
@@ -2576,46 +2628,35 @@
     </row>
     <row r="59" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>72</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>71</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <v>72</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>34</v>
+    <row r="61" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2631,8 +2672,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="86.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,10 +2715,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2673,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2691,36 +2761,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="75.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
         <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2738,6 +2779,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2746,10 +2816,10 @@
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33675" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t xml:space="preserve">Запрос на выявление ситуации, когда к одному enumerator-у прикреплено 2 ссылки на атрибуты enum и enum2 </t>
-  </si>
-  <si>
-    <t>Для открытых осей (Taxis): Проверка на наличие типа данных домена, либо наличия маски.</t>
   </si>
   <si>
     <t>Запрос на выявление ситуации повторного использования мембера в Table-слое (в дефинишн использован 1 раз)</t>
@@ -614,17 +611,6 @@
 from va_assertions 
 where entity similar to '%formula\d.xml'
 and version=HID</t>
-  </si>
-  <si>
-    <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
-max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) "Сообщение"
-from va_assertions va
-left join locators l on l.version=va.version and l.entity=va.entity and l.rinok=va.rinok and l.href_id=va.id
-left join arcs a on a.version=va.version and a.entity=va.entity and a.rinok=va.rinok and a.arcfrom=coalesce(l.label,va.label)
-left join messages m on a.version=m.version and a.rinok=m.rinok and a.entity=m.entity and a.parentrole=m.parentrole and m.label=a.arcto and m.lang='ru'
-where va.version=HID
-group by va.version ,va.rinok,va.entity,va.parentrole,va.id
-having max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) is null</t>
   </si>
   <si>
     <t>with ll as 
@@ -823,19 +809,6 @@
   </si>
   <si>
     <t>Запрос на вывод всех элементов с маской для ручной проверки маски.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID",qname "Qname",el_t,substitutiongroup "Тип",minlength,pattern
-from
-(
-select version,rinok,entity,id,qname,
-case when id in (select split_part(typeddomainref,'#',-1) typdename 
-from elements where typeddomainref is not null) then 'TypedName' else 'Item' end el_t,
-substitutiongroup,minlength,pattern
-from elements where pattern is not null  
-) e
-where el_t='TypedName' and version=HID
-</t>
   </si>
   <si>
     <t>with pp as
@@ -999,9 +972,6 @@
   </si>
   <si>
     <t>Проверка дублирования мемберов в рамках одного дерева (definition)</t>
-  </si>
-  <si>
-    <t>62-2</t>
   </si>
   <si>
     <t xml:space="preserve">with def as  
@@ -1068,9 +1038,6 @@
     <t>Проверка дублирования мемберов в рамках одного дерева (presentation)</t>
   </si>
   <si>
-    <t>62-1</t>
-  </si>
-  <si>
     <t>with ee as
 (
 select version,entity,id,enum2linkrole linkrole 
@@ -1131,16 +1098,6 @@
 join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
 where arctype='presentation'  and a.version=HID 
 </t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",qname "Qname",
-case when id in (select split_part(typeddomainref,'#',-1) typdename 
-from elements where typeddomainref is not null) then 'TypedName' else 'Item' end "Элемент",
-substitutiongroup "Тип",minlength,pattern,
-length(replace(pattern,'(','')) = length(replace(pattern,')','')) "Проверка квадратных скобок",
-length(replace(pattern,'[','')) = length(replace(pattern,']','')) "Проверка круглых скобок"
-from elements where pattern is not null
-and version=HID</t>
   </si>
   <si>
     <t xml:space="preserve">select version,entity,rinok,parentrole,id,test,precond,name
@@ -1574,6 +1531,153 @@
 ) rr
 where concept=''
 order by rinok</t>
+  </si>
+  <si>
+    <t>62.1</t>
+  </si>
+  <si>
+    <t>62.2</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def as not materialized 
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' --and l.rinok='ins'
+  and l.version=HID
+        order by l.version,l.rinok,l.entity,l.parentrole
+),
+rn as 
+(
+ select distinct version,rinok,entity,parentrole,ed.dimension,linkrole 
+ from rend_edimensions ed 
+ join rend_edmembers em using (version,rinok,entity,parentrole)
+ where em.dimension_id=ed.id 
+),
+res as 
+(
+select distinct def.version "Версия",def.rinok "Рынок",def.entity "Файл",def.parentrole "Роль definition",rn.parentrole "Роль table",case when def.targetrole!=rn.linkrole then 0 else 1 end "Совпадают targetrole и linkrole",
+def.targetrole "targetrole definition",rn.linkrole "linkrole table",
+def.qname "Ось definition",rn.dimension "Ось table",
+a.entity "Файл с описанием targetrole"
+from def 
+left join (select distinct version,parentrole,entity from arcs order by parentrole) a on a.parentrole=def.targetrole and a.version=def.version
+left join rn on rn.version=def.version and rn.rinok=def.rinok and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%') and rn.dimension=def.qname
+where type_elem=2 
+and def.targetrole is not null
+order by def.version,def.rinok,def.entity,def.parentrole,def.qname,rn.parentrole
+)
+select * from res
+where "Роль definition" in (select distinct "Роль definition" from res where "Совпадают targetrole и linkrole"=0)
+</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with df as 
+(select replace(entity,'.xsd','-formula.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+--   where tp.version=HID
+        ) ee 
+        group by entity),
+dim as 
+(
+select ve.rinok,ve.version,ve.entity,ve.parentrole,ve.id,coalesce(l.label,ve.label) label,
+dimension||'#'||member dim
+from va_edimensions ve
+left join locators l on l.version=ve.version and l.rinok=ve.rinok and l.entity=ve.entity and l.href_id=ve.id
+left join va_edmembers vm on vm.version=ve.version and vm.entity=ve.entity and vm.rinok=ve.rinok and vm.parentrole=ve.parentrole
+and vm.dimension_id=ve.id
+left join df on df.entity=ve.entity
+where dimension||'#'||member = ANY(dim_def) 
+--  and ve.version=HID
+),
+fv as
+(
+select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",dim,complement
+from
+(
+select fv.rinok,fv.version,fv.entity,fv.parentrole,fv.id,coalesce(l.label,fv.label) label
+from va_factvars fv
+left join locators l on l.version=fv.version and l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
+--  where fv.version=HID
+) fv
+join arcs a on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.arcfrom=fv.label and a.parentrole=fv.parentrole
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-filter' and a.complement='true'
+left join dim on dim.version=a.version and dim.rinok=a.rinok and dim.entity=a.entity and dim.label=a.arcto and dim.parentrole=fv.parentrole
+)
+select * from fv where coalesce(dim,'1') != '1'
+</t>
+  </si>
+  <si>
+    <t>Различия в targetrole в definition с linkrole в table.</t>
+  </si>
+  <si>
+    <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
+max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) "Сообщение"
+from (select * from va_assertions order by version,entity,rinok,parentrole) va
+left join (select * from locators order by version,entity,rinok,parentrole) l on l.version=va.version and l.entity=va.entity and l.rinok=va.rinok and l.href_id=va.id
+left join (select * from arcs order by version,entity,rinok,parentrole) a on a.version=va.version and a.entity=va.entity and a.rinok=va.rinok and a.arcfrom=coalesce(l.label,va.label)
+left join (select * from messages order by version,entity,rinok,parentrole) m on a.version=m.version and a.rinok=m.rinok and a.entity=m.entity and a.parentrole=m.parentrole and m.label=a.arcto and m.lang='ru'
+where va.version=HID
+group by va.version ,va.rinok,va.entity,va.parentrole,va.id
+having max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) is null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл элемента с паттерном",dd.entity "Файл таблицы",uri_razdel "URI definition",
+taxis "Ось (для typedName)",elem "Элемент с паттерном",substitutiongroup "Тип",e.minlength,e.pattern,round_skobka "Баланс круглых скобок",square_skobka "Баланс квадратных скобок"
+from
+(
+select coalesce(ee.id,e.id) all_id,e.version,e.rinok,e.entity,ee.qname taxis,e.qname elem,substitutiongroup,e.minlength,e.pattern,round_skobka,square_skobka
+from
+(
+select version,rinok,entity,id,qname,
+substitutiongroup "Тип",minlength,pattern,
+length(replace(pattern,'(','')) = length(replace(pattern,')','')) round_skobka,
+length(replace(pattern,'[','')) = length(replace(pattern,']','')) square_skobka
+from elements where pattern is not null
+) e 
+left join elements ee on e.id=split_part(ee.typeddomainref,'#',-1) and e.version=ee.version
+) e
+left join 
+(
+select a.version,a.entity,a.rinok,a.parentrole uri_razdel,l.href_id 
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition'
+) dd on dd.version=e.version and dd.href_id=e.all_id
+order by uri_razdel nulls last,taxis nulls last
+</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -2037,7 +2141,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -2059,7 +2163,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -2070,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -2092,18 +2196,18 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>34</v>
@@ -2114,7 +2218,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2125,7 +2229,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2136,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>48</v>
@@ -2147,7 +2251,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -2158,7 +2262,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2169,7 +2273,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>52</v>
@@ -2180,7 +2284,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>49</v>
@@ -2191,7 +2295,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>50</v>
@@ -2213,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -2224,7 +2328,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -2235,7 +2339,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
@@ -2246,10 +2350,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="315" x14ac:dyDescent="0.25">
@@ -2257,7 +2361,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -2268,7 +2372,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>54</v>
@@ -2285,12 +2389,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -2312,7 +2416,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -2334,7 +2438,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
@@ -2356,7 +2460,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>20</v>
@@ -2389,32 +2493,32 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -2433,7 +2537,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>57</v>
@@ -2444,10 +2548,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -2455,10 +2559,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -2466,10 +2570,10 @@
         <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -2477,120 +2581,120 @@
         <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>55</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    <row r="48" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>56</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>57</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
-        <v>58</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>59</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>61</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>61</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>63</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2620,7 +2724,7 @@
         <v>70</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>30</v>
@@ -2634,7 +2738,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2650,13 +2754,24 @@
     </row>
     <row r="61" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2788,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,10 +2801,10 @@
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2715,10 +2830,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2876,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2787,7 +2902,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -2816,10 +2931,10 @@
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -1079,25 +1079,6 @@
   </si>
   <si>
     <t>Проверка на порядок разделов в xsd таблиц</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with pp as
-(
-select distinct parentrole uri
-from arcs a
-where arctype='presentation'  and a.version=HID
-)
-select a.version "Версия",a.rinok "Рынок",a.parentrole "URI раздела",l.href_id "ID элемента"
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and a.version=HID
-and a.parentrole in (select * from pp)
-except 
-select a.version,a.rinok,a.parentrole uri_razdel,l.href_id element_id
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='presentation'  and a.version=HID 
-</t>
   </si>
   <si>
     <t xml:space="preserve">select version,entity,rinok,parentrole,id,test,precond,name
@@ -1677,6 +1658,45 @@
 where arctype='definition'
 ) dd on dd.version=e.version and dd.href_id=e.all_id
 order by uri_razdel nulls last,taxis nulls last
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with pp_t as
+(
+select distinct parentrole uri
+from arcs a
+where arctype='presentation'  --and a.version=HID
+),
+dd as (
+select a.version,a.entity,a.rinok,a.parentrole,l.href_id
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition' and a.version=HID
+and a.parentrole in (select * from pp_t)
+ order by a.version,a.entity,a.rinok,a.parentrole
+),
+pp as
+(
+select a.version,a.entity,a.rinok,a.parentrole,l.href_id 
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='presentation'  and a.version=HID 
+ order by a.version,a.entity,a.rinok,a.parentrole
+) 
+select version "Версия",max(rinok_def) "Рынок роли def",max(rinok_pres) "Рынок роли pres",parentrole "Роль",href_id "Элемент",max(def) "Файл def",max(pres) "Файл pres"
+from
+(
+select version,dd.rinok rinok_def,null rinok_pres,parentrole,href_id,dd.entity def,null pres
+from dd
+left join pp using (version,rinok,parentrole,href_id)
+where pp.entity is null
+union all
+select version,null,pp.rinok,parentrole,href_id,null,pp.entity 
+from pp
+left join dd using (version,rinok,parentrole,href_id)
+where dd.entity is null
+) dp 
+group by version,parentrole,href_id
 </t>
   </si>
 </sst>
@@ -2081,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -2163,7 +2183,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -2174,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -2196,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>100</v>
@@ -2204,10 +2224,10 @@
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>34</v>
@@ -2218,7 +2238,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2394,7 +2414,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -2493,7 +2513,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>91</v>
@@ -2501,13 +2521,13 @@
     </row>
     <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2515,7 +2535,7 @@
         <v>112</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>113</v>
@@ -2548,7 +2568,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>92</v>
@@ -2589,10 +2609,10 @@
     </row>
     <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>96</v>
@@ -2653,12 +2673,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>61</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>27</v>
@@ -2666,7 +2686,7 @@
     </row>
     <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>107</v>
@@ -2677,7 +2697,7 @@
     </row>
     <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>109</v>
@@ -2691,7 +2711,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>101</v>
@@ -2738,7 +2758,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2765,13 +2785,13 @@
     </row>
     <row r="62" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -147,18 +147,6 @@
   </si>
   <si>
     <t>Ищет элементы, которые есть в роли definition, но нет в аналогичной роли в presentation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",
-l.href_id "ID элемента",LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1)) "Длина ID элемента"
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-left join linkbaserefs lr on lr.version=tp.version and lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and a.version=HID
-and LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1))&gt;64
-</t>
   </si>
   <si>
     <t>Автоматическая проверка длины кода элементов, которые используются в слое definition. Максимум - 64 символа без префикса.</t>
@@ -1697,6 +1685,19 @@
 where dd.entity is null
 ) dp 
 group by version,parentrole,href_id
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",
+l.href_id "ID элемента",LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1)) "Длина ID элемента",text "shortLabel"
+from arcs a
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+left join elements_labels es on es.id=l.href_id and es.version=l.version and es.role='http://www.cbr.ru/xbrl/nso/npf/dic/ShortLabel'
+left join linkbaserefs lr on lr.version=tp.version and lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+and a.version=HID
+and LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1))&gt;64
 </t>
   </si>
 </sst>
@@ -2101,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,13 +2115,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2128,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2150,10 +2151,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -2161,10 +2162,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -2172,10 +2173,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -2183,10 +2184,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2194,10 +2195,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -2205,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2216,21 +2217,21 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,7 +2239,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2249,7 +2250,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2260,10 +2261,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2271,7 +2272,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -2282,7 +2283,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2293,10 +2294,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2304,10 +2305,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2315,10 +2316,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -2326,10 +2327,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2337,7 +2338,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -2348,7 +2349,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -2359,7 +2360,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
@@ -2370,10 +2371,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="315" x14ac:dyDescent="0.25">
@@ -2381,7 +2382,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -2392,10 +2393,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2414,7 +2415,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -2436,7 +2437,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -2458,7 +2459,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
@@ -2469,10 +2470,10 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -2480,7 +2481,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>20</v>
@@ -2513,32 +2514,32 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -2557,10 +2558,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="300" x14ac:dyDescent="0.25">
@@ -2568,10 +2569,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -2579,10 +2580,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -2590,10 +2591,10 @@
         <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -2601,21 +2602,21 @@
         <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -2623,10 +2624,10 @@
         <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="315" x14ac:dyDescent="0.25">
@@ -2634,10 +2635,10 @@
         <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -2645,10 +2646,10 @@
         <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2656,10 +2657,10 @@
         <v>58</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2667,10 +2668,10 @@
         <v>59</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2678,7 +2679,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>27</v>
@@ -2686,24 +2687,24 @@
     </row>
     <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2711,10 +2712,10 @@
         <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2722,21 +2723,21 @@
         <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>68</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2744,10 +2745,10 @@
         <v>70</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2755,10 +2756,10 @@
         <v>71</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2766,32 +2767,32 @@
         <v>72</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2821,10 +2822,10 @@
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2850,10 +2851,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2896,7 +2897,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2922,10 +2923,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2951,10 +2952,10 @@
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -1688,12 +1688,137 @@
 </t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Проверка наличия схемы из support_all в точках входа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select ss.version "Версия",ss.entity "Файл support",ss.rinok "Рынок",ss.chema "Схема из support",ss2.entity "Файл схемы из точек входа",ss2.chema "Схема из точек входа" 
+from 
+(select version,entity,rinok,split_part(schemalocation,'/',-1) chema from tables where entity like '%support%' and version=HID)ss
+left join 
+(select version,entity,rinok,split_part(schemalocation,'/',-1) chema from tables where entity not like '%support%'  and version=HID) ss2
+on ss2.version=ss.version and ss2.rinok=ss.rinok and ss2.chema=ss.chema
+where ss2.chema is null
+</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version,rinok,entity,tag_from,tag
+from
+(
+select version,rinok,entity,tag_from,unnest(tags::text[]) tag 
+from tabletags where version=HID
+order by version,rinok,tag_from,entity
+) tt
+where tag not in ('acf:aspect',
+'acf:aspectcover',
+'arcroleref',
+'asf:aspect',
+'asf:aspectcover',
+'asf:dimension',
+'asf:excludedimension',
+'asf:qname',
+'bf:andfilter',
+'bf:orfilter',
+'cf:concept',
+'cf:conceptname',
+'cf:conceptperiodtype',
+'cf:qname',
+'df:arcrole',
+'df:axis',
+'df:dimension',
+'df:explicitdimension',
+'df:linkrole',
+'df:member',
+'df:qname',
+'df:typeddimension',
+'ea:existenceassertion',
+'formula:concept',
+'formula:duration',
+'formula:explicitdimension',
+'formula:instant',
+'formula:member',
+'formula:multiplyby',
+'formula:period',
+'formula:qname',
+'formula:unit',
+'gen:arc',
+'gen:link',
+'gf:general',
+'label:label',
+'link:arcroleref',
+'link:definition',
+'link:definitionarc',
+'link:definitionlink',
+'link:label',
+'link:labelarc',
+'link:labellink',
+'link:linkbaseref',
+'link:loc',
+'link:presentationarc',
+'link:presentationlink',
+'link:roleref',
+'link:roletype',
+'link:usedon',
+'loc',
+'mf:matchconcept',
+'mf:matchdimension',
+'mf:matchperiod',
+'msg:message',
+'pf:periodend',
+'pf:periodinstant',
+'pf:periodstart',
+'presentationarc',
+'presentationlink',
+'roleref',
+'table:arcrole',
+'table:aspectnode',
+'table:aspectnodefilterarc',
+'table:breakdown',
+'table:breakdowntreearc',
+'table:conceptrelationshipnode',
+'table:definitionnodesubtreearc',
+'table:dimensionaspect',
+'table:formulaaxis',
+'table:generations',
+'table:linkrole',
+'table:periodaspect',
+'table:relationshipsource',
+'table:rulenode',
+'table:ruleset',
+'table:table',
+'table:tablebreakdownarc',
+'va:valueassertion',
+'validation:assertionset',
+'variable:factvariable',
+'variable:generalvariable',
+'variable:parameter',
+'variable:precondition',
+'variable:variablearc',
+'variable:variablefilterarc',
+'variable:variablesetfilterarc',
+'xs:annotation',
+'xs:appinfo',
+'xs:import',
+'xsd:annotation',
+'xsd:appinfo',
+'xsd:import')
+</t>
+  </si>
+  <si>
+    <t>Наличие паразитных тэгов типа "xsd:group"</t>
+  </si>
+  <si>
     <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",
 l.href_id "ID элемента",LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1)) "Длина ID элемента",text "shortLabel"
 from arcs a
 join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
 join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-left join elements_labels es on es.id=l.href_id and es.version=l.version and es.role='http://www.cbr.ru/xbrl/nso/npf/dic/ShortLabel'
+left join elements_labels es on es.id=l.href_id and es.version=l.version and lower(es.role) like '%shortlabel'
 left join linkbaserefs lr on lr.version=tp.version and lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
 where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
 and a.version=HID
@@ -2100,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2859,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>28</v>
@@ -2793,6 +2918,28 @@
       </c>
       <c r="C62" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -15,10 +15,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="54" sheetId="9" r:id="rId2"/>
     <sheet name="49" sheetId="6" r:id="rId3"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId4"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
-    <sheet name="75" sheetId="3" r:id="rId6"/>
-    <sheet name="67" sheetId="4" r:id="rId7"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
+    <sheet name="75" sheetId="3" r:id="rId5"/>
+    <sheet name="67" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -182,12 +181,6 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID",split_part(id,'_',1) "Префикс"
-from elements e
-where version= HID and split_part(id,'_',1) ~ '\d'
-</t>
-  </si>
-  <si>
     <t>select tp.version "Версия",tp.rinok "Рынок",tp.entity "Файл",tp.uri_table "URI таблицы",tp.uri_razdel "URI раздела",uo_gen 
 from tableparts tp
 join roletypes rt on rt.version=tp.version and rt.rinok=tp.rinok and rt.roleuri=uri_razdel
@@ -249,9 +242,6 @@
 and arcrole not in ('http://xbrl.org/int/dim/arcrole/hypercube-dimension')
 and (substitutiongroup='xbrldt:dimensionItem' or substitutiongroup is null)
 and a.version=HID </t>
-  </si>
-  <si>
-    <t>Проверка, что формул нет в базе ссылок, отличной от *-formula.xml</t>
   </si>
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",parentrole "URI таблицы",string_agg(distinct axis,'; ') "Список осей"
@@ -593,12 +583,6 @@
   </si>
   <si>
     <t>Проверка наличия стандартного русского лейбла у показателей в словаре БФО</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",entity
-from va_assertions 
-where entity similar to '%formula\d.xml'
-and version=HID</t>
   </si>
   <si>
     <t>with ll as 
@@ -1161,258 +1145,10 @@
 and version=HID</t>
   </si>
   <si>
-    <t xml:space="preserve">with ep as materialized
-(
-select distinct replace(tp.entity,'.xsd','-definition.xml') entity_def,targetnamespace ep
-from tableparts tp 
-join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
-where tp.version=HID
-order by 1
-),
-df as 
-(
-        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id and e.version=l.version
-                join elements em on em.id=lm.href_id and em.version=lm.version
-     where l.version=HID
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
-        ) ee 
-        group by replace(entity,'.xsd','-definition.xml')
-),
-def as
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' and l.rinok='bfo' and e.rinok!='eps'
-  where l.version=HID
-        order by arcrole
-),
-dd as
-(
-WITH RECURSIVE recursive_hierarchy AS ( 
-  SELECT 
-    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
-    qname AS parent_qname,  -- Сохраняем "qname" родителя 
-    arcfrom, 
-    arcto, 
-    label, 
-    type_elem,typeddomainref
-  FROM 
-    def z
-  WHERE 
-    type_elem = 2  -- Начинаем с элементов типа 2 
-  UNION ALL 
-  SELECT 
-    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
-    p.parent_qname,  -- Передаем "qname" родителя 
-    c.arcfrom, 
-    c.arcto, 
-    c.label, 
-    c.type_elem,c.typeddomainref
-  FROM 
-    def c 
-  INNER JOIN 
-    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
-  WHERE 
-    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
-)
-select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
- from
- (
-select version,rinok,entity,parentrole,targetrole,parent_qname dim,
-string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
-FROM 
-recursive_hierarchy
-where (type_elem&gt;2 and typeddomainref is null or type_elem&gt;=2 and typeddomainref is not null)
-group by version,rinok,entity,parentrole,targetrole,parent_qname 
-  )dd
-group by version,rinok,entity,parentrole  
-)
-  select version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
-   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
-  from
-  (
-    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
-        from
-        (
-        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
-  compare_arrays(dims,dims_minus) is_minus
-        from 
-        (
-        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
-        from def
-        where type_elem=1
-        and abstract='false'
-        ) cc 
-        left join dd using (version,rinok,entity,parentrole)
-        left join 
-        (
-  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
-        from def d1 
-        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
-  and d1.type_elem=5
-  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
-        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
-  ) dd
-  left join df on df.entity=dd.entity 
-        left join roletypes rt on rt.roleuri=dd.parentrole
-        where is_minus=0
-  ) zz
-  left join ep on ep.entity_def=zz.entity
-   group by version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
-   having array_length(array_agg(distinct parentrole),1)&gt;1
-        order by version,rinok,ep,concept
-</t>
-  </si>
-  <si>
     <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) Надзорка</t>
   </si>
   <si>
     <t>41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with 
-df as 
-(
-        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id and e.version=l.version
-                join elements em on em.id=lm.href_id and em.version=lm.version
---      where l.version=HID
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
-        ) ee 
-        group by replace(entity,'.xsd','-definition.xml')
-),
-def as not materialized
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' and l.rinok!='bfo'
---   where l.version=HID
-        order by arcrole
-),
-dd as
-(
-WITH RECURSIVE recursive_hierarchy AS ( 
-  SELECT 
-    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
-    qname AS parent_qname,  -- Сохраняем "qname" родителя 
-    arcfrom, 
-    arcto, 
-    label, 
-    type_elem,typeddomainref
-  FROM 
-    def z
-  WHERE 
-    type_elem = 2  -- Начинаем с элементов типа 2 
-  UNION ALL 
-  SELECT 
-    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
-    p.parent_qname,  -- Передаем "qname" родителя 
-    c.arcfrom, 
-    c.arcto, 
-    c.label, 
-    c.type_elem,c.typeddomainref
-  FROM 
-    def c 
-  INNER JOIN 
-    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
-  WHERE 
-    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
-)
-select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
- from
- (
-select version,rinok,entity,parentrole,targetrole,parent_qname dim,
-string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
-FROM 
-recursive_hierarchy
-where (type_elem&gt;2 and typeddomainref is null or type_elem&gt;=2 and typeddomainref is not null)
-group by version,rinok,entity,parentrole,targetrole,parent_qname 
-  )dd
-group by version,rinok,entity,parentrole  
-)
-  select version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
-   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
-  from
-  (
-    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
-        from
-        (
-        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
-  compare_arrays(dims,dims_minus) is_minus
-        from 
-        (
-        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
-        from def
-        where type_elem=1
-        and abstract='false'
-        ) cc 
-        left join dd using (version,rinok,entity,parentrole)
-        left join 
-        (
-  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
-        from def d1 
-        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
-  and d1.type_elem=5
-  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
-        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
-  ) dd
-  left join df on df.entity=dd.entity 
-        left join roletypes rt on rt.roleuri=dd.parentrole
-        where is_minus=0
-  ) zz
-   group by version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
-   having array_length(array_agg(distinct parentrole),1)&gt;1
-        order by version,rinok,entity,concept
-</t>
   </si>
   <si>
     <t xml:space="preserve">with def_temp as not materialized
@@ -1824,6 +1560,454 @@
 and a.version=HID
 and LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1))&gt;64
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with 
+df as 
+(
+        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+--      where l.version=HID
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by replace(entity,'.xsd','-definition.xml')
+),
+def as not materialized
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' and l.rinok!='bfo'
+--   where l.version=HID
+        order by arcrole
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2) and coalesce(usable,'true')!='false'
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+)
+  select version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
+   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
+        from
+        (
+        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
+  compare_arrays(dims,dims_minus) is_minus
+        from 
+        (
+        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+        from def
+        where type_elem=1
+        and abstract='false'
+        ) cc 
+        left join dd using (version,rinok,entity,parentrole)
+        left join 
+        (
+  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
+        from def d1 
+        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+  and d1.type_elem=5
+  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+  ) dd
+  left join df on df.entity=dd.entity 
+        left join roletypes rt on rt.roleuri=dd.parentrole
+        where is_minus=0
+  ) zz
+   group by version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
+   having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,entity,concept
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with ep as materialized
+(
+select distinct replace(tp.entity,'.xsd','-definition.xml') entity_def,targetnamespace ep
+from tableparts tp 
+join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+--where tp.version=HID
+order by 1
+),
+df as 
+(
+        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+--     where l.version=HID
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by replace(entity,'.xsd','-definition.xml')
+),
+def as
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' and l.rinok='bfo' and e.rinok!='eps'
+--  where l.version=HID
+        order by arcrole
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2)  and coalesce(usable,'true')!='false'
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+)
+  select version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
+   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
+        from
+        (
+        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
+  compare_arrays(dims,dims_minus) is_minus
+        from 
+        (
+        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+        from def
+        where type_elem=1
+        and abstract='false'
+        ) cc 
+        left join dd using (version,rinok,entity,parentrole)
+        left join 
+        (
+  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
+        from def d1 
+        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+  and d1.type_elem=5
+  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+  ) dd
+  left join df on df.entity=dd.entity 
+        left join roletypes rt on rt.roleuri=dd.parentrole
+        where is_minus=0
+  ) zz
+  left join ep on ep.entity_def=zz.entity
+   group by version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
+   having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,ep,concept
+</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>WITH RECURSIVE recursive_hierarchy AS not materialized 
+        (
+        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes
+        from
+        ( 
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
+        from rulenodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type from aspectnodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) p
+         union all
+        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
+         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.label
+        from
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
+        from rulenodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type 
+         from aspectnodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) c 
+        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
+        where c.arcfrom is not null
+        ),
+        cc as
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.parent_label,rc.value concept,re.dimension||'#'||re.member dimension,
+        rp.start,rp.end,r.level,rc.parent_tag,r.rulenodes,e.periodtype period_type,tagselector
+        from recursive_hierarchy r 
+        join rulenodes_c rc on rc.version=r.version and rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and (rc.tag=tagselector or rc.rulenode_id=r.child_id)
+        join elements e  on e.qname=rc.value and e.version=rc.version and coalesce(abstract,'false')='false'
+        left join rulenodes_e re on re.version=r.version and re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and (re.tag=tagselector or re.rulenode_id=r.child_id)
+        left join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id) and rp.period_type=e.periodtype
+        ),
+        pp as
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,rp.start,rp.end,rp.tag,period_type,
+        case when cc.parent_label is null then 0 else 1 end is_parent,parent_label,tagselector
+        from recursive_hierarchy r
+        left join (select distinct version,rinok,entity,parentrole,parent_label from cc where parent_tag!='table:ruleset') cc using(version,rinok,entity,parentrole,parent_label)
+        join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id)
+        )
+        select cc.version "Версия",cc.rinok "Рынок",cc.entity "Файл",cc.parentrole "Роль",concept "Концепт",cc.period_type "Тип периода",
+        coalesce(coalesce(cc.start,pp.start),pp2.start) period_start,
+        coalesce(coalesce(cc.end,pp.end),pp2.end) period_end
+        from cc
+        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end,parent_label,tag from pp where is_parent=1) pp on pp.version=cc.version and pp.rinok=cc.rinok and pp.entity=cc.entity 
+        and pp.parentrole=cc.parentrole and pp.period_type=cc.period_type and cc.start is null and ((pp.parent_label=cc.parent_label and pp.tag is null) or pp.tag=cc.tagselector)
+        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end from pp where is_parent=0) pp2 on pp2.version=cc.version and pp2.rinok=cc.rinok and pp2.entity=cc.entity 
+        and pp2.parentrole=cc.parentrole and pp2.period_type=cc.period_type and cc.start is null
+        where coalesce(coalesce(cc.start,pp.start),pp2.start) is null
+  order by 1,2,3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наличие параметров периодов во всех таблицах (Table Link). </t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def_temp as not materialized
+(
+ select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+  left join roles_table_definition rtd on rtd.role_definition=l.parentrole
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' --and l.rinok!='bfo'
+        order by arcrole
+),
+def as 
+(
+select distinct version,rinok,entity,parentrole,role_table,qname concept
+from def_temp
+where targetrole is null
+ union all
+select distinct version,rinok,entity,d.parentrole,role_table,l.qname 
+from def_temp d
+left join (select parentrole,qname 
+from locators l 
+join elements e on e.id=href_id and e.version=l.version) l on l.parentrole=targetrole
+where targetrole is not null
+), 
+rn as not materialized
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false' 
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
+from rulenodes_e rn
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.member
+from rulenodes_e rn
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
+from aspectnodes rn
+) 
+select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity "Сопоставление ролей пройдено"
+from
+(
+select rn.version,rn.rinok,rn.parentrole role_table,def.parentrole role_def,value,concept concept,
+check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
+from rn
+left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (coalesce(role_table,def.parentrole)=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
+) rr
+where check_similarity=1  and concept is null
+order by version,rinok,role_table,value
+</t>
+  </si>
+  <si>
+    <t>Элемент есть в table но нет в definition</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл" 
+from tableschemas where entity not similar to '%-rend.xml%'
+union all
+select version,rinok,entity 
+from locators where locfrom='lab' and entity not similar to '%-lab.xml'</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",prefix "Префикс",array_agg(distinct entity) "Файлы" 
+from linkbases
+group by version,rinok,prefix
+order by 1,2,3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with lb as
+(
+select distinct version,rinok,entity,split_part(prefix,':',-1) prefix,prefix prefix_full
+from linkbases
+where entity similar to '%-formula%' 
+),
+tt as (
+select distinct version,rinok,entity,split_part(unnest(tags::text[]),':',1) prefix
+from tabletags
+where tag_from='formula'
+)
+select tt.version,tt.rinok,tt.entity,tt.prefix,lb.prefix 
+from tt 
+left join lb on lb.version=tt.version and lb.rinok=tt.rinok and lb.entity=tt.entity and lb.prefix=tt.prefix
+where lb.prefix is null
+order by 1,2,3,4
+</t>
+  </si>
+  <si>
+    <t>Проверка, что используемый в формуле namespace задекларирован в объявлении корневого элемента xml</t>
+  </si>
+  <si>
+    <t>select version,rinok,entity from tabletags
+where tag_from='lab' and entity not similar to '%-lab.xml%'
+union all
+select version,rinok,entity from tabletags
+where tag_from='rend' and entity not similar to '%-rend.xml%'
+union all
+select version,rinok,entity from tabletags
+where tag_from='formula' and entity not similar to '%-formula.xml%'
+union all
+select version,rinok,entity from tabletags
+where tag_from='definition' and entity not similar to '%-definition.xml%'
+union all
+select version,rinok,entity from tabletags
+where tag_from='presentation' and entity not similar to '%-presentation.xml%'</t>
+  </si>
+  <si>
+    <t>Проверка, что формул нет в базе ссылок, отличной от *-formula.xml, *-rend.xml, *-lab.xml, *-definition.xml, *-presentation.xml</t>
   </si>
 </sst>
 </file>
@@ -2225,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2276,10 +2460,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -2287,10 +2471,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -2298,10 +2482,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -2309,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2320,10 +2504,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -2331,10 +2515,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2342,18 +2526,18 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -2364,7 +2548,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2375,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2386,10 +2570,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2397,7 +2581,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -2408,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2419,10 +2603,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2430,10 +2614,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2441,10 +2625,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -2452,10 +2636,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2463,7 +2647,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -2474,7 +2658,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -2485,7 +2669,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
@@ -2496,10 +2680,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="315" x14ac:dyDescent="0.25">
@@ -2507,21 +2691,21 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="330" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2540,7 +2724,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -2562,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -2584,7 +2768,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
@@ -2595,10 +2779,10 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -2606,7 +2790,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>20</v>
@@ -2639,32 +2823,32 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -2683,10 +2867,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="300" x14ac:dyDescent="0.25">
@@ -2694,10 +2878,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -2705,10 +2889,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -2716,10 +2900,10 @@
         <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -2727,21 +2911,21 @@
         <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -2749,10 +2933,10 @@
         <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="315" x14ac:dyDescent="0.25">
@@ -2760,10 +2944,10 @@
         <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -2771,10 +2955,10 @@
         <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2782,10 +2966,10 @@
         <v>58</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2793,10 +2977,10 @@
         <v>59</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2804,7 +2988,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>27</v>
@@ -2812,24 +2996,24 @@
     </row>
     <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2837,10 +3021,10 @@
         <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2848,10 +3032,10 @@
         <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -2859,7 +3043,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>28</v>
@@ -2870,7 +3054,7 @@
         <v>70</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>29</v>
@@ -2881,10 +3065,10 @@
         <v>71</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -2900,46 +3084,87 @@
     </row>
     <row r="61" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>145</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2969,10 +3194,10 @@
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2998,10 +3223,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3011,27 +3236,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="98.7109375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,7 +3252,36 @@
         <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3062,35 +3299,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="75.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3099,10 +3307,10 @@
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="54" sheetId="9" r:id="rId2"/>
-    <sheet name="49" sheetId="6" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
-    <sheet name="75" sheetId="3" r:id="rId5"/>
-    <sheet name="67" sheetId="4" r:id="rId6"/>
+    <sheet name="Лист3" sheetId="10" r:id="rId2"/>
+    <sheet name="54" sheetId="9" r:id="rId3"/>
+    <sheet name="49" sheetId="6" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet name="75" sheetId="3" r:id="rId6"/>
+    <sheet name="67" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="227">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -358,17 +359,6 @@
 </t>
   </si>
   <si>
-    <t>select r.version "Версия",r.rinok "Рынок",r.entity "Файл",r.parentrole "URI",r.id "ID рулнода",r.abstract "Абстрактность",a.arcto "Арки",rc.value "Концепт",re.dimension "Ось",rp.period_type "Период"
-from rulenodes r
-left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcfrom=r.label
-left join rulenodes_c rc on rc.version=r.version and rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and rc.rulenode_id=r.id
-left join rulenodes_e re on re.version=r.version and re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and re.rulenode_id=r.id
-left join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and rp.rulenode_id=r.id
-where abstract='true'
-and a.arcto is null and rc.value is null and re.dimension is null and rp.period_type is null
-and r.version=HID</t>
-  </si>
-  <si>
     <t xml:space="preserve">with 
 va as
 (
@@ -407,29 +397,6 @@
  (fallbackvalue !~ '^\d+(\.\d+)?$' and e_type not in ('enum2:enumerationSetItemType','nonnum:textBlockItemType','xbrli:timeItemType','enum:enumerationItemType','xbrli:dateItemType','xbrli:stringItemType')))
 order by va.parentrole,va_id
 </t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",table_entity,role_razdel,id "ID элемента",
-case when element_id is not null then 'да' else 'нет' end "Используется в definition",
-text "Текуший",text_final "Корректный"
-from
-(
-select version,rinok,entity,lang,text,id,
-delete_space_and_tab(text) text_final
-from elements_labels
-where version=HID and text is not null
-) l
-left join 
-(
-select distinct l.href_id element_id,tp.entity table_entity,tp.uri_razdel role_razdel
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and a.version=HID
-) df on df.element_id=id
-where text!=text_final
-order by table_entity,case when element_id is not null then 'да' else 'нет' end</t>
   </si>
   <si>
     <t>with rn_t as
@@ -566,20 +533,6 @@
 and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
 and e.version=HID
 </t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",lang,text,e.substitutiongroup,e.type
-from elements_labels e
-where (version,rinok,entity,id) not in 
-(select distinct version,rinok,entity,id
-from elements_labels where lang='ru' and role='http://www.xbrl.org/2003/role/label'
-and text!='') and e.qname in 
-(select e.qname 
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-join elements e on e.id=l.href_id and e.version=l.version)
-and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
-and e.rinok='bfo' and e.version=HID</t>
   </si>
   <si>
     <t>Проверка наличия стандартного русского лейбла у показателей в словаре БФО</t>
@@ -1073,9 +1026,6 @@
 </t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>select distinct version,split_part(pathtoxsd,'/',-1) entity_tables,'объявлена но физически не существует' from entrypoints
 where is_exist = False 
 and version=HID
@@ -1151,93 +1101,6 @@
     <t>41</t>
   </si>
   <si>
-    <t xml:space="preserve">with def_temp as not materialized
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' 
-  where l.version=HID
-        order by arcrole
-),
-def as 
-(
-        select distinct version,rinok,entity,parentrole,qname concept
-        from def_temp
-        where type_elem=1
-        and coalesce(abstract,'false')='false'
-), 
-rn as 
-(
-select distinct rn.version,rn.rinok,rn.parentrole,rn.value
-from rulenodes_c rn
-join elements e on e.qname=rn.value and e.version=rn.version
-where coalesce(abstract,'false')='false' and rn.version=HID
-) 
-select def.version "Версия",def.rinok "Рынок",rn2.parentrole "Роль table",def.parentrole "Роль definition",value "Концепт table",concept "Концепт definition",
-check_similarity(rn2.parentrole,(select array_agg(distinct parentrole) from def)) "Сопоставление ролей пройдено"
-from def
-left join (select distinct version,rinok,parentrole from rn) rn2 on rn2.version=def.version and rn2.rinok=def.rinok and (def.parentrole=rn2.parentrole or def.parentrole SIMILAR TO rn2.parentrole||'\D%')
-left join rn on rn.version=def.version and rn.rinok=def.rinok and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%') and value=concept
-where check_similarity(rn2.parentrole,(select array_agg(distinct parentrole) from def))=1 and coalesce(value,'')=''
-order by def.rinok,def.parentrole
-</t>
-  </si>
-  <si>
-    <t>with def_temp as not materialized
-(
- select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-  left join roles_table_definition rtd on rtd.role_definition=l.parentrole
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition'
-  where l.version=HID
-        order by arcrole
-),
-def as 
-(
-        select distinct version,rinok,entity,parentrole,role_table,qname concept
-        from def_temp
-        where type_elem=1
-        and coalesce(abstract,'false')='false'
-), 
-rn as 
-(
-select distinct rn.version,rn.rinok,rn.parentrole,rn.value
-from rulenodes_c rn
-join elements e on e.qname=rn.value and e.version=rn.version
-where coalesce(abstract,'false')='false' 
-and rn.version=HID
-) 
-select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
-check_similarity "Сопоставление ролей пройдено"
-from
-(
-select rn.version,rn.rinok,rn.parentrole role_table,def.parentrole role_def,value,coalesce(concept,'') concept,
-check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
-from rn
-left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (coalesce(role_table,def.parentrole)=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
-) rr
-where concept=''
-order by rinok</t>
-  </si>
-  <si>
     <t>62.1</t>
   </si>
   <si>
@@ -1290,6 +1153,388 @@
   </si>
   <si>
     <t>54</t>
+  </si>
+  <si>
+    <t>Различия в targetrole в definition с linkrole в table.</t>
+  </si>
+  <si>
+    <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
+max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) "Сообщение"
+from (select * from va_assertions order by version,entity,rinok,parentrole) va
+left join (select * from locators order by version,entity,rinok,parentrole) l on l.version=va.version and l.entity=va.entity and l.rinok=va.rinok and l.href_id=va.id
+left join (select * from arcs order by version,entity,rinok,parentrole) a on a.version=va.version and a.entity=va.entity and a.rinok=va.rinok and a.arcfrom=coalesce(l.label,va.label)
+left join (select * from messages order by version,entity,rinok,parentrole) m on a.version=m.version and a.rinok=m.rinok and a.entity=m.entity and a.parentrole=m.parentrole and m.label=a.arcto and m.lang='ru'
+where va.version=HID
+group by va.version ,va.rinok,va.entity,va.parentrole,va.id
+having max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) is null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл элемента с паттерном",dd.entity "Файл таблицы",uri_razdel "URI definition",
+taxis "Ось (для typedName)",elem "Элемент с паттерном",substitutiongroup "Тип",e.minlength,e.pattern,round_skobka "Баланс круглых скобок",square_skobka "Баланс квадратных скобок"
+from
+(
+select coalesce(ee.id,e.id) all_id,e.version,e.rinok,e.entity,ee.qname taxis,e.qname elem,substitutiongroup,e.minlength,e.pattern,round_skobka,square_skobka
+from
+(
+select version,rinok,entity,id,qname,
+substitutiongroup "Тип",minlength,pattern,
+length(replace(pattern,'(','')) = length(replace(pattern,')','')) round_skobka,
+length(replace(pattern,'[','')) = length(replace(pattern,']','')) square_skobka
+from elements where pattern is not null
+) e 
+left join elements ee on e.id=split_part(ee.typeddomainref,'#',-1) and e.version=ee.version
+) e
+left join 
+(
+select a.version,a.entity,a.rinok,a.parentrole uri_razdel,l.href_id 
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition'
+) dd on dd.version=e.version and dd.href_id=e.all_id
+order by uri_razdel nulls last,taxis nulls last
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with pp_t as
+(
+select distinct parentrole uri
+from arcs a
+where arctype='presentation'  --and a.version=HID
+),
+dd as (
+select a.version,a.entity,a.rinok,a.parentrole,l.href_id
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition' and a.version=HID
+and a.parentrole in (select * from pp_t)
+ order by a.version,a.entity,a.rinok,a.parentrole
+),
+pp as
+(
+select a.version,a.entity,a.rinok,a.parentrole,l.href_id 
+from arcs a
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='presentation'  and a.version=HID 
+ order by a.version,a.entity,a.rinok,a.parentrole
+) 
+select version "Версия",max(rinok_def) "Рынок роли def",max(rinok_pres) "Рынок роли pres",parentrole "Роль",href_id "Элемент",max(def) "Файл def",max(pres) "Файл pres"
+from
+(
+select version,dd.rinok rinok_def,null rinok_pres,parentrole,href_id,dd.entity def,null pres
+from dd
+left join pp using (version,rinok,parentrole,href_id)
+where pp.entity is null
+union all
+select version,null,pp.rinok,parentrole,href_id,null,pp.entity 
+from pp
+left join dd using (version,rinok,parentrole,href_id)
+where dd.entity is null
+) dp 
+group by version,parentrole,href_id
+</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Проверка наличия схемы из support_all в точках входа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select ss.version "Версия",ss.entity "Файл support",ss.rinok "Рынок",ss.chema "Схема из support",ss2.entity "Файл схемы из точек входа",ss2.chema "Схема из точек входа" 
+from 
+(select version,entity,rinok,split_part(schemalocation,'/',-1) chema from tables where entity like '%support%' and version=HID)ss
+left join 
+(select version,entity,rinok,split_part(schemalocation,'/',-1) chema from tables where entity not like '%support%'  and version=HID) ss2
+on ss2.version=ss.version and ss2.rinok=ss.rinok and ss2.chema=ss.chema
+where ss2.chema is null
+</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Наличие паразитных тэгов типа "xsd:group"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",
+l.href_id "ID элемента",LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1)) "Длина ID элемента",text "shortLabel"
+from arcs a
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+left join elements_labels es on es.id=l.href_id and es.version=l.version and lower(es.role) like '%shortlabel'
+left join linkbaserefs lr on lr.version=tp.version and lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+and a.version=HID
+and LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1))&gt;64
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with ep as materialized
+(
+select distinct replace(tp.entity,'.xsd','-definition.xml') entity_def,targetnamespace ep
+from tableparts tp 
+join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+--where tp.version=HID
+order by 1
+),
+df as 
+(
+        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+--     where l.version=HID
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by replace(entity,'.xsd','-definition.xml')
+),
+def as
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' and l.rinok='bfo' and e.rinok!='eps'
+--  where l.version=HID
+        order by arcrole
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2)  and coalesce(usable,'true')!='false'
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+)
+  select version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
+   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
+        from
+        (
+        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
+  compare_arrays(dims,dims_minus) is_minus
+        from 
+        (
+        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+        from def
+        where type_elem=1
+        and abstract='false'
+        ) cc 
+        left join dd using (version,rinok,entity,parentrole)
+        left join 
+        (
+  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
+        from def d1 
+        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+  and d1.type_elem=5
+  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+  ) dd
+  left join df on df.entity=dd.entity 
+        left join roletypes rt on rt.roleuri=dd.parentrole
+        where is_minus=0
+  ) zz
+  left join ep on ep.entity_def=zz.entity
+   group by version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
+   having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,ep,concept
+</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>WITH RECURSIVE recursive_hierarchy AS not materialized 
+        (
+        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes
+        from
+        ( 
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
+        from rulenodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type from aspectnodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) p
+         union all
+        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
+         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.label
+        from
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
+        from rulenodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type 
+         from aspectnodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) c 
+        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
+        where c.arcfrom is not null
+        ),
+        cc as
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.parent_label,rc.value concept,re.dimension||'#'||re.member dimension,
+        rp.start,rp.end,r.level,rc.parent_tag,r.rulenodes,e.periodtype period_type,tagselector
+        from recursive_hierarchy r 
+        join rulenodes_c rc on rc.version=r.version and rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and (rc.tag=tagselector or rc.rulenode_id=r.child_id)
+        join elements e  on e.qname=rc.value and e.version=rc.version and coalesce(abstract,'false')='false'
+        left join rulenodes_e re on re.version=r.version and re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and (re.tag=tagselector or re.rulenode_id=r.child_id)
+        left join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id) and rp.period_type=e.periodtype
+        ),
+        pp as
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,rp.start,rp.end,rp.tag,period_type,
+        case when cc.parent_label is null then 0 else 1 end is_parent,parent_label,tagselector
+        from recursive_hierarchy r
+        left join (select distinct version,rinok,entity,parentrole,parent_label from cc where parent_tag!='table:ruleset') cc using(version,rinok,entity,parentrole,parent_label)
+        join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id)
+        )
+        select cc.version "Версия",cc.rinok "Рынок",cc.entity "Файл",cc.parentrole "Роль",concept "Концепт",cc.period_type "Тип периода",
+        coalesce(coalesce(cc.start,pp.start),pp2.start) period_start,
+        coalesce(coalesce(cc.end,pp.end),pp2.end) period_end
+        from cc
+        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end,parent_label,tag from pp where is_parent=1) pp on pp.version=cc.version and pp.rinok=cc.rinok and pp.entity=cc.entity 
+        and pp.parentrole=cc.parentrole and pp.period_type=cc.period_type and cc.start is null and ((pp.parent_label=cc.parent_label and pp.tag is null) or pp.tag=cc.tagselector)
+        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end from pp where is_parent=0) pp2 on pp2.version=cc.version and pp2.rinok=cc.rinok and pp2.entity=cc.entity 
+        and pp2.parentrole=cc.parentrole and pp2.period_type=cc.period_type and cc.start is null
+        where coalesce(coalesce(cc.start,pp.start),pp2.start) is null
+  order by 1,2,3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наличие параметров периодов во всех таблицах (Table Link). </t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Элемент есть в table но нет в definition</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл" 
+from tableschemas where entity not similar to '%-rend.xml%'
+union all
+select version,rinok,entity 
+from locators where locfrom='lab' and entity not similar to '%-lab.xml'</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",prefix "Префикс",array_agg(distinct entity) "Файлы" 
+from linkbases
+group by version,rinok,prefix
+order by 1,2,3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with lb as
+(
+select distinct version,rinok,entity,split_part(prefix,':',-1) prefix,prefix prefix_full
+from linkbases
+where entity similar to '%-formula%' 
+),
+tt as (
+select distinct version,rinok,entity,split_part(unnest(tags::text[]),':',1) prefix
+from tabletags
+where tag_from='formula'
+)
+select tt.version,tt.rinok,tt.entity,tt.prefix,lb.prefix 
+from tt 
+left join lb on lb.version=tt.version and lb.rinok=tt.rinok and lb.entity=tt.entity and lb.prefix=tt.prefix
+where lb.prefix is null
+order by 1,2,3,4
+</t>
+  </si>
+  <si>
+    <t>Проверка, что используемый в формуле namespace задекларирован в объявлении корневого элемента xml</t>
+  </si>
+  <si>
+    <t>select version,rinok,entity from tabletags
+where tag_from='lab' and entity not similar to '%-lab.xml%'
+union all
+select version,rinok,entity from tabletags
+where tag_from='rend' and entity not similar to '%-rend.xml%'
+union all
+select version,rinok,entity from tabletags
+where tag_from='formula' and entity not similar to '%-formula.xml%'
+union all
+select version,rinok,entity from tabletags
+where tag_from='definition' and entity not similar to '%-definition.xml%'
+union all
+select version,rinok,entity from tabletags
+where tag_from='presentation' and entity not similar to '%-presentation.xml%'</t>
+  </si>
+  <si>
+    <t>Проверка, что формул нет в базе ссылок, отличной от *-formula.xml, *-rend.xml, *-lab.xml, *-definition.xml, *-presentation.xml</t>
   </si>
   <si>
     <t xml:space="preserve">with df as 
@@ -1325,6 +1570,7 @@
 and vm.dimension_id=ve.id
 left join df on df.entity=ve.entity
 where dimension||'#'||member = ANY(dim_def) 
+order by 1,2,3,4
 --  and ve.version=HID
 ),
 fv as
@@ -1345,102 +1591,534 @@
 </t>
   </si>
   <si>
-    <t>Различия в targetrole в definition с linkrole в table.</t>
-  </si>
-  <si>
-    <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
-max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) "Сообщение"
-from (select * from va_assertions order by version,entity,rinok,parentrole) va
-left join (select * from locators order by version,entity,rinok,parentrole) l on l.version=va.version and l.entity=va.entity and l.rinok=va.rinok and l.href_id=va.id
-left join (select * from arcs order by version,entity,rinok,parentrole) a on a.version=va.version and a.entity=va.entity and a.rinok=va.rinok and a.arcfrom=coalesce(l.label,va.label)
-left join (select * from messages order by version,entity,rinok,parentrole) m on a.version=m.version and a.rinok=m.rinok and a.entity=m.entity and a.parentrole=m.parentrole and m.label=a.arcto and m.lang='ru'
-where va.version=HID
-group by va.version ,va.rinok,va.entity,va.parentrole,va.id
-having max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) is null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл элемента с паттерном",dd.entity "Файл таблицы",uri_razdel "URI definition",
-taxis "Ось (для typedName)",elem "Элемент с паттерном",substitutiongroup "Тип",e.minlength,e.pattern,round_skobka "Баланс круглых скобок",square_skobka "Баланс квадратных скобок"
+    <t>10.0|Файл .xsd точки входа найден в таксономии, но не задекларирован в META-INF\taxonomyPackage.xml|0:00:00.115695</t>
+  </si>
+  <si>
+    <t>11.0|Если RuleNode c merge = true, то у него не должно быть RuleSet|0:00:00.148602</t>
+  </si>
+  <si>
+    <t>16.0|Проверка уникальности дефолтного мембера для каждой оси в Definition|0:00:00.360034</t>
+  </si>
+  <si>
+    <t>17.0|Проверка значения атрибута @contextElement и @closed гиперкубов в слое Definition|0:00:00.206448</t>
+  </si>
+  <si>
+    <t>1.0|Проверка наличия во всех схемах и базах паразитных префиксов пространств имен вида fp1, ins-dic1, npf-dic1, uk-dic1, purcb-dic1, brk-dic1, kra-dic1, где вместо 1 может быть любая цифра|0:00:00.602384</t>
+  </si>
+  <si>
+    <t>2.0|Проверка отсутствия пробелов во всех URI внутри схем и баз|0:00:00.087765</t>
+  </si>
+  <si>
+    <t>5.0|Проверка существования файлов PathToXsd из META-INF\entry_point.xml|0:00:00.118682</t>
+  </si>
+  <si>
+    <t>6.0|Проверка существования файлов entryPointDocument из META-INF\taxonomyPackage.xml|0:00:00.142617</t>
+  </si>
+  <si>
+    <t>7.0|Проверка существования каталогов rewriteURI/@rewritePrefix из META-INF\catalog.xml|0:00:00.087767</t>
+  </si>
+  <si>
+    <t>18.0|Проверка того, что targetRole ссылается на существующую роль в Definition|0:00:00.540549</t>
+  </si>
+  <si>
+    <t>9.0|Файл .xsd точки входа найден в таксономии, но не задекларирован в META-INF\entry_point.xml|0:00:00.093747</t>
+  </si>
+  <si>
+    <t>22.0|Проверка корректности arcrole в слое Definition № 3 - оси|0:00:00.274265</t>
+  </si>
+  <si>
+    <t>19.0|Проверка корректности использования arcrole dimension-default в Definition|0:00:00.399929</t>
+  </si>
+  <si>
+    <t>23.0|Проверка на один гиперкуб в роли в Definition|0:00:00.431846</t>
+  </si>
+  <si>
+    <t>24.0|Проверка на то, что каждая роль начинается с Abstract в Definition|0:00:01.048189</t>
+  </si>
+  <si>
+    <t>20.0|Проверка корректности arcrole в слое Definition № 1 - мемберы|0:00:01.529902</t>
+  </si>
+  <si>
+    <t>21.0|Проверка корректности arcrole в слое Definition № 2 - неабстрактные показатели|0:00:00.733034</t>
+  </si>
+  <si>
+    <t>28.0|Проверка, что формул нет в базе ссылок, отличной от *-formula.xml, *-rend.xml, *-lab.xml, *-definition.xml, *-presentation.xml|0:00:00.138627</t>
+  </si>
+  <si>
+    <t>29.0|Проверка в Formula link  наличия severityLevel у всех контролей|0:00:00.422904</t>
+  </si>
+  <si>
+    <t>25.0|Проверка наличия стандартного русского лейбла у показателей в словаре|0:00:02.805481</t>
+  </si>
+  <si>
+    <t>30.0|Проверка в Formula link наличия у всех контролей стандартного message с атрибутом xml:lang=ru|0:00:02.357644</t>
+  </si>
+  <si>
+    <t>31.0|Проверка на наличие кириллических символов в коде элемента  в Dict|0:00:00.128655</t>
+  </si>
+  <si>
+    <t>26.0|Проверка наличия стандартного русского лейбла у показателей в словаре БФО|0:00:02.595046</t>
+  </si>
+  <si>
+    <t>32.0|Проверка в Table Link наличия у каждой таблицы стандартного заголовка на русском языке|0:00:02.908212</t>
+  </si>
+  <si>
+    <t>33.0|Проверка, что у всех инумераторов enum:linkrole начинается с http в Dict|0:00:00.094746</t>
+  </si>
+  <si>
+    <t>34.0|Проверка баланса скобок в выражениях generalVariable в Formula link|0:00:00.776912</t>
+  </si>
+  <si>
+    <t>35.0|Проверка структуры осей  Table Link  (должна быть ось X и ось Y)|0:00:00.186500</t>
+  </si>
+  <si>
+    <t>36.0|Проверка Table Link, что у абстрактного ruleNode должны быть дети|0:00:00.345076</t>
+  </si>
+  <si>
+    <t>37.0|Проверка, что merge узел должен быть абстрактным|0:00:00.086767</t>
+  </si>
+  <si>
+    <t>39.0|Длина кода элемента без префикса должна быть не более 256 символов|0:00:00.130651</t>
+  </si>
+  <si>
+    <t>40.0|Неиспользуемые фильтры и переменные в КС|0:00:01.966728</t>
+  </si>
+  <si>
+    <t>41.0|Проверка совпадения точек данных в разных ролях def (с учетом точек входа) Надзорка|0:00:00.386998</t>
+  </si>
+  <si>
+    <t>27.0|Проверка на наличие лишних пробелов в лейблах элементов|0:00:08.668768</t>
+  </si>
+  <si>
+    <t>52.0|Неверно настроен TableLink: в ruleNode (abstract = true и merge = true) добавлен aspectNode|0:00:00.900617</t>
+  </si>
+  <si>
+    <t>53.0|Для variable:factVariable не указаны дочерние элементы|0:00:07.266493</t>
+  </si>
+  <si>
+    <t>54.0|Контрольные соотношения с complement = true и дефолтным мембером в оси|0:00:07.722339</t>
+  </si>
+  <si>
+    <t>55.0|У каждого aspectNode с закрытой осью должен быть dimension filter|0:00:00.121671</t>
+  </si>
+  <si>
+    <t>56.0|Проверка на наличие кириллических символов в идентификаторе generic resource|0:00:00.245312</t>
+  </si>
+  <si>
+    <t>57.0|Проверка на то, что роль enum:linkrole определена исключительно на уровне словаря (для обычных инумераторов)|0:00:00.107709</t>
+  </si>
+  <si>
+    <t>58.0|Проверка на то, что роль из enum2:linkrole определена исключительно на уровне словаря (для инумераторов с множественным выбором)|0:00:00.104722</t>
+  </si>
+  <si>
+    <t>59.0|Ищет дублирующиеся идентификаторы ruleSetов в рамках одного ruleNode.|0:00:00.115696</t>
+  </si>
+  <si>
+    <t>61.0|Ищет элементы, которые есть в роли definition, но нет в аналогичной роли в presentation.|0:00:03.297194</t>
+  </si>
+  <si>
+    <t>62.1|Проверка дублирования мемберов в рамках одного дерева (definition)|0:00:01.311451</t>
+  </si>
+  <si>
+    <t>62.2|Проверка дублирования мемберов в рамках одного дерева (presentation)|0:00:02.390588</t>
+  </si>
+  <si>
+    <t>64.0|Запрос на вывод всех элементов с маской для ручной проверки маски.|0:00:01.082100</t>
+  </si>
+  <si>
+    <t>66.0|Запрос на выявление ситуации, когда к одному enumerator-у прикреплено 2 ссылки на атрибуты enum и enum2 |0:00:00.094747</t>
+  </si>
+  <si>
+    <t>68.0|Автоматическая проверка длины кода элементов, которые используются в слое definition. Максимум - 64 символа без префикса.|0:00:01.307496</t>
+  </si>
+  <si>
+    <t>70.0|Проверка, что каждый ID контрольного соотношения уникален.|0:00:00.125664</t>
+  </si>
+  <si>
+    <t>71.0|в наименовании каждой роли в таксономии хотя бы один раз присутствует цифровой код ОКУД – 7 цифр|0:00:00.088761</t>
+  </si>
+  <si>
+    <t>72.0|Несоответствие наименования (name) и иднтификатора (id) элемента|0:00:00.137630</t>
+  </si>
+  <si>
+    <t>76.0|Проверка на порядок разделов в xsd таблиц|0:00:00.129654</t>
+  </si>
+  <si>
+    <t>77.0|Различия в targetrole в definition с linkrole в table.|0:00:00.364029</t>
+  </si>
+  <si>
+    <t>78.0|Проверка наличия схемы из support_all в точках входа|0:00:00.111729</t>
+  </si>
+  <si>
+    <t>79.0|Наличие паразитных тэгов типа "xsd:group"|0:00:00.137602</t>
+  </si>
+  <si>
+    <t>74.0|Наличие параметров периодов во всех таблицах (Table Link). |0:00:27.116321</t>
+  </si>
+  <si>
+    <t>12.0|Показатель есть в Table, но нет в Definition|0:01:34.569545</t>
+  </si>
+  <si>
+    <t>80.0|Элемент есть в table но нет в definition|0:02:46.489885</t>
+  </si>
+  <si>
+    <t>81.0|nan|0:00:00.237322</t>
+  </si>
+  <si>
+    <t>8.0|Проверка, что используемый в формуле namespace задекларирован в объявлении корневого элемента xml|0:00:00.178555</t>
+  </si>
+  <si>
+    <t>13.0|Показатель есть в Definition, но нет в Table|0:03:49.229750</t>
+  </si>
+  <si>
+    <t>14.0|Проверка соответствия слоев Presentation и Definition|0:00:05.841320</t>
+  </si>
+  <si>
+    <t>15.0|Проверка по preferredLabel в Presentation слое: дублирование показателей в одной роли допускается только, если у них разные preferredLabel и ParentElement|0:00:03.501616</t>
+  </si>
+  <si>
+    <t>Наличие lab1.xml rend1.xml и т.п.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def_temp as not materialized
+(
+ select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+  left join roles_table_definition rtd on rtd.role_definition=l.parentrole
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' --and l.rinok!='bfo'
+        order by arcrole
+),
+def as 
+(
+select distinct version,rinok,entity,parentrole,role_table,qname concept
+from def_temp
+where targetrole is null
+ union all
+select distinct version,rinok,entity,d.parentrole,role_table,l.qname 
+from def_temp d
+left join (select parentrole,qname 
+from locators l 
+join elements e on e.id=href_id and e.version=l.version) l on l.parentrole=targetrole
+where targetrole is not null
+), 
+rn as not materialized
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false' 
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
+from rulenodes_e rn
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.member
+from rulenodes_e rn
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
+from aspectnodes rn
+) 
+select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity "Сопоставление ролей пройдено"
 from
 (
-select coalesce(ee.id,e.id) all_id,e.version,e.rinok,e.entity,ee.qname taxis,e.qname elem,substitutiongroup,e.minlength,e.pattern,round_skobka,square_skobka
+select rn.version,rn.rinok,rn.parentrole role_table,d2.parentrole role_def,value,concept concept,
+check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
+from rn
+left join (select distinct version,rinok,parentrole,role_table from def) d2 on d2.version=rn.version and d2.rinok=rn.rinok and (coalesce(d2.role_table,d2.parentrole)=rn.parentrole or coalesce(d2.role_table,d2.parentrole) SIMILAR TO rn.parentrole||'\D%')
+left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (coalesce(def.role_table,def.parentrole)=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
+) rr
+where check_similarity=1 and concept is null
+order by version,rinok,role_table,value
+</t>
+  </si>
+  <si>
+    <t>with 
+def as 
+(
+        select distinct version,rinok,entity,parentrole,role_table,qname concept
+        from (
+ select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,
+   e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+  left join roles_table_definition rtd on rtd.role_definition=l.parentrole
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition'
+  where coalesce(abstract,'false')='false'
+  and (case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then true else false end ) = true 
+) def_temp
+ order by version,rinok,parentrole
+), 
+rn as not materialized
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false' 
+ order by rn.version,rn.rinok,rn.parentrole
+) 
+select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity "Сопоставление ролей пройдено"
 from
 (
-select version,rinok,entity,id,qname,
-substitutiongroup "Тип",minlength,pattern,
-length(replace(pattern,'(','')) = length(replace(pattern,')','')) round_skobka,
-length(replace(pattern,'[','')) = length(replace(pattern,']','')) square_skobka
-from elements where pattern is not null
-) e 
-left join elements ee on e.id=split_part(ee.typeddomainref,'#',-1) and e.version=ee.version
-) e
+select rn.version,rn.rinok,rn.parentrole role_table,d2.parentrole role_def,value,coalesce(concept,'') concept,
+check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
+from rn
+left join (select distinct version,rinok,parentrole,role_table from def) d2 on d2.version=rn.version and d2.rinok=rn.rinok and (coalesce(d2.role_table,d2.parentrole)=rn.parentrole or coalesce(d2.role_table,d2.parentrole) SIMILAR TO rn.parentrole||'\D%')
+left join def on rn.version=def.version and rn.rinok=def.rinok and (coalesce(def.role_table,def.parentrole)=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%') and value=concept 
+) rr
+where concept=''
+order by rinok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with 
+def as 
+(
+        select distinct version,rinok,entity,parentrole,role_table,qname concept
+        from (
+ select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,
+   e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+  left join roles_table_definition rtd on rtd.role_definition=l.parentrole
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition'
+  where coalesce(abstract,'false')='false'
+  and (case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then true else false end ) = true 
+) def_temp
+ order by version,rinok,parentrole
+), 
+rn as (
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false'
+ order by rn.version,rn.rinok,rn.parentrole
+) 
+select def.version "Версия",def.rinok "Рынок",rn2.parentrole "Роль table",def.parentrole "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity(rn2.parentrole,(select array_agg(distinct parentrole) from def)) "Сопоставление ролей пройдено"
+from def
+left join (select distinct version,rinok,parentrole from rn) rn2 on rn2.version=def.version and rn2.rinok=def.rinok and (coalesce(def.role_table,def.parentrole)=rn2.parentrole or coalesce(def.role_table,def.parentrole) SIMILAR TO rn2.parentrole||'\D%')
+left join rn on rn.version=def.version and rn.rinok=def.rinok and (coalesce(def.role_table,def.parentrole)=rn.parentrole or coalesce(def.role_table,def.parentrole) SIMILAR TO rn.parentrole||'\D%') and value=concept
+where check_similarity(rn2.parentrole,(select array_agg(distinct parentrole) from def))=1 and coalesce(value,'')=''
+order by def.rinok,def.parentrole
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with 
+df as 
+(
+        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+     where l.rinok!='bfo'
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by replace(entity,'.xsd','-definition.xml')
+),
+def as 
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' 
+ where l.rinok!='bfo'
+        order by l.version,l.rinok,l.entity,l.parentrole
+),
+dd as not materialized
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+ and rinok!='bfo'
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+ and c.rinok!='bfo'
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2) and coalesce(usable,'true')!='false'
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+ order by version,rinok,entity,parentrole
+)
+  select version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
+   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
+        from
+        (
+        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
+  compare_arrays(dims,dims_minus) is_minus
+        from 
+        (
+        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+        from def
+        where type_elem=1
+        and abstract='false'
+        ) cc 
+        left join dd on dd.version=cc.version and dd.rinok=cc.rinok and dd.entity=cc.entity and dd.parentrole=cc.parentrole
+        left join 
+        (
+  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
+        from def d1 
+        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+  and d1.type_elem=5
+  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+  ) dd
+  left join df on df.entity=dd.entity 
+  left join roletypes rt on rt.roleuri=dd.parentrole
+        where is_minus=0
+  ) zz
+   group by version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
+   having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,entity,concept
+</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",table_entity,role_razdel,id "ID элемента",
+case when element_id is not null then 'да' else 'нет' end "Используется в definition",
+text "Текуший",text_final "Корректный"
+from
+(
+select version,rinok,entity,lang,text,id,
+delete_space_and_tab(text) text_final
+from elements_labels
+where text is not null
+order by id
+) l
 left join 
 (
-select a.version,a.entity,a.rinok,a.parentrole uri_razdel,l.href_id 
+select distinct l.href_id element_id,tp.entity table_entity,tp.uri_razdel role_razdel
+from arcs a
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+order by l.href_id
+) df on df.element_id=id
+where text!=text_final
+order by table_entity,case when element_id is not null then 'да' else 'нет' end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select r.version "Версия",r.rinok "Рынок",r.entity "Файл",r.parentrole "URI",r.id "ID рулнода",r.abstract "Абстрактность",a.arcto "Арки",rc.value "Концепт",re.dimension "Ось",rp.period_type "Период"
+from (select * from rulenodes order by version,rinok,entity,parentrole) r
+left join (select * from arcs order by version,rinok,entity,parentrole) a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcfrom=r.label
+left join (select * from rulenodes_c order by version,rinok,entity,parentrole) rc on rc.version=r.version and rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and rc.rulenode_id=r.id
+left join (select * from rulenodes_e order by version,rinok,entity,parentrole) re on re.version=r.version and re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and re.rulenode_id=r.id
+left join (select * from rulenodes_p order by version,rinok,entity,parentrole) rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and rp.rulenode_id=r.id
+where abstract='true'
+and a.arcto is null and rc.value is null and re.dimension is null and rp.period_type is null
+</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>select x.version "Версия",x.rinok,x.entity "Файл xsd",x.file "Файл в tab",lb.href "Файл в xsd",case when is_hidden='true' then 'да' else 'нет' end "Скрытый да/нет"
+from xsdfiles x
+left join linkbaserefs lb  on lb.version=x.version and lb.entity=x.entity and lb.href=x.file
+where x.file not similar to '%.xsd'
+and lb.href is null</t>
+  </si>
+  <si>
+    <t>Проверка "мусорных" файлов в папке tab. Наличие не испольуемых и скрытых файлов, которые не объявленны в xsd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",lang,text,e.substitutiongroup,e.type
+from (select * from elements_labels order by qname) e
+where (version,rinok,entity,id) not in 
+(
+select distinct version,rinok,entity,id
+from elements_labels where lang='ru' and role='http://www.xbrl.org/2003/role/label'
+and text!=''
+) and e.qname in 
+(
+select e.qname 
 from arcs a
 join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition'
-) dd on dd.version=e.version and dd.href_id=e.all_id
-order by uri_razdel nulls last,taxis nulls last
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with pp_t as
-(
-select distinct parentrole uri
-from arcs a
-where arctype='presentation'  --and a.version=HID
-),
-dd as (
-select a.version,a.entity,a.rinok,a.parentrole,l.href_id
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and a.version=HID
-and a.parentrole in (select * from pp_t)
- order by a.version,a.entity,a.rinok,a.parentrole
-),
-pp as
-(
-select a.version,a.entity,a.rinok,a.parentrole,l.href_id 
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='presentation'  and a.version=HID 
- order by a.version,a.entity,a.rinok,a.parentrole
-) 
-select version "Версия",max(rinok_def) "Рынок роли def",max(rinok_pres) "Рынок роли pres",parentrole "Роль",href_id "Элемент",max(def) "Файл def",max(pres) "Файл pres"
-from
-(
-select version,dd.rinok rinok_def,null rinok_pres,parentrole,href_id,dd.entity def,null pres
-from dd
-left join pp using (version,rinok,parentrole,href_id)
-where pp.entity is null
-union all
-select version,null,pp.rinok,parentrole,href_id,null,pp.entity 
-from pp
-left join dd using (version,rinok,parentrole,href_id)
-where dd.entity is null
-) dp 
-group by version,parentrole,href_id
-</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Проверка наличия схемы из support_all в точках входа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select ss.version "Версия",ss.entity "Файл support",ss.rinok "Рынок",ss.chema "Схема из support",ss2.entity "Файл схемы из точек входа",ss2.chema "Схема из точек входа" 
-from 
-(select version,entity,rinok,split_part(schemalocation,'/',-1) chema from tables where entity like '%support%' and version=HID)ss
-left join 
-(select version,entity,rinok,split_part(schemalocation,'/',-1) chema from tables where entity not like '%support%'  and version=HID) ss2
-on ss2.version=ss.version and ss2.rinok=ss.rinok and ss2.chema=ss.chema
-where ss2.chema is null
-</t>
-  </si>
-  <si>
-    <t>79</t>
+join elements e on e.id=l.href_id and e.version=l.version
+order by e.qname
+)
+and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
+and e.rinok='bfo' </t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t xml:space="preserve">select version,rinok,entity,tag_from,tag
@@ -1542,472 +2220,54 @@
 'xs:import',
 'xsd:annotation',
 'xsd:appinfo',
-'xsd:import')
+'xsd:import',
+'definitionlink',
+'definitionarc',
+'definition',
+'roletype',
+'usedon',
+'linkbaseref',
+'import',
+'appinfo',
+'annotation')
 </t>
   </si>
   <si>
-    <t>Наличие паразитных тэгов типа "xsd:group"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",
-l.href_id "ID элемента",LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1)) "Длина ID элемента",text "shortLabel"
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-left join elements_labels es on es.id=l.href_id and es.version=l.version and lower(es.role) like '%shortlabel'
-left join linkbaserefs lr on lr.version=tp.version and lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and a.version=HID
-and LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1))&gt;64
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with 
-df as 
-(
-        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id and e.version=l.version
-                join elements em on em.id=lm.href_id and em.version=lm.version
---      where l.version=HID
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
-        ) ee 
-        group by replace(entity,'.xsd','-definition.xml')
-),
-def as not materialized
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' and l.rinok!='bfo'
---   where l.version=HID
-        order by arcrole
-),
-dd as
-(
-WITH RECURSIVE recursive_hierarchy AS ( 
-  SELECT 
-    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
-    qname AS parent_qname,  -- Сохраняем "qname" родителя 
-    arcfrom, 
-    arcto, 
-    label, 
-    type_elem,typeddomainref
-  FROM 
-    def z
-  WHERE 
-    type_elem = 2  -- Начинаем с элементов типа 2 
-  UNION ALL 
-  SELECT 
-    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
-    p.parent_qname,  -- Передаем "qname" родителя 
-    c.arcfrom, 
-    c.arcto, 
-    c.label, 
-    c.type_elem,c.typeddomainref
-  FROM 
-    def c 
-  INNER JOIN 
-    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
-  WHERE 
-    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+    <t>83</t>
+  </si>
+  <si>
+    <t>select distinct version "Версия",rinok "Рынок",entity "Схема",'Схемы нет в support ep' "Тип ошибки"
+from xsdfiles
+where (replace(rinok,'operatory','oper'),entity) in 
+(
+select distinct replace(rinok,'operatory','oper'),entity from xsdfiles
+except
+select rinok,split_part(schemalocation,'/',-1) from tables
+where lower(entity) similar to 'support%'
 )
-select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
- from
- (
-select version,rinok,entity,parentrole,targetrole,parent_qname dim,
-string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
-FROM 
-recursive_hierarchy
-where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2) and coalesce(usable,'true')!='false'
-group by version,rinok,entity,parentrole,targetrole,parent_qname 
-  )dd
-group by version,rinok,entity,parentrole  
+union all
+select distinct version "Версия",rinok "Рынок",entity "Схема",'Схема есть в support, но нет в других ep'
+from xsdfiles
+where (replace(rinok,'operatory','oper'),entity) in 
+(
+select distinct replace(rinok,'operatory','oper'),entity from xsdfiles
+except
+select rinok,split_part(schemalocation,'/',-1) from tables
+ where lower(entity) not similar to 'support%'
 )
-  select version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
-   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
-  from
-  (
-    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
-        from
-        (
-        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
-  compare_arrays(dims,dims_minus) is_minus
-        from 
-        (
-        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
-        from def
-        where type_elem=1
-        and abstract='false'
-        ) cc 
-        left join dd using (version,rinok,entity,parentrole)
-        left join 
-        (
-  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
-        from def d1 
-        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
-  and d1.type_elem=5
-  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
-        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
-  ) dd
-  left join df on df.entity=dd.entity 
-        left join roletypes rt on rt.roleuri=dd.parentrole
-        where is_minus=0
-  ) zz
-   group by version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
-   having array_length(array_agg(distinct parentrole),1)&gt;1
-        order by version,rinok,entity,concept
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with ep as materialized
-(
-select distinct replace(tp.entity,'.xsd','-definition.xml') entity_def,targetnamespace ep
-from tableparts tp 
-join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
---where tp.version=HID
-order by 1
-),
-df as 
-(
-        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id and e.version=l.version
-                join elements em on em.id=lm.href_id and em.version=lm.version
---     where l.version=HID
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
-        ) ee 
-        group by replace(entity,'.xsd','-definition.xml')
-),
-def as
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' and l.rinok='bfo' and e.rinok!='eps'
---  where l.version=HID
-        order by arcrole
-),
-dd as
-(
-WITH RECURSIVE recursive_hierarchy AS ( 
-  SELECT 
-    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
-    qname AS parent_qname,  -- Сохраняем "qname" родителя 
-    arcfrom, 
-    arcto, 
-    label, 
-    type_elem,typeddomainref
-  FROM 
-    def z
-  WHERE 
-    type_elem = 2  -- Начинаем с элементов типа 2 
-  UNION ALL 
-  SELECT 
-    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
-    p.parent_qname,  -- Передаем "qname" родителя 
-    c.arcfrom, 
-    c.arcto, 
-    c.label, 
-    c.type_elem,c.typeddomainref
-  FROM 
-    def c 
-  INNER JOIN 
-    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
-  WHERE 
-    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+union all
+select distinct version "Версия",rinok "Рынок",entity "Схема",'Схемы нет ни в одной ep'
+from xsdfiles
+where (replace(rinok,'operatory','oper'),entity) in 
+(
+select distinct replace(rinok,'operatory','oper'),entity from xsdfiles
+except
+select rinok,split_part(schemalocation,'/',-1) from tables
 )
-select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
- from
- (
-select version,rinok,entity,parentrole,targetrole,parent_qname dim,
-string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
-FROM 
-recursive_hierarchy
-where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2)  and coalesce(usable,'true')!='false'
-group by version,rinok,entity,parentrole,targetrole,parent_qname 
-  )dd
-group by version,rinok,entity,parentrole  
-)
-  select version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
-   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
-  from
-  (
-    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
-        from
-        (
-        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
-  compare_arrays(dims,dims_minus) is_minus
-        from 
-        (
-        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
-        from def
-        where type_elem=1
-        and abstract='false'
-        ) cc 
-        left join dd using (version,rinok,entity,parentrole)
-        left join 
-        (
-  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
-        from def d1 
-        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
-  and d1.type_elem=5
-  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
-        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
-  ) dd
-  left join df on df.entity=dd.entity 
-        left join roletypes rt on rt.roleuri=dd.parentrole
-        where is_minus=0
-  ) zz
-  left join ep on ep.entity_def=zz.entity
-   group by version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
-   having array_length(array_agg(distinct parentrole),1)&gt;1
-        order by version,rinok,ep,concept
-</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>WITH RECURSIVE recursive_hierarchy AS not materialized 
-        (
-        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes
-        from
-        ( 
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
-        from rulenodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
-        union all
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type from aspectnodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
-        order by 1,2,3,4
-        ) p
-         union all
-        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
-         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.label
-        from
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
-        from rulenodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
-        union all
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type 
-         from aspectnodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
-        order by 1,2,3,4
-        ) c 
-        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
-        where c.arcfrom is not null
-        ),
-        cc as
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.parent_label,rc.value concept,re.dimension||'#'||re.member dimension,
-        rp.start,rp.end,r.level,rc.parent_tag,r.rulenodes,e.periodtype period_type,tagselector
-        from recursive_hierarchy r 
-        join rulenodes_c rc on rc.version=r.version and rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and (rc.tag=tagselector or rc.rulenode_id=r.child_id)
-        join elements e  on e.qname=rc.value and e.version=rc.version and coalesce(abstract,'false')='false'
-        left join rulenodes_e re on re.version=r.version and re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and (re.tag=tagselector or re.rulenode_id=r.child_id)
-        left join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id) and rp.period_type=e.periodtype
-        ),
-        pp as
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,rp.start,rp.end,rp.tag,period_type,
-        case when cc.parent_label is null then 0 else 1 end is_parent,parent_label,tagselector
-        from recursive_hierarchy r
-        left join (select distinct version,rinok,entity,parentrole,parent_label from cc where parent_tag!='table:ruleset') cc using(version,rinok,entity,parentrole,parent_label)
-        join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id)
-        )
-        select cc.version "Версия",cc.rinok "Рынок",cc.entity "Файл",cc.parentrole "Роль",concept "Концепт",cc.period_type "Тип периода",
-        coalesce(coalesce(cc.start,pp.start),pp2.start) period_start,
-        coalesce(coalesce(cc.end,pp.end),pp2.end) period_end
-        from cc
-        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end,parent_label,tag from pp where is_parent=1) pp on pp.version=cc.version and pp.rinok=cc.rinok and pp.entity=cc.entity 
-        and pp.parentrole=cc.parentrole and pp.period_type=cc.period_type and cc.start is null and ((pp.parent_label=cc.parent_label and pp.tag is null) or pp.tag=cc.tagselector)
-        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end from pp where is_parent=0) pp2 on pp2.version=cc.version and pp2.rinok=cc.rinok and pp2.entity=cc.entity 
-        and pp2.parentrole=cc.parentrole and pp2.period_type=cc.period_type and cc.start is null
-        where coalesce(coalesce(cc.start,pp.start),pp2.start) is null
-  order by 1,2,3,4,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наличие параметров периодов во всех таблицах (Table Link). </t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with def_temp as not materialized
-(
- select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-  left join roles_table_definition rtd on rtd.role_definition=l.parentrole
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' --and l.rinok!='bfo'
-        order by arcrole
-),
-def as 
-(
-select distinct version,rinok,entity,parentrole,role_table,qname concept
-from def_temp
-where targetrole is null
- union all
-select distinct version,rinok,entity,d.parentrole,role_table,l.qname 
-from def_temp d
-left join (select parentrole,qname 
-from locators l 
-join elements e on e.id=href_id and e.version=l.version) l on l.parentrole=targetrole
-where targetrole is not null
-), 
-rn as not materialized
-(
-select distinct rn.version,rn.rinok,rn.parentrole,rn.value
-from rulenodes_c rn
-join elements e on e.qname=rn.value and e.version=rn.version
-where coalesce(abstract,'false')='false' 
-union all
-select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
-from rulenodes_e rn
-union all
-select distinct rn.version,rn.rinok,rn.parentrole,rn.member
-from rulenodes_e rn
-union all
-select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
-from aspectnodes rn
-) 
-select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
-check_similarity "Сопоставление ролей пройдено"
-from
-(
-select rn.version,rn.rinok,rn.parentrole role_table,def.parentrole role_def,value,concept concept,
-check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
-from rn
-left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (coalesce(role_table,def.parentrole)=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
-) rr
-where check_similarity=1  and concept is null
-order by version,rinok,role_table,value
-</t>
-  </si>
-  <si>
-    <t>Элемент есть в table но нет в definition</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл" 
-from tableschemas where entity not similar to '%-rend.xml%'
-union all
-select version,rinok,entity 
-from locators where locfrom='lab' and entity not similar to '%-lab.xml'</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",prefix "Префикс",array_agg(distinct entity) "Файлы" 
-from linkbases
-group by version,rinok,prefix
 order by 1,2,3</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with lb as
-(
-select distinct version,rinok,entity,split_part(prefix,':',-1) prefix,prefix prefix_full
-from linkbases
-where entity similar to '%-formula%' 
-),
-tt as (
-select distinct version,rinok,entity,split_part(unnest(tags::text[]),':',1) prefix
-from tabletags
-where tag_from='formula'
-)
-select tt.version,tt.rinok,tt.entity,tt.prefix,lb.prefix 
-from tt 
-left join lb on lb.version=tt.version and lb.rinok=tt.rinok and lb.entity=tt.entity and lb.prefix=tt.prefix
-where lb.prefix is null
-order by 1,2,3,4
-</t>
-  </si>
-  <si>
-    <t>Проверка, что используемый в формуле namespace задекларирован в объявлении корневого элемента xml</t>
-  </si>
-  <si>
-    <t>select version,rinok,entity from tabletags
-where tag_from='lab' and entity not similar to '%-lab.xml%'
-union all
-select version,rinok,entity from tabletags
-where tag_from='rend' and entity not similar to '%-rend.xml%'
-union all
-select version,rinok,entity from tabletags
-where tag_from='formula' and entity not similar to '%-formula.xml%'
-union all
-select version,rinok,entity from tabletags
-where tag_from='definition' and entity not similar to '%-definition.xml%'
-union all
-select version,rinok,entity from tabletags
-where tag_from='presentation' and entity not similar to '%-presentation.xml%'</t>
-  </si>
-  <si>
-    <t>Проверка, что формул нет в базе ссылок, отличной от *-formula.xml, *-rend.xml, *-lab.xml, *-definition.xml, *-presentation.xml</t>
+    <t>Ошибки наличия схем в точках входа</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2095,6 +2355,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2409,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2460,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -2471,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -2493,7 +2754,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2504,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>43</v>
@@ -2526,18 +2787,18 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>114</v>
+      <c r="A11" s="14">
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -2548,7 +2809,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2559,7 +2820,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -2570,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>46</v>
@@ -2581,7 +2842,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -2592,7 +2853,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2603,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>50</v>
@@ -2614,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>47</v>
@@ -2625,7 +2886,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>48</v>
@@ -2647,7 +2908,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -2658,7 +2919,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -2669,29 +2930,29 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="330" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -2702,10 +2963,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2724,7 +2985,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -2746,7 +3007,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -2768,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
@@ -2785,12 +3046,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>20</v>
@@ -2823,353 +3084,378 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>43</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>57</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>58</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>59</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>61</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>66</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>68</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>71</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>72</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>43</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>46</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>52</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>53</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="C63" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>56</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <v>58</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>59</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>61</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>64</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>66</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <v>68</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>70</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>71</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>72</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>155</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C62">
-    <sortCondition ref="A61"/>
+  <sortState ref="A2:C69">
+    <sortCondition ref="A55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3177,6 +3463,334 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A63">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3194,10 +3808,10 @@
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3223,10 +3837,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3252,7 +3866,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3260,12 +3874,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3307,7 +3921,7 @@
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>57</v>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -13,12 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="10" r:id="rId2"/>
-    <sheet name="54" sheetId="9" r:id="rId3"/>
-    <sheet name="49" sheetId="6" r:id="rId4"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
-    <sheet name="75" sheetId="3" r:id="rId6"/>
-    <sheet name="67" sheetId="4" r:id="rId7"/>
+    <sheet name="54" sheetId="9" r:id="rId2"/>
+    <sheet name="49" sheetId="6" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
+    <sheet name="75" sheetId="3" r:id="rId5"/>
+    <sheet name="67" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -961,21 +960,6 @@
   </si>
   <si>
     <t>Проверка дублирования мемберов в рамках одного дерева (presentation)</t>
-  </si>
-  <si>
-    <t>with ee as
-(
-select version,entity,id,enum2linkrole linkrole 
-from elements e 
-where type in ('enum2:enumerationSetItemType') 
-union all
-select version,entity,id,enumlinkrole from elements e 
-where type in ('enum:enumerationItemType') 
-)
-select ee.entity "Файл",ee.linkrole "Linkrole",a.parentrole "Роль листа в definition" from ee
-left join arcs a on a.parentrole=ee.linkrole and ee.version=a.version
-where a.parentrole is null
-and ee.version=HID</t>
   </si>
   <si>
     <t>42</t>
@@ -1589,192 +1573,6 @@
 )
 select * from fv where coalesce(dim,'1') != '1'
 </t>
-  </si>
-  <si>
-    <t>10.0|Файл .xsd точки входа найден в таксономии, но не задекларирован в META-INF\taxonomyPackage.xml|0:00:00.115695</t>
-  </si>
-  <si>
-    <t>11.0|Если RuleNode c merge = true, то у него не должно быть RuleSet|0:00:00.148602</t>
-  </si>
-  <si>
-    <t>16.0|Проверка уникальности дефолтного мембера для каждой оси в Definition|0:00:00.360034</t>
-  </si>
-  <si>
-    <t>17.0|Проверка значения атрибута @contextElement и @closed гиперкубов в слое Definition|0:00:00.206448</t>
-  </si>
-  <si>
-    <t>1.0|Проверка наличия во всех схемах и базах паразитных префиксов пространств имен вида fp1, ins-dic1, npf-dic1, uk-dic1, purcb-dic1, brk-dic1, kra-dic1, где вместо 1 может быть любая цифра|0:00:00.602384</t>
-  </si>
-  <si>
-    <t>2.0|Проверка отсутствия пробелов во всех URI внутри схем и баз|0:00:00.087765</t>
-  </si>
-  <si>
-    <t>5.0|Проверка существования файлов PathToXsd из META-INF\entry_point.xml|0:00:00.118682</t>
-  </si>
-  <si>
-    <t>6.0|Проверка существования файлов entryPointDocument из META-INF\taxonomyPackage.xml|0:00:00.142617</t>
-  </si>
-  <si>
-    <t>7.0|Проверка существования каталогов rewriteURI/@rewritePrefix из META-INF\catalog.xml|0:00:00.087767</t>
-  </si>
-  <si>
-    <t>18.0|Проверка того, что targetRole ссылается на существующую роль в Definition|0:00:00.540549</t>
-  </si>
-  <si>
-    <t>9.0|Файл .xsd точки входа найден в таксономии, но не задекларирован в META-INF\entry_point.xml|0:00:00.093747</t>
-  </si>
-  <si>
-    <t>22.0|Проверка корректности arcrole в слое Definition № 3 - оси|0:00:00.274265</t>
-  </si>
-  <si>
-    <t>19.0|Проверка корректности использования arcrole dimension-default в Definition|0:00:00.399929</t>
-  </si>
-  <si>
-    <t>23.0|Проверка на один гиперкуб в роли в Definition|0:00:00.431846</t>
-  </si>
-  <si>
-    <t>24.0|Проверка на то, что каждая роль начинается с Abstract в Definition|0:00:01.048189</t>
-  </si>
-  <si>
-    <t>20.0|Проверка корректности arcrole в слое Definition № 1 - мемберы|0:00:01.529902</t>
-  </si>
-  <si>
-    <t>21.0|Проверка корректности arcrole в слое Definition № 2 - неабстрактные показатели|0:00:00.733034</t>
-  </si>
-  <si>
-    <t>28.0|Проверка, что формул нет в базе ссылок, отличной от *-formula.xml, *-rend.xml, *-lab.xml, *-definition.xml, *-presentation.xml|0:00:00.138627</t>
-  </si>
-  <si>
-    <t>29.0|Проверка в Formula link  наличия severityLevel у всех контролей|0:00:00.422904</t>
-  </si>
-  <si>
-    <t>25.0|Проверка наличия стандартного русского лейбла у показателей в словаре|0:00:02.805481</t>
-  </si>
-  <si>
-    <t>30.0|Проверка в Formula link наличия у всех контролей стандартного message с атрибутом xml:lang=ru|0:00:02.357644</t>
-  </si>
-  <si>
-    <t>31.0|Проверка на наличие кириллических символов в коде элемента  в Dict|0:00:00.128655</t>
-  </si>
-  <si>
-    <t>26.0|Проверка наличия стандартного русского лейбла у показателей в словаре БФО|0:00:02.595046</t>
-  </si>
-  <si>
-    <t>32.0|Проверка в Table Link наличия у каждой таблицы стандартного заголовка на русском языке|0:00:02.908212</t>
-  </si>
-  <si>
-    <t>33.0|Проверка, что у всех инумераторов enum:linkrole начинается с http в Dict|0:00:00.094746</t>
-  </si>
-  <si>
-    <t>34.0|Проверка баланса скобок в выражениях generalVariable в Formula link|0:00:00.776912</t>
-  </si>
-  <si>
-    <t>35.0|Проверка структуры осей  Table Link  (должна быть ось X и ось Y)|0:00:00.186500</t>
-  </si>
-  <si>
-    <t>36.0|Проверка Table Link, что у абстрактного ruleNode должны быть дети|0:00:00.345076</t>
-  </si>
-  <si>
-    <t>37.0|Проверка, что merge узел должен быть абстрактным|0:00:00.086767</t>
-  </si>
-  <si>
-    <t>39.0|Длина кода элемента без префикса должна быть не более 256 символов|0:00:00.130651</t>
-  </si>
-  <si>
-    <t>40.0|Неиспользуемые фильтры и переменные в КС|0:00:01.966728</t>
-  </si>
-  <si>
-    <t>41.0|Проверка совпадения точек данных в разных ролях def (с учетом точек входа) Надзорка|0:00:00.386998</t>
-  </si>
-  <si>
-    <t>27.0|Проверка на наличие лишних пробелов в лейблах элементов|0:00:08.668768</t>
-  </si>
-  <si>
-    <t>52.0|Неверно настроен TableLink: в ruleNode (abstract = true и merge = true) добавлен aspectNode|0:00:00.900617</t>
-  </si>
-  <si>
-    <t>53.0|Для variable:factVariable не указаны дочерние элементы|0:00:07.266493</t>
-  </si>
-  <si>
-    <t>54.0|Контрольные соотношения с complement = true и дефолтным мембером в оси|0:00:07.722339</t>
-  </si>
-  <si>
-    <t>55.0|У каждого aspectNode с закрытой осью должен быть dimension filter|0:00:00.121671</t>
-  </si>
-  <si>
-    <t>56.0|Проверка на наличие кириллических символов в идентификаторе generic resource|0:00:00.245312</t>
-  </si>
-  <si>
-    <t>57.0|Проверка на то, что роль enum:linkrole определена исключительно на уровне словаря (для обычных инумераторов)|0:00:00.107709</t>
-  </si>
-  <si>
-    <t>58.0|Проверка на то, что роль из enum2:linkrole определена исключительно на уровне словаря (для инумераторов с множественным выбором)|0:00:00.104722</t>
-  </si>
-  <si>
-    <t>59.0|Ищет дублирующиеся идентификаторы ruleSetов в рамках одного ruleNode.|0:00:00.115696</t>
-  </si>
-  <si>
-    <t>61.0|Ищет элементы, которые есть в роли definition, но нет в аналогичной роли в presentation.|0:00:03.297194</t>
-  </si>
-  <si>
-    <t>62.1|Проверка дублирования мемберов в рамках одного дерева (definition)|0:00:01.311451</t>
-  </si>
-  <si>
-    <t>62.2|Проверка дублирования мемберов в рамках одного дерева (presentation)|0:00:02.390588</t>
-  </si>
-  <si>
-    <t>64.0|Запрос на вывод всех элементов с маской для ручной проверки маски.|0:00:01.082100</t>
-  </si>
-  <si>
-    <t>66.0|Запрос на выявление ситуации, когда к одному enumerator-у прикреплено 2 ссылки на атрибуты enum и enum2 |0:00:00.094747</t>
-  </si>
-  <si>
-    <t>68.0|Автоматическая проверка длины кода элементов, которые используются в слое definition. Максимум - 64 символа без префикса.|0:00:01.307496</t>
-  </si>
-  <si>
-    <t>70.0|Проверка, что каждый ID контрольного соотношения уникален.|0:00:00.125664</t>
-  </si>
-  <si>
-    <t>71.0|в наименовании каждой роли в таксономии хотя бы один раз присутствует цифровой код ОКУД – 7 цифр|0:00:00.088761</t>
-  </si>
-  <si>
-    <t>72.0|Несоответствие наименования (name) и иднтификатора (id) элемента|0:00:00.137630</t>
-  </si>
-  <si>
-    <t>76.0|Проверка на порядок разделов в xsd таблиц|0:00:00.129654</t>
-  </si>
-  <si>
-    <t>77.0|Различия в targetrole в definition с linkrole в table.|0:00:00.364029</t>
-  </si>
-  <si>
-    <t>78.0|Проверка наличия схемы из support_all в точках входа|0:00:00.111729</t>
-  </si>
-  <si>
-    <t>79.0|Наличие паразитных тэгов типа "xsd:group"|0:00:00.137602</t>
-  </si>
-  <si>
-    <t>74.0|Наличие параметров периодов во всех таблицах (Table Link). |0:00:27.116321</t>
-  </si>
-  <si>
-    <t>12.0|Показатель есть в Table, но нет в Definition|0:01:34.569545</t>
-  </si>
-  <si>
-    <t>80.0|Элемент есть в table но нет в definition|0:02:46.489885</t>
-  </si>
-  <si>
-    <t>81.0|nan|0:00:00.237322</t>
-  </si>
-  <si>
-    <t>8.0|Проверка, что используемый в формуле namespace задекларирован в объявлении корневого элемента xml|0:00:00.178555</t>
-  </si>
-  <si>
-    <t>13.0|Показатель есть в Definition, но нет в Table|0:03:49.229750</t>
-  </si>
-  <si>
-    <t>14.0|Проверка соответствия слоев Presentation и Definition|0:00:05.841320</t>
-  </si>
-  <si>
-    <t>15.0|Проверка по preferredLabel в Presentation слое: дублирование показателей в одной роли допускается только, если у них разные preferredLabel и ParentElement|0:00:03.501616</t>
   </si>
   <si>
     <t>Наличие lab1.xml rend1.xml и т.п.</t>
@@ -2268,6 +2066,26 @@
   </si>
   <si>
     <t>Ошибки наличия схем в точках входа</t>
+  </si>
+  <si>
+    <t>with ee as
+(
+select version,entity,id,enum2linkrole linkrole 
+from elements e 
+where type in ('enum2:enumerationSetItemType') 
+union all
+select version,entity,id,enumlinkrole from elements e 
+where type in ('enum:enumerationItemType') 
+)
+select ee.entity "Файл",ee.linkrole "Linkrole",
+  case WHEN REGEXP_LIKE(ee.linkrole, '[а-яА-Я]')
+         then 'Кириллица в link role'
+         else a.parentrole
+      end as  "Роль листа в definition"
+from ee
+left join arcs a on a.parentrole=ee.linkrole and ee.version=a.version
+where a.parentrole is null
+order by 3 desc;</t>
   </si>
 </sst>
 </file>
@@ -2672,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2721,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -2754,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2765,7 +2583,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>43</v>
@@ -2787,7 +2605,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>93</v>
@@ -2798,7 +2616,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -2809,7 +2627,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -2941,7 +2759,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -2952,7 +2770,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -2963,10 +2781,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2985,7 +2803,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -3051,7 +2869,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>20</v>
@@ -3084,7 +2902,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>84</v>
@@ -3117,18 +2935,18 @@
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="285" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>67</v>
@@ -3216,7 +3034,7 @@
         <v>61</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>27</v>
@@ -3227,7 +3045,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>94</v>
@@ -3249,7 +3067,7 @@
         <v>68</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>28</v>
@@ -3263,7 +3081,7 @@
         <v>38</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3279,32 +3097,32 @@
     </row>
     <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>89</v>
@@ -3312,7 +3130,7 @@
     </row>
     <row r="58" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>100</v>
@@ -3323,7 +3141,7 @@
     </row>
     <row r="59" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>102</v>
@@ -3334,7 +3152,7 @@
     </row>
     <row r="60" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>83</v>
@@ -3345,112 +3163,112 @@
     </row>
     <row r="61" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3463,334 +3281,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A63">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3819,7 +3309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3848,12 +3338,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,12 +3364,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,7 +3393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -13,11 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="54" sheetId="9" r:id="rId2"/>
-    <sheet name="49" sheetId="6" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
-    <sheet name="75" sheetId="3" r:id="rId5"/>
-    <sheet name="67" sheetId="4" r:id="rId6"/>
+    <sheet name="49" sheetId="6" r:id="rId2"/>
+    <sheet name="75" sheetId="3" r:id="rId3"/>
+    <sheet name="67" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -358,46 +356,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">with 
-va as
-(
-select va.version,va.rinok,va.entity,va.parentrole,va.label va_label,va.id va_id,test
- from va_assertions va
- where va.version=HID
-),
-fv as
-(
-select fv.version,fv.rinok,fv.entity,fv.parentrole, label fv_label,arcfrom,id fv_id,name var_name,fallbackvalue
-from va_factvars fv
-join arcs a on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole 
-and a.arcto=fv.label
-and fv.version=HID
-),
-cc as 
-(
-select c.version,c.rinok,c.entity,c.parentrole,value,arcfrom,arcto,e.type e_type
-from va_concepts c
-left join elements e on e.qname=value and e.version=c.version
-join arcs a on a.version=c.version and a.rinok=c.rinok and a.entity=c.entity and a.parentrole=c.parentrole and a.arcto=c.label
-where c.version=HID
-),
-fv_dim as
-(
-select fv.version,fv.rinok,fv.entity,fv.parentrole,fv.arcfrom,cc.value concept,fv_id,var_name,fallbackvalue,e_type
-from fv
-left join cc on cc.version=fv.version and cc.rinok=fv.rinok and cc.entity=fv.entity and cc.parentrole=fv.parentrole and cc.arcfrom=fv.fv_label
-)
-select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va_id "ID контроля",var_name "Varible",concept "Концепт",fallbackvalue,e_type "Тип элемента",test
-from va
-left join fv_dim fv on fv.version=va.version and fv.rinok=va.rinok and fv.entity=va.entity and fv.parentrole=va.parentrole
-and fv.arcfrom=va.va_label
-where fallbackvalue is not null and 
-((fallbackvalue ~ '^\d+(\.\d+)?$' and e_type not in ('xbrli:integerItemType','xbrli:monetaryItemType','xbrli:decimalItemType')) or
- (fallbackvalue !~ '^\d+(\.\d+)?$' and e_type not in ('enum2:enumerationSetItemType','nonnum:textBlockItemType','xbrli:timeItemType','enum:enumerationItemType','xbrli:dateItemType','xbrli:stringItemType')))
-order by va.parentrole,va_id
-</t>
-  </si>
-  <si>
     <t>with rn_t as
 (
 select r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,re.dimension||'|'||re.member dimension,
@@ -633,59 +591,6 @@
   </si>
   <si>
     <t>Проверка на наличие повторяющихся cf:conceptName, df:explicitDimension, df:typedDimension в формулах</t>
-  </si>
-  <si>
-    <t>with df as 
-(select replace(entity,'.xsd','-formula.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id and e.version=l.version
-                join elements em on em.id=lm.href_id and em.version=lm.version
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
-  where tp.version=HID
-        ) ee 
-        group by entity),
-dim as 
-(
-select ve.rinok,ve.version,ve.entity,ve.parentrole,ve.id,coalesce(l.label,ve.label) label,
-dimension||'#'||member dim
-from va_edimensions ve
-left join locators l on l.version=ve.version and l.rinok=ve.rinok and l.entity=ve.entity and l.href_id=ve.id
-left join va_edmembers vm on vm.version=ve.version and vm.entity=ve.entity and vm.rinok=ve.rinok and vm.parentrole=ve.parentrole
-and vm.dimension_id=ve.id
-left join df on df.entity=ve.entity
-where dimension||'#'||member = ANY(dim_def) and ve.version=HID
-),
-fv as
-(
-select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",dim,complement
-from
-(
-select fv.rinok,fv.version,fv.entity,fv.parentrole,fv.id,coalesce(l.label,fv.label) label
-from va_factvars fv
-left join locators l on l.version=fv.version and l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
- where fv.version=HID
-) fv
-join arcs a on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.arcfrom=fv.label and a.parentrole=fv.parentrole
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-filter' and a.complement='true'
-left join dim on dim.version=a.version and dim.rinok=a.rinok and dim.entity=a.entity and dim.label=a.arcto and dim.parentrole=fv.parentrole
-)
-select * from fv
-except
-select * from fv where dim is null</t>
   </si>
   <si>
     <t>Контрольные соотношения с complement = true и дефолтным мембером в оси</t>
@@ -962,13 +867,7 @@
     <t>Проверка дублирования мемберов в рамках одного дерева (presentation)</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) БФО</t>
-  </si>
-  <si>
-    <t>76</t>
   </si>
   <si>
     <t xml:space="preserve">with tp as
@@ -1082,16 +981,10 @@
     <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) Надзорка</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>62.1</t>
   </si>
   <si>
     <t>62.2</t>
-  </si>
-  <si>
-    <t>77</t>
   </si>
   <si>
     <t xml:space="preserve">with def as not materialized 
@@ -1136,9 +1029,6 @@
 </t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>Различия в targetrole в definition с linkrole в table.</t>
   </si>
   <si>
@@ -1218,9 +1108,6 @@
 </t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>Проверка наличия схемы из support_all в точках входа</t>
   </si>
   <si>
@@ -1232,9 +1119,6 @@
 on ss2.version=ss.version and ss2.rinok=ss.rinok and ss2.chema=ss.chema
 where ss2.chema is null
 </t>
-  </si>
-  <si>
-    <t>79</t>
   </si>
   <si>
     <t>Наличие паразитных тэгов типа "xsd:group"</t>
@@ -1381,9 +1265,6 @@
 </t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>WITH RECURSIVE recursive_hierarchy AS not materialized 
         (
         select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes
@@ -1455,13 +1336,7 @@
     <t xml:space="preserve">Наличие параметров периодов во всех таблицах (Table Link). </t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>Элемент есть в table но нет в definition</t>
-  </si>
-  <si>
-    <t>81</t>
   </si>
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл" 
@@ -1475,9 +1350,6 @@
 from linkbases
 group by version,rinok,prefix
 order by 1,2,3</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve">with lb as
@@ -1884,9 +1756,6 @@
 </t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>select x.version "Версия",x.rinok,x.entity "Файл xsd",x.file "Файл в tab",lb.href "Файл в xsd",case when is_hidden='true' then 'да' else 'нет' end "Скрытый да/нет"
 from xsdfiles x
 left join linkbaserefs lb  on lb.version=x.version and lb.entity=x.entity and lb.href=x.file
@@ -1914,9 +1783,6 @@
 )
 and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
 and e.rinok='bfo' </t>
-  </si>
-  <si>
-    <t>70</t>
   </si>
   <si>
     <t xml:space="preserve">select version,rinok,entity,tag_from,tag
@@ -2031,9 +1897,6 @@
 </t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>select distinct version "Версия",rinok "Рынок",entity "Схема",'Схемы нет в support ep' "Тип ошибки"
 from xsdfiles
 where (replace(rinok,'operatory','oper'),entity) in 
@@ -2086,6 +1949,50 @@
 left join arcs a on a.parentrole=ee.linkrole and ee.version=a.version
 where a.parentrole is null
 order by 3 desc;</t>
+  </si>
+  <si>
+    <t>select ve.version "Версия",ve.rinok "Рынок",ve.entity "Файл",ve.parentrole "Роль",ve.id "ID", ve.dimension "Значение", 'Taxis в explitDimension' "Тип ошибки"
+from va_edimensions ve
+join elements e on e.qname=ve.dimension
+where e.typeddomainref is not null
+union all
+select vt.version,vt.rinok,vt.entity,vt.parentrole,vt.id, vt.value,'Axis в typedDimension' "Тип ошибки"
+from va_tdimensions vt 
+join elements e on e.qname=vt.value 
+where e.typeddomainref is null</t>
+  </si>
+  <si>
+    <t>Проверка для формул. Taxis в explitDimension или Axis в typedDimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инумераторы. enumlinkrole или enum2linkrole указана в инумираторе, но не описана в definition словаря. </t>
+  </si>
+  <si>
+    <t>select e.version "Версия",df.rinok "Рынок",role_razdel "Раздел",qname "QName",coalesce(enumlinkrole,enum2linkrole) "linkrole в инумераторе",a.parentrole "linkrole в definition"
+from elements e
+left join arcs a on a.parentrole = coalesce(enumlinkrole,enum2linkrole)
+left join 
+(
+select distinct a.rinok,e2.qname element_qname,tp.entity table_entity,tp.uri_razdel role_razdel
+from arcs a
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+join elements e2 on e2.id=l.href_id
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+order by e2.qname 
+) df on df.element_qname=e.qname 
+where (enumlinkrole is not null or enum2linkrole is not null)
+and parentrole is null</t>
+  </si>
+  <si>
+    <t>Формулы. В OR фильтре присутствует aspectCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select vo.version "Версия",vo.rinok "Рынок",vo.entity "Файл",vo.parentrole "Роль",vo.id "OrFilter",va.id "AspectCover",va.aspects "Аспекты"
+from va_orfilters vo 
+join arcs a on a.version=vo.version and a.rinok =vo.rinok and a.entity =vo.entity and a.parentrole =vo.parentrole and a.arcfrom = vo.label
+join va_aspectcovers va on a.version=va.version and a.rinok =va.rinok and a.entity =va.entity and a.parentrole =va.parentrole and a.arcto = va.label
+</t>
   </si>
 </sst>
 </file>
@@ -2148,7 +2055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2174,6 +2081,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2488,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2539,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -2550,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -2568,712 +2479,745 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="14">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="17" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>27</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>28</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>30</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>31</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>32</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>33</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+    <row r="33" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>34</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+    <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>35</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+    <row r="35" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>36</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>37</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
+        <v>37</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>39</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+    <row r="38" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>40</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>43</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="44" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>46</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="C48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>57</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>59</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>61</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>66</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>68</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>70</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>71</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>72</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>76</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>77</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>78</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>79</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>80</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>81</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <v>82</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <v>83</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>84</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>48</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>53</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>55</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>56</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>57</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>58</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>59</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>61</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <v>64</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>66</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>68</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>71</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
-        <v>72</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>163</v>
+      <c r="C72" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <v>86</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C69">
-    <sortCondition ref="A55"/>
+  <sortState ref="A2:C73">
+    <sortCondition ref="A56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3285,36 +3229,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="86.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>54</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,10 +3242,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3338,33 +3253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="100.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3393,12 +3282,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,7 +3300,7 @@
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>57</v>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -870,43 +870,7 @@
     <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) БФО</t>
   </si>
   <si>
-    <t xml:space="preserve">with tp as
-(
-select tp.*,
-DENSE_RANK() OVER (
-    PARTITION BY uri_table
-    ORDER BY uri_razdel) rn
-from tableparts tp
- where version=HID
-order by uri_table,tp.order
-)
-select version "Версия",rinok "Рынок",entity "Файл",uri_table "URI таблицы",uri_razdel "URI раздела",tp.order "Сортировка в файле",rn "Сортировка (как должно быть)" from tp
-where uri_table in (select uri_table from tp where tp.order-tp.rn !=0)
-order by uri_table,tp.order
-</t>
-  </si>
-  <si>
     <t>Проверка на порядок разделов в xsd таблиц</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version,entity,rinok,parentrole,id,test,precond,name
-from
-(
-select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name
-from va_assertions va
-join arcs a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
-left join 
-(
-select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
-from preconditions p
-join arcs a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
-) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
-where va.version=HID
-) zz
-where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%'
-</t>
   </si>
   <si>
     <t>select distinct version,split_part(pathtoxsd,'/',-1) entity_tables,'объявлена но физически не существует' from entrypoints
@@ -985,48 +949,6 @@
   </si>
   <si>
     <t>62.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with def as not materialized 
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' --and l.rinok='ins'
-  and l.version=HID
-        order by l.version,l.rinok,l.entity,l.parentrole
-),
-rn as 
-(
- select distinct version,rinok,entity,parentrole,ed.dimension,linkrole 
- from rend_edimensions ed 
- join rend_edmembers em using (version,rinok,entity,parentrole)
- where em.dimension_id=ed.id 
-),
-res as 
-(
-select distinct def.version "Версия",def.rinok "Рынок",def.entity "Файл",def.parentrole "Роль definition",rn.parentrole "Роль table",case when def.targetrole!=rn.linkrole then 0 else 1 end "Совпадают targetrole и linkrole",
-def.targetrole "targetrole definition",rn.linkrole "linkrole table",
-def.qname "Ось definition",rn.dimension "Ось table",
-a.entity "Файл с описанием targetrole"
-from def 
-left join (select distinct version,parentrole,entity from arcs order by parentrole) a on a.parentrole=def.targetrole and a.version=def.version
-left join rn on rn.version=def.version and rn.rinok=def.rinok and (def.parentrole=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%') and rn.dimension=def.qname
-where type_elem=2 
-and def.targetrole is not null
-order by def.version,def.rinok,def.entity,def.parentrole,def.qname,rn.parentrole
-)
-select * from res
-where "Роль definition" in (select distinct "Роль definition" from res where "Совпадают targetrole и linkrole"=0)
-</t>
   </si>
   <si>
     <t>Различия в targetrole в definition с linkrole в table.</t>
@@ -1448,113 +1370,6 @@
   </si>
   <si>
     <t>Наличие lab1.xml rend1.xml и т.п.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with def_temp as not materialized
-(
- select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-  left join roles_table_definition rtd on rtd.role_definition=l.parentrole
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' --and l.rinok!='bfo'
-        order by arcrole
-),
-def as 
-(
-select distinct version,rinok,entity,parentrole,role_table,qname concept
-from def_temp
-where targetrole is null
- union all
-select distinct version,rinok,entity,d.parentrole,role_table,l.qname 
-from def_temp d
-left join (select parentrole,qname 
-from locators l 
-join elements e on e.id=href_id and e.version=l.version) l on l.parentrole=targetrole
-where targetrole is not null
-), 
-rn as not materialized
-(
-select distinct rn.version,rn.rinok,rn.parentrole,rn.value
-from rulenodes_c rn
-join elements e on e.qname=rn.value and e.version=rn.version
-where coalesce(abstract,'false')='false' 
-union all
-select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
-from rulenodes_e rn
-union all
-select distinct rn.version,rn.rinok,rn.parentrole,rn.member
-from rulenodes_e rn
-union all
-select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
-from aspectnodes rn
-) 
-select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
-check_similarity "Сопоставление ролей пройдено"
-from
-(
-select rn.version,rn.rinok,rn.parentrole role_table,d2.parentrole role_def,value,concept concept,
-check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
-from rn
-left join (select distinct version,rinok,parentrole,role_table from def) d2 on d2.version=rn.version and d2.rinok=rn.rinok and (coalesce(d2.role_table,d2.parentrole)=rn.parentrole or coalesce(d2.role_table,d2.parentrole) SIMILAR TO rn.parentrole||'\D%')
-left join def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (coalesce(def.role_table,def.parentrole)=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%')
-) rr
-where check_similarity=1 and concept is null
-order by version,rinok,role_table,value
-</t>
-  </si>
-  <si>
-    <t>with 
-def as 
-(
-        select distinct version,rinok,entity,parentrole,role_table,qname concept
-        from (
- select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,
-   e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-  left join roles_table_definition rtd on rtd.role_definition=l.parentrole
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition'
-  where coalesce(abstract,'false')='false'
-  and (case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then true else false end ) = true 
-) def_temp
- order by version,rinok,parentrole
-), 
-rn as not materialized
-(
-select distinct rn.version,rn.rinok,rn.parentrole,rn.value
-from rulenodes_c rn
-join elements e on e.qname=rn.value and e.version=rn.version
-where coalesce(abstract,'false')='false' 
- order by rn.version,rn.rinok,rn.parentrole
-) 
-select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
-check_similarity "Сопоставление ролей пройдено"
-from
-(
-select rn.version,rn.rinok,rn.parentrole role_table,d2.parentrole role_def,value,coalesce(concept,'') concept,
-check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
-from rn
-left join (select distinct version,rinok,parentrole,role_table from def) d2 on d2.version=rn.version and d2.rinok=rn.rinok and (coalesce(d2.role_table,d2.parentrole)=rn.parentrole or coalesce(d2.role_table,d2.parentrole) SIMILAR TO rn.parentrole||'\D%')
-left join def on rn.version=def.version and rn.rinok=def.rinok and (coalesce(def.role_table,def.parentrole)=rn.parentrole or def.parentrole SIMILAR TO rn.parentrole||'\D%') and value=concept 
-) rr
-where concept=''
-order by rinok</t>
   </si>
   <si>
     <t xml:space="preserve">with 
@@ -1993,6 +1808,285 @@
 join arcs a on a.version=vo.version and a.rinok =vo.rinok and a.entity =vo.entity and a.parentrole =vo.parentrole and a.arcfrom = vo.label
 join va_aspectcovers va on a.version=va.version and a.rinok =va.rinok and a.entity =va.entity and a.parentrole =va.parentrole and a.arcto = va.label
 </t>
+  </si>
+  <si>
+    <t>select l.version "Версия",l.rinok "Рынок",l.entity "Файл",va.id "ID контроля",m.role "Роль месседжа",m.text "Текст месседжа" from locators l  
+join va_assertions va on va.id =l.href_id 
+join arcs a on a.version=l.version and a.rinok =l.rinok and a.entity =l.entity  and a.parentrole = l.parentrole and a.arcfrom  =l.label 
+join messages m on m.version=a.version and m.rinok = a.rinok  and m.entity =a.entity and m.parentrole =a.parentrole and m.label=a.arcto 
+where locfrom='formula' 
+and a.arcrole ='http://xbrl.org/arcrole/2010/assertion-unsatisfied-message'
+and m.role='http://www.xbrl.org/2010/role/terseMessage'</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка наличия terseMessage в контроле </t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Несоответствие fallback значения с test или precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def_temp as not materialized
+(
+ select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+  left join (select distinct * from roles_table_definition) rtd on rtd.role_definition=l.parentrole
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition'
+ --where l.parentrole='http://www.cbr.ru/xbrl/nso/purcb/rep/2024-11-01/tab/SR_0420312_1_1'
+        order by l.version,l.rinok,l.entity,l.parentrole
+),
+def as 
+(
+select distinct version,rinok,entity,parentrole,role_table,qname concept
+from def_temp
+where targetrole is null
+ union all
+select distinct version,rinok,entity,d.parentrole,role_table,l.qname 
+from def_temp d
+left join (select parentrole,qname 
+from locators l 
+join elements e on e.id=href_id and e.version=l.version) l on l.parentrole=targetrole
+where targetrole is not null
+), 
+rn as not materialized
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false' 
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
+from rulenodes_e rn
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.member
+from rulenodes_e rn
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension
+from aspectnodes rn
+) 
+select distinct version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity "Сопоставление ролей пройдено"
+from
+(
+select rn.version,rn.rinok,rn.parentrole role_table,d2.parentrole role_def,value,concept concept,
+check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
+from (select * from rn order by version,rinok,parentrole) rn
+left join (select distinct version,rinok,parentrole,role_table from def) d2 on d2.version=rn.version and d2.rinok=rn.rinok and ((coalesce(d2.role_table,d2.parentrole)=rn.parentrole and role_table is not null)  or (d2.parentrole SIMILAR TO rn.parentrole||'\D%' and role_table is null))
+left join (select distinct * from def order by version,rinok,parentrole,role_table) def on rn.version=def.version and rn.rinok=def.rinok and value=concept and (coalesce(def.role_table,def.parentrole)=rn.parentrole or (def.parentrole SIMILAR TO rn.parentrole||'\D%' and def.role_table is null))
+) rr
+where check_similarity=1 and concept is null
+order by version,rinok,role_table,value
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def as not materialized 
+(
+ select l.version,l.rinok,l.entity,l.parentrole,role_table,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+   left join (select distinct * from roles_table_definition) rtd on rtd.role_definition=l.parentrole
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' 
+        order by l.version,l.rinok,l.entity,l.parentrole
+),
+rn as 
+(
+ select distinct version,rinok,entity,parentrole,ed.dimension,linkrole 
+ from rend_edimensions ed 
+ join rend_edmembers em using (version,rinok,entity,parentrole)
+ where em.dimension_id=ed.id 
+),
+res as 
+(
+select distinct def.version "Версия",def.rinok "Рынок",def.entity "Файл",def.role_table,def.parentrole "Роль definition",rn.parentrole "Роль table",case when def.targetrole!=rn.linkrole then 0 else 1 end "Совпадают targetrole и linkrole",
+def.targetrole "targetrole definition",rn.linkrole "linkrole table",
+def.qname "Ось definition",rn.dimension "Ось table",
+a.entity "Файл с описанием targetrole"
+from def 
+left join (select distinct version,parentrole,entity from arcs order by parentrole) a on a.parentrole=def.targetrole and a.version=def.version
+left join rn on rn.version=def.version and rn.rinok=def.rinok and (coalesce(def.role_table,def.parentrole)=rn.parentrole or (def.parentrole SIMILAR TO rn.parentrole||'\D%' and role_table is null)) and rn.dimension=def.qname
+where type_elem=2 
+and def.targetrole is not null
+order by def.version,def.rinok,def.entity,def.parentrole,def.qname,rn.parentrole
+)
+select * from res
+where "Роль definition" in (select distinct "Роль definition" from res where "Совпадают targetrole и linkrole"=0)
+</t>
+  </si>
+  <si>
+    <t>with 
+def as 
+(
+        select distinct version,rinok,entity,parentrole,role_table,qname concept
+        from (
+ select l.version,l.rinok,l.entity,l.parentrole,rtd.role_table,e.qname,l.label,arcfrom,arcto,arcrole,
+   e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+  left join (select distinct * from roles_table_definition) rtd on rtd.role_definition=l.parentrole
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition'
+  where coalesce(abstract,'false')='false'
+  and (case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then true else false end ) = true 
+ order by version,rinok,entity,parentrole
+) def_temp 
+order by version,rinok,parentrole
+), 
+rn as not materialized
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value
+from (select * from rulenodes_c order by value)rn
+join (select * from elements order by qname) e on e.qname=rn.value and e.version=rn.version
+where coalesce(abstract,'false')='false' 
+ order by rn.version,rn.rinok,rn.parentrole
+) 
+select version "Версия",rinok "Рынок",role_table "Роль table",role_def "Роль definition",value "Концепт table",concept "Концепт definition",
+check_similarity "Сопоставление ролей пройдено"
+from
+(
+select rn.version,rn.rinok,rn.parentrole role_table,d2.parentrole role_def,value,coalesce(concept,'') concept,
+check_similarity(rn.parentrole,(select array_agg(distinct coalesce(role_table,parentrole)) from def)) check_similarity
+from (select * from rn order by version,rinok,parentrole) rn
+left join (select distinct version,rinok,parentrole,role_table from def order by version,rinok,parentrole) d2 on d2.version=rn.version and d2.rinok=rn.rinok and (coalesce(d2.role_table,d2.parentrole)=rn.parentrole or (d2.parentrole SIMILAR TO rn.parentrole||'\D%' and role_table is null))
+left join (select * from def order by version,rinok,parentrole) def on rn.version=def.version and rn.rinok=def.rinok and (coalesce(def.role_table,def.parentrole)=rn.parentrole or (def.parentrole SIMILAR TO rn.parentrole||'\D%' and def.role_table is null)) and value=concept 
+) rr
+where concept=''
+order by rinok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+with locloc as 
+(
+select * from locators where locfrom='formula' order by version,rinok,entity,parentrole
+),
+arar as not materialized
+(
+select * from arcs where arctype='formula' order by version,rinok,entity,parentrole 
+),
+fv as
+(
+select fv.version,fv.rinok,fv.entity,fv.parentrole,fv.id,arcfrom,arcto fv_child,fallbackvalue,coalesce(l.label,fv.label) fv_label,e_qname,e_type,e_type_p
+from (select * from va_factvars order by version,rinok,entity,parentrole) fv
+left join locloc l on l.version=fv.version and l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
+join arar a on fv.version=a.version and fv.rinok=a.rinok and fv.entity=a.entity and a.parentrole=fv.parentrole and coalesce(l.label,fv.label)=a.arcfrom
+join (select vc.*,e.type e_type,qname e_qname, 
+case when e.type in ('xbrli:monetaryItemType','xbrli:decimalItemType','xbrli:integerItemType') then 1 
+when e.type in ('xbrli:stringItemType','xbrli:dateItemType','enum:enumerationItemType','enum2:enumerationSetItemType','xbrli:timeItemType') then 0 
+when e.type not in ('xbrli:monetaryItemType','xbrli:decimalItemType','xbrli:integerItemType','xbrli:stringItemType','xbrli:dateItemType',
+     'enum:enumerationItemType','enum2:enumerationSetItemType','xbrli:timeItemType') then -1 else 999 end e_type_p
+from va_concepts vc 
+join elements e on e.qname=vc.value
+order by vc.version,vc.rinok,vc.entity,vc.parentrole) vc on 
+a.version=vc.version and a.rinok=vc.rinok and a.entity=vc.entity and a.parentrole=vc.parentrole and a.arcto=vc.label
+where fallbackvalue is not null
+order by fv.version,fv.rinok,fv.entity,fv_label
+),
+va as 
+(
+select l.version,l.rinok,l.entity,a.parentrole,a.arcto fv_label,va.id va_id,test,p_test,'$'||a.name name_c
+from locloc l
+join arar a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.arcfrom=l.label
+join (select * from va_assertions order by version,rinok,entity,parentrole) va on va.version=l.version and l.rinok=va.rinok and l.entity=va.entity and va.id=l.href_id
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join arar a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+order by p.version,p.rinok,p.entity,p.parentrole
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+-- where va.id='valueAssertion_0420719_003'
+order by l.version,l.rinok,l.entity,a.arcto 
+)
+select version "Версия", rinok "Рынок", entity "Файл", parentrole "Роль", fv_label "factVarible label", va_id "ID КС", 
+e_type "Тип элемента", is_number "Число?", fallbackvalue, name_c "Переменная", mm "matches в test", ss "sum, count в test", 
+mm2 "matches в precondition", ss2 "sum, count в precondition", test, p_test "precondition" 
+from (
+select distinct version,rinok,entity,parentrole,fv_label,va_id,e_type,is_number,fallbackvalue,name_c,
+regexp_like(test, '.*matches\s*\(\s*' || ''||name_c || '.*', 'i') mm,
+regexp_like(test, '.*count\s*\(\s*' || ''||name_c || '.*', 'i') or regexp_like(test, '.*sum\s*\(\s*' || ''||name_c || '.*', 'i') ss,
+regexp_like(p_test, '.*matches\s*\(\s*' || ''||name_c || '.*', 'i') mm2,
+regexp_like(p_test, '.*count\s*\(\s*' || ''||name_c || '.*', 'i') or regexp_like(p_test, '.*sum\s*\(\s*' || ''||name_c || '.*', 'i') ss2,
+test,p_test
+from
+(
+select va.version,va.rinok,va.entity,va.parentrole,fv_label,va_id,e_type,e_type_p,regexp_like(fallbackvalue,'^[0-9\.]+$') is_number,fallbackvalue,name_c,test,p_test
+from va
+join fv using(version,rinok,entity,fv_label)
+)z
+where ((e_type_p = 1 and not is_number) or (e_type_p = 0 and is_number) or e_type_p =-1)
+ ) zz where ((mm = true and is_number) or (ss = true and not is_number)
+ or (mm2 = true and is_number) or (ss2 = true and not is_number))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",name "Переменная",test,precond,v_test
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id
+from va_assertions va
+join (select * from arcs where arctype='formula') a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join (select * from arcs where arctype='formula') a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+order by version,rinok,entity,parentrole
+) zz
+left join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,string_agg(test,' | ') v_test from va_generals vg
+join (select * from arcs where arctype='formula') a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
+group by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom
+order by version,rinok,entity,parentrole) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom
+where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%' and v_test not similar to '%'||name||'%'
+</t>
+  </si>
+  <si>
+    <t>with ll as
+(
+select version,rinok,entity,href,ll.order,rn::numeric[] as rn,
+DENSE_RANK() OVER (
+    PARTITION BY version,rinok,entity
+    ORDER BY rn::numeric[],href) rn_num
+from
+(
+select version,rinok,entity,href,tp.order,array_remove(string_to_array(NULLIF(regexp_replace(href, '\D','|','g'), '1'),'|'),'') rn
+from linkbaserefs tp
+where href like '%-rend.xml' and href not like '../%' and rinok!='bfo'
+) ll
+order by version,rinok,entity,rn::numeric[]
+)
+select version "Версия",rinok "Рынок",entity "Файл",href "REND",ll.order "Порядок в файле",rn_num "Порядок как должен быть",rn
+from ll
+where (version,rinok,entity) in (select version,rinok,entity from ll where ll.order-rn_num!=0)</t>
   </si>
 </sst>
 </file>
@@ -2399,10 +2493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2450,7 +2544,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -2483,10 +2577,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -2494,7 +2588,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2505,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -2527,7 +2621,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>91</v>
@@ -2538,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2549,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -2681,7 +2775,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>76</v>
@@ -2692,7 +2786,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -2703,10 +2797,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2725,7 +2819,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
@@ -2791,7 +2885,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>20</v>
@@ -2819,12 +2913,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>83</v>
@@ -2835,10 +2929,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2846,7 +2940,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>102</v>
@@ -2879,7 +2973,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>84</v>
@@ -2890,7 +2984,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>67</v>
@@ -2923,7 +3017,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>87</v>
@@ -2989,7 +3083,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>27</v>
@@ -2997,7 +3091,7 @@
     </row>
     <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>98</v>
@@ -3008,7 +3102,7 @@
     </row>
     <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>100</v>
@@ -3022,7 +3116,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>92</v>
@@ -3044,7 +3138,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>28</v>
@@ -3069,7 +3163,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3088,21 +3182,21 @@
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3110,10 +3204,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -3121,10 +3215,10 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3132,10 +3226,10 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3143,10 +3237,10 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3154,10 +3248,10 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -3165,10 +3259,10 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3176,10 +3270,10 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -3187,10 +3281,10 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="240" x14ac:dyDescent="0.25">
@@ -3198,10 +3292,10 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -3209,10 +3303,32 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -433,65 +433,6 @@
 </t>
   </si>
   <si>
-    <t>select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arcrole "Arcrole",lf.href_id "Ось",
-lt.href_id "Мембер",ee.substitutiongroup "Тип оси",e.type "Тип мембера"
-from arcs a
-join locators lf on lf.entity=a.entity and lf.parentrole=a.parentrole and lf.label=a.arcfrom and lf.version=a.version
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-left join elements e on e.id=lt.href_id and e.version=lt.version
-left join elements ee on ee.id=lf.href_id and ee.version=lf.version
-where arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-and (ee.substitutiongroup!='xbrldt:dimensionItem' or e.type!='nonnum:domainItemType')
-and a.version=HID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arctype "Тип арки", a.parentrole "URI",
-lt.href_id "ID элемента",arcrole "Arcrole"
-from arcs a
-join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
-join elements e on e.id=lt.href_id and e.version=lt.version
-where e.abstract!='true' and arctype='definition'
-and (substitutiongroup='xbrli:item' or substitutiongroup is null)
-and arcrole not in ('http://xbrl.org/int/dim/arcrole/dimension-default',
-       'http://xbrl.org/int/dim/arcrole/domain-member')
-and a.version=HID    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">with aa as
-(
-select aa.version,aa.rinok,aa.entity,aa.parentrole,
-max(case when abstract='true' and arcrole='http://xbrl.org/int/dim/arcrole/all' then 1 else 0 end) is_sluz
-from arcs aa
-join locators l on l.label=aa.arcfrom and l.version=aa.version and l.rinok=aa.rinok and l.entity=aa.entity and aa.parentrole=l.parentrole 
-join elements e on e.version=l.version and  e.id=l.href_id
-where aa.arctype='definition' and arcrole!='http://xbrl.org/int/dim/arcrole/notAll'
-and replace(aa.entity,'-definition.xml','.xsd') in (select distinct entity from tableparts)
-and aa.version=HID
-group by aa.version,aa.rinok,aa.entity,aa.parentrole
-)
-select rl.version "Версия",rl.rinok "Рынок",rl.entity "Файл",roleuri "Роль",is_sluz "Начинается со служебного 1-да/0-нет" from 
-(select version,rinok,entity, roleuri  from rolerefs where rolefrom='definition' and roleuri is not null and version=HID) rl
-join aa on aa.version=rl.version and aa.rinok=rl.rinok and aa.entity=rl.entity and aa.parentrole=rl.roleuri
-where is_sluz=0
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",lang,text,e.substitutiongroup,e.type,role
-from elements_labels e
-where (version,rinok,entity,id) not in 
-(select distinct version,rinok,entity,id
-from elements_labels where lang='ru' and role='http://www.xbrl.org/2003/role/label'
-and text!='') and e.qname in 
-(select e.qname 
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-join elements e on e.id=l.href_id and e.version=l.version)
-and e.rinok not in ('ifrs-full','eps') and split_part(e.qname,':',1)!='ifrs-ru'
-and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
-and e.version=HID
-</t>
-  </si>
-  <si>
     <t>Проверка наличия стандартного русского лейбла у показателей в словаре БФО</t>
   </si>
   <si>
@@ -594,18 +535,6 @@
   </si>
   <si>
     <t>Контрольные соотношения с complement = true и дефолтным мембером в оси</t>
-  </si>
-  <si>
-    <t>select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",l.href_id "ID элемента",
-targetrole "targetrole",rt.parentrole "Роль в definition"
-from arcs a
-left join (select distinct version,parentrole from arcs where arctype='definition') rt on rt.version=a.version and rt.parentrole=a.targetrole
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and targetrole is not null
-and rt.parentrole is null
-and a.version=HID</t>
   </si>
   <si>
     <t xml:space="preserve">select a.version "Версия",a.entity "Файл",a.rinok "Рынок",a.parentrole "URI раздела",
@@ -673,63 +602,6 @@
 where arcrole='http://xbrl.org/int/dim/arcrole/all'
 and (coalesce(closed,'false')!='true' or contextelement !='scenario')
 and version=HID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with def as  
-(   
-select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition'
-  and l.version=HID
-        order by l.parentrole,qname
-),
-dd as
-(
-WITH RECURSIVE recursive_hierarchy AS ( 
-  SELECT 
-    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
-    qname AS parent_qname,  -- Сохраняем "qname" родителя 
-    arcfrom, 
-    arcto, 
-    label, 
-    type_elem,typeddomainref,type as parent_type, type,arcrole as parent_arcrole,arcrole  
-  FROM 
-    def z
-  WHERE 
-    type_elem = 2  -- Начинаем с элементов типа 2 
-  UNION ALL 
-  SELECT 
-    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
-    p.parent_qname,  -- Передаем "qname" родителя 
-    c.arcfrom, 
-    c.arcto, 
-    c.label, 
-    c.type_elem,c.typeddomainref,p.type,c.type,p.arcrole,c.arcrole
-  FROM 
-    def c 
-  INNER JOIN 
-    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
-  WHERE 
-    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
-)
-select *
-FROM 
-recursive_hierarchy
-where type='nonnum:domainItemType'
-)
-select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",child_qname "Member",arcrole "Arcrole",parent_arcrole "Arcrole родителя"
-from dd
-where parent_arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' and arcrole!='http://xbrl.org/int/dim/arcrole/domain-member'
-</t>
   </si>
   <si>
     <t>select version "Версия",entity "Файл",rinok "Рынок",parentrole "Роль",r.id "rulenode ID", tag "Tag",count(*) "Кол-во ruleSet" 
@@ -954,17 +826,6 @@
     <t>Различия в targetrole в definition с linkrole в table.</t>
   </si>
   <si>
-    <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
-max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) "Сообщение"
-from (select * from va_assertions order by version,entity,rinok,parentrole) va
-left join (select * from locators order by version,entity,rinok,parentrole) l on l.version=va.version and l.entity=va.entity and l.rinok=va.rinok and l.href_id=va.id
-left join (select * from arcs order by version,entity,rinok,parentrole) a on a.version=va.version and a.entity=va.entity and a.rinok=va.rinok and a.arcfrom=coalesce(l.label,va.label)
-left join (select * from messages order by version,entity,rinok,parentrole) m on a.version=m.version and a.rinok=m.rinok and a.entity=m.entity and a.parentrole=m.parentrole and m.label=a.arcto and m.lang='ru'
-where va.version=HID
-group by va.version ,va.rinok,va.entity,va.parentrole,va.id
-having max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) is null</t>
-  </si>
-  <si>
     <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл элемента с паттерном",dd.entity "Файл таблицы",uri_razdel "URI definition",
 taxis "Ось (для typedName)",elem "Элемент с паттерном",substitutiongroup "Тип",e.minlength,e.pattern,round_skobka "Баланс круглых скобок",square_skobka "Баланс квадратных скобок"
 from
@@ -1056,134 +917,6 @@
 where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
 and a.version=HID
 and LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1))&gt;64
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with ep as materialized
-(
-select distinct replace(tp.entity,'.xsd','-definition.xml') entity_def,targetnamespace ep
-from tableparts tp 
-join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
---where tp.version=HID
-order by 1
-),
-df as 
-(
-        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id and e.version=l.version
-                join elements em on em.id=lm.href_id and em.version=lm.version
---     where l.version=HID
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
-        ) ee 
-        group by replace(entity,'.xsd','-definition.xml')
-),
-def as
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' and l.rinok='bfo' and e.rinok!='eps'
---  where l.version=HID
-        order by arcrole
-),
-dd as
-(
-WITH RECURSIVE recursive_hierarchy AS ( 
-  SELECT 
-    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
-    qname AS parent_qname,  -- Сохраняем "qname" родителя 
-    arcfrom, 
-    arcto, 
-    label, 
-    type_elem,typeddomainref
-  FROM 
-    def z
-  WHERE 
-    type_elem = 2  -- Начинаем с элементов типа 2 
-  UNION ALL 
-  SELECT 
-    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
-    p.parent_qname,  -- Передаем "qname" родителя 
-    c.arcfrom, 
-    c.arcto, 
-    c.label, 
-    c.type_elem,c.typeddomainref
-  FROM 
-    def c 
-  INNER JOIN 
-    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
-  WHERE 
-    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
-)
-select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
- from
- (
-select version,rinok,entity,parentrole,targetrole,parent_qname dim,
-string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
-FROM 
-recursive_hierarchy
-where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2)  and coalesce(usable,'true')!='false'
-group by version,rinok,entity,parentrole,targetrole,parent_qname 
-  )dd
-group by version,rinok,entity,parentrole  
-)
-  select version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
-   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
-  from
-  (
-    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
-        from
-        (
-        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
-  compare_arrays(dims,dims_minus) is_minus
-        from 
-        (
-        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
-        from def
-        where type_elem=1
-        and abstract='false'
-        ) cc 
-        left join dd using (version,rinok,entity,parentrole)
-        left join 
-        (
-  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
-        from def d1 
-        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
-  and d1.type_elem=5
-  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
-        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
-  ) dd
-  left join df on df.entity=dd.entity 
-        left join roletypes rt on rt.roleuri=dd.parentrole
-        where is_minus=0
-  ) zz
-  left join ep on ep.entity_def=zz.entity
-   group by version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
-   having array_length(array_agg(distinct parentrole),1)&gt;1
-        order by version,rinok,ep,concept
 </t>
   </si>
   <si>
@@ -1413,153 +1146,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">with 
-df as 
-(
-        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id and e.version=l.version
-                join elements em on em.id=lm.href_id and em.version=lm.version
-     where l.rinok!='bfo'
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
-        ) ee 
-        group by replace(entity,'.xsd','-definition.xml')
-),
-def as 
-(
- select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
-         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
-         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
-         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
-         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
-         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
-         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
-  typeddomainref
-        from locators l
-        join elements e on e.id=href_id and e.version=l.version
-        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-        and a.arctype='definition' 
- where l.rinok!='bfo'
-        order by l.version,l.rinok,l.entity,l.parentrole
-),
-dd as not materialized
-(
-WITH RECURSIVE recursive_hierarchy AS ( 
-  SELECT 
-    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
-    qname AS parent_qname,  -- Сохраняем "qname" родителя 
-    arcfrom, 
-    arcto, 
-    label, 
-    type_elem,typeddomainref
-  FROM 
-    def z
-  WHERE 
-    type_elem = 2  -- Начинаем с элементов типа 2 
- and rinok!='bfo'
-  UNION ALL 
-  SELECT 
-    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
-    p.parent_qname,  -- Передаем "qname" родителя 
-    c.arcfrom, 
-    c.arcto, 
-    c.label, 
-    c.type_elem,c.typeddomainref
-  FROM 
-    def c 
-  INNER JOIN 
-    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
-  WHERE 
-    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
- and c.rinok!='bfo'
-)
-select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
- from
- (
-select version,rinok,entity,parentrole,targetrole,parent_qname dim,
-string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
-FROM 
-recursive_hierarchy
-where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2) and coalesce(usable,'true')!='false'
-group by version,rinok,entity,parentrole,targetrole,parent_qname 
-  )dd
-group by version,rinok,entity,parentrole  
- order by version,rinok,entity,parentrole
-)
-  select version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
-   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
-  from
-  (
-    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
-        from
-        (
-        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
-  compare_arrays(dims,dims_minus) is_minus
-        from 
-        (
-        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
-        from def
-        where type_elem=1
-        and abstract='false'
-        ) cc 
-        left join dd on dd.version=cc.version and dd.rinok=cc.rinok and dd.entity=cc.entity and dd.parentrole=cc.parentrole
-        left join 
-        (
-  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
-        from def d1 
-        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
-  and d1.type_elem=5
-  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
-        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
-  ) dd
-  left join df on df.entity=dd.entity 
-  left join roletypes rt on rt.roleuri=dd.parentrole
-        where is_minus=0
-  ) zz
-   group by version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
-   having array_length(array_agg(distinct parentrole),1)&gt;1
-        order by version,rinok,entity,concept
-</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",table_entity,role_razdel,id "ID элемента",
-case when element_id is not null then 'да' else 'нет' end "Используется в definition",
-text "Текуший",text_final "Корректный"
-from
-(
-select version,rinok,entity,lang,text,id,
-delete_space_and_tab(text) text_final
-from elements_labels
-where text is not null
-order by id
-) l
-left join 
-(
-select distinct l.href_id element_id,tp.entity table_entity,tp.uri_razdel role_razdel
-from arcs a
-join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-order by l.href_id
-) df on df.element_id=id
-where text!=text_final
-order by table_entity,case when element_id is not null then 'да' else 'нет' end</t>
-  </si>
-  <si>
     <t xml:space="preserve">select r.version "Версия",r.rinok "Рынок",r.entity "Файл",r.parentrole "URI",r.id "ID рулнода",r.abstract "Абстрактность",a.arcto "Арки",rc.value "Концепт",re.dimension "Ось",rp.period_type "Период"
 from (select * from rulenodes order by version,rinok,entity,parentrole) r
 left join (select * from arcs order by version,rinok,entity,parentrole) a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcfrom=r.label
@@ -1579,25 +1165,6 @@
   </si>
   <si>
     <t>Проверка "мусорных" файлов в папке tab. Наличие не испольуемых и скрытых файлов, которые не объявленны в xsd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",lang,text,e.substitutiongroup,e.type
-from (select * from elements_labels order by qname) e
-where (version,rinok,entity,id) not in 
-(
-select distinct version,rinok,entity,id
-from elements_labels where lang='ru' and role='http://www.xbrl.org/2003/role/label'
-and text!=''
-) and e.qname in 
-(
-select e.qname 
-from arcs a
-join locators l on l.label=a.arcto and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-join elements e on e.id=l.href_id and e.version=l.version
-order by e.qname
-)
-and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
-and e.rinok='bfo' </t>
   </si>
   <si>
     <t xml:space="preserve">select version,rinok,entity,tag_from,tag
@@ -1982,8 +1549,686 @@
 order by rinok</t>
   </si>
   <si>
+    <t xml:space="preserve">select zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",name "Переменная",test,precond,v_test
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id
+from va_assertions va
+join (select * from arcs where arctype='formula') a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join (select * from arcs where arctype='formula') a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+order by version,rinok,entity,parentrole
+) zz
+left join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,string_agg(test,' | ') v_test from va_generals vg
+join (select * from arcs where arctype='formula') a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
+group by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom
+order by version,rinok,entity,parentrole) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom
+where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%' and v_test not similar to '%'||name||'%'
+</t>
+  </si>
+  <si>
+    <t>with ll as
+(
+select version,rinok,entity,href,ll.order,rn::numeric[] as rn,
+DENSE_RANK() OVER (
+    PARTITION BY version,rinok,entity
+    ORDER BY rn::numeric[],href) rn_num
+from
+(
+select version,rinok,entity,href,tp.order,array_remove(string_to_array(NULLIF(regexp_replace(href, '\D','|','g'), '1'),'|'),'') rn
+from linkbaserefs tp
+where href like '%-rend.xml' and href not like '../%' and rinok!='bfo'
+) ll
+order by version,rinok,entity,rn::numeric[]
+)
+select version "Версия",rinok "Рынок",entity "Файл",href "REND",ll.order "Порядок в файле",rn_num "Порядок как должен быть",rn
+from ll
+where (version,rinok,entity) in (select version,rinok,entity from ll where ll.order-rn_num!=0)</t>
+  </si>
+  <si>
+    <t>with aa as
+(
+select l.version,l.rinok,l.entity,l.parentrole,
+max(case when abstract='true' and arcrole='http://xbrl.org/int/dim/arcrole/all' then 1 else 0 end) is_sluz from
+(
+select l.*,e.abstract,e.qname,e.type e_type,typeddomainref 
+from (select * from locators where locfrom='definition' order by href_id) l
+join elements e on e.id=l.href_id and e.version=l.version
+order by version,rinok,entity,parentrole
+) l
+join (select * from arcs where arctype='definition' and arcrole!='http://xbrl.org/int/dim/arcrole/notAll' and replace(entity,'-definition.xml','.xsd') in (select distinct entity from tableparts)
+order by version,rinok,entity,parentrole) aa on l.label=aa.arcfrom and l.version=aa.version and l.rinok=aa.rinok and l.entity=aa.entity and aa.parentrole=l.parentrole 
+group by l.version,l.rinok,l.entity,l.parentrole
+)
+select rl.version "Версия",rl.rinok "Рынок",rl.entity "Файл",roleuri "Роль",is_sluz "Начинается со служебного 1-да/0-нет" from 
+(select version,rinok,entity, roleuri  from rolerefs where rolefrom='definition' and roleuri is not null) rl
+join aa on aa.version=rl.version and aa.rinok=rl.rinok and aa.entity=rl.entity and aa.parentrole=rl.roleuri
+where is_sluz=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",lang,text,e.substitutiongroup,e.type,role from
+(
+select * from elements_labels 
+order by qname
+) e
+where e.qname not in (select distinct qname from elements_labels where lang='ru' and role='http://www.xbrl.org/2003/role/label' and text!='' order by qname)
+and e.qname in 
+(
+select distinct qname from (select l.*,qname from (select * from locators order by href_id) l join elements e on e.id=l.href_id) l
+join arcs a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto and arctype='definition'
+where l.locfrom='definition'
+) and e.rinok not in ('ifrs-full','eps') and split_part(qname,':',1)!='ifrs-ru'
+and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
+</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",lang,text,e.substitutiongroup,e.type,role from
+(
+select * from elements_labels 
+order by qname
+) e
+where e.qname not in (select distinct qname from elements_labels where lang='ru' and role='http://www.xbrl.org/2003/role/label' and text!='' order by qname)
+and e.qname in 
+(
+select distinct qname from (select l.*,qname from (select * from locators order by href_id) l join elements e on e.id=l.href_id) l
+join arcs a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto and arctype='definition'
+where l.locfrom='definition'
+) and e.rinok not in ('ifrs-full','eps') and split_part(qname,':',1)!='ifrs-ru'
+and coalesce(role,'') in ('http://www.xbrl.org/2003/role/label','')
+and e.rinok='bfo'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with 
+df as 
+(
+        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+     where l.rinok!='bfo'
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by replace(entity,'.xsd','-definition.xml')
+ order by entity
+),
+def as 
+(
+ select l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(abstract,'false') abstract,a.usable,targetrole,typeddomainref,
+ case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem
+        from (
+  select l.*,e.type e_type,abstract,qname, typeddomainref from  locators l
+        join elements e on e.id=href_id and e.version=l.version
+   where l.locfrom='definition'
+  order by l.version,l.rinok,l.entity,l.parentrole
+     ) l
+        join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole) a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and a.arcto=l.label
+        and a.arctype='definition' 
+ where l.rinok!='bfo'
+        order by l.version,l.rinok,l.entity,l.parentrole
+),
+dd as not materialized
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+ and rinok!='bfo'
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+ and c.rinok!='bfo'
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2) and coalesce(usable,'true')!='false'
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+ order by version,rinok,entity,parentrole
+)
+  select version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
+   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+            select distinct dd.version,dd.rinok,dd.entity,parentrole,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
+                from
+                (
+                select version,rinok,entity,parentrole,concept,sum(is_minus) is_minus,
+    array_unique(array_agg(case when is_minus&gt;0 then p2 end)) roles_minus,
+    dims
+    from
+    (
+                select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,
+--     remove_elements_from_array_datecontrol(dd_all,dims_minus),
+    compare_arrays_datecontrol(dims,dims_minus,remove_elements_from_array_datecontrol(dd_all,dims_minus)) is_minus,
+    p2,
+    dims,dims_minus,dd_all
+                from 
+                (
+                select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+                from def
+                where type_elem=1
+                and abstract='false'
+    order by version,rinok,entity,parentrole,label
+                ) cc 
+                left join (select * from dd order by version,rinok,entity,parentrole) dd using (version,rinok,entity,parentrole)
+                left join 
+                (
+    select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,d2.parentrole p2,array_agg(array_to_string(dims,';')) dims_minus
+          from def d1 
+          join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+          and d1.type_elem=5
+    group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,d2.parentrole
+    order by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+                ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+    left join 
+    (
+     select version,rinok,entity,parentrole,array_unique(array_agg(dims)) dd_all from
+     (select version,rinok,entity,parentrole,unnest(dims) dims from dd order by version,rinok,entity,parentrole) dd
+     group by version,rinok,entity,parentrole
+     order by version,rinok,entity,parentrole
+    ) dd_all on dd_all.version=cc.version and cc.rinok=dd_all.rinok and cc.entity=dd_all.entity and cc.parentrole=dd_all.parentrole
+   ) zz
+   group by version,rinok,entity,parentrole,concept,dims
+   having sum(is_minus)=0
+   order by entity
+   ) dd
+          left join df on df.entity=dd.entity 
+          left join roletypes rt on rt.roleuri=dd.parentrole
+          ) zz
+   group by version,rinok,entity,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
+   having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,entity,concept
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with ep as materialized
+(
+select distinct replace(tp.entity,'.xsd','-definition.xml') entity_def,targetnamespace ep
+from tableparts tp 
+join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+--where tp.version=HID
+order by 1
+),
+df as 
+(
+        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+--     where l.version=HID
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by replace(entity,'.xsd','-definition.xml')
+),
+def as
+(
+ select l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(abstract,'false') abstract,a.usable,targetrole,typeddomainref,
+ case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem
+        from (
+  select l.*,e.type e_type,abstract,qname, typeddomainref from  locators l
+        join elements e on e.id=href_id and e.version=l.version
+   where l.locfrom='definition'
+  order by l.version,l.rinok,l.entity,l.parentrole
+     ) l
+        join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole) a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and a.arcto=l.label
+        and a.arctype='definition' 
+ where l.rinok='bfo'
+        order by l.version,l.rinok,l.entity,l.parentrole
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,usable,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.usable,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where ((type_elem&gt;=2 and typeddomainref is null and targetrole is not null) or (type_elem&gt;=2 and typeddomainref is not null) or type_elem&gt;2)  and coalesce(usable,'true')!='false'
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+)
+  select version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
+   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+            select distinct dd.version,dd.rinok,dd.entity,parentrole,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
+                from
+                (
+                select version,rinok,entity,parentrole,concept,sum(is_minus) is_minus,
+    array_unique(array_agg(case when is_minus&gt;0 then p2 end)) roles_minus,
+    dims
+    from
+    (
+                select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,
+--     remove_elements_from_array_datecontrol(dd_all,dims_minus),
+    compare_arrays_datecontrol(dims,dims_minus,remove_elements_from_array_datecontrol(dd_all,dims_minus)) is_minus,
+    p2,
+    dims,dims_minus,dd_all
+                from 
+                (
+                select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+                from def
+                where type_elem=1
+                and abstract='false'
+    order by version,rinok,entity,parentrole,label
+                ) cc 
+                left join (select * from dd order by version,rinok,entity,parentrole) dd using (version,rinok,entity,parentrole)
+                left join 
+                (
+    select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,d2.parentrole p2,array_agg(array_to_string(dims,';')) dims_minus
+          from def d1 
+          join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+          and d1.type_elem=5
+    group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,d2.parentrole
+    order by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+                ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+    left join 
+    (
+     select version,rinok,entity,parentrole,array_unique(array_agg(dims)) dd_all from
+     (select version,rinok,entity,parentrole,unnest(dims) dims from dd order by version,rinok,entity,parentrole) dd
+     group by version,rinok,entity,parentrole
+     order by version,rinok,entity,parentrole
+    ) dd_all on dd_all.version=cc.version and cc.rinok=dd_all.rinok and cc.entity=dd_all.entity and cc.parentrole=dd_all.parentrole
+   ) zz
+   group by version,rinok,entity,parentrole,concept,dims
+   having sum(is_minus)=0
+   order by entity
+   ) dd
+          left join df on df.entity=dd.entity 
+          left join roletypes rt on rt.roleuri=dd.parentrole
+          ) zz
+  left join ep on ep.entity_def=zz.entity
+   group by version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
+   having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,ep,concept
+</t>
+  </si>
+  <si>
+    <t>select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",l.href_id "ID элемента",
+targetrole "targetrole",rt.parentrole "Роль в definition"
+from
+(select * from locators l
+where l.locfrom='definition'
+order by version,rinok,entity,parentrole) l
+join (select * from arcs a where arctype='definition' order by version,rinok,entity,parentrole) a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto
+left join (select distinct version,parentrole from arcs where arctype='definition') rt on rt.version=a.version and rt.parentrole=a.targetrole
+join tableparts tp on tp.version=l.version and tp.rinok=l.rinok
+where (tp.uri_table=l.parentrole or tp.uri_razdel=l.parentrole)
+and targetrole is not null
+and rt.parentrole is null</t>
+  </si>
+  <si>
+    <t>select a.version "Версия",a.rinok "Рынок",a.entity "Файл",a.arcrole "Arcrole",lf.href_id "Ось",
+lt.href_id "Мембер",ee.substitutiongroup "Тип оси",e.type "Тип мембера"
+from arcs a
+join locators lf on lf.entity=a.entity and lf.parentrole=a.parentrole and lf.label=a.arcfrom and lf.version=a.version
+join locators lt on lt.entity=a.entity and lt.parentrole=a.parentrole and lt.label=a.arcto and lt.version=a.version
+left join elements e on e.id=lt.href_id and e.version=lt.version
+left join elements ee on ee.id=lf.href_id and ee.version=lf.version
+where arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+and (ee.substitutiongroup!='xbrldt:dimensionItem' or e.type!='nonnum:domainItemType')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with def as  
+(   
+select l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from (select l.*,e.type e_type,qname,typeddomainref,abstract from (select * from locators l where locfrom='definition' order by href_id) l  
+        join elements e on e.id=href_id and e.version=l.version
+     order by l.version,l.rinok,l.entity,l.parentrole
+    ) l
+        join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole )a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        order by l.parentrole,qname
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref,e_type as parent_type, e_type,arcrole as parent_arcrole,arcrole  
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref,p.e_type,c.e_type,p.arcrole,c.arcrole
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select *
+FROM 
+recursive_hierarchy
+where e_type='nonnum:domainItemType'
+)
+select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",child_qname "Member",arcrole "Arcrole",parent_arcrole "Arcrole родителя"
+from dd
+where parent_arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' and arcrole!='http://xbrl.org/int/dim/arcrole/domain-member'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select l.version "Версия",l.rinok "Рынок",l.entity "Файл",a.arctype "Тип арки", l.parentrole "URI",
+l.href_id "ID элемента",arcrole "Arcrole"
+from
+(
+select l.*,e.type e_type,qname,typeddomainref,abstract,e.substitutiongroup from (select * from locators l where locfrom='definition' order by href_id) l  
+join elements e on e.id=href_id and e.version=l.version
+order by l.version,l.rinok,l.entity,l.parentrole
+) l
+join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole) a 
+on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and l.parentrole=a.parentrole and l.label=a.arcto  
+where l.abstract!='true' and arctype='definition'
+and (substitutiongroup='xbrli:item' or substitutiongroup is null)
+and arcrole not in ('http://xbrl.org/int/dim/arcrole/dimension-default',
+       'http://xbrl.org/int/dim/arcrole/domain-member')  </t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",table_entity,role_razdel,id "ID элемента",
+case when element_id is not null then 'да' else 'нет' end "Используется в definition",
+text "Текуший",text_final "Корректный"
+from
+(
+select version,rinok,entity,lang,text,id,
+delete_space_and_tab(text) text_final
+from elements_labels
+where text is not null
+order by id
+) l
+left join 
+(
+select distinct l.href_id element_id,tp.entity table_entity,tp.uri_razdel role_razdel 
+from
+(select * from locators l where l.locfrom='definition' order by version,rinok,entity,parentrole) l
+join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole) a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+where (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+order by l.href_id
+) df on df.element_id=id
+where text!=text_final
+order by table_entity,case when element_id is not null then 'да' else 'нет' end</t>
+  </si>
+  <si>
+    <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
+max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) "Сообщение"
+from (select * from va_assertions order by version,entity,rinok,parentrole) va
+left join (select * from locators order by version,entity,rinok,parentrole) l on l.version=va.version and l.entity=va.entity and l.rinok=va.rinok and l.href_id=va.id
+left join (select * from arcs order by version,entity,rinok,parentrole) a on a.version=va.version and a.entity=va.entity and a.rinok=va.rinok and a.arcfrom=coalesce(l.label,va.label)
+left join (select * from messages order by version,entity,rinok,parentrole) m on a.version=m.version and a.rinok=m.rinok and a.entity=m.entity and a.parentrole=m.parentrole and m.label=a.arcto and m.lang='ru'
+group by va.version ,va.rinok,va.entity,va.parentrole,va.id
+having max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) is null</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Отличие preferred labels слоя presentation с лейблами руднодов таблицы соответствующей роли.</t>
+  </si>
+  <si>
+    <t>with rn as
+(   
+select rn.version,rn.parentrole,rn.entity,rn.rinok,rn.label,rn.id,coalesce(rc.value,re.member) qname
+from rulenodes rn
+left join rulenodes_c rc on rc.version=rn.version and rc.entity=rn.entity and rc.rinok=rn.rinok and rc.parentrole=rn.parentrole and rc.rulenode_id=rn.id
+left join rulenodes_e re on re.version=rn.version and re.entity=rn.entity and re.rinok=rn.rinok and re.parentrole=rn.parentrole and re.rulenode_id=rn.id
+where coalesce(rc.value,re.member) is not null
+order by rn.version,rn.rinok,rn.entity,rn.id
+),
+gl as
+(
+select l.version,l.rinok,replace(l.entity,'-lab.xml','-rend.xml') entity,href_id id,text
+from (select * from locators where locfrom='lab' order by version,rinok,entity,parentrole) l
+join (select * from arcs order by version,rinok,entity,parentrole) a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.parentrole=l.parentrole and l.label=a.arcfrom
+join (select * from labels order by version,rinok,entity) la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole 
+and la.label=a.arcto and la.role='http://www.xbrl.org/2008/role/label'
+order by 1,2,3,4
+)
+select rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "Роль",rn.qname "Qname элемента",type "Тип элемента",arr_len "Кол-во lable в table",
+arr1_in_arr2_hard(pl_texts,rn_texts) "Жесткое сопоставление",
+arr1_in_arr2_light(pl_texts,rn_texts) "Сопоставление без учета пробелов и регистра",
+array_to_string(rn_texts,';') "Лейблы table",array_to_string(pl_texts,';') "Лейблы presentation"
+from
+(
+select rn.version,rn.rinok,gl.entity,rn.parentrole,qname,array_length(array_agg(distinct gl.text),1) arr_len,array_unique(array_agg(distinct gl.text)) rn_texts
+from rn
+join gl using (version,rinok,entity,id)
+group by rn.version,rn.rinok,gl.entity,rn.parentrole,qname
+) rn
+join 
+(
+select version,entity,rinok,role_table,pl.parentrole,href_id,qname,type,array_unique(array_agg(distinct text)) pl_texts
+from
+(
+select version,entity,rinok,role_table,pl.parentrole,qname,href_id,type,substitutiongroup,abstract,text
+from preferred_labels pl
+left join roles_table_definition r on r.role_definition=pl.parentrole
+where type != 'xbrldt:dimensionItem'
+) pl
+group by version,entity,rinok,role_table,pl.parentrole,href_id,qname,type
+order by type
+) pl on pl.version=rn.version and (coalesce(pl.role_table,pl.parentrole)=rn.parentrole or (pl.parentrole SIMILAR TO rn.parentrole||'\D%' and pl.role_table is null)) and pl.qname=rn.qname
+where arr1_in_arr2_hard(pl_texts,rn_texts)=0</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-with locloc as 
+        WITH RECURSIVE recursive_hierarchy AS not materialized 
+        (
+        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes,order_,abstract,rn_order
+        from
+        ( 
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'root' cell_type,r.order order_,abstract,a.order rn_order
+        from rulenodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'root_aspect' cell_type,0 as order_,null abstract,a.order rn_order
+  from aspectnodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) p
+         union all
+        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
+         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.id,c.order_,c.abstract,p.rn_order ||';'|| c.rn_order rn_order
+        from
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'child' cell_type,r.order order_ ,abstract,a.order rn_order
+        from rulenodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'child_aspect' cell_type,0 as order_ ,null abstract,a.order rn_order
+         from aspectnodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) c 
+        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
+        where c.arcfrom is not null
+       ),
+  rc_temp as
+  (
+  select distinct rn.version,rn.rinok,rn.entity,rn.parentrole,rn.child_id,rn.arcfrom,arcfrom_2,la.text,order_child,order_root,
+   array_remove(string_to_array(NULLIF(regexp_replace(la.text, '\D','|','g'), ''),'|'),'')::numeric[] rn,abstract
+  from
+  (
+  select version,rinok,entity,parentrole,rh.arcfrom,rh.child_id,arcfrom_2,order_child,order_root,abstract
+  from 
+  (
+   select version,rinok,entity,parentrole,rh.arcfrom,rh2.arcfrom arcfrom_2,
+   rh2.child_id,
+   rh2.order_,
+   rh2.abstract,
+   string_to_array(rh2.rn_order,';')::numeric[] order_child,
+   string_to_array(rh.rn_order,';')::numeric[] order_root,
+   rh2.cell_type
+   from
+   recursive_hierarchy rh
+  left join (select * from recursive_hierarchy where cell_type in ('child','child_aspect')) rh2 using (version,rinok,entity,parentrole)
+  where rh2.parent_id=rh.parent_id and rh.cell_type in ('root','root_aspect')
+   union all
+  select version,rinok,entity,parentrole,arcfrom,arcfrom arcfrom_2,parent_id,rh.order_,rh.abstract,
+   string_to_array(rh.rn_order,';')::numeric[] order_child,
+   string_to_array(rh.rn_order,';')::numeric[] order_root,
+   cell_type
+   from
+   recursive_hierarchy rh
+   where rh.cell_type in ('root','root_aspect')
+  ) rh
+  ) rn
+  join locators l on l.version=rn.version and replace(rn.entity,'-rend.xml','-lab.xml')=l.entity and l.href_id=rn.child_id and l.rinok=rn.rinok
+  join arcs aa on aa.version=rn.version and aa.entity=rn.entity and aa.rinok=rn.rinok and aa.parentrole=rn.parentrole and rn.child_id=aa.arcto
+  join arcs a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.parentrole=l.parentrole and l.label=a.arcfrom
+  join labels la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole and la.label=a.arcto and la.role='http://www.eurofiling.info/xbrl/role/rc-code'
+  where l.locfrom='lab' 
+  ),
+  rc as
+  (
+  select version,rinok,entity,parentrole,child_id,text,order_child,order_root,rn,table_rn,rc_rn,abstract,arcfrom,arcfrom_2
+  from
+  (
+  select version,rinok,entity,parentrole,child_id,text,order_child,order_root,rn,abstract,arcfrom,arcfrom_2,
+  DENSE_RANK() OVER (PARTITION BY version,rinok,entity,parentrole,arcfrom ORDER BY order_root,order_child,child_id) table_rn,
+  DENSE_RANK() OVER (PARTITION BY version,rinok,entity,parentrole,arcfrom ORDER BY rn) rc_rn
+  from rc_temp
+  where coalesce(abstract,'false')='false'
+  order by version,rinok,entity,parentrole,order_root,order_child
+  ) rc
+  )
+  select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",child_id "ID рулнода",text "RС-код",
+  table_rn "Сортировка рулнодов по table",rc_rn "Сортировка рулнодов по RC" ,order_root "Сортировка родителей (справочно)",order_child "Сортировка детей (справочно)",rn "Сортировка RC кодов (справочно)"
+  from rc
+  --where (version,rinok,entity,parentrole) in (select version,rinok,entity,parentrole from rc where table_rn-rc_rn!=0)
+  </t>
+  </si>
+  <si>
+    <t>Проверка сортировки значений RC кодов в таблице</t>
+  </si>
+  <si>
+    <t>with locloc as not materialized
 (
 select * from locators where locfrom='formula' order by version,rinok,entity,parentrole
 ),
@@ -2013,8 +2258,8 @@
 (
 select l.version,l.rinok,l.entity,a.parentrole,a.arcto fv_label,va.id va_id,test,p_test,'$'||a.name name_c
 from locloc l
-join arar a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.arcfrom=l.label
-join (select * from va_assertions order by version,rinok,entity,parentrole) va on va.version=l.version and l.rinok=va.rinok and l.entity=va.entity and va.id=l.href_id
+join (select va.version,va.rinok,va.entity,va.parentrole,test,p_test,va.id from 
+(select * from va_assertions order by version,rinok,entity,parentrole ) va
 left join 
 (
 select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
@@ -2022,7 +2267,8 @@
 join arar a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
 order by p.version,p.rinok,p.entity,p.parentrole
 ) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
--- where va.id='valueAssertion_0420719_003'
+order by va.version,va.rinok,va.entity,va.parentrole) va on va.version=l.version and l.rinok=va.rinok and l.entity=va.entity and va.id=l.href_id 
+join arar a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.arcfrom=l.label
 order by l.version,l.rinok,l.entity,a.arcto 
 )
 select version "Версия", rinok "Рынок", entity "Файл", parentrole "Роль", fv_label "factVarible label", va_id "ID КС", 
@@ -2044,49 +2290,6 @@
 where ((e_type_p = 1 and not is_number) or (e_type_p = 0 and is_number) or e_type_p =-1)
  ) zz where ((mm = true and is_number) or (ss = true and not is_number)
  or (mm2 = true and is_number) or (ss2 = true and not is_number))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",name "Переменная",test,precond,v_test
-from
-(
-select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id
-from va_assertions va
-join (select * from arcs where arctype='formula') a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
-left join 
-(
-select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
-from preconditions p
-join (select * from arcs where arctype='formula') a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
-) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
-order by version,rinok,entity,parentrole
-) zz
-left join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,string_agg(test,' | ') v_test from va_generals vg
-join (select * from arcs where arctype='formula') a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
-group by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom
-order by version,rinok,entity,parentrole) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom
-where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%' and v_test not similar to '%'||name||'%'
-</t>
-  </si>
-  <si>
-    <t>with ll as
-(
-select version,rinok,entity,href,ll.order,rn::numeric[] as rn,
-DENSE_RANK() OVER (
-    PARTITION BY version,rinok,entity
-    ORDER BY rn::numeric[],href) rn_num
-from
-(
-select version,rinok,entity,href,tp.order,array_remove(string_to_array(NULLIF(regexp_replace(href, '\D','|','g'), '1'),'|'),'') rn
-from linkbaserefs tp
-where href like '%-rend.xml' and href not like '../%' and rinok!='bfo'
-) ll
-order by version,rinok,entity,rn::numeric[]
-)
-select version "Версия",rinok "Рынок",entity "Файл",href "REND",ll.order "Порядок в файле",rn_num "Порядок как должен быть",rn
-from ll
-where (version,rinok,entity) in (select version,rinok,entity from ll where ll.order-rn_num!=0)</t>
   </si>
 </sst>
 </file>
@@ -2493,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2544,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -2577,10 +2780,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -2588,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2599,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -2621,10 +2824,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2632,7 +2835,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2643,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -2654,7 +2857,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -2665,7 +2868,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>46</v>
@@ -2676,29 +2879,29 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>50</v>
@@ -2709,18 +2912,18 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>48</v>
@@ -2742,51 +2945,51 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="330" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -2797,10 +3000,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -2814,12 +3017,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
@@ -2841,7 +3044,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
@@ -2863,7 +3066,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>19</v>
@@ -2885,7 +3088,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>20</v>
@@ -2918,10 +3121,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2929,10 +3132,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -2940,10 +3143,10 @@
         <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -2962,7 +3165,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>54</v>
@@ -2973,10 +3176,10 @@
         <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="285" x14ac:dyDescent="0.25">
@@ -2984,7 +3187,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>67</v>
@@ -3017,10 +3220,10 @@
         <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -3028,7 +3231,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>62</v>
@@ -3050,7 +3253,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>65</v>
@@ -3061,7 +3264,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>66</v>
@@ -3072,7 +3275,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>68</v>
@@ -3083,7 +3286,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>27</v>
@@ -3091,24 +3294,24 @@
     </row>
     <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3116,10 +3319,10 @@
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3138,7 +3341,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>28</v>
@@ -3149,7 +3352,7 @@
         <v>70</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>29</v>
@@ -3163,7 +3366,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3182,10 +3385,10 @@
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -3193,10 +3396,10 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3204,10 +3407,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -3215,10 +3418,10 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3226,10 +3429,10 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3237,10 +3440,10 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3248,10 +3451,10 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -3259,10 +3462,10 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3270,10 +3473,10 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -3281,10 +3484,10 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="240" x14ac:dyDescent="0.25">
@@ -3292,10 +3495,10 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -3303,32 +3506,54 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3358,10 +3583,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -790,28 +790,6 @@
   </si>
   <si>
     <t>в наименовании каждой роли в таксономии хотя бы один раз присутствует цифровой код ОКУД – 7 цифр</t>
-  </si>
-  <si>
-    <t>select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",value 
-from va_concepts
-where value not in (select qname from elements 
-     where version=HID
-       )
-and version=HID
-union all
-select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",dimension 
-from va_edimensions
-where dimension not in (select qname from elements 
-      where version=HID
-        )
-and version=HID
-union all
-select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",member 
-from va_edmembers
-where member not in (select qname from elements 
-      where version=HID
-     )
-and version=HID</t>
   </si>
   <si>
     <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) Надзорка</t>
@@ -2290,6 +2268,38 @@
 where ((e_type_p = 1 and not is_number) or (e_type_p = 0 and is_number) or e_type_p =-1)
  ) zz where ((mm = true and is_number) or (ss = true and not is_number)
  or (mm2 = true and is_number) or (ss2 = true and not is_number))</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл XSD",href "Файл presentation,definition" 
+from linkbaserefs
+where (href similar to '%-definition.xml'
+and replace(entity,'.xsd','-definition.xml')!=href)
+or 
+( href similar to '%-presentation.xml'
+and replace(entity,'.xsd','-presentation.xml')!=href
+)</t>
+  </si>
+  <si>
+    <t>Название файла definition или presentation отличается от названия xsd схемы.</t>
+  </si>
+  <si>
+    <t>select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",id,value 
+from va_concepts
+where value not in (select qname from elements 
+       )
+union all
+select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",id,dimension 
+from va_edimensions
+where dimension not in (select qname from elements 
+        )
+union all
+select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",dimension_id,member 
+from va_edmembers
+where member not in (select qname from elements 
+     )</t>
   </si>
 </sst>
 </file>
@@ -2696,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2780,10 +2790,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -2824,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>86</v>
@@ -2835,7 +2845,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2890,7 +2900,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -2901,7 +2911,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>50</v>
@@ -2912,7 +2922,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -2923,7 +2933,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>48</v>
@@ -2956,7 +2966,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -2967,7 +2977,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -2978,7 +2988,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>72</v>
@@ -2989,7 +2999,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -3000,10 +3010,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -3022,7 +3032,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
@@ -3088,7 +3098,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>20</v>
@@ -3121,7 +3131,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>79</v>
@@ -3132,10 +3142,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3143,7 +3153,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>96</v>
@@ -3171,12 +3181,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>80</v>
@@ -3187,7 +3197,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>67</v>
@@ -3220,7 +3230,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>83</v>
@@ -3286,7 +3296,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>27</v>
@@ -3294,7 +3304,7 @@
     </row>
     <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>92</v>
@@ -3305,7 +3315,7 @@
     </row>
     <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>94</v>
@@ -3319,7 +3329,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>87</v>
@@ -3341,7 +3351,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>28</v>
@@ -3385,10 +3395,10 @@
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -3396,7 +3406,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>97</v>
@@ -3407,10 +3417,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -3418,10 +3428,10 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3429,10 +3439,10 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3440,10 +3450,10 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3451,10 +3461,10 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -3462,10 +3472,10 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3473,10 +3483,10 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -3484,10 +3494,10 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="240" x14ac:dyDescent="0.25">
@@ -3495,10 +3505,10 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -3506,54 +3516,65 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>165</v>
+    </row>
+    <row r="78" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -13,9 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="49" sheetId="6" r:id="rId2"/>
-    <sheet name="75" sheetId="3" r:id="rId3"/>
-    <sheet name="67" sheetId="4" r:id="rId4"/>
+    <sheet name="61 (old)" sheetId="11" r:id="rId2"/>
+    <sheet name="14 (old)" sheetId="10" r:id="rId3"/>
+    <sheet name="80 (old)" sheetId="9" r:id="rId4"/>
+    <sheet name="13 (old)" sheetId="8" r:id="rId5"/>
+    <sheet name="12 (old)" sheetId="7" r:id="rId6"/>
+    <sheet name="49" sheetId="6" r:id="rId7"/>
+    <sheet name="75" sheetId="3" r:id="rId8"/>
+    <sheet name="67" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -787,9 +792,6 @@
 where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
 and a.version=HID
 order by 1,2,3,4</t>
-  </si>
-  <si>
-    <t>в наименовании каждой роли в таксономии хотя бы один раз присутствует цифровой код ОКУД – 7 цифр</t>
   </si>
   <si>
     <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) Надзорка</t>
@@ -2059,51 +2061,6 @@
     <t>Отличие preferred labels слоя presentation с лейблами руднодов таблицы соответствующей роли.</t>
   </si>
   <si>
-    <t>with rn as
-(   
-select rn.version,rn.parentrole,rn.entity,rn.rinok,rn.label,rn.id,coalesce(rc.value,re.member) qname
-from rulenodes rn
-left join rulenodes_c rc on rc.version=rn.version and rc.entity=rn.entity and rc.rinok=rn.rinok and rc.parentrole=rn.parentrole and rc.rulenode_id=rn.id
-left join rulenodes_e re on re.version=rn.version and re.entity=rn.entity and re.rinok=rn.rinok and re.parentrole=rn.parentrole and re.rulenode_id=rn.id
-where coalesce(rc.value,re.member) is not null
-order by rn.version,rn.rinok,rn.entity,rn.id
-),
-gl as
-(
-select l.version,l.rinok,replace(l.entity,'-lab.xml','-rend.xml') entity,href_id id,text
-from (select * from locators where locfrom='lab' order by version,rinok,entity,parentrole) l
-join (select * from arcs order by version,rinok,entity,parentrole) a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.parentrole=l.parentrole and l.label=a.arcfrom
-join (select * from labels order by version,rinok,entity) la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole 
-and la.label=a.arcto and la.role='http://www.xbrl.org/2008/role/label'
-order by 1,2,3,4
-)
-select rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "Роль",rn.qname "Qname элемента",type "Тип элемента",arr_len "Кол-во lable в table",
-arr1_in_arr2_hard(pl_texts,rn_texts) "Жесткое сопоставление",
-arr1_in_arr2_light(pl_texts,rn_texts) "Сопоставление без учета пробелов и регистра",
-array_to_string(rn_texts,';') "Лейблы table",array_to_string(pl_texts,';') "Лейблы presentation"
-from
-(
-select rn.version,rn.rinok,gl.entity,rn.parentrole,qname,array_length(array_agg(distinct gl.text),1) arr_len,array_unique(array_agg(distinct gl.text)) rn_texts
-from rn
-join gl using (version,rinok,entity,id)
-group by rn.version,rn.rinok,gl.entity,rn.parentrole,qname
-) rn
-join 
-(
-select version,entity,rinok,role_table,pl.parentrole,href_id,qname,type,array_unique(array_agg(distinct text)) pl_texts
-from
-(
-select version,entity,rinok,role_table,pl.parentrole,qname,href_id,type,substitutiongroup,abstract,text
-from preferred_labels pl
-left join roles_table_definition r on r.role_definition=pl.parentrole
-where type != 'xbrldt:dimensionItem'
-) pl
-group by version,entity,rinok,role_table,pl.parentrole,href_id,qname,type
-order by type
-) pl on pl.version=rn.version and (coalesce(pl.role_table,pl.parentrole)=rn.parentrole or (pl.parentrole SIMILAR TO rn.parentrole||'\D%' and pl.role_table is null)) and pl.qname=rn.qname
-where arr1_in_arr2_hard(pl_texts,rn_texts)=0</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
@@ -2301,6 +2258,355 @@
 where member not in (select qname from elements 
      )</t>
   </si>
+  <si>
+    <t xml:space="preserve">with 
+lrole as 
+ (
+select a.version,a.rinok,a.parentrole,member 
+from
+(
+select * from arcs where arctype='definition' 
+order by 1,2,3,4
+) a
+join (select * from (select l.*,qname member from (select * from locators order by href_id) l join elements_labels es on es.id=l.href_id) l where locfrom='definition' order by 1,2,3,4) l 
+on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and arcto=l.label 
+),
+def_temp as not materialized
+(
+ select l.version,l.rinok,l.entity,l.parentrole,case when roles_table is null then array[l.parentrole] else roles_table end||l.parentrole roles_table,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref,case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' and coalesce(abstract,'false')='false' then true else false end
+        from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
+  left join (select role_definition,array_agg(role_table) roles_table from roles_table_definition group by role_definition) rtd on rtd.role_definition=l.parentrole
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' and lower(l.parentrole) not like '%chasti%'
+        order by l.version,l.rinok,l.entity,l.parentrole,l.qname 
+),
+def as 
+(
+select distinct version,rinok,entity,parentrole,roles_table,qname concept,e_type,abstract
+from def_temp
+where targetrole is null
+ union all
+select distinct version,rinok,entity,d.parentrole,roles_table,l.qname,e_type,abstract 
+from def_temp d
+left join (select parentrole,qname 
+from locators l 
+join elements e on e.id=href_id and e.version=l.version) l on l.parentrole=targetrole
+where targetrole is not null
+), 
+rn as not materialized
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value,abstract
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension,abstract
+from rulenodes_e rn
+join elements e on e.qname=rn.dimension
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.member,abstract
+from rulenodes_e rn
+join elements e on e.qname=rn.member
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension,abstract
+from aspectnodes rn
+join elements e on e.qname=rn.dimension
+union all
+select distinct ed.version,ed.rinok,ed.parentrole,ed.dimension,abstract
+from rend_edimensions ed 
+join rend_edmembers em using (version,rinok,entity,parentrole)
+join lrole lr on lr.parentrole=linkrole
+join elements e on e.qname=lr.member
+where em.dimension_id=ed.id 
+union all
+select distinct ed.version,ed.rinok,ed.parentrole,lr.member,abstract
+from rend_edimensions ed 
+join rend_edmembers em using (version,rinok,entity,parentrole)
+join lrole lr on lr.parentrole=linkrole
+join elements e on e.qname=lr.member
+where em.dimension_id=ed.id 
+)
+select def.version "Версия",def.rinok "Рынок",def.entity "Файл",def.parentrole "Роль definition",array_to_string(roles_table,';') "Роль(и) table",def_abstract "Абстрактность элемента",concept "Элемент definition",value "Элемент table"
+from 
+(select def.version,def.rinok,def.entity,def.parentrole,concept,roles_table,def.abstract def_abstract
+from (select * from def order by version,rinok,parentrole,concept) def
+ where def.parentrole not in (select distinct targetrole from
+(
+select distinct targetrole from arcs where arctype='definition'
+and targetrole is not null
+union all 
+select linkrole from rend_edmembers where linkrole is not null
+union all
+select distinct enumlinkrole from elements where enumlinkrole is not null
+union all
+select distinct enum2linkrole from elements where enum2linkrole is not null
+)rr)
+and def.entity not in (select distinct replace(entity,'.xsd','-definition.xml') from elements)
+and def.parentrole not in ('http://www.cbr.ru/xbrl/nso/ins/rep/2024-11-01/tab/sr_0420154/sr_0420154_R2_P22_KatKontrOczRisk2Axis_Table',
+        'http://www.cbr.ru/xbrl/nso/ins/rep/2024-11-01/tab/sr_0420155/Str_Dogovor_Nzh_Table',
+        'http://www.cbr.ru/xbrl/nso/ins/rep/2024-11-01/tab/sr_0420157_UchetGruppy')
+order by def.version,def.rinok,def.parentrole) def
+left join (select distinct * from rn order by 1,2,3,4) rn on rn.version=def.version and rn.rinok=def.rinok and rn.value=def.concept and (rn.parentrole = ANY (roles_table) or (roles_table is null and def.parentrole SIMILAR TO rn.parentrole||'\D%'))
+where value is null
+order by 1 nulls last,2,3,4,5
+</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Элемент есть в definition но нет в table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with 
+lrole as 
+ (
+select a.version,a.rinok,a.parentrole,member 
+from
+(
+select * from arcs where arctype='definition' 
+order by 1,2,3,4
+) a
+join (select * from (select l.*,qname member from (select * from locators order by href_id) l join elements_labels es on es.id=l.href_id) l where locfrom='definition' order by 1,2,3,4) l 
+on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and arcto=l.label 
+),
+def_temp as not materialized
+(
+ select l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref,case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' and coalesce(abstract,'false')='false' then true else false end
+        from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' and lower(l.parentrole) not like '%chasti%'
+        order by l.version,l.rinok,l.entity,l.parentrole,l.qname 
+),
+def as 
+(
+select distinct version,rinok,entity,parentrole,qname concept,e_type,abstract
+from def_temp
+where targetrole is null
+ union all
+select distinct version,rinok,entity,d.parentrole,l.qname,e_type,abstract 
+from def_temp d
+left join (select parentrole,qname 
+from locators l 
+join elements e on e.id=href_id and e.version=l.version) l on l.parentrole=targetrole
+where targetrole is not null
+), 
+rn_temp as not materialized
+(
+select distinct rn.version,rn.rinok,rn.parentrole,rn.value,abstract
+from rulenodes_c rn
+join elements e on e.qname=rn.value and e.version=rn.version
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension,abstract
+from rulenodes_e rn
+join elements e on e.qname=rn.dimension
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.member,abstract
+from rulenodes_e rn
+join elements e on e.qname=rn.member
+union all
+select distinct rn.version,rn.rinok,rn.parentrole,rn.dimension,abstract
+from aspectnodes rn
+join elements e on e.qname=rn.dimension
+union all
+select distinct ed.version,ed.rinok,ed.parentrole,ed.dimension,abstract
+from rend_edimensions ed 
+join rend_edmembers em using (version,rinok,entity,parentrole)
+join lrole lr on lr.parentrole=linkrole
+join elements e on e.qname=lr.member
+where em.dimension_id=ed.id 
+union all
+select distinct ed.version,ed.rinok,ed.parentrole,lr.member,abstract
+from rend_edimensions ed 
+join rend_edmembers em using (version,rinok,entity,parentrole)
+join lrole lr on lr.parentrole=linkrole
+join elements e on e.qname=lr.member
+where em.dimension_id=ed.id 
+),
+rn as
+(
+select distinct rn_temp.*,case when roles_definition is null then array[rn_temp.parentrole] else roles_definition end||rn_temp.parentrole roles_definition 
+from rn_temp
+left join (select role_table,array_agg(role_definition) roles_definition from roles_table_definition group by role_table) rtd on rtd.role_table=rn_temp.parentrole
+order by 1,2,3,4
+)
+select rn.version "Версия",rn.rinok "Рынок",rn.parentrole "Роль table",array_to_string(roles_definition,';') "Роль(и) definition",rn.abstract "Абстрактность элемента",
+value "Элемент table",concept "Элемент definition"
+from
+(select distinct * from rn order by 1,2,3,4) rn
+left join (select distinct * from def order by 1,2,3,4) def on 
+rn.version=def.version and rn.rinok=def.rinok and rn.value=def.concept and (def.parentrole = ANY (rn.roles_definition) or (roles_definition is null and def.parentrole SIMILAR TO rn.parentrole||'\D%'))
+where concept is null
+</t>
+  </si>
+  <si>
+    <t>Разница слоев presentation и definition. Элемент presentation отутствует в аналогичной роли definition, или различаются targetrole</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>Разница слоев definition и presentation. Элемент definition отутствует в аналогичной роли presentation, или различаются targetrole</t>
+  </si>
+  <si>
+    <t>в наименовании каждой роли (URI код роли) в таксономии хотя бы один раз присутствует цифровой код ОКУД – 7 цифр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",fallbackvalue,zz.name "Переменная",concept "Концепт",zz.test,zz.precond,vg.name "generalVarible",vg.test "generalVarible test"
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id,fallbackvalue,concept
+from va_assertions va
+join (select * from arcs where arctype='formula') a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join (select * from va_factvars order by version,rinok,entity,parentrole,label) fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+join
+(
+select vc.version,vc.rinok,vc.entity,vc.parentrole,a.arcfrom fv_label,value concept from va_concepts vc
+join (select * from arcs where arctype='formula') a on a.version=vc.version and a.rinok=vc.rinok and a.entity=vc.entity and a.parentrole=vc.parentrole and a.arcto=vc.label
+-- where  vc.label='filter_factVariable_valueAssertion_0420105_1_01_01'
+order by  vc.version,vc.rinok,vc.entity,vc.parentrole,a.arcfrom
+) vc on vc.version=fv.version and vc.rinok=fv.rinok and vc.entity=fv.entity and vc.parentrole=fv.parentrole and vc.fv_label=fv.label
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join (select * from arcs where arctype='formula') a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+--where va.id='valueAssertion_sr_0420525_008'
+order by version,rinok,entity,parentrole
+) zz
+join
+(
+select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,test,'$'||a.name name,
+'$'||unnest(regexp_matches(test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm
+from va_generals vg
+join (select * from arcs where arctype='formula') a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
+order by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,a.name
+) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom and vg.mm=zz.name
+where fallbackvalue is not null
+order by zz.version,zz.entity,zz.rinok,zz.parentrole,id
+</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>В generalVarible содержится переменная с fallback значением</t>
+  </si>
+  <si>
+    <t>with def_temp as not materialized
+(
+select a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
+typeddomainref
+from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
+join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+and a.arctype in ('presentation','definition') and lower(l.parentrole) not like '%chasti%'
+ --and l.parentrole='http://www.cbr.ru/xbrl/nso/purcb/rep/2024-11-01/tab/SR_0420431_R2_9_R_6'
+order by a.arctype,l.version,l.rinok,l.entity,l.parentrole,l.qname 
+),
+def as 
+(
+select distinct arctype,version,rinok,entity,parentrole,qname concept,e_type,abstract,targetrole
+from def_temp
+)
+select case when pp.concept is null then 'Нет элемента в presentation' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
+dd.version "Версия",dd.rinok "Рынок",dd.entity "Файл",parentrole "Роль",dd.concept "Элемент",dd.targetrole "targetrole definition",pp.targetrole "targetrole presentation" 
+from
+(select * from (select * from def where arctype='definition' order by parentrole) def where parentrole in (select distinct parentrole from def where arctype='presentation' order by parentrole)) dd
+left join 
+(select * from def where arctype='presentation') pp using (version,parentrole,concept)  
+where pp.concept is null or pp.targetrole!=dd.targetrole
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t>with def_temp as not materialized
+(
+select a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
+typeddomainref
+from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
+join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+and a.arctype in ('presentation','definition') and lower(l.parentrole) not like '%chasti%'
+order by a.arctype,l.version,l.rinok,l.entity,l.parentrole,l.qname 
+),
+def as 
+(
+select distinct arctype,version,rinok,entity,parentrole,qname concept,e_type,abstract,targetrole
+from def_temp
+)
+select case when dd.concept is null then 'Нет элемента в definition' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
+pp.version "Версия",pp.rinok "Рынок",pp.entity "Файл",parentrole "Роль",pp.concept "Элемент",pp.targetrole "targetrole presentation",dd.targetrole "targetrole definition" 
+from
+(select * from def where arctype='presentation') pp
+left join 
+(select * from def where arctype='definition') dd using (version,parentrole,concept)  
+where dd.concept is null or pp.targetrole!=dd.targetrole
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t>with rn as
+(   
+select rn.version,rn.parentrole,rn.entity,rn.rinok,rn.label,rn.id,coalesce(rc.value,re.member) qname
+from rulenodes rn
+left join rulenodes_c rc on rc.version=rn.version and rc.entity=rn.entity and rc.rinok=rn.rinok and rc.parentrole=rn.parentrole and rc.rulenode_id=rn.id
+left join rulenodes_e re on re.version=rn.version and re.entity=rn.entity and re.rinok=rn.rinok and re.parentrole=rn.parentrole and re.rulenode_id=rn.id
+where coalesce(rc.value,re.member) is not null
+order by rn.version,rn.rinok,rn.entity,rn.id
+),
+gl as
+(
+select l.version,l.rinok,replace(l.entity,'-lab.xml','-rend.xml') entity,href_id id,text
+from (select * from locators where locfrom='lab' order by version,rinok,entity,parentrole) l
+join (select * from arcs order by version,rinok,entity,parentrole) a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.parentrole=l.parentrole and l.label=a.arcfrom
+join (select * from labels order by version,rinok,entity) la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole 
+and la.label=a.arcto and la.role='http://www.xbrl.org/2008/role/label'
+order by 1,2,3,4
+)
+select distinct rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "Роль",rn.qname "Qname элемента",type "Тип элемента",arr_len "Кол-во lable в table",
+arr1_in_arr2_hard(pl_texts,rn_texts) "Жесткое сопоставление",
+arr1_in_arr2_light(pl_texts,rn_texts) "Сопоставление без учета пробелов и регистра",
+array_to_string(rn_texts,';') "Лейблы table",array_to_string(pl_texts,';') "Лейблы presentation"
+from
+(
+select rn.version,rn.rinok,gl.entity,rn.parentrole,qname,array_length(array_agg(distinct gl.text),1) arr_len,array_unique(array_agg(distinct gl.text)) rn_texts
+from rn
+join gl using (version,rinok,entity,id)
+group by rn.version,rn.rinok,gl.entity,rn.parentrole,qname
+) rn
+join 
+(
+select version,entity,rinok,role_table,pl.parentrole,id,qname,type,array_unique(array_agg(distinct text)) pl_texts
+from
+(
+select version,entity,pl.rinok,role_table,pl.parentrole,qname,id,type,substitutiongroup,abstract,text
+from preferred_labels pl
+left join roles_table_definition r on r.role_definition=pl.parentrole
+where type != 'xbrldt:dimensionItem'
+) pl
+group by version,entity,rinok,role_table,pl.parentrole,id,qname,type
+order by type
+) pl on pl.version=rn.version and (coalesce(pl.role_table,pl.parentrole)=rn.parentrole or (pl.parentrole SIMILAR TO rn.parentrole||'\D%' and pl.role_table is null)) and pl.qname=rn.qname
+where arr1_in_arr2_hard(pl_texts,rn_texts)=0</t>
+  </si>
 </sst>
 </file>
 
@@ -2362,7 +2668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2392,6 +2698,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2708,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2786,14 +3095,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="19">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -2830,481 +3139,481 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>145</v>
+      <c r="A11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>124</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="16" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="18" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="22" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="23" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>23</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+    <row r="24" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>24</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>26</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="27" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>27</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>28</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>30</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>31</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="32" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>32</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>33</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+    <row r="34" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>34</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+    <row r="35" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>35</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+    <row r="36" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>36</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>37</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>39</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>40</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+    <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
         <v>41</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
-        <v>42</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+    <row r="42" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>43</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>44</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+    <row r="44" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>46</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+    <row r="45" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>48</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
+        <v>52</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>53</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+    <row r="48" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
         <v>54</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+    <row r="49" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>55</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+    <row r="50" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>56</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+    <row r="51" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>57</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>58</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
+        <v>58</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
         <v>59</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>61</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>92</v>
@@ -3315,7 +3624,7 @@
     </row>
     <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>94</v>
@@ -3329,7 +3638,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>87</v>
@@ -3351,7 +3660,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>28</v>
@@ -3376,7 +3685,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3395,10 +3704,10 @@
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -3406,7 +3715,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>97</v>
@@ -3417,10 +3726,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -3428,10 +3737,10 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3439,142 +3748,142 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>81</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>82</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <v>83</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
-        <v>80</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
-        <v>81</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
-        <v>82</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
-        <v>86</v>
+    </row>
+    <row r="73" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3587,6 +3896,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A1" s="8">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3615,12 +4054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,7 +4083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="187">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -2606,6 +2606,21 @@
 order by type
 ) pl on pl.version=rn.version and (coalesce(pl.role_table,pl.parentrole)=rn.parentrole or (pl.parentrole SIMILAR TO rn.parentrole||'\D%' and pl.role_table is null)) and pl.qname=rn.qname
 where arr1_in_arr2_hard(pl_texts,rn_texts)=0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Проверка корректности тегов в entrypoints</t>
+  </si>
+  <si>
+    <t>select * 
+from
+(select e.nfotype, e.reporttype, e.reportperiodtype, e.pathtoxsd,e.tags_in_file "Все теги в файле", e.tags_in_entry "Все теги в entity",
+array['reporttype', 'pathtoxsd', 'reportperiodtype', 'nfotyperus', 'reporttyperus', 'reportperiodtyperus', 'nfotype'] @&gt; STRING_TO_ARRAY(e.tags_in_entry,',') 
+ and STRING_TO_ARRAY(e.tags_in_entry,',') @&gt; array['reporttype', 'pathtoxsd', 'reportperiodtype', 'nfotyperus', 'reporttyperus', 'reportperiodtyperus', 'nfotype'] as check_tags
+ from entrypoints e) t_1
+where check_tags = 'False'</t>
   </si>
 </sst>
 </file>
@@ -3015,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3884,6 +3899,17 @@
       </c>
       <c r="C78" s="1" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3957,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8">
         <v>14</v>
       </c>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1C9D7-FC3B-4FC0-83C2-C6593C53110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33675" windowHeight="17220"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="75" sheetId="3" r:id="rId8"/>
     <sheet name="67" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -900,74 +901,6 @@
 </t>
   </si>
   <si>
-    <t>WITH RECURSIVE recursive_hierarchy AS not materialized 
-        (
-        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes
-        from
-        ( 
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
-        from rulenodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
-        union all
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type from aspectnodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
-        order by 1,2,3,4
-        ) p
-         union all
-        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
-         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.label
-        from
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
-        from rulenodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
-        union all
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type 
-         from aspectnodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
-        order by 1,2,3,4
-        ) c 
-        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
-        where c.arcfrom is not null
-        ),
-        cc as
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.parent_label,rc.value concept,re.dimension||'#'||re.member dimension,
-        rp.start,rp.end,r.level,rc.parent_tag,r.rulenodes,e.periodtype period_type,tagselector
-        from recursive_hierarchy r 
-        join rulenodes_c rc on rc.version=r.version and rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and (rc.tag=tagselector or rc.rulenode_id=r.child_id)
-        join elements e  on e.qname=rc.value and e.version=rc.version and coalesce(abstract,'false')='false'
-        left join rulenodes_e re on re.version=r.version and re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and (re.tag=tagselector or re.rulenode_id=r.child_id)
-        left join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id) and rp.period_type=e.periodtype
-        ),
-        pp as
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,rp.start,rp.end,rp.tag,period_type,
-        case when cc.parent_label is null then 0 else 1 end is_parent,parent_label,tagselector
-        from recursive_hierarchy r
-        left join (select distinct version,rinok,entity,parentrole,parent_label from cc where parent_tag!='table:ruleset') cc using(version,rinok,entity,parentrole,parent_label)
-        join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id)
-        )
-        select cc.version "Версия",cc.rinok "Рынок",cc.entity "Файл",cc.parentrole "Роль",concept "Концепт",cc.period_type "Тип периода",
-        coalesce(coalesce(cc.start,pp.start),pp2.start) period_start,
-        coalesce(coalesce(cc.end,pp.end),pp2.end) period_end
-        from cc
-        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end,parent_label,tag from pp where is_parent=1) pp on pp.version=cc.version and pp.rinok=cc.rinok and pp.entity=cc.entity 
-        and pp.parentrole=cc.parentrole and pp.period_type=cc.period_type and cc.start is null and ((pp.parent_label=cc.parent_label and pp.tag is null) or pp.tag=cc.tagselector)
-        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end from pp where is_parent=0) pp2 on pp2.version=cc.version and pp2.rinok=cc.rinok and pp2.entity=cc.entity 
-        and pp2.parentrole=cc.parentrole and pp2.period_type=cc.period_type and cc.start is null
-        where coalesce(coalesce(cc.start,pp.start),pp2.start) is null
-  order by 1,2,3,4,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Наличие параметров периодов во всех таблицах (Table Link). </t>
   </si>
   <si>
@@ -1026,60 +959,6 @@
   </si>
   <si>
     <t>Проверка, что формул нет в базе ссылок, отличной от *-formula.xml, *-rend.xml, *-lab.xml, *-definition.xml, *-presentation.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with df as 
-(select replace(entity,'.xsd','-formula.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id and e.version=l.version
-                join elements em on em.id=lm.href_id and em.version=lm.version
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
---   where tp.version=HID
-        ) ee 
-        group by entity),
-dim as 
-(
-select ve.rinok,ve.version,ve.entity,ve.parentrole,ve.id,coalesce(l.label,ve.label) label,
-dimension||'#'||member dim
-from va_edimensions ve
-left join locators l on l.version=ve.version and l.rinok=ve.rinok and l.entity=ve.entity and l.href_id=ve.id
-left join va_edmembers vm on vm.version=ve.version and vm.entity=ve.entity and vm.rinok=ve.rinok and vm.parentrole=ve.parentrole
-and vm.dimension_id=ve.id
-left join df on df.entity=ve.entity
-where dimension||'#'||member = ANY(dim_def) 
-order by 1,2,3,4
---  and ve.version=HID
-),
-fv as
-(
-select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",dim,complement
-from
-(
-select fv.rinok,fv.version,fv.entity,fv.parentrole,fv.id,coalesce(l.label,fv.label) label
-from va_factvars fv
-left join locators l on l.version=fv.version and l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
---  where fv.version=HID
-) fv
-join arcs a on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.arcfrom=fv.label and a.parentrole=fv.parentrole
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-filter' and a.complement='true'
-left join dim on dim.version=a.version and dim.rinok=a.rinok and dim.entity=a.entity and dim.label=a.arcto and dim.parentrole=fv.parentrole
-)
-select * from fv where coalesce(dim,'1') != '1'
-</t>
   </si>
   <si>
     <t>Наличие lab1.xml rend1.xml и т.п.</t>
@@ -2259,10 +2138,322 @@
      )</t>
   </si>
   <si>
-    <t xml:space="preserve">with 
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Элемент есть в definition но нет в table</t>
+  </si>
+  <si>
+    <t>Разница слоев presentation и definition. Элемент presentation отутствует в аналогичной роли definition, или различаются targetrole</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>Разница слоев definition и presentation. Элемент definition отутствует в аналогичной роли presentation, или различаются targetrole</t>
+  </si>
+  <si>
+    <t>в наименовании каждой роли (URI код роли) в таксономии хотя бы один раз присутствует цифровой код ОКУД – 7 цифр</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>В generalVarible содержится переменная с fallback значением</t>
+  </si>
+  <si>
+    <t>with rn as
+(   
+select rn.version,rn.parentrole,rn.entity,rn.rinok,rn.label,rn.id,coalesce(rc.value,re.member) qname
+from rulenodes rn
+left join rulenodes_c rc on rc.version=rn.version and rc.entity=rn.entity and rc.rinok=rn.rinok and rc.parentrole=rn.parentrole and rc.rulenode_id=rn.id
+left join rulenodes_e re on re.version=rn.version and re.entity=rn.entity and re.rinok=rn.rinok and re.parentrole=rn.parentrole and re.rulenode_id=rn.id
+where coalesce(rc.value,re.member) is not null
+order by rn.version,rn.rinok,rn.entity,rn.id
+),
+gl as
+(
+select l.version,l.rinok,replace(l.entity,'-lab.xml','-rend.xml') entity,href_id id,text
+from (select * from locators where locfrom='lab' order by version,rinok,entity,parentrole) l
+join (select * from arcs order by version,rinok,entity,parentrole) a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.parentrole=l.parentrole and l.label=a.arcfrom
+join (select * from labels order by version,rinok,entity) la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole 
+and la.label=a.arcto and la.role='http://www.xbrl.org/2008/role/label'
+order by 1,2,3,4
+)
+select distinct rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "Роль",rn.qname "Qname элемента",type "Тип элемента",arr_len "Кол-во lable в table",
+arr1_in_arr2_hard(pl_texts,rn_texts) "Жесткое сопоставление",
+arr1_in_arr2_light(pl_texts,rn_texts) "Сопоставление без учета пробелов и регистра",
+array_to_string(rn_texts,';') "Лейблы table",array_to_string(pl_texts,';') "Лейблы presentation"
+from
+(
+select rn.version,rn.rinok,gl.entity,rn.parentrole,qname,array_length(array_agg(distinct gl.text),1) arr_len,array_unique(array_agg(distinct gl.text)) rn_texts
+from rn
+join gl using (version,rinok,entity,id)
+group by rn.version,rn.rinok,gl.entity,rn.parentrole,qname
+) rn
+join 
+(
+select version,entity,rinok,role_table,pl.parentrole,id,qname,type,array_unique(array_agg(distinct text)) pl_texts
+from
+(
+select version,entity,pl.rinok,role_table,pl.parentrole,qname,id,type,substitutiongroup,abstract,text
+from preferred_labels pl
+left join roles_table_definition r on r.role_definition=pl.parentrole
+where type != 'xbrldt:dimensionItem'
+) pl
+group by version,entity,rinok,role_table,pl.parentrole,id,qname,type
+order by type
+) pl on pl.version=rn.version and (coalesce(pl.role_table,pl.parentrole)=rn.parentrole or (pl.parentrole SIMILAR TO rn.parentrole||'\D%' and pl.role_table is null)) and pl.qname=rn.qname
+where arr1_in_arr2_hard(pl_texts,rn_texts)=0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Проверка корректности тегов в entrypoints</t>
+  </si>
+  <si>
+    <t>select * 
+from
+(select e.nfotype, e.reporttype, e.reportperiodtype, e.pathtoxsd,e.tags_in_file "Все теги в файле", e.tags_in_entry "Все теги в entity",
+array['reporttype', 'pathtoxsd', 'reportperiodtype', 'nfotyperus', 'reporttyperus', 'reportperiodtyperus', 'nfotype'] @&gt; STRING_TO_ARRAY(e.tags_in_entry,',') 
+ and STRING_TO_ARRAY(e.tags_in_entry,',') @&gt; array['reporttype', 'pathtoxsd', 'reportperiodtype', 'nfotyperus', 'reporttyperus', 'reportperiodtyperus', 'nfotype'] as check_tags
+ from entrypoints e) t_1
+where check_tags = 'False'</t>
+  </si>
+  <si>
+    <t>with df as 
+(select replace(entity,'.xsd','-formula.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+--   where tp.version=HID
+        ) ee 
+        group by entity),
+dim as 
+(
+select ve.rinok,ve.version,ve.entity,ve.parentrole,ve.id,coalesce(l.label,ve.label) label,
+dimension||'#'||member dim
+from va_edimensions ve
+left join locators l on l.version=ve.version and l.rinok=ve.rinok and l.entity=ve.entity and l.href_id=ve.id
+left join va_edmembers vm on vm.version=ve.version and vm.entity=ve.entity and vm.rinok=ve.rinok and vm.parentrole=ve.parentrole
+and vm.dimension_id=ve.id
+left join df on df.entity=ve.entity
+where dimension||'#'||member = ANY(dim_def) 
+order by 1,2,3,4
+--  and ve.version=HID
+),
+fv as
+(
+select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",dim,complement
+from
+(
+select fv.rinok,fv.version,fv.entity,fv.parentrole,fv.id,coalesce(l.label,fv.label) label
+from (select rinok,version,entity,parentrole,id,label
+	   from va_factvars 
+	  order by version, rinok, entity,id)fv
+left join (select version, rinok, entity,href_id,label
+			from locators 
+		   order by version, rinok, entity,href_id)l on l.version=fv.version and l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
+--  where fv.version=HID
+) fv
+join arcs a on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.arcfrom=fv.label and a.parentrole=fv.parentrole
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-filter' and a.complement='true'
+left join dim on dim.version=a.version and dim.rinok=a.rinok and dim.entity=a.entity and dim.label=a.arcto and dim.parentrole=fv.parentrole
+)
+select * from fv where coalesce(dim,'1') != '1'</t>
+  </si>
+  <si>
+    <t>with recursive_hierarchy as (WITH RECURSIVE recursive_hierarchy as
+        (
+        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes
+        from
+        ( 
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
+        from rulenodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type from aspectnodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) p
+         union all
+        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
+         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.label
+        from
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
+        from rulenodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type 
+         from aspectnodes r
+        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) c 
+        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
+        where c.arcfrom is not null) 
+		select * from recursive_hierarchy
+		order by 1,2,3,4,7),
+        cc as
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.parent_label,rc.value concept,re.dimension||'#'||re.member dimension,
+        rp.start,rp.end,r.level,rc.parent_tag,r.rulenodes,e.periodtype period_type,tagselector
+        from recursive_hierarchy r 
+        join (select * from rulenodes_c
+			  order by version, rinok, entity, parentrole,tag,rulenode_id) rc on rc.version=r.version and rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and (rc.tag=tagselector or rc.rulenode_id=r.child_id)
+        join (select version,qname,abstract,periodtype from elements
+			  order by version,qname,abstract,periodtype) e  on e.version=rc.version and e.qname=rc.value and coalesce(abstract,'false')='false'
+        left join (select * from rulenodes_e
+				   order by version, rinok, entity, parentrole,tag,rulenode_id) re on re.version=r.version and re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and (re.tag=tagselector or re.rulenode_id=r.child_id)
+        left join (select * from rulenodes_p
+				   order by version, rinok, entity, parentrole,tag,rulenode_id,period_type) rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id) and rp.period_type=e.periodtype
+        ),
+        pp as
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,rp.start,rp.end,rp.tag,period_type,
+        case when cc.parent_label is null then 0 else 1 end is_parent,parent_label,tagselector
+        from recursive_hierarchy r
+        left join (select distinct version,rinok,entity,parentrole,parent_label 
+				   from cc where parent_tag!='table:ruleset') cc using(version,rinok,entity,parentrole,parent_label)
+        join rulenodes_p rp on rp.version=r.version and rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id)
+        )
+        select cc.version "Версия",cc.rinok "Рынок",cc.entity "Файл",cc.parentrole "Роль",concept "Концепт",cc.period_type "Тип периода",
+        coalesce(coalesce(cc.start,pp.start),pp2.start) period_start,
+        coalesce(coalesce(cc.end,pp.end),pp2.end) period_end
+        from cc
+        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end,parent_label,tag from pp where is_parent=1) pp on pp.version=cc.version and pp.rinok=cc.rinok and pp.entity=cc.entity 
+        and pp.parentrole=cc.parentrole and pp.period_type=cc.period_type and cc.start is null and ((pp.parent_label=cc.parent_label and pp.tag is null) or pp.tag=cc.tagselector)
+        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end from pp where is_parent=0) pp2 on pp2.version=cc.version and pp2.rinok=cc.rinok and pp2.entity=cc.entity 
+        and pp2.parentrole=cc.parentrole and pp2.period_type=cc.period_type and cc.start is null
+        where coalesce(coalesce(cc.start,pp.start),pp2.start) is null
+  order by 1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>select distinct zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",fallbackvalue,zz.name "Переменная",concept "Концепт",zz.test,zz.precond,vg.name "generalVarible",vg.test "generalVarible test"
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id,fallbackvalue,concept
+from va_assertions va
+join (select * 
+	  from arcs where arctype='formula'
+	  order by version,rinok,entity,parentrole,arcfrom) a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join (select * from va_factvars order by version,rinok,entity,parentrole,label) fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+join
+(
+select vc.version,vc.rinok,vc.entity,vc.parentrole,a.arcfrom fv_label,value concept 
+	from va_concepts vc
+join (select * 
+	  from arcs where arctype='formula'
+	   order by version,rinok,entity,parentrole,arcto) a on a.version=vc.version and a.rinok=vc.rinok and a.entity=vc.entity and a.parentrole=vc.parentrole and a.arcto=vc.label
+-- where  vc.label='filter_factVariable_valueAssertion_0420105_1_01_01'
+order by  vc.version,vc.rinok,vc.entity,vc.parentrole,a.arcfrom
+) vc on vc.version=fv.version and vc.rinok=fv.rinok and vc.entity=fv.entity and vc.parentrole=fv.parentrole and vc.fv_label=fv.label
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join (select * from arcs where arctype='formula'
+	 order by version,rinok,entity,parentrole,arcto) a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+--where va.id='valueAssertion_sr_0420525_008'
+order by version,rinok,entity,parentrole
+) zz
+join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,test,'$'||a.name name,
+				'$'||unnest(regexp_matches(test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm
+		from va_generals vg
+		join (select version,rinok,entity,parentrole,arcto,arcfrom,name
+			  from arcs where arctype='formula'
+				order by version,rinok,entity,parentrole,arcto
+			  ) a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
+		order by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,a.name
+		) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom and vg.mm=zz.name
+where fallbackvalue is not null
+order by zz.version,zz.entity,zz.rinok,zz.parentrole,id</t>
+  </si>
+  <si>
+    <t>with def_temp as 
+(
+select a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
+typeddomainref
+from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
+join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+and a.arctype in ('presentation','definition') and lower(l.parentrole) not like '%chasti%'
+order by a.arctype,l.version,l.rinok,l.entity,l.parentrole,l.qname 
+),
+def as not materialized
+(
+select distinct arctype,version,rinok,entity,parentrole,qname concept,e_type,abstract,targetrole
+from def_temp
+	order by version,parentrole,concept,targetrole
+)
+select case when dd.concept is null then 'Нет элемента в definition' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
+pp.version "Версия",pp.rinok "Рынок",pp.entity "Файл",parentrole "Роль",pp.concept "Элемент",pp.targetrole "targetrole presentation",dd.targetrole "targetrole definition" 
+from (select * from def where arctype='presentation') pp
+left join  (select * from def where arctype='definition') dd using (version,parentrole,concept)  
+where dd.concept is null or pp.targetrole!=dd.targetrole
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t>with def_temp as
+(
+select a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
+typeddomainref
+from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
+join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+and a.arctype in ('presentation','definition') and lower(l.parentrole) not like '%chasti%'
+ --and l.parentrole='http://www.cbr.ru/xbrl/nso/purcb/rep/2024-11-01/tab/SR_0420431_R2_9_R_6'
+order by a.arctype,l.version,l.rinok,l.entity,l.parentrole,l.qname 
+),
+def as not materialized
+(
+select distinct arctype,version,rinok,entity,parentrole,qname concept,e_type,abstract,targetrole
+from def_temp
+)
+select case when pp.concept is null then 'Нет элемента в presentation' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
+dd.version "Версия",dd.rinok "Рынок",dd.entity "Файл",parentrole "Роль",dd.concept "Элемент",dd.targetrole "targetrole definition",pp.targetrole "targetrole presentation" 
+from
+(select * from (select * from def where arctype='definition' order by parentrole) def where parentrole in (select distinct parentrole from def where arctype='presentation' order by parentrole)) dd
+left join 
+(select * from def where arctype='presentation') pp using (version,parentrole,concept)  
+where pp.concept is null or pp.targetrole!=dd.targetrole
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t>with 
 lrole as 
  (
-select a.version,a.rinok,a.parentrole,member 
+select distinct a.version,a.rinok,a.parentrole,member 
 from
 (
 select * from arcs where arctype='definition' 
@@ -2270,10 +2461,10 @@
 ) a
 join (select * from (select l.*,qname member from (select * from locators order by href_id) l join elements_labels es on es.id=l.href_id) l where locfrom='definition' order by 1,2,3,4) l 
 on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and arcto=l.label 
-),
+order by parentrole,member),
 def_temp as not materialized
 (
- select l.version,l.rinok,l.entity,l.parentrole,case when roles_table is null then array[l.parentrole] else roles_table end||l.parentrole roles_table,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
+ select l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
          case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' then 1
          when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
          when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
@@ -2282,25 +2473,24 @@
          when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
   typeddomainref,case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' and coalesce(abstract,'false')='false' then true else false end
         from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
-  left join (select role_definition,array_agg(role_table) roles_table from roles_table_definition group by role_definition) rtd on rtd.role_definition=l.parentrole
         join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
         and a.arctype='definition' and lower(l.parentrole) not like '%chasti%'
         order by l.version,l.rinok,l.entity,l.parentrole,l.qname 
 ),
 def as 
 (
-select distinct version,rinok,entity,parentrole,roles_table,qname concept,e_type,abstract
+select distinct version,rinok,entity,parentrole,qname concept,e_type,abstract
 from def_temp
 where targetrole is null
  union all
-select distinct version,rinok,entity,d.parentrole,roles_table,l.qname,e_type,abstract 
+select distinct version,rinok,entity,d.parentrole,l.qname,e_type,abstract 
 from def_temp d
 left join (select parentrole,qname 
 from locators l 
 join elements e on e.id=href_id and e.version=l.version) l on l.parentrole=targetrole
 where targetrole is not null
 ), 
-rn as not materialized
+rn_temp as not materialized
 (
 select distinct rn.version,rn.rinok,rn.parentrole,rn.value,abstract
 from rulenodes_c rn
@@ -2321,53 +2511,36 @@
 select distinct ed.version,ed.rinok,ed.parentrole,ed.dimension,abstract
 from rend_edimensions ed 
 join rend_edmembers em using (version,rinok,entity,parentrole)
-join lrole lr on lr.parentrole=linkrole
-join elements e on e.qname=lr.member
+join (select distinct parentrole,member from lrole order by parentrole, member) lr on lr.parentrole=linkrole
+join (select distinct qname,abstract from elements order by qname) e on e.qname=lr.member
 where em.dimension_id=ed.id 
 union all
 select distinct ed.version,ed.rinok,ed.parentrole,lr.member,abstract
 from rend_edimensions ed 
 join rend_edmembers em using (version,rinok,entity,parentrole)
-join lrole lr on lr.parentrole=linkrole
-join elements e on e.qname=lr.member
+join (select distinct parentrole,member from lrole order by parentrole, member) lr on lr.parentrole=linkrole
+join (select distinct qname,abstract from elements order by qname) e on e.qname=lr.member
 where em.dimension_id=ed.id 
+),
+rn as
+(
+select distinct rn_temp.*,case when roles_definition is null then array[rn_temp.parentrole] else roles_definition end||rn_temp.parentrole roles_definition 
+from rn_temp
+left join (select role_table,array_agg(role_definition) roles_definition from roles_table_definition group by role_table) rtd on rtd.role_table=rn_temp.parentrole
+order by 1,2,3,4
 )
-select def.version "Версия",def.rinok "Рынок",def.entity "Файл",def.parentrole "Роль definition",array_to_string(roles_table,';') "Роль(и) table",def_abstract "Абстрактность элемента",concept "Элемент definition",value "Элемент table"
-from 
-(select def.version,def.rinok,def.entity,def.parentrole,concept,roles_table,def.abstract def_abstract
-from (select * from def order by version,rinok,parentrole,concept) def
- where def.parentrole not in (select distinct targetrole from
-(
-select distinct targetrole from arcs where arctype='definition'
-and targetrole is not null
-union all 
-select linkrole from rend_edmembers where linkrole is not null
-union all
-select distinct enumlinkrole from elements where enumlinkrole is not null
-union all
-select distinct enum2linkrole from elements where enum2linkrole is not null
-)rr)
-and def.entity not in (select distinct replace(entity,'.xsd','-definition.xml') from elements)
-and def.parentrole not in ('http://www.cbr.ru/xbrl/nso/ins/rep/2024-11-01/tab/sr_0420154/sr_0420154_R2_P22_KatKontrOczRisk2Axis_Table',
-        'http://www.cbr.ru/xbrl/nso/ins/rep/2024-11-01/tab/sr_0420155/Str_Dogovor_Nzh_Table',
-        'http://www.cbr.ru/xbrl/nso/ins/rep/2024-11-01/tab/sr_0420157_UchetGruppy')
-order by def.version,def.rinok,def.parentrole) def
-left join (select distinct * from rn order by 1,2,3,4) rn on rn.version=def.version and rn.rinok=def.rinok and rn.value=def.concept and (rn.parentrole = ANY (roles_table) or (roles_table is null and def.parentrole SIMILAR TO rn.parentrole||'\D%'))
-where value is null
-order by 1 nulls last,2,3,4,5
-</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Элемент есть в definition но нет в table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with 
+select rn.version "Версия",rn.rinok "Рынок",rn.parentrole "Роль table",array_to_string(roles_definition,';') "Роль(и) definition",rn.abstract "Абстрактность элемента",
+value "Элемент table",concept "Элемент definition"
+from
+(select distinct version,rinok,value,parentrole,roles_definition,abstract 
+ from rn order by 1,2,3,4,5) rn
+left join (select distinct version,rinok,concept,parentrole
+		   from def order by 1,2,3,4) def on rn.version=def.version and rn.rinok=def.rinok and rn.value=def.concept
+											 and (def.parentrole = ANY (rn.roles_definition) or (roles_definition is null and def.parentrole like rn.parentrole||'\D%'))  
+where concept is null</t>
+  </si>
+  <si>
+    <t>with 
 lrole as 
  (
 select a.version,a.rinok,a.parentrole,member 
@@ -2376,12 +2549,18 @@
 select * from arcs where arctype='definition' 
 order by 1,2,3,4
 ) a
-join (select * from (select l.*,qname member from (select * from locators order by href_id) l join elements_labels es on es.id=l.href_id) l where locfrom='definition' order by 1,2,3,4) l 
-on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and arcto=l.label 
+join (select * 
+	  from (select l.*,qname member 
+			from (select * 
+				  from locators order by href_id) l 
+			join elements_labels es on es.id=l.href_id) l 
+	  		where locfrom='definition' 
+	  		order by 1,2,3,4
+	 ) l on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and arcto=l.label 
 ),
-def_temp as not materialized
-(
- select l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
+def_temp as 
+(
+ select l.version,l.rinok,l.entity,l.parentrole,case when roles_table is null then array[l.parentrole] else roles_table end||l.parentrole roles_table,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
          case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' then 1
          when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
          when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
@@ -2390,25 +2569,31 @@
          when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
   typeddomainref,case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e_type,'')!='nonnum:domainItemType' and coalesce(abstract,'false')='false' then true else false end
         from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
+  left join (select role_definition,array_agg(role_table) roles_table from roles_table_definition group by role_definition) rtd on rtd.role_definition=l.parentrole
         join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
         and a.arctype='definition' and lower(l.parentrole) not like '%chasti%'
         order by l.version,l.rinok,l.entity,l.parentrole,l.qname 
 ),
 def as 
 (
-select distinct version,rinok,entity,parentrole,qname concept,e_type,abstract
+	select * from (
+select distinct version,rinok,entity,parentrole,roles_table,qname concept,e_type,abstract
 from def_temp
 where targetrole is null
  union all
-select distinct version,rinok,entity,d.parentrole,l.qname,e_type,abstract 
+select distinct version,rinok,entity,d.parentrole,roles_table,l.qname,e_type,abstract 
 from def_temp d
 left join (select parentrole,qname 
-from locators l 
-join elements e on e.id=href_id and e.version=l.version) l on l.parentrole=targetrole
+			from locators l 
+			join elements e on e.id=href_id and e.version=l.version
+		   ) l on l.parentrole=targetrole
 where targetrole is not null
-), 
-rn_temp as not materialized
-(
+) dd
+	order by version,rinok,parentrole,concept
+),
+rn as
+(
+	select * from (
 select distinct rn.version,rn.rinok,rn.parentrole,rn.value,abstract
 from rulenodes_c rn
 join elements e on e.qname=rn.value and e.version=rn.version
@@ -2428,205 +2613,51 @@
 select distinct ed.version,ed.rinok,ed.parentrole,ed.dimension,abstract
 from rend_edimensions ed 
 join rend_edmembers em using (version,rinok,entity,parentrole)
-join lrole lr on lr.parentrole=linkrole
-join elements e on e.qname=lr.member
+join (select distinct parentrole,member from lrole order by parentrole, member) lr on lr.parentrole=linkrole
+join (select distinct qname,abstract from elements order by qname) e on e.qname=lr.member
 where em.dimension_id=ed.id 
 union all
 select distinct ed.version,ed.rinok,ed.parentrole,lr.member,abstract
 from rend_edimensions ed 
 join rend_edmembers em using (version,rinok,entity,parentrole)
-join lrole lr on lr.parentrole=linkrole
-join elements e on e.qname=lr.member
+join (select distinct parentrole,member from lrole order by parentrole, member) lr on lr.parentrole=linkrole
+join (select distinct qname,abstract from elements order by qname) e on e.qname=lr.member
 where em.dimension_id=ed.id 
-),
-rn as
-(
-select distinct rn_temp.*,case when roles_definition is null then array[rn_temp.parentrole] else roles_definition end||rn_temp.parentrole roles_definition 
-from rn_temp
-left join (select role_table,array_agg(role_definition) roles_definition from roles_table_definition group by role_table) rtd on rtd.role_table=rn_temp.parentrole
-order by 1,2,3,4
-)
-select rn.version "Версия",rn.rinok "Рынок",rn.parentrole "Роль table",array_to_string(roles_definition,';') "Роль(и) definition",rn.abstract "Абстрактность элемента",
-value "Элемент table",concept "Элемент definition"
-from
-(select distinct * from rn order by 1,2,3,4) rn
-left join (select distinct * from def order by 1,2,3,4) def on 
-rn.version=def.version and rn.rinok=def.rinok and rn.value=def.concept and (def.parentrole = ANY (rn.roles_definition) or (roles_definition is null and def.parentrole SIMILAR TO rn.parentrole||'\D%'))
-where concept is null
-</t>
-  </si>
-  <si>
-    <t>Разница слоев presentation и definition. Элемент presentation отутствует в аналогичной роли definition, или различаются targetrole</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>Разница слоев definition и presentation. Элемент definition отутствует в аналогичной роли presentation, или различаются targetrole</t>
-  </si>
-  <si>
-    <t>в наименовании каждой роли (URI код роли) в таксономии хотя бы один раз присутствует цифровой код ОКУД – 7 цифр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select distinct zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",fallbackvalue,zz.name "Переменная",concept "Концепт",zz.test,zz.precond,vg.name "generalVarible",vg.test "generalVarible test"
-from
-(
-select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id,fallbackvalue,concept
-from va_assertions va
-join (select * from arcs where arctype='formula') a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-join (select * from va_factvars order by version,rinok,entity,parentrole,label) fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
-join
-(
-select vc.version,vc.rinok,vc.entity,vc.parentrole,a.arcfrom fv_label,value concept from va_concepts vc
-join (select * from arcs where arctype='formula') a on a.version=vc.version and a.rinok=vc.rinok and a.entity=vc.entity and a.parentrole=vc.parentrole and a.arcto=vc.label
--- where  vc.label='filter_factVariable_valueAssertion_0420105_1_01_01'
-order by  vc.version,vc.rinok,vc.entity,vc.parentrole,a.arcfrom
-) vc on vc.version=fv.version and vc.rinok=fv.rinok and vc.entity=fv.entity and vc.parentrole=fv.parentrole and vc.fv_label=fv.label
-left join 
-(
-select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
-from preconditions p
-join (select * from arcs where arctype='formula') a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
-) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
---where va.id='valueAssertion_sr_0420525_008'
-order by version,rinok,entity,parentrole
-) zz
-join
-(
-select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,test,'$'||a.name name,
-'$'||unnest(regexp_matches(test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm
-from va_generals vg
-join (select * from arcs where arctype='formula') a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
-order by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,a.name
-) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom and vg.mm=zz.name
-where fallbackvalue is not null
-order by zz.version,zz.entity,zz.rinok,zz.parentrole,id
-</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>В generalVarible содержится переменная с fallback значением</t>
-  </si>
-  <si>
-    <t>with def_temp as not materialized
-(
-select a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
-typeddomainref
-from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
-join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-and a.arctype in ('presentation','definition') and lower(l.parentrole) not like '%chasti%'
- --and l.parentrole='http://www.cbr.ru/xbrl/nso/purcb/rep/2024-11-01/tab/SR_0420431_R2_9_R_6'
-order by a.arctype,l.version,l.rinok,l.entity,l.parentrole,l.qname 
-),
-def as 
-(
-select distinct arctype,version,rinok,entity,parentrole,qname concept,e_type,abstract,targetrole
-from def_temp
-)
-select case when pp.concept is null then 'Нет элемента в presentation' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
-dd.version "Версия",dd.rinok "Рынок",dd.entity "Файл",parentrole "Роль",dd.concept "Элемент",dd.targetrole "targetrole definition",pp.targetrole "targetrole presentation" 
-from
-(select * from (select * from def where arctype='definition' order by parentrole) def where parentrole in (select distinct parentrole from def where arctype='presentation' order by parentrole)) dd
-left join 
-(select * from def where arctype='presentation') pp using (version,parentrole,concept)  
-where pp.concept is null or pp.targetrole!=dd.targetrole
-order by 1,2,3,4</t>
-  </si>
-  <si>
-    <t>with def_temp as not materialized
-(
-select a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
-typeddomainref
-from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
-join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-and a.arctype in ('presentation','definition') and lower(l.parentrole) not like '%chasti%'
-order by a.arctype,l.version,l.rinok,l.entity,l.parentrole,l.qname 
-),
-def as 
-(
-select distinct arctype,version,rinok,entity,parentrole,qname concept,e_type,abstract,targetrole
-from def_temp
-)
-select case when dd.concept is null then 'Нет элемента в definition' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
-pp.version "Версия",pp.rinok "Рынок",pp.entity "Файл",parentrole "Роль",pp.concept "Элемент",pp.targetrole "targetrole presentation",dd.targetrole "targetrole definition" 
-from
-(select * from def where arctype='presentation') pp
-left join 
-(select * from def where arctype='definition') dd using (version,parentrole,concept)  
-where dd.concept is null or pp.targetrole!=dd.targetrole
-order by 1,2,3,4</t>
-  </si>
-  <si>
-    <t>with rn as
-(   
-select rn.version,rn.parentrole,rn.entity,rn.rinok,rn.label,rn.id,coalesce(rc.value,re.member) qname
-from rulenodes rn
-left join rulenodes_c rc on rc.version=rn.version and rc.entity=rn.entity and rc.rinok=rn.rinok and rc.parentrole=rn.parentrole and rc.rulenode_id=rn.id
-left join rulenodes_e re on re.version=rn.version and re.entity=rn.entity and re.rinok=rn.rinok and re.parentrole=rn.parentrole and re.rulenode_id=rn.id
-where coalesce(rc.value,re.member) is not null
-order by rn.version,rn.rinok,rn.entity,rn.id
-),
-gl as
-(
-select l.version,l.rinok,replace(l.entity,'-lab.xml','-rend.xml') entity,href_id id,text
-from (select * from locators where locfrom='lab' order by version,rinok,entity,parentrole) l
-join (select * from arcs order by version,rinok,entity,parentrole) a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.parentrole=l.parentrole and l.label=a.arcfrom
-join (select * from labels order by version,rinok,entity) la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole 
-and la.label=a.arcto and la.role='http://www.xbrl.org/2008/role/label'
-order by 1,2,3,4
-)
-select distinct rn.version "Версия",rn.rinok "Рынок",rn.entity "Файл",rn.parentrole "Роль",rn.qname "Qname элемента",type "Тип элемента",arr_len "Кол-во lable в table",
-arr1_in_arr2_hard(pl_texts,rn_texts) "Жесткое сопоставление",
-arr1_in_arr2_light(pl_texts,rn_texts) "Сопоставление без учета пробелов и регистра",
-array_to_string(rn_texts,';') "Лейблы table",array_to_string(pl_texts,';') "Лейблы presentation"
-from
-(
-select rn.version,rn.rinok,gl.entity,rn.parentrole,qname,array_length(array_agg(distinct gl.text),1) arr_len,array_unique(array_agg(distinct gl.text)) rn_texts
-from rn
-join gl using (version,rinok,entity,id)
-group by rn.version,rn.rinok,gl.entity,rn.parentrole,qname
-) rn
-join 
-(
-select version,entity,rinok,role_table,pl.parentrole,id,qname,type,array_unique(array_agg(distinct text)) pl_texts
-from
-(
-select version,entity,pl.rinok,role_table,pl.parentrole,qname,id,type,substitutiongroup,abstract,text
-from preferred_labels pl
-left join roles_table_definition r on r.role_definition=pl.parentrole
-where type != 'xbrldt:dimensionItem'
-) pl
-group by version,entity,rinok,role_table,pl.parentrole,id,qname,type
-order by type
-) pl on pl.version=rn.version and (coalesce(pl.role_table,pl.parentrole)=rn.parentrole or (pl.parentrole SIMILAR TO rn.parentrole||'\D%' and pl.role_table is null)) and pl.qname=rn.qname
-where arr1_in_arr2_hard(pl_texts,rn_texts)=0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Проверка корректности тегов в entrypoints</t>
-  </si>
-  <si>
-    <t>select * 
-from
-(select e.nfotype, e.reporttype, e.reportperiodtype, e.pathtoxsd,e.tags_in_file "Все теги в файле", e.tags_in_entry "Все теги в entity",
-array['reporttype', 'pathtoxsd', 'reportperiodtype', 'nfotyperus', 'reporttyperus', 'reportperiodtyperus', 'nfotype'] @&gt; STRING_TO_ARRAY(e.tags_in_entry,',') 
- and STRING_TO_ARRAY(e.tags_in_entry,',') @&gt; array['reporttype', 'pathtoxsd', 'reportperiodtype', 'nfotyperus', 'reporttyperus', 'reportperiodtyperus', 'nfotype'] as check_tags
- from entrypoints e) t_1
-where check_tags = 'False'</t>
+) dd
+order by 1,2,4,3)
+select def.version "Версия",def.rinok "Рынок",def.entity "Файл",def.parentrole "Роль definition",array_to_string(roles_table,';') "Роль(и) table",def_abstract "Абстрактность элемента",concept "Элемент definition",value "Элемент table"
+from 
+(select def.version,def.rinok,def.entity,def.parentrole,concept,roles_table,def.abstract def_abstract
+	from def 
+	where def.parentrole not in (select distinct targetrole 
+								 from (select distinct targetrole
+									    from arcs 
+									   where arctype='definition'
+									   and targetrole is not null
+										union all 
+									   select linkrole from rend_edmembers where linkrole is not null
+										union all
+									   select distinct enumlinkrole from elements where enumlinkrole is not null
+										union all
+									   select distinct enum2linkrole from elements where enum2linkrole is not null
+										)
+								 rr)
+	and def.entity not in (select distinct replace(entity,'.xsd','-definition.xml') from elements)
+and def.parentrole not in ('http://www.cbr.ru/xbrl/nso/ins/rep/2024-11-01/tab/sr_0420154/sr_0420154_R2_P22_KatKontrOczRisk2Axis_Table',
+        'http://www.cbr.ru/xbrl/nso/ins/rep/2024-11-01/tab/sr_0420155/Str_Dogovor_Nzh_Table',
+        'http://www.cbr.ru/xbrl/nso/ins/rep/2024-11-01/tab/sr_0420157_UchetGruppy')
+ order by version, rinok, concept, parentrole, roles_table
+) def
+left join rn on rn.version=def.version and rn.rinok=def.rinok and rn.value=def.concept
+and (rn.parentrole = ANY (roles_table) or (roles_table is null and def.parentrole SIMILAR TO rn.parentrole||'\D%')) 
+where value is null
+order by 1 nulls last,2,3,4,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2683,7 +2714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2694,26 +2725,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3029,22 +3046,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="131.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="240" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3055,18 +3072,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3077,7 +3094,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3088,7 +3105,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3099,7 +3116,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3110,18 +3127,18 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="9">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3132,7 +3149,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3143,7 +3160,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3154,51 +3171,51 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="405" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    </row>
+    <row r="15" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3209,7 +3226,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3220,7 +3237,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3230,52 +3247,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3286,7 +3303,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3296,99 +3313,99 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+    <row r="24" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+    <row r="25" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="26" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="29" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>29</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="30" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>31</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+    <row r="32" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>32</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3396,21 +3413,21 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="7">
         <v>33</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+    <row r="34" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>34</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3418,7 +3435,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="7">
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3428,22 +3445,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>36</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>124</v>
+      <c r="B36" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="7">
         <v>37</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3451,54 +3468,54 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>39</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+    <row r="39" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40">
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="4">
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>43</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3506,7 +3523,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="7">
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3517,29 +3534,29 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="A44" s="7">
         <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="A45" s="7">
         <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+    <row r="46" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3550,7 +3567,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="A47" s="7">
         <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3561,18 +3578,18 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="4">
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+    <row r="49" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3583,7 +3600,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="7">
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3594,7 +3611,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="A51" s="7">
         <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3605,7 +3622,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="7">
         <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3616,7 +3633,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+      <c r="A53" s="7">
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3627,7 +3644,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3638,7 +3655,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3648,8 +3665,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+    <row r="56" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3660,7 +3677,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+      <c r="A57" s="7">
         <v>66</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3671,10 +3688,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="7">
         <v>68</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3682,10 +3699,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="A59" s="4">
         <v>70</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -3693,21 +3710,21 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="7">
         <v>71</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="7">
         <v>72</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3715,40 +3732,40 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+      <c r="A62" s="4">
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="63" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63">
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="A64">
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+    <row r="65" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3759,161 +3776,161 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="A66">
         <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+      <c r="A67">
         <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>83</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
-        <v>83</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C69" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>84</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
-        <v>84</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>85</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
-        <v>85</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>86</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
-        <v>86</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="73" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="C73" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="C77" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="78" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>185</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
     <sortCondition ref="A56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3922,7 +3939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3932,10 +3949,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10">
+      <c r="A1" s="7">
         <v>61</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3948,7 +3965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3958,7 +3975,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
+      <c r="A1" s="6">
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3974,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3984,14 +4001,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17">
+      <c r="A1">
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4000,7 +4017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4010,11 +4027,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="163.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14">
+      <c r="A1" s="8">
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
@@ -4026,7 +4043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4036,11 +4053,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
+      <c r="A1" s="6">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
@@ -4052,7 +4069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4065,7 +4082,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11">
+      <c r="A1" s="7">
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4081,7 +4098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4094,7 +4111,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4110,7 +4127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4123,7 +4140,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\checkList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1C9D7-FC3B-4FC0-83C2-C6593C53110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="75" sheetId="3" r:id="rId8"/>
     <sheet name="67" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1408,30 +1407,6 @@
 order by rinok</t>
   </si>
   <si>
-    <t xml:space="preserve">select zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",name "Переменная",test,precond,v_test
-from
-(
-select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id
-from va_assertions va
-join (select * from arcs where arctype='formula') a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
-left join 
-(
-select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
-from preconditions p
-join (select * from arcs where arctype='formula') a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
-) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
-order by version,rinok,entity,parentrole
-) zz
-left join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,string_agg(test,' | ') v_test from va_generals vg
-join (select * from arcs where arctype='formula') a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
-group by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom
-order by version,rinok,entity,parentrole) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom
-where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%' and v_test not similar to '%'||name||'%'
-</t>
-  </si>
-  <si>
     <t>with ll as
 (
 select version,rinok,entity,href,ll.order,rn::numeric[] as rn,
@@ -2359,49 +2334,6 @@
   order by 1,2,3,4,5</t>
   </si>
   <si>
-    <t>select distinct zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",fallbackvalue,zz.name "Переменная",concept "Концепт",zz.test,zz.precond,vg.name "generalVarible",vg.test "generalVarible test"
-from
-(
-select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id,fallbackvalue,concept
-from va_assertions va
-join (select * 
-	  from arcs where arctype='formula'
-	  order by version,rinok,entity,parentrole,arcfrom) a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-join (select * from va_factvars order by version,rinok,entity,parentrole,label) fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
-join
-(
-select vc.version,vc.rinok,vc.entity,vc.parentrole,a.arcfrom fv_label,value concept 
-	from va_concepts vc
-join (select * 
-	  from arcs where arctype='formula'
-	   order by version,rinok,entity,parentrole,arcto) a on a.version=vc.version and a.rinok=vc.rinok and a.entity=vc.entity and a.parentrole=vc.parentrole and a.arcto=vc.label
--- where  vc.label='filter_factVariable_valueAssertion_0420105_1_01_01'
-order by  vc.version,vc.rinok,vc.entity,vc.parentrole,a.arcfrom
-) vc on vc.version=fv.version and vc.rinok=fv.rinok and vc.entity=fv.entity and vc.parentrole=fv.parentrole and vc.fv_label=fv.label
-left join 
-(
-select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
-from preconditions p
-join (select * from arcs where arctype='formula'
-	 order by version,rinok,entity,parentrole,arcto) a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
-) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
---where va.id='valueAssertion_sr_0420525_008'
-order by version,rinok,entity,parentrole
-) zz
-join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,test,'$'||a.name name,
-				'$'||unnest(regexp_matches(test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm
-		from va_generals vg
-		join (select version,rinok,entity,parentrole,arcto,arcfrom,name
-			  from arcs where arctype='formula'
-				order by version,rinok,entity,parentrole,arcto
-			  ) a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
-		order by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,a.name
-		) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom and vg.mm=zz.name
-where fallbackvalue is not null
-order by zz.version,zz.entity,zz.rinok,zz.parentrole,id</t>
-  </si>
-  <si>
     <t>with def_temp as 
 (
 select a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
@@ -2653,11 +2585,81 @@
 where value is null
 order by 1 nulls last,2,3,4,5</t>
   </si>
+  <si>
+    <t xml:space="preserve">select zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",name "Переменная",test,precond,v_test
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id
+from va_assertions va
+join (select * from arcs where arctype='formula') a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join va_factvars fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join (select * from arcs where arctype='formula') a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+order by version,rinok,entity,parentrole
+) zz
+left join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,string_agg(test,' | ') v_test from va_generals vg
+join (select * from arcs where arctype='formula') a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
+group by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom
+order by version,rinok,entity,parentrole) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom
+where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%' and coalesce(v_test,'blabla') not similar to '%'||name||'%'
+</t>
+  </si>
+  <si>
+    <t>select distinct zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",fallbackvalue,
+    zz.name "Переменная",concept "Концепт",zz.test,zz.precond,vg.name "generalVarible",vg.test "generalVarible test"
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id,fallbackvalue,concept
+from (select * from va_assertions order by version,rinok,entity,parentrole,label) va
+join (select * 
+   from arcs where arctype='formula'
+   order by version,rinok,entity,parentrole,arcfrom) a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join (select version,rinok,entity,parentrole,label,id,fallbackvalue
+   from va_factvars 
+   order by label) fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+join
+(
+select vcc.version,vcc.rinok,vcc.entity,vcc.parentrole,a.arcfrom fv_label,value concept 
+ from va_concepts vcc
+join (select * 
+   from arcs where arctype='formula'
+    order by version,rinok,entity,parentrole,arcto) a on a.version=vcc.version and a.rinok=vcc.rinok and a.entity=vcc.entity and a.parentrole=vcc.parentrole and a.arcto=vcc.label
+-- where  vc.label='filter_factVariable_valueAssertion_0420105_1_01_01'
+order by a.arcfrom
+) vc on vc.version=fv.version and vc.rinok=fv.rinok and vc.entity=fv.entity and vc.parentrole=fv.parentrole and vc.fv_label=fv.label
+left join 
+(
+select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+from preconditions p
+join (select * from arcs where arctype='formula'
+  order by version,rinok,entity,parentrole,arcto) a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+--where va.id='valueAssertion_sr_0420525_008'
+order by version,rinok,entity,parentrole
+) zz
+join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,test,'$'||a.name name,
+    '$'||unnest(regexp_matches(test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm
+  from va_generals vg
+  join (select version,rinok,entity,parentrole,arcto,arcfrom,name
+     from arcs where arctype='formula'
+    order by version,rinok,entity,parentrole,arcto
+     ) a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
+  order by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,a.name
+  ) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom and vg.mm=zz.name
+where fallbackvalue is not null
+order by zz.version,zz.entity,zz.rinok,zz.parentrole,id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3046,11 +3048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,21 +3174,21 @@
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>113</v>
@@ -3194,24 +3196,24 @@
     </row>
     <row r="13" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="255" x14ac:dyDescent="0.25">
@@ -3252,7 +3254,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -3263,7 +3265,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>50</v>
@@ -3274,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>47</v>
@@ -3285,7 +3287,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
@@ -3318,7 +3320,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -3329,7 +3331,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -3340,7 +3342,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>72</v>
@@ -3351,7 +3353,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -3384,7 +3386,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
@@ -3483,7 +3485,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>79</v>
@@ -3494,7 +3496,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>102</v>
@@ -3505,7 +3507,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>96</v>
@@ -3538,7 +3540,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>80</v>
@@ -3582,7 +3584,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>83</v>
@@ -3717,7 +3719,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3736,7 +3738,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>112</v>
@@ -3747,7 +3749,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>97</v>
@@ -3868,7 +3870,7 @@
         <v>138</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>139</v>
@@ -3876,61 +3878,61 @@
     </row>
     <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>178</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
+  <sortState ref="A2:C73">
     <sortCondition ref="A56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3939,7 +3941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3965,7 +3967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3991,7 +3993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4017,7 +4019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4043,7 +4045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4069,7 +4071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4098,7 +4100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4127,7 +4129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -439,21 +439,6 @@
   </si>
   <si>
     <t>Проверка наличия стандартного русского лейбла у показателей в словаре БФО</t>
-  </si>
-  <si>
-    <t>with ll as 
-(
-select l.version,l.rinok,l.parentrole,l.entity,split_part(href,'#',1) entity_rend,max(case when la.role='http://www.xbrl.org/2008/role/label' then la.text else null end) text
-from locators l 
-join arcs a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.arcfrom=l.label and a.parentrole=l.parentrole
-join labels la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole and la.label=a.arcto
-and la.role in ('http://www.xbrl.org/2008/role/label','http://www.xbrl.org/2008/role/documentation')
-group by l.version,l.rinok,l.parentrole,l.entity,split_part(href,'#',1)
- )
-select  t.version "Версия",t.rinok "Рынок",t.entity "Файл",t.parentrole "Раздел",text "Заголовок" 
-from tableschemas t 
-left join ll on ll.entity_rend=t.entity and ll.version=t.version and ll.rinok=t.rinok
-where rolefrom='table' and text is null and t.version=HID</t>
   </si>
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",targetnamespace 
@@ -2654,6 +2639,66 @@
   ) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom and vg.mm=zz.name
 where fallbackvalue is not null
 order by zz.version,zz.entity,zz.rinok,zz.parentrole,id</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",prefix,link 
+from linkbases where link similar to '%\\%'</t>
+  </si>
+  <si>
+    <t>В ссылках таксономии есть обратные слэши</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with ll as 
+(
+select l.version,l.rinok,l.parentrole,l.entity,split_part(href,'#',1) entity_rend,max(case when la.role='http://www.xbrl.org/2008/role/label' then la.text else null end) text,la.lang
+from locators l 
+join arcs a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.arcfrom=l.label and a.parentrole=l.parentrole
+join labels la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole and la.label=a.arcto
+and la.role in ('http://www.xbrl.org/2008/role/label','http://www.xbrl.org/2008/role/documentation')
+group by l.version,l.rinok,l.parentrole,l.entity,lang,split_part(href,'#',1)
+ )
+select  t.version "Версия",t.rinok "Рынок",t.entity "Файл",t.parentrole "Раздел",lang,text "Заголовок" 
+from tableschemas t 
+left join ll on ll.entity_rend=t.entity and ll.version=t.version and ll.rinok=t.rinok
+where rolefrom='table' and (text is null or lang!='ru')
+</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",element "Элемент"
+from
+(
+select distinct version,rinok,entity,parentrole,member as element
+from rulenodes_e
+--where entity='FR_3_038_01d_01-rend.xml'
+union all
+select distinct version,rinok,entity,parentrole,dimension 
+from rulenodes_e
+--where entity='FR_3_038_01d_01-rend.xml'
+union all
+select distinct version,rinok,entity,parentrole,value 
+from rulenodes_c
+--where entity='FR_3_038_01d_01-rend.xml'
+) zz 
+where element not in (select qname from elements)</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Элемент, добавленный в table слой отсутствует в словаре</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",tags "Тэги"
+from tabletags where tag_from!='formula' and tags like '%valueassertion%'</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Формула описана не в файле formula</t>
   </si>
 </sst>
 </file>
@@ -3049,10 +3094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -3100,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>39</v>
@@ -3133,10 +3178,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -3144,7 +3189,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3155,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -3174,46 +3219,46 @@
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="255" x14ac:dyDescent="0.25">
@@ -3221,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -3232,7 +3277,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>46</v>
@@ -3243,7 +3288,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -3254,7 +3299,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -3265,7 +3310,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>50</v>
@@ -3276,7 +3321,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>47</v>
@@ -3287,7 +3332,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>48</v>
@@ -3309,7 +3354,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
@@ -3320,7 +3365,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -3331,7 +3376,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -3342,7 +3387,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>72</v>
@@ -3353,7 +3398,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -3364,10 +3409,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -3386,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
@@ -3403,12 +3448,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
@@ -3430,7 +3475,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>19</v>
@@ -3452,7 +3497,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
@@ -3485,10 +3530,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3496,10 +3541,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3507,10 +3552,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -3529,7 +3574,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>54</v>
@@ -3540,10 +3585,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="285" x14ac:dyDescent="0.25">
@@ -3551,7 +3596,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>67</v>
@@ -3584,10 +3629,10 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -3595,7 +3640,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>62</v>
@@ -3617,7 +3662,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>65</v>
@@ -3628,7 +3673,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>66</v>
@@ -3639,7 +3684,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>68</v>
@@ -3647,24 +3692,24 @@
     </row>
     <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="375" x14ac:dyDescent="0.25">
@@ -3672,10 +3717,10 @@
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3694,7 +3739,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>28</v>
@@ -3705,7 +3750,7 @@
         <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>29</v>
@@ -3719,7 +3764,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3738,10 +3783,10 @@
         <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -3749,10 +3794,10 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3760,10 +3805,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -3771,10 +3816,10 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3782,10 +3827,10 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3793,10 +3838,10 @@
         <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3804,10 +3849,10 @@
         <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3815,10 +3860,10 @@
         <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -3826,10 +3871,10 @@
         <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -3837,10 +3882,10 @@
         <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -3848,87 +3893,120 @@
         <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>177</v>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3955,7 +4033,7 @@
         <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
@@ -3981,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -4007,10 +4085,10 @@
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
@@ -4059,10 +4137,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4088,10 +4166,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="202">
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",id "ID",roleuri "URI" 
 from roletypes r
@@ -2699,6 +2699,52 @@
   </si>
   <si>
     <t>Формула описана не в файле formula</t>
+  </si>
+  <si>
+    <t>select version "Версия",tax_name "Имя",ep_name,ep_href "URI"
+from taxpackage
+where split_part(split_part(ep_href,'/',-1),'.',1) !=ep_name</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>В имени точки входа в taxpackage присутствует расширение (.xsd)</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Неправильные называния элементов Taxis, Axis, Member, Enimerator, Enumerator2</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",name,id,qname
+from
+(
+select version,rinok,entity,name,id,qname,
+case when type='enum2:enumerationSetItemType' and name not like '%Enumerator2' then 'Error enumerator2'
+when type='enum:enumerationItemType' and name not like '%Enumerator' then 'Error enumerator'
+when substitutiongroup='xbrldt:dimensionItem' and typeddomainref is null and name not like '%Axis' then 'Error Axis'
+when typeddomainref is not null and name not like '%Taxis' then 'Error Taxis'
+when type='nonnum:domainItemType' and name not like '%Member' then 'Error Member'
+else '' 
+end error_name
+from elements
+where type in ('enum2:enumerationSetItemType','enum:enumerationItemType','nonnum:domainItemType')
+or substitutiongroup='xbrldt:dimensionItem'
+) zz
+left join 
+(
+select distinct l.href_id element_id,tp.entity table_entity,tp.uri_razdel role_razdel 
+from
+(select * from locators l where l.locfrom='definition' order by version,rinok,entity,parentrole) l
+join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole) a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto
+join tableparts tp on tp.version=a.version and tp.rinok=a.rinok
+where (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+order by l.href_id
+) df on df.element_id=id
+where error_name!=''
+order by 2 desc,1,3,4</t>
   </si>
 </sst>
 </file>
@@ -3094,10 +3140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,6 +4056,28 @@
         <v>195</v>
       </c>
     </row>
+    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C73">
     <sortCondition ref="A56"/>
@@ -4020,6 +4089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4046,6 +4116,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4072,6 +4143,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4098,6 +4170,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4124,6 +4197,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4150,6 +4224,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4179,6 +4254,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист8"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4208,6 +4284,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист9"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -22,6 +22,7 @@
     <sheet name="49" sheetId="6" r:id="rId8"/>
     <sheet name="75" sheetId="3" r:id="rId9"/>
     <sheet name="67" sheetId="4" r:id="rId10"/>
+    <sheet name="88 old" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="229">
   <si>
     <t>Проверка того, что targetRole ссылается на существующую роль в Definition</t>
   </si>
@@ -726,102 +727,6 @@
     <t>90</t>
   </si>
   <si>
-    <t xml:space="preserve">
-        WITH RECURSIVE recursive_hierarchy AS not materialized 
-        (
-        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes,order_,abstract,rn_order
-        from
-        ( 
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'root' cell_type,r.order order_,abstract,a.order rn_order
-        from rulenodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
-        union all
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'root_aspect' cell_type,0 as order_,null abstract,a.order rn_order
-  from aspectnodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
-        order by 1,2,3,4
-        ) p
-         union all
-        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
-         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.id,c.order_,c.abstract,p.rn_order ||';'|| c.rn_order rn_order
-        from
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'child' cell_type,r.order order_ ,abstract,a.order rn_order
-        from rulenodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
-        union all
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'child_aspect' cell_type,0 as order_ ,null abstract,a.order rn_order
-         from aspectnodes r
-        left join arcs a on a.version=r.version and a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.version=r.version and aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
-        order by 1,2,3,4
-        ) c 
-        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
-        where c.arcfrom is not null
-       ),
-  rc_temp as
-  (
-  select distinct rn.version,rn.rinok,rn.entity,rn.parentrole,rn.child_id,rn.arcfrom,arcfrom_2,la.text,order_child,order_root,
-   array_remove(string_to_array(NULLIF(regexp_replace(la.text, '\D','|','g'), ''),'|'),'')::numeric[] rn,abstract
-  from
-  (
-  select version,rinok,entity,parentrole,rh.arcfrom,rh.child_id,arcfrom_2,order_child,order_root,abstract
-  from 
-  (
-   select version,rinok,entity,parentrole,rh.arcfrom,rh2.arcfrom arcfrom_2,
-   rh2.child_id,
-   rh2.order_,
-   rh2.abstract,
-   string_to_array(rh2.rn_order,';')::numeric[] order_child,
-   string_to_array(rh.rn_order,';')::numeric[] order_root,
-   rh2.cell_type
-   from
-   recursive_hierarchy rh
-  left join (select * from recursive_hierarchy where cell_type in ('child','child_aspect')) rh2 using (version,rinok,entity,parentrole)
-  where rh2.parent_id=rh.parent_id and rh.cell_type in ('root','root_aspect')
-   union all
-  select version,rinok,entity,parentrole,arcfrom,arcfrom arcfrom_2,parent_id,rh.order_,rh.abstract,
-   string_to_array(rh.rn_order,';')::numeric[] order_child,
-   string_to_array(rh.rn_order,';')::numeric[] order_root,
-   cell_type
-   from
-   recursive_hierarchy rh
-   where rh.cell_type in ('root','root_aspect')
-  ) rh
-  ) rn
-  join locators l on l.version=rn.version and replace(rn.entity,'-rend.xml','-lab.xml')=l.entity and l.href_id=rn.child_id and l.rinok=rn.rinok
-  join arcs aa on aa.version=rn.version and aa.entity=rn.entity and aa.rinok=rn.rinok and aa.parentrole=rn.parentrole and rn.child_id=aa.arcto
-  join arcs a on a.version=l.version and a.entity=l.entity and a.rinok=l.rinok and a.parentrole=l.parentrole and l.label=a.arcfrom
-  join labels la on a.version=la.version and a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole and la.label=a.arcto and la.role='http://www.eurofiling.info/xbrl/role/rc-code'
-  where l.locfrom='lab' 
-  ),
-  rc as
-  (
-  select version,rinok,entity,parentrole,child_id,text,order_child,order_root,rn,table_rn,rc_rn,abstract,arcfrom,arcfrom_2
-  from
-  (
-  select version,rinok,entity,parentrole,child_id,text,order_child,order_root,rn,abstract,arcfrom,arcfrom_2,
-  DENSE_RANK() OVER (PARTITION BY version,rinok,entity,parentrole,arcfrom ORDER BY order_root,order_child,child_id) table_rn,
-  DENSE_RANK() OVER (PARTITION BY version,rinok,entity,parentrole,arcfrom ORDER BY rn) rc_rn
-  from rc_temp
-  where coalesce(abstract,'false')='false'
-  order by version,rinok,entity,parentrole,order_root,order_child
-  ) rc
-  )
-  select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",child_id "ID рулнода",text "RС-код",
-  table_rn "Сортировка рулнодов по table",rc_rn "Сортировка рулнодов по RC" ,order_root "Сортировка родителей (справочно)",order_child "Сортировка детей (справочно)",rn "Сортировка RC кодов (справочно)"
-  from rc
-  --where (version,rinok,entity,parentrole) in (select version,rinok,entity,parentrole from rc where table_rn-rc_rn!=0)
-  </t>
-  </si>
-  <si>
     <t>Проверка сортировки значений RC кодов в таблице</t>
   </si>
   <si>
@@ -996,52 +901,6 @@
  and STRING_TO_ARRAY(e.tags_in_entry,',') @&gt; array['reporttype', 'pathtoxsd', 'reportperiodtype', 'nfotyperus', 'reporttyperus', 'reportperiodtyperus', 'nfotype'] as check_tags
  from entrypoints e) t_1
 where check_tags = 'False'</t>
-  </si>
-  <si>
-    <t>select distinct zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",fallbackvalue,
-    zz.name "Переменная",concept "Концепт",zz.test,zz.precond,vg.name "generalVarible",vg.test "generalVarible test"
-from
-(
-select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id,fallbackvalue,concept
-from (select * from va_assertions order by version,rinok,entity,parentrole,label) va
-join (select * 
-   from arcs where arctype='formula'
-   order by version,rinok,entity,parentrole,arcfrom) a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-join (select version,rinok,entity,parentrole,label,id,fallbackvalue
-   from va_factvars 
-   order by label) fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
-join
-(
-select vcc.version,vcc.rinok,vcc.entity,vcc.parentrole,a.arcfrom fv_label,value concept 
- from va_concepts vcc
-join (select * 
-   from arcs where arctype='formula'
-    order by version,rinok,entity,parentrole,arcto) a on a.version=vcc.version and a.rinok=vcc.rinok and a.entity=vcc.entity and a.parentrole=vcc.parentrole and a.arcto=vcc.label
--- where  vc.label='filter_factVariable_valueAssertion_0420105_1_01_01'
-order by a.arcfrom
-) vc on vc.version=fv.version and vc.rinok=fv.rinok and vc.entity=fv.entity and vc.parentrole=fv.parentrole and vc.fv_label=fv.label
-left join 
-(
-select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
-from preconditions p
-join (select * from arcs where arctype='formula'
-  order by version,rinok,entity,parentrole,arcto) a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
-) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
---where va.id='valueAssertion_sr_0420525_008'
-order by version,rinok,entity,parentrole
-) zz
-join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,test,'$'||a.name name,
-    '$'||unnest(regexp_matches(test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm
-  from va_generals vg
-  join (select version,rinok,entity,parentrole,arcto,arcfrom,name
-     from arcs where arctype='formula'
-    order by version,rinok,entity,parentrole,arcto
-     ) a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
-  order by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,a.name
-  ) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom and vg.mm=zz.name
-where fallbackvalue is not null
-order by zz.version,zz.entity,zz.rinok,zz.parentrole,id</t>
   </si>
   <si>
     <t>94</t>
@@ -1858,31 +1717,6 @@
 </t>
   </si>
   <si>
-    <t>with def_temp as
-(
-select a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
-typeddomainref
-from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
-join arcs a on a.arcto=l.label and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-and a.arctype in ('presentation','definition') and lower(l.parentrole) not like '%chasti%'
- --and l.parentrole='http://www.cbr.ru/xbrl/nso/purcb/rep/2024-11-01/tab/SR_0420431_R2_9_R_6'
-order by a.arctype,l.version,l.rinok,l.entity,l.parentrole,l.qname 
-),
-def as not materialized
-(
-select distinct arctype,version,rinok,entity,parentrole,qname concept,e_type,abstract,targetrole
-from def_temp
-)
-select case when pp.concept is null then 'Нет элемента в presentation' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
-dd.version "Версия",dd.rinok "Рынок",dd.entity "Файл",parentrole "Роль",dd.concept "Элемент",dd.targetrole "targetrole definition",pp.targetrole "targetrole presentation" 
-from
-(select * from (select * from def where arctype='definition' order by parentrole) def where parentrole in (select distinct parentrole from def where arctype='presentation' order by parentrole)) dd
-left join 
-(select * from def where arctype='presentation') pp using (parentrole,concept)  
-where pp.concept is null or pp.targetrole!=dd.targetrole
-order by 1,2,3,4</t>
-  </si>
-  <si>
     <t>with pp as
 (
 select distinct a.version,a.rinok,uri_table,a.parentrole uri_razdel,l.label,l.href_id element_id,coalesce(preferredlabel,'') preferredlabel
@@ -2172,31 +2006,6 @@
 left join (select * from rulenodes_p order by version,rinok,entity,parentrole) rp on rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and rp.rulenode_id=r.id
 where abstract='true'
 and a.arcto is null and rc.value is null and re.dimension is null and rp.period_type is null
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",name "Переменная",test,precond,v_test
-from
-(
-select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id
-from va_assertions va
-join (select * from arcs where arctype='formula') a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-join va_factvars fv on a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
-left join 
-(
-select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
-from preconditions p
-join (select * from arcs where arctype='formula') a on a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
-) p on p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
- where assert_type !='existenceassertion'
-order by version,rinok,entity,parentrole
-) zz
-left join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,string_agg(test,' | ') v_test from va_generals vg
-join (select * from arcs where arctype='formula') a on a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
-group by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom
-order by version,rinok,entity,parentrole) vg on zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom
-where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%' and coalesce(v_test,'blabla') not similar to '%'||name||'%'
 </t>
   </si>
   <si>
@@ -2538,60 +2347,6 @@
 </t>
   </si>
   <si>
-    <t>with df as 
-(select replace(entity,'.xsd','-formula.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id
-                join elements em on em.id=lm.href_id
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
-        ) ee 
-        group by entity),
-dim as 
-(
-select ve.rinok,ve.version,ve.entity,ve.parentrole,ve.id,coalesce(l.label,ve.label) label,
-dimension||'#'||member dim
-from va_edimensions ve
-left join locators l on l.rinok=ve.rinok and l.entity=ve.entity and l.href_id=ve.id
-left join va_edmembers vm on vm.entity=ve.entity and vm.rinok=ve.rinok and vm.parentrole=ve.parentrole
-and vm.dimension_id=ve.id
-left join df on df.entity=ve.entity
-where dimension||'#'||member = ANY(dim_def) 
-order by 1,2,3,4
-),
-fv as
-(
-select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",dim,complement
-from
-(
-select fv.rinok,fv.version,fv.entity,fv.parentrole,fv.id,coalesce(l.label,fv.label) label
-from (select rinok,version,entity,parentrole,id,label
-    from va_factvars 
-   order by rinok, entity,id)fv
-left join (select version, rinok, entity,href_id,label
-   from locators 
-     order by  rinok, entity,href_id)l on l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
-) fv
-join arcs a on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.arcfrom=fv.label and a.parentrole=fv.parentrole
-and a.arcrole='http://xbrl.org/arcrole/2008/variable-filter' and a.complement='true'
-left join dim on dim.rinok=a.rinok and dim.entity=a.entity and dim.label=a.arcto and dim.parentrole=fv.parentrole
-)
-select * from fv where coalesce(dim,'1') != '1'</t>
-  </si>
-  <si>
     <t xml:space="preserve">select an.version "Версия",an.rinok "Рынок",an.entity "Файл",an.parentrole "Роль",an.id "aspectNode",an.dimension "Закрытая ось",
 max(case when arctype='table:aspectnodefilterarc' then re.dimension else null end) dim_filter
 from aspectnodes an
@@ -2875,29 +2630,6 @@
 where locfrom='formula' 
 and a.arcrole ='http://xbrl.org/arcrole/2010/assertion-unsatisfied-message'
 and m.role='http://www.xbrl.org/2010/role/terseMessage'</t>
-  </si>
-  <si>
-    <t>with def_temp as 
-(
-select a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname,l.label,arcfrom,arcto,arcrole,e_type,coalesce(l.abstract,'false') abstract,a.usable,targetrole,
-typeddomainref
-from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators order by 1,2,3,4) l join elements e on e.id=l.href_id order by l.version,l.rinok,l.entity,l.parentrole) l
-join arcs a on a.arcto=l.label and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-and a.arctype in ('presentation','definition') and lower(l.parentrole) not like '%chasti%'
-order by a.arctype,l.version,l.rinok,l.entity,l.parentrole,l.qname 
-),
-def as not materialized
-(
-select distinct arctype,version,rinok,entity,parentrole,qname concept,e_type,abstract,targetrole
-from def_temp
- order by version,parentrole,concept,targetrole
-)
-select case when dd.concept is null then 'Нет элемента в definition' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
-pp.version "Версия",pp.rinok "Рынок",pp.entity "Файл",parentrole "Роль",pp.concept "Элемент",pp.targetrole "targetrole presentation",dd.targetrole "targetrole definition" 
-from (select * from def where arctype='presentation') pp
-left join  (select * from def where arctype='definition') dd using (parentrole,concept)  
-where dd.concept is null or pp.targetrole!=dd.targetrole
-order by 1,2,3,4</t>
   </si>
   <si>
     <t>select r.version "Версия",entity "Файл",rinok "Рынок",parentrole "Роль",r.id "rulenode ID", tag "Tag",count(*) "Кол-во ruleSet" 
@@ -3003,42 +2735,541 @@
     <t>Пространство имен словаря задекларированно неправильно, не соответствует namespace справочника</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>select version "Версия", nfotype, reportperiodtype, pathtoxsd
+ from entrypoints
+where reportperiodtype not in ('q','y','m','half_year','r','d')</t>
+  </si>
+  <si>
+    <t>select version "Версия", rinok "Рынок", entity "Файл", tags "Используемые теги" 
+ from tabletags 
+where tag_from != 'formula'
+and tags like '%msg:message%'</t>
+  </si>
+  <si>
+    <t>Проверка файла entrypoint на несуществующий тип reportperiodtype</t>
+  </si>
+  <si>
+    <t>Тэг msg:message должен быть только в файлах *formula.xml</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",qname "Qname",type "Тип элемента",enumdomain,enum2domain  
+from elements 
+where type not in ('enum:enumerationItemType','enum2:enumerationSetItemType') and (enumdomain is not null or enum2domain is not null)
+</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Обычный element имеет enumdomain или enmum2domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл элемента с паттерном",dd.entity "Файл таблицы",uri_razdel "URI definition",
+taxis "Ось (для typedName)",elem "Элемент с паттерном",substitutiongroup "Тип",e.minlength,e.maxlength,e.pattern,e.attributegroup, round_skobka "Баланс круглых скобок",square_skobka "Баланс квадратных скобок"
+from
+(
+select coalesce(ee.id,e.id) all_id,e.version,e.rinok,e.entity,ee.qname taxis,e.qname elem,substitutiongroup,e.minlength,e.maxlength,e.pattern,attributegroup,round_skobka,square_skobka
+from
+(
+select version,rinok,entity,id,qname,
+substitutiongroup "Тип",minlength,maxlength,pattern,
+length(replace(pattern,'(','')) = length(replace(pattern,')','')) round_skobka,
+length(replace(pattern,'[','')) = length(replace(pattern,']','')) square_skobka
+from elements where pattern is not null
+) e 
+left join elements ee on e.id=split_part(ee.typeddomainref,'#',-1) 
+) e
+left join 
+(
+select a.version,a.entity,a.rinok,a.parentrole uri_razdel,l.href_id 
+from arcs a
+join locators l on l.label=a.arcto and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition'
+) dd on dd.href_id=e.all_id
+order by uri_razdel nulls last,taxis nulls last
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.parentrole "URI раздела",l.href_id "ID элемента",count(*) "Кол-во элементов"
-from arcs a
-join (select * from locators) l on l.label=a.arcto and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-join (select * from elements order by id) e on e.id=l.href_id
-where arctype='definition' and e.abstract!='true'
+from (select * from arcs where arctype='definition' order by rinok,entity,parentrole,arcto) a
+join (select l.* from (select * from locators where locfrom='definition' order by href_id) l join (select * from elements where abstract!='true' order by id) e on e.id=l.href_id order by l.rinok,l.entity,l.parentrole,l.label) l on 
+l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto
 group by a.version,a.rinok,a.parentrole,l.href_id
 having count(*)&gt;1
 order by a.rinok,a.parentrole,l.href_id
 </t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>select version "Версия", nfotype, reportperiodtype, pathtoxsd
- from entrypoints
-where reportperiodtype not in ('q','y','m','half_year','r','d')</t>
-  </si>
-  <si>
-    <t>select version "Версия", rinok "Рынок", entity "Файл", tags "Используемые теги" 
- from tabletags 
-where tag_from != 'formula'
-and tags like '%msg:message%'</t>
-  </si>
-  <si>
-    <t>Проверка файла entrypoint на несуществующий тип reportperiodtype</t>
-  </si>
-  <si>
-    <t>Тэг msg:message должен быть только в файлах *formula.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-with temp_t as (
+    <t>with df as 
+(
+ select distinct replace(entity,'.xsd','-formula.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id
+                join elements em on em.id=lm.href_id
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by entity
+),
+dim as not materialized
+(
+select ve.rinok,ve.version,ve.entity,ve.parentrole,ve.id,coalesce(l.label,ve.label) label,
+dimension||'#'||member dim
+from (select ve.*,member from  (select * from va_edimensions ve order by rinok,entity,parentrole,id) ve join (select * from va_edmembers vm order by rinok,entity,parentrole,dimension_id) vm
+on vm.entity=ve.entity and vm.rinok=ve.rinok and vm.parentrole=ve.parentrole and vm.dimension_id=ve.id order by ve.rinok,ve.entity,ve.id) ve
+left join (select * from locators where locfrom='formula' order by rinok,entity,href_id) l on l.rinok=ve.rinok and l.entity=ve.entity and l.href_id=ve.id
+join df on df.entity=ve.entity and dimension||'#'||member = ANY(dim_def) 
+order by ve.rinok,ve.entity,ve.parentrole,coalesce(l.label,ve.label)
+),
+fv as
+(
+select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",dim,complement
+from
+(
+select fv.rinok,fv.version,fv.entity,fv.parentrole,fv.id,coalesce(l.label,fv.label) label
+from (select rinok,version,entity,parentrole,id,label
+    from va_factvars 
+   order by rinok, entity,id)fv
+left join (select version, rinok, entity,href_id,label
+   from locators where locfrom='formula' 
+     order by  rinok, entity,href_id )l on l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
+order by fv.rinok,fv.entity,fv.parentrole,fv.label
+) fv
+join (select * from arcs where arctype='formula' and arcrole='http://xbrl.org/arcrole/2008/variable-filter' and complement='true' 
+  order by rinok,entity,parentrole,arcfrom) a on a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcfrom=fv.label 
+left join dim on dim.rinok=a.rinok and dim.entity=a.entity and dim.parentrole=fv.parentrole and dim.label=a.arcto 
+)
+select * from fv where coalesce(dim,'1') != '1'</t>
+  </si>
+  <si>
+    <t>with def as
+(
+select distinct a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname concept,e_type,coalesce(l.abstract,'false') abstract,targetrole
+from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators where locfrom in ('presentation','definition') order by 1,2,3,4) l 
+   join elements e on e.id=l.href_id order by l.rinok,l.entity,l.parentrole,l.label) l
+join (select * from arcs where arctype in ('presentation','definition') order by rinok,entity,parentrole,arcto)a on l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and a.arcto=l.label 
+where lower(l.parentrole) not like '%chasti%'
+)
+select distinct case when dd.concept is null then 'Нет элемента в definition' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
+pp.version "Версия",pp.rinok "Рынок",pp.entity "Файл",pp.parentrole "Роль",pp.concept "Элемент",pp.targetrole "targetrole presentation",dd.targetrole "targetrole definition" 
+from (select * from def where arctype='presentation' order by parentrole,concept) pp
+left join (select * from def where arctype='definition' order by parentrole,concept) dd on pp.parentrole=dd.parentrole and pp.concept=dd.concept
+where dd.concept is null or pp.targetrole!=dd.targetrole
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t>with def as
+(
+select distinct a.arctype,l.version,l.rinok,l.entity,l.parentrole,qname concept,e_type,coalesce(l.abstract,'false') abstract,targetrole
+from (select l.*,e.type e_type,abstract,typeddomainref,qname from (select * from locators where locfrom in ('presentation','definition') order by 1,2,3,4) l 
+   join elements e on e.id=l.href_id order by l.rinok,l.entity,l.parentrole,l.label) l
+join (select * from arcs where arctype in ('presentation','definition') order by rinok,entity,parentrole,arcto)a on l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and a.arcto=l.label 
+where lower(l.parentrole) not like '%chasti%'
+)
+select case when pp.concept is null then 'Нет элемента в presentation' when pp.targetrole!=dd.targetrole then 'Разница в targetrole' end error_type,
+dd.version "Версия",dd.rinok "Рынок",dd.entity "Файл",dd.parentrole "Роль",dd.concept "Элемент",dd.targetrole "targetrole definition",pp.targetrole "targetrole presentation" 
+from
+(select * from (select * from def where arctype='definition' order by parentrole,concept) def where parentrole in (select distinct parentrole from def where arctype='presentation' order by parentrole)) dd
+left join 
+(select * from def where arctype='presentation'  order by parentrole,concept) pp on pp.parentrole=dd.parentrole and pp.concept=dd.concept
+where pp.concept is null or pp.targetrole!=dd.targetrole
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",name "Переменная",test,precond,v_test
+from
+(
+select distinct va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id
+from (
+ select va.*,p_test
+ from (select * from va_assertions order by rinok,entity,parentrole,label) va
+ left join 
+  (
+  select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+  from preconditions p
+  join (select * from arcs where arctype='formula') a on a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+   order by p.rinok,p.entity,p.parentrole,a.arcfrom
+  ) p on p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+ order by va.rinok,va.entity,va.parentrole,va.label
+  ) va
+join (select * from arcs where arctype='formula' order by rinok,entity,parentrole,arcfrom) a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join (select * from va_factvars order by rinok,entity,parentrole,label) fv on a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+ where assert_type !='existenceassertion'
+order by version,rinok,entity,parentrole
+) zz
+left join (
+ select distinct vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,string_agg(test,' | ') v_test from va_generals vg
+join (select * from arcs where arctype='formula' order by rinok,entity,parentrole,arcto) a on a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
+group by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom
+order by version,rinok,entity,parentrole
+    ) vg on zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom
+where test not similar to '%'||name||'%' and precond not similar to '%'||name||'%' and coalesce(v_test,'blabla') not similar to '%'||name||'%'
+</t>
+  </si>
+  <si>
+    <t>select distinct zz.version "Версия",zz.entity "Файл",zz.rinok "Рынок",zz.parentrole "Роль",id "ID КС",fv_id "ID factVarible",fallbackvalue,
+    zz.name "Переменная",concept "Концепт",zz.test,zz.precond,vg.name "generalVarible",vg.test "generalVarible test"
+from
+(
+select va.version,va.entity,va.rinok,va.parentrole,va.id,coalesce(va.test,'') test,coalesce(p_test,'') precond,'$'||a.name name,a.arcfrom,fv.id fv_id,fallbackvalue,concept
+from (
+ select va.*,p_test
+ from va_assertions va
+ left join 
+  (
+  select p.version,p.entity,p.rinok,p.parentrole,a.arcfrom,test p_test
+  from preconditions p
+  join (select * from arcs where arctype='formula'
+    order by version,rinok,entity,parentrole,arcto) a on a.version=p.version and a.rinok=p.rinok and a.entity=p.entity and a.parentrole=p.parentrole and a.arcto=p.label
+  ) p on p.version=va.version and p.rinok=va.rinok and p.entity=va.entity and p.parentrole=va.parentrole and p.arcfrom=va.label
+ order by version,rinok,entity,parentrole,label
+  ) va
+join (select * 
+   from arcs where arctype='formula'
+   order by version,rinok,entity,parentrole,arcfrom) a on a.version=va.version and a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+join (select version,rinok,entity,parentrole,label,id,fallbackvalue
+   from va_factvars 
+   order by label) fv on a.version=fv.version and a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcto=fv.label
+join
+(
+select vcc.version,vcc.rinok,vcc.entity,vcc.parentrole,a.arcfrom fv_label,value concept 
+ from va_concepts vcc
+join (select * 
+   from arcs where arctype='formula'
+    order by version,rinok,entity,parentrole,arcto) a on a.version=vcc.version and a.rinok=vcc.rinok and a.entity=vcc.entity and a.parentrole=vcc.parentrole and a.arcto=vcc.label
+-- where  vc.label='filter_factVariable_valueAssertion_0420105_1_01_01'
+order by a.arcfrom
+) vc on vc.version=fv.version and vc.rinok=fv.rinok and vc.entity=fv.entity and vc.parentrole=fv.parentrole and vc.fv_label=fv.label
+--where va.id='valueAssertion_sr_0420525_008'
+order by version,rinok,entity,parentrole
+) zz
+join (select vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,test,'$'||a.name name,
+    '$'||unnest(regexp_matches(test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm
+  from va_generals vg
+  join (select version,rinok,entity,parentrole,arcto,arcfrom,name
+     from arcs where arctype='formula'
+    order by version,rinok,entity,parentrole,arcto
+     ) a on a.version =vg.version  and a.rinok =vg.rinok  and a.entity =vg.entity  and a.parentrole =vg.parentrole  and a.arcto =vg.label
+  order by vg.version,vg.rinok,vg.entity,vg.parentrole,arcfrom,a.name
+  ) vg on zz.version=vg.version and zz.rinok=vg.rinok and zz.entity=vg.entity and zz.parentrole=vg.parentrole and zz.arcfrom=vg.arcfrom and vg.mm=zz.name
+where fallbackvalue is not null
+order by zz.version,zz.entity,zz.rinok,zz.parentrole,id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with 
+loc as not materialized
+(
+select distinct rinok,entity,parentrole,label,href_id 
+from locators where locfrom='formula'
+order by rinok,entity,parentrole,label
+),
+arc as 
+(
+select distinct va.rinok,va.entity,va.parentrole,split_part(va.parentrole,'/',-1) arcfrom,va.label arcto,name,arcrole,a.title,'formula' arctype,complement,cover
+from va_assertions va
+join arcs a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label 
+where arctype='formula' 
+union all
+select distinct rinok,entity,parentrole,arcfrom,arcto,name,arcrole,title,arctype,complement,cover
+from arcs
+where arctype='formula'
+order by 1,2,3,4
+),
+assert_all as 
+(
+select version,rinok,entity,parentrole,label,id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from
+( 
+select version,rinok,entity,parentrole,label,id,'t' base_type,value,null period,null tag_type,null gv_test,null fallbackvalue
+from va_tdimensions 
+union all
+select version,e.rinok,e.entity,e.parentrole,e.label,e.id,'e' base_type,dimension||case when member is not null then '#'||member else '' end dimension,null,null,null,null fallbackvalue
+from va_edimensions e
+left join 
+(select distinct rinok,entity,parentrole,dimension_id,member 
+from va_edmembers
+) m on m.rinok=e.rinok and m.entity=e.entity and m.parentrole=e.parentrole and m.dimension_id=e.id
+union all
+select version,cc.rinok,cc.entity,cc.parentrole,cc.label,cc.id,'c' base_type,cc.value,null,null,null,null fallbackvalue
+from va_concepts cc
+union all
+select version,rinok,entity,parentrole,label,id,'pr' base_type,null,null,null,test,null fallbackvalue
+from preconditions
+union all
+select version,rinok,entity,parentrole,label,id,'m' base_type,null,null,null,text,null fallbackvalue
+from messages 
+union all
+select version,rinok,entity,parentrole,label,id,'ac' base_type,dims,null,null,null,null fallbackvalue
+from va_aspectcovers
+union all
+select version,rinok,entity,parentrole,label,id,'fv' base_type,null,null,null,null,fallbackvalue
+from va_factvars
+union all
+select version,rinok,entity,parentrole,label,id,'as' base_type,null,null,null,null,null fallbackvalue
+from va_assertionsets
+union all
+select version,rinok,entity,parentrole,label,id,'of' base_type,null,null,null,null,null fallbackvalue
+from va_orfilters
+union all
+select version,rinok,entity,parentrole,label,id,'g' base_type,null,null,null,test,null fallbackvalue
+from va_generals
+union all
+select version,rinok,entity,parentrole,label,id,'va' base_type,null,null,null,test,null fallbackvalue
+from va_assertions
+union all
+select version,rinok,entity,parentrole,label,id,'p' base_type,null,date,tag_type,null,null fallbackvalue
+from va_periods
+) zz
+--where entity in ('sr_0420256-formula.xml','sr_0420254-formula.xml','sr_0420255-formula.xml','sr_0420753-formula.xml','sr_0420252-formula.xml')
+--where entity='sr_0420252-formula.xml' and id in ('valueAssertion_0420252_r3_0420264_01_DKEZ','fj_v0001.a','conceptName_55')
+--where entity='sr_0420252-formula.xml' and id in ('fj_v0001.i','valueAssertion_0420252_r2_0420264_02.c.f01','valueAssertion_0420252_r3_0420264_01_DKEZ')
+--where entity='sr_0420256-formula.xml' and id in ('valueAssertion_0420256_4_DKEZ.d','valueAssertion_0420256_4_DKEZ.d.f01','valueAssertion_0420256_3_DKEZ_2')
+order by rinok,entity,parentrole,label
+),
+assert_loc as
+(
+select a.version,a.rinok,a.entity,l.parentrole,a.parentrole role_elem,l.label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+join locators l on l.rinok=a.rinok and l.entity=a.entity and l.href_id=a.id 
+order by a.rinok,a.entity,l.parentrole,l.label
+)
+--select * from assert_loc
+,
+assert_cl as
+(
+select a.version,a.rinok,a.entity,a.parentrole,a.parentrole role_elem,coalesce(l.label,a.label) label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+left join locators l on l.rinok=a.rinok and l.entity=a.entity and l.href_id=a.id and l.parentrole=a.parentrole
+order by base_type
+)
+,
+roles as
+(
+select 'loc' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,a.arcfrom,a.arcto,
+ coalesce(aa.arcfrom,a.arcfrom) arcfrom_elem,coalesce(aa.arcto,a.arcto) arcto_elem,fallbackvalue
+from assert_loc l
+left join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+left join arc aa on a.rinok=l.rinok and aa.entity=l.entity and aa.parentrole=l.role_elem and aa.arcto=l.label_elem
+--where l.label is not null or label_elem is not null
+union all
+select 'cl' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,arcfrom,arcto,arcfrom arcfrom_elem,arcto arcto_elem,fallbackvalue  
+from assert_cl l
+join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+order by 1,2,3,4
+)
+-- select * from roles
+-- order by base_type,arcfrom
+,
+assert_rec as not materialized
+(
+WITH 
+ RECURSIVE recursive_hierarchy AS ( 
+ select fromtype,version,rinok,entity,parentrole,role_elem,label,id fv_id,id parent_id,id child_id,base_type,base_type base_type_line,value,name c_name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,fallbackvalue
+ from roles p
+ WHERE  base_type = 'va'
+ UNION ALL
+ select c.fromtype,c.version,c.rinok,c.entity,c.parentrole,c.role_elem,c.label,case when c.base_type='fv' then c.id else fv_id end fv_id,parent_id,c.id child_id,c.base_type,p.base_type_line||' - '||c.base_type,c.value,case when c.name is null and c.base_type='c' then c_name else c.name end c_name,c.period,c.tag_type,
+  c.gv_test,c.arcfrom,c.arcto,c.arcfrom_elem,c.arcto_elem,c.fallbackvalue
+ from roles c
+ INNER JOIN recursive_hierarchy p on p.rinok=c.rinok and p.entity=c.entity
+ and c.arcfrom=case when p.fromtype='loc' then p.arcto_elem else p.arcto end
+ and c.parentrole=case when p.fromtype='loc' then p.role_elem else p.parentrole end
+ where c.base_type!='va'
+ )
+ select distinct * from recursive_hierarchy 
+),
+res as not materialized
+(
+select distinct version,rinok,entity,base_type,base_type_line,parent_id,child_id,fv_id,value,case when base_type='c' then c_name else null end c_name, 
+period,tag_type,gv_test,fallbackvalue
+from assert_rec
+--where parent_id in ('valueAssertion_0420255_r2_01','valueAssertion_0420254_r8_p3_0420264_19','valueAssertion_0420256_4','existenceAssertion_0420753_r2_1','valueAssertion_0420753_r1_2','valueAssertion_0420254_r1_01','valueAssertion_0420252_r3_0420264_01_DKEZ','valueAssertion_0420256_3_DKEZ_2')
+--where parent_id='valueAssertion_0420252_r3_0420264_01_DKEZ'
+order by entity,parent_id,base_type
+)
+select version "Версия",rinok "Рынок",entity "Файл",parent_id "ID КС",factvarible,fallbackvalue,is_number,concept_id,qname,c_name "Переменная",
+mm "matches в test",
+ss "sum, count в test",
+mm2 "matches в precondition",
+ss2 "sum, count в precondition",
+test,p_test "Precondition" 
+from
+(
+select va.version,va.rinok,va.entity,va.parent_id,factvarible,fallbackvalue,is_number,concept_id,qname,e_type_p,c_name,
+regexp_like(test, '.*matches\s*\(\s*' || ''||c_name || '.*', 'i') mm,
+regexp_like(test, '.*count\s*\(\s*' || ''||c_name || '.*', 'i') or regexp_like(test, '.*sum\s*\(\s*' || ''||c_name || '.*', 'i') ss,
+regexp_like(p_test, '.*matches\s*\(\s*' || ''||c_name || '.*', 'i') mm2,
+regexp_like(p_test, '.*count\s*\(\s*' || ''||c_name || '.*', 'i') or regexp_like(p_test, '.*sum\s*\(\s*' || ''||c_name || '.*', 'i') ss2,
+test,p_test
+from
+(
+select version,rinok,entity,parent_id,gv_test test from res 
+where base_type='va'
+ order by rinok,entity,parent_id
+) va
+left join 
+(
+select version,rinok,entity,parent_id,gv_test p_test from res 
+where base_type='pr'
+order by rinok,entity,parent_id
+) pr using (rinok,entity,parent_id)
+join
+(
+select version,rinok,entity,parent_id,child_id factvarible,fallbackvalue,regexp_like(fallbackvalue,'^[0-9\.]+$') is_number from res 
+where base_type='fv'
+order by rinok,entity,parent_id
+) fv using(rinok,entity,parent_id)
+join
+(
+select version,rinok,entity,parent_id,child_id concept_id,value qname,fv_id,'$'||c_name c_name,e_type_p
+from (select * from res where base_type='c' order by value) res 
+join (select distinct qname,case when e.type in ('xbrli:monetaryItemType','xbrli:decimalItemType','xbrli:integerItemType') then 1 
+when e.type in ('xbrli:stringItemType','xbrli:dateItemType','enum:enumerationItemType','enum2:enumerationSetItemType','xbrli:timeItemType') then 0 
+when e.type not in ('xbrli:monetaryItemType','xbrli:decimalItemType','xbrli:integerItemType','xbrli:stringItemType','xbrli:dateItemType',
+     'enum:enumerationItemType','enum2:enumerationSetItemType','xbrli:timeItemType') then -1 else 999 end e_type_p from  elements e order by qname) e on e.qname=res.value
+order by rinok,entity,parent_id
+) c on c.rinok=va.rinok and c.entity=va.entity and c.parent_id=va.parent_id and (c.fv_id=fv.factvarible or c.fv_id=va.parent_id)
+where ((e_type_p = 1 and not is_number) or (e_type_p = 0 and is_number) or e_type_p =-1)
+) zz
+where ((mm = true and is_number) or (ss = true and not is_number)
+ or (mm2 = true and is_number) or (ss2 = true and not is_number))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WITH RECURSIVE recursive_hierarchy AS not materialized 
+        (
+        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes,order_,abstract,rn_order
+        from
+        ( 
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'root' cell_type,r.order order_,abstract,a.order rn_order
+        from rulenodes r
+        left join arcs a on a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'root_aspect' cell_type,0 as order_,null abstract,a.order rn_order
+  from aspectnodes r
+        left join arcs a on a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) p
+         union all
+        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
+         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.id,c.order_,c.abstract,p.rn_order ||';'|| c.rn_order rn_order
+        from
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'child' cell_type,r.order order_ ,abstract,a.order rn_order
+        from rulenodes r
+        left join arcs a on a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'child_aspect' cell_type,0 as order_ ,null abstract,a.order rn_order
+         from aspectnodes r
+        left join arcs a on a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on a.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+        order by 1,2,3,4
+        ) c 
+        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
+        where c.arcfrom is not null
+       ),
+  rc_temp as
+  (
+  select distinct rn.version,rn.rinok,rn.entity,rn.parentrole,rn.child_id,rn.arcfrom,arcfrom_2,la.text,order_child,order_root,
+   array_remove(string_to_array(NULLIF(regexp_replace(la.text, '\D','|','g'), ''),'|'),'')::numeric[] rn,abstract
+  from
+  (
+  select version,rinok,entity,parentrole,rh.arcfrom,rh.child_id,arcfrom_2,order_child,order_root,abstract
+  from 
+  (
+   select version,rinok,entity,parentrole,rh.arcfrom,rh2.arcfrom arcfrom_2,
+   rh2.child_id,
+   rh2.order_,
+   rh2.abstract,
+   string_to_array(rh2.rn_order,';')::numeric[] order_child,
+   string_to_array(rh.rn_order,';')::numeric[] order_root,
+   rh2.cell_type
+   from
+   recursive_hierarchy rh
+  left join (select * from recursive_hierarchy where cell_type in ('child','child_aspect')) rh2 using (version,rinok,entity,parentrole)
+  where rh2.parent_id=rh.parent_id and rh.cell_type in ('root','root_aspect')
+   union all
+  select version,rinok,entity,parentrole,arcfrom,arcfrom arcfrom_2,parent_id,rh.order_,rh.abstract,
+   string_to_array(rh.rn_order,';')::numeric[] order_child,
+   string_to_array(rh.rn_order,';')::numeric[] order_root,
+   cell_type
+   from
+   recursive_hierarchy rh
+   where rh.cell_type in ('root','root_aspect')
+  ) rh
+  ) rn
+  join locators l on replace(rn.entity,'-rend.xml','-lab.xml')=l.entity and l.href_id=rn.child_id and l.rinok=rn.rinok
+  join arcs aa on aa.entity=rn.entity and aa.rinok=rn.rinok and aa.parentrole=rn.parentrole and rn.child_id=aa.arcto
+  join arcs a on a.entity=l.entity and a.rinok=l.rinok and a.parentrole=l.parentrole and l.label=a.arcfrom
+  join labels la on a.entity=la.entity and a.rinok=la.rinok and a.parentrole=la.parentrole and la.label=a.arcto and la.role='http://www.eurofiling.info/xbrl/role/rc-code'
+  where l.locfrom='lab' 
+  ),
+  rc as
+  (
+  select version,rinok,entity,parentrole,child_id,text,order_child,order_root,rn,table_rn,rc_rn,abstract,arcfrom,arcfrom_2
+  from
+  (
+  select version,rinok,entity,parentrole,child_id,text,order_child,order_root,rn,abstract,arcfrom,arcfrom_2,
+  DENSE_RANK() OVER (PARTITION BY version,rinok,entity,parentrole,arcfrom ORDER BY order_root,order_child,child_id) table_rn,
+  DENSE_RANK() OVER (PARTITION BY version,rinok,entity,parentrole,arcfrom ORDER BY rn) rc_rn
+  from rc_temp
+  where coalesce(abstract,'false')='false'
+  order by version,rinok,entity,parentrole,order_root,order_child
+  ) rc
+  )
+  select version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",child_id "ID рулнода",text "RС-код",
+  table_rn "Сортировка рулнодов по table",rc_rn "Сортировка рулнодов по RC" ,order_root "Сортировка родителей (справочно)",order_child "Сортировка детей (справочно)",rn "Сортировка RC кодов (справочно)"
+  from rc
+  --where (version,rinok,entity,parentrole) in (select version,rinok,entity,parentrole from rc where table_rn-rc_rn!=0)</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>select distinct va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
+ a.name "Имя переменной",vg.test "Выражение generalVariable"
+from va_assertions va
+left join arcs a on a.entity=va.entity and a.rinok=va.rinok and a.parentrole=va.parentrole and a.arcfrom=va.label
+and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+left join va_generals vg on  a.entity=vg.entity and a.rinok=vg.rinok and a.parentrole=vg.parentrole and a.arcto=vg.label
+where vg.test like '%max%xs:date(.)%'</t>
+  </si>
+  <si>
+    <t>Проверка gv на выражениие max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.))</t>
+  </si>
+  <si>
+    <t>with temp_t as (
 select count(prefix) over (partition by rinok, entity, link) cnt_link, rinok, entity, prefix, link
   from linkbases
 order by 1 desc, 3,4)
@@ -3064,52 +3295,15 @@
 select 'Проверка тестируется',temp_t.rinok "Рынок", temp_t.entity "Файл", temp_t.prefix "Префикс", temp_t.link "Роль", 'Валидация link из targetnamespace с xmlns' 
  from temp_t
  join (select rinok,entity, link link_ from temp_t where prefix = 'targetnamespace') as temp_2 on temp_2.rinok = temp_t.rinok and temp_2.entity = temp_t.entity and temp_2.link_ != temp_t.link
-where split_part(prefix,':',2) = lower(split_part(temp_t.entity,'.',1));
-</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Проверка namespace'ов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл элемента с паттерном",dd.entity "Файл таблицы",uri_razdel "URI definition",
-taxis "Ось (для typedName)",elem "Элемент с паттерном",substitutiongroup "Тип",e.minlength,e.maxlength,e.pattern,round_skobka "Баланс круглых скобок",square_skobka "Баланс квадратных скобок"
-from
-(
-select coalesce(ee.id,e.id) all_id,e.version,e.rinok,e.entity,ee.qname taxis,e.qname elem,substitutiongroup,e.minlength,e.maxlength,e.pattern,round_skobka,square_skobka
-from
-(
-select version,rinok,entity,id,qname,
-substitutiongroup "Тип",minlength,maxlength,pattern,
-length(replace(pattern,'(','')) = length(replace(pattern,')','')) round_skobka,
-length(replace(pattern,'[','')) = length(replace(pattern,']','')) square_skobka
-from elements where pattern is not null
-) e 
-left join elements ee on e.id=split_part(ee.typeddomainref,'#',-1) 
-) e
-left join 
-(
-select a.version,a.entity,a.rinok,a.parentrole uri_razdel,l.href_id 
-from arcs a
-join locators l on l.label=a.arcto and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition'
-) dd on dd.href_id=e.all_id
-order by uri_razdel nulls last,taxis nulls last
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",qname "Qname",type "Тип элемента",enumdomain,enum2domain  
-from elements 
-where type not in ('enum:enumerationItemType','enum2:enumerationSetItemType') and (enumdomain is not null or enum2domain is not null)
-</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Обычный element имеет enumdomain или enmum2domain</t>
+where split_part(prefix,':',2) = lower(split_part(temp_t.entity,'.',1))
+  union all
+-- валидация roleuri из rolerefs
+select 'Проверка тестируется', rinok "Рынок", entity "Файл", '' "Префикс", roleuri "Роль", 'Валидация даты roleuri из rolerefs' 
+ from (select * from rolerefs where roleuri like '%/rep/%') dd
+where roleuri not like '%'||(select distinct split_part(split_part(ep_href,'rep/',2),'/ep',1) date_tax from taxpackage)||'%';</t>
+  </si>
+  <si>
+    <t>Проверка namespace'ов и корректности дат в roleuri</t>
   </si>
 </sst>
 </file>
@@ -3172,7 +3366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3193,6 +3387,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3509,10 +3706,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -3560,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -3571,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -3582,7 +3779,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3593,7 +3790,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>78</v>
@@ -3604,7 +3801,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -3615,7 +3812,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -3626,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
@@ -3634,46 +3831,46 @@
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="240" x14ac:dyDescent="0.25">
@@ -3681,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -3692,7 +3889,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
@@ -3703,7 +3900,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -3714,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -3736,7 +3933,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>36</v>
@@ -3747,7 +3944,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
@@ -3758,7 +3955,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>38</v>
@@ -3769,7 +3966,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -3780,7 +3977,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -3791,7 +3988,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -3802,7 +3999,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>54</v>
@@ -3813,7 +4010,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
@@ -3835,7 +4032,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -3846,7 +4043,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -3857,7 +4054,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -3868,7 +4065,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
@@ -3879,7 +4076,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>14</v>
@@ -3890,7 +4087,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -3901,7 +4098,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>40</v>
@@ -3912,7 +4109,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -3923,7 +4120,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
@@ -3934,18 +4131,18 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>55</v>
@@ -3956,7 +4153,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>67</v>
@@ -3967,18 +4164,18 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>19</v>
@@ -3989,7 +4186,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>41</v>
@@ -4000,7 +4197,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>56</v>
@@ -4011,7 +4208,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>50</v>
@@ -4022,7 +4219,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>44</v>
@@ -4033,7 +4230,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>45</v>
@@ -4044,7 +4241,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>59</v>
@@ -4055,7 +4252,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>46</v>
@@ -4066,7 +4263,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>47</v>
@@ -4077,7 +4274,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>48</v>
@@ -4088,7 +4285,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>49</v>
@@ -4099,7 +4296,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>51</v>
@@ -4110,7 +4307,7 @@
         <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>62</v>
@@ -4121,7 +4318,7 @@
         <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>63</v>
@@ -4132,7 +4329,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>61</v>
@@ -4140,13 +4337,13 @@
     </row>
     <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4154,7 +4351,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>42</v>
@@ -4165,7 +4362,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>21</v>
@@ -4176,7 +4373,7 @@
         <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
@@ -4187,10 +4384,10 @@
         <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4198,7 +4395,7 @@
         <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
@@ -4209,7 +4406,7 @@
         <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>74</v>
@@ -4231,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>70</v>
@@ -4242,7 +4439,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>72</v>
@@ -4253,7 +4450,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>73</v>
@@ -4308,7 +4505,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>89</v>
@@ -4319,7 +4516,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>90</v>
@@ -4330,7 +4527,7 @@
         <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>92</v>
@@ -4341,7 +4538,7 @@
         <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>94</v>
@@ -4352,7 +4549,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>100</v>
@@ -4363,164 +4560,175 @@
         <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="390" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>224</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4562,6 +4770,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
@@ -4574,13 +4802,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
   <si>
     <t>Проверка того, что targetRole ссылается на существующую роль в Definition</t>
   </si>
@@ -3304,6 +3304,188 @@
   </si>
   <si>
     <t>Проверка namespace'ов и корректности дат в roleuri</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Проверка слоя formula. Фильтры factVarible, orFilter, andFilter не имеют дочерних элементов (пустые)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with 
+loc as not materialized
+(
+select distinct rinok,entity,parentrole,label,href_id 
+from locators where locfrom='formula' --and rinok='ins'
+order by rinok,entity,parentrole,label
+),
+arc as 
+(
+select distinct va.rinok,va.entity,va.parentrole,split_part(va.parentrole,'/',-1) arcfrom,va.label arcto,name,arcrole,a.title,'formula' arctype,complement,cover
+from va_assertions va
+join arcs a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label 
+where arctype='formula' --and va.rinok='ins'
+union all
+select distinct rinok,entity,parentrole,arcfrom,arcto,name,arcrole,title,arctype,complement,cover
+from arcs
+where arctype='formula' --and rinok='ins'
+order by 1,2,3,4
+),
+assert_all as 
+(
+select version,rinok,entity,parentrole,label,id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from
+( 
+select version,rinok,entity,parentrole,label,id,'t' base_type,value,null period,null tag_type,null gv_test,null fallbackvalue
+from va_tdimensions 
+union all
+select version,e.rinok,e.entity,e.parentrole,e.label,e.id,'e' base_type,dimension||case when member is not null then '#'||member else '' end dimension,null,null,null,null fallbackvalue
+from va_edimensions e
+left join 
+(select distinct rinok,entity,parentrole,dimension_id,member 
+from va_edmembers
+) m on m.rinok=e.rinok and m.entity=e.entity and m.parentrole=e.parentrole and m.dimension_id=e.id
+union all
+select version,rinok,entity,parentrole,label,id,'md' base_type,dimension value,null,null,'$'||variable null,null  
+from va_mdimensions
+union all
+select version,cc.rinok,cc.entity,cc.parentrole,cc.label,cc.id,'c' base_type,cc.value,null,null,null,null fallbackvalue
+from va_concepts cc
+union all
+select version,rinok,entity,parentrole,label,id,'pr' base_type,null,null,null,test,null fallbackvalue
+from preconditions
+union all
+select version,rinok,entity,parentrole,label,id,'ac' base_type,dims,null,null,null,null fallbackvalue
+from va_aspectcovers
+union all
+select version,rinok,entity,parentrole,label,id,'fv' base_type,null,null,null,null,fallbackvalue
+from va_factvars
+union all
+select version,rinok,entity,parentrole,label,id,'as' base_type,null,null,null,null,null fallbackvalue
+from va_assertionsets
+union all
+select version,rinok,entity,parentrole,label,id,'of' base_type,null,null,null,null,null fallbackvalue
+from va_orfilters
+union all
+select version,rinok,entity,parentrole,label,id,'af' base_type,null,null,null,null,null fallbackvalue
+from va_andfilters
+union all
+select version,rinok,entity,parentrole,label,id,'g' base_type,null,null,null,test,null fallbackvalue
+from va_generals
+union all
+select version,rinok,entity,parentrole,label,id,'gf' base_type,null,null,null,test,null fallbackvalue
+from va_fgenerals
+union all
+select va.version,va.rinok,va.entity,va.parentrole,va.label,va.id,'va' base_type,m.lang||'|'||m.text,null,null,test,null fallbackvalue
+from va_assertions va
+left join (select * from loc  order by rinok,entity,href_id )l on  l.rinok=va.rinok and l.entity=va.entity and l.href_id=va.id  
+left join (select * from arcs where arctype='formula' and arcrole='http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' order by rinok,entity,parentrole,arcfrom) a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=l.parentrole and a.arcfrom=coalesce(l.label,va.label)
+left join (select * from messages order by rinok,entity,label) m on m.rinok=va.rinok and m.entity=va.entity and m.label=a.arcto 
+union all
+select version,rinok,entity,parentrole,label,id,'p' base_type,null,date,tag_type,null,null fallbackvalue
+from va_periods
+) zz
+order by rinok,entity,parentrole,label
+),
+assert_loc as
+(
+select a.version,a.rinok,a.entity,l.parentrole,a.parentrole role_elem,l.label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+join loc l on l.rinok=a.rinok and l.entity=a.entity and l.href_id=a.id 
+order by a.rinok,a.entity,l.parentrole,l.label
+),
+assert_loc_agg as not materialized
+(
+select rinok,entity,parentrole,role_elem role_agg,array_agg(distinct label) labels
+from assert_loc
+group by rinok,entity,parentrole,role_elem
+having array_length(array_agg(distinct label),1)&gt;1
+)
+,
+assert_cl as
+(
+select a.version,a.rinok,a.entity,a.parentrole,a.parentrole role_elem,coalesce(l.label,a.label) label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+left join (select * from loc order by rinok,entity,parentrole,href_id) l on l.rinok=a.rinok and l.entity=a.entity and l.parentrole=a.parentrole and l.href_id=a.id 
+order by a.version,a.rinok,a.entity,a.parentrole
+)
+,
+roles_t as
+(
+select 'loc' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,a.arcfrom,a.arcto,
+ coalesce(aa.arcfrom,a.arcfrom) arcfrom_elem,coalesce(aa.arcto,a.arcto) arcto_elem,fallbackvalue
+from assert_loc l
+left join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+left join arc aa on a.rinok=l.rinok and aa.entity=l.entity and aa.parentrole=l.role_elem and aa.arcto=l.label_elem
+union all
+select 'cl' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,arcfrom,arcto,arcfrom arcfrom_elem,arcto arcto_elem,fallbackvalue  
+from assert_cl l
+join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+order by 1,2,3,4
+),
+roles as
+(
+select distinct fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
+fallbackvalue
+from
+(
+select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,labels arcto,arcfrom_elem,labels arcto_elem,
+fallbackvalue
+from
+(
+select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
+fallbackvalue,unnest(labels) labels
+from roles_t r
+join (select distinct rinok,entity,parentrole,href_id id,array_agg(distinct label) labels from loc l
+group by rinok,entity,parentrole,href_id) l using (rinok,entity,parentrole,id)
+where fromtype='loc' 
+order by base_type
+) l 
+union all 
+select * from roles_t  
+) r
+),
+assert_rec as 
+(
+WITH 
+ RECURSIVE recursive_hierarchy AS ( 
+ select parentrole prole,fromtype,version,rinok,entity,parentrole parentrole,role_elem,label,id c_id,id fv_id,id parent_id,id child_id,base_type,base_type base_type_line,value,name c_name,period,tag_type,gv_test,
+ arcfrom,arcto,arcfrom_elem,arcto_elem,fallbackvalue,split_part(value,'|',-1) msg
+ from roles p
+ WHERE  base_type = 'va'
+ UNION ALL
+ select prole,c.fromtype,c.version,c.rinok,c.entity,c.parentrole,c.role_elem,c.label,child_id,case when c.base_type='fv' then c.id else fv_id end fv_id,parent_id,c.id child_id,c.base_type,p.base_type_line||' - '||c.base_type,c.value,case when c.name is null then c_name else c.name end c_name,c.period,c.tag_type,
+  c.gv_test,c.arcfrom,c.arcto,c.arcfrom_elem,c.arcto_elem,case when c.fallbackvalue is not null then c.fallbackvalue else p.fallbackvalue end fallbackvalue,msg
+ from roles c
+ INNER JOIN recursive_hierarchy p on p.rinok=c.rinok and p.entity=c.entity
+ and (c.arcfrom=case when p.fromtype='loc' then p.arcto_elem else p.arcto end)
+ and (c.parentrole=ANY(array[p.role_elem,p.parentrole]))
+ where c.base_type!='va'
+ )
+ select distinct * from recursive_hierarchy 
+),
+res as not materialized
+(
+select distinct version,rinok,entity,prole,base_type,base_type_line,parent_id,child_id,fv_id,c_id,value,case when base_type='c' then c_name else null end c_name, 
+period,tag_type,gv_test,fallbackvalue,msg
+from assert_rec
+order by entity,parent_id,base_type
+)
+select oo.version "Версия",oo.rinok "Рынок",oo.entity "Файл",oo.prole "Роль",oo.parent_id "ID КС",oo.base_type "Тип фильтра",oo.filter_id "ID фиьтра",cc.c_id "Дочерний элемент" from 
+(
+select distinct version,rinok,entity,prole,parent_id,base_type,child_id filter_id,c_id
+from res
+where base_type in ('fv','of','af')
+order by rinok,entity,prole,parent_id
+) oo
+left join 
+(
+select distinct version,rinok,entity,prole,parent_id,base_type,c_id,child_id
+from res
+order by rinok,entity,prole,parent_id
+) cc on cc.rinok=oo.rinok and cc.entity=oo.entity and cc.parent_id=oo.parent_id and cc.c_id=oo.filter_id
+where cc.c_id is null
+ </t>
   </si>
 </sst>
 </file>
@@ -3706,10 +3888,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4729,6 +4911,17 @@
       </c>
       <c r="C92" s="1" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BuyanovPV\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2773,32 +2773,6 @@
     <t>Обычный element имеет enumdomain или enmum2domain</t>
   </si>
   <si>
-    <t xml:space="preserve">select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл элемента с паттерном",dd.entity "Файл таблицы",uri_razdel "URI definition",
-taxis "Ось (для typedName)",elem "Элемент с паттерном",substitutiongroup "Тип",e.minlength,e.maxlength,e.pattern,e.attributegroup, round_skobka "Баланс круглых скобок",square_skobka "Баланс квадратных скобок"
-from
-(
-select coalesce(ee.id,e.id) all_id,e.version,e.rinok,e.entity,ee.qname taxis,e.qname elem,substitutiongroup,e.minlength,e.maxlength,e.pattern,attributegroup,round_skobka,square_skobka
-from
-(
-select version,rinok,entity,id,qname,
-substitutiongroup "Тип",minlength,maxlength,pattern,
-length(replace(pattern,'(','')) = length(replace(pattern,')','')) round_skobka,
-length(replace(pattern,'[','')) = length(replace(pattern,']','')) square_skobka
-from elements where pattern is not null
-) e 
-left join elements ee on e.id=split_part(ee.typeddomainref,'#',-1) 
-) e
-left join 
-(
-select a.version,a.entity,a.rinok,a.parentrole uri_razdel,l.href_id 
-from arcs a
-join locators l on l.label=a.arcto and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-where arctype='definition'
-) dd on dd.href_id=e.all_id
-order by uri_razdel nulls last,taxis nulls last
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",a.parentrole "URI раздела",l.href_id "ID элемента",count(*) "Кол-во элементов"
 from (select * from arcs where arctype='definition' order by rinok,entity,parentrole,arcto) a
 join (select l.* from (select * from locators where locfrom='definition' order by href_id) l join (select * from elements where abstract!='true' order by id) e on e.id=l.href_id order by l.rinok,l.entity,l.parentrole,l.label) l on 
@@ -3487,11 +3461,36 @@
 where cc.c_id is null
  </t>
   </si>
+  <si>
+    <t>select distinct e.version "Версия",e.rinok "Рынок",e.entity "Файл элемента с паттерном",dd.entity "Файл таблицы",uri_razdel "URI definition",
+taxis "Ось (для typedName)",elem "Элемент с паттерном",substitutiongroup "Тип", type,e.minlength,e.maxlength,e.pattern,e.attributegroup, round_skobka "Баланс круглых скобок",square_skobka "Баланс квадратных скобок"
+from
+(
+select coalesce(ee.id,e.id) all_id,e.version,e.rinok,e.entity,ee.qname taxis,e.qname elem,substitutiongroup, e.type, e.minlength,e.maxlength,e.pattern,attributegroup,round_skobka,square_skobka
+from
+(
+select version,rinok,entity,id,qname, type,
+substitutiongroup "Тип",minlength,maxlength,pattern,
+length(replace(pattern,'(','')) = length(replace(pattern,')','')) round_skobka,
+length(replace(pattern,'[','')) = length(replace(pattern,']','')) square_skobka
+from elements where pattern is not null
+) e 
+left join elements ee on e.id=split_part(ee.typeddomainref,'#',-1) 
+) e
+left join 
+(
+select a.version,a.entity,a.rinok,a.parentrole uri_razdel,l.href_id 
+from arcs a
+join locators l on l.label=a.arcto and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
+where arctype='definition'
+) dd on dd.href_id=e.all_id
+order by uri_razdel nulls last,taxis nulls last</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3890,8 +3889,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4038,7 +4037,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>109</v>
@@ -4049,7 +4048,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>112</v>
@@ -4324,7 +4323,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>55</v>
@@ -4357,7 +4356,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>19</v>
@@ -4423,7 +4422,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>59</v>
@@ -4506,12 +4505,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>61</v>
@@ -4720,7 +4719,7 @@
         <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>94</v>
@@ -4742,7 +4741,7 @@
         <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>102</v>
@@ -4764,7 +4763,7 @@
         <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>115</v>
@@ -4885,10 +4884,10 @@
         <v>211</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4904,24 +4903,24 @@
     </row>
     <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="235">
   <si>
     <t>Проверка того, что targetRole ссылается на существующую роль в Definition</t>
   </si>
@@ -3487,6 +3487,20 @@
 where cc.c_id is null
  </t>
   </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>select  'Проверка тестируется' "TEST", rinok  "Рынок", entity "Файл", roleuri, SPLIT_PART(href, '#', 2) "Id"
+ from  public.rolerefs 
+ where rolefrom = 'definition'
+and roleuri like '%tab%'
+and roleuri not like '%'||SPLIT_PART(href, '#', 2)
+order by 2,3,4</t>
+  </si>
+  <si>
+    <t>Провекрка roleUri и его ID</t>
+  </si>
 </sst>
 </file>
 
@@ -3548,7 +3562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3572,6 +3586,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3888,10 +3908,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4922,6 +4942,17 @@
       </c>
       <c r="C93" s="1" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BuyanovPV\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="238">
   <si>
     <t>Проверка того, что targetRole ссылается на существующую роль в Definition</t>
   </si>
@@ -3501,11 +3501,33 @@
   <si>
     <t>Провекрка roleUri и его ID</t>
   </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>select distinct va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
+ case when vg.test like '%max%xs:date(.)%' then a.name else null end  "Имя переменной",
+ case when vg.test like '%max%xs:date(.)%' then vg.test else null end "Выражение generalVariable",
+ case when pp.test_prec like '%max%xs:date(.)%' then pp.test_prec else null end "Precondition",
+ case when va.test like '%max%xs:date(.)%' then va.test else null end "Формула"
+from va_assertions va
+left join arcs a on a.entity=va.entity and a.rinok=va.rinok and a.parentrole=va.parentrole and a.arcfrom=va.label and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+left join va_generals vg on  a.entity=vg.entity and a.rinok=vg.rinok and a.parentrole=vg.parentrole and a.arcto=vg.label
+left join (select aa.*, p.id, p.test test_prec
+   from preconditions p
+   left join (select * from arcs where arcrole = 'http://xbrl.org/arcrole/2008/variable-set-precondition'
+        ) aa on aa.entity=p.entity and aa.rinok=p.rinok and aa.arcto=p.id
+      ) pp on a.entity=pp.entity and a.rinok=pp.rinok and a.arcfrom=pp.arcfrom
+where vg.test like '%max%xs:date(.)%' or va.test like '%max%xs:date(.)%' or test_prec like '%max%xs:date(.)%';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка в формульном слое xpath на выражениие max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.)) и max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:endDate/xs:date(.)) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3908,10 +3930,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4953,6 +4975,17 @@
       </c>
       <c r="C94" s="12" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -5,25 +5,31 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BuyanovPV\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="14175"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="101-доделать" sheetId="12" r:id="rId2"/>
-    <sheet name="61 (old)" sheetId="11" r:id="rId3"/>
-    <sheet name="14 (old)" sheetId="10" r:id="rId4"/>
-    <sheet name="80 (old)" sheetId="9" r:id="rId5"/>
-    <sheet name="13 (old)" sheetId="8" r:id="rId6"/>
-    <sheet name="12 (old)" sheetId="7" r:id="rId7"/>
-    <sheet name="49" sheetId="6" r:id="rId8"/>
-    <sheet name="75" sheetId="3" r:id="rId9"/>
-    <sheet name="67" sheetId="4" r:id="rId10"/>
-    <sheet name="88 old" sheetId="13" r:id="rId11"/>
+    <sheet name="106 delete" sheetId="16" r:id="rId2"/>
+    <sheet name="40 old" sheetId="15" r:id="rId3"/>
+    <sheet name="101-доделать" sheetId="12" r:id="rId4"/>
+    <sheet name="61 (old)" sheetId="11" r:id="rId5"/>
+    <sheet name="14 (old)" sheetId="10" r:id="rId6"/>
+    <sheet name="80 (old)" sheetId="9" r:id="rId7"/>
+    <sheet name="13 (old)" sheetId="8" r:id="rId8"/>
+    <sheet name="12 (old)" sheetId="7" r:id="rId9"/>
+    <sheet name="49" sheetId="6" r:id="rId10"/>
+    <sheet name="75" sheetId="3" r:id="rId11"/>
+    <sheet name="67" sheetId="4" r:id="rId12"/>
+    <sheet name="88 old" sheetId="13" r:id="rId13"/>
+    <sheet name="92 old" sheetId="14" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$93</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,14 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="320">
   <si>
     <t>Проверка того, что targetRole ссылается на существующую роль в Definition</t>
   </si>
   <si>
-    <t>Проверка наличия во всех схемах и базах паразитных префиксов пространств имен вида fp1, ins-dic1, npf-dic1, uk-dic1, purcb-dic1, brk-dic1, kra-dic1, где вместо 1 может быть любая цифра</t>
-  </si>
-  <si>
     <t>Проверка отсутствия пробелов во всех URI внутри схем и баз</t>
   </si>
   <si>
@@ -90,9 +93,6 @@
     <t>Проверка, что merge узел должен быть абстрактным</t>
   </si>
   <si>
-    <t>Длина кода элемента без префикса должна быть не более 256 символов</t>
-  </si>
-  <si>
     <t>Проверка наличия в пределах одной роли def одинаковых показателей</t>
   </si>
   <si>
@@ -105,9 +105,6 @@
     <t>Проверка, что каждый ID контрольного соотношения уникален.</t>
   </si>
   <si>
-    <t>Несоответствие наименования (name) и иднтификатора (id) элемента</t>
-  </si>
-  <si>
     <t>Файл .xsd точки входа найден в таксономии, но не задекларирован в META-INF\entry_point.xml</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Неверно настроен TableLink: в ruleNode (abstract = true и merge = true) добавлен aspectNode</t>
   </si>
   <si>
-    <t>Для variable:factVariable не указаны дочерние элементы</t>
-  </si>
-  <si>
     <t>У каждого aspectNode с закрытой осью должен быть dimension filter</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
   </si>
   <si>
     <t>Проверка на то, что роль из enum2:linkrole определена исключительно на уровне словаря (для инумераторов с множественным выбором)</t>
-  </si>
-  <si>
-    <t>Проверка на отсутствие битых Linkrole, которые были удалены из definition</t>
   </si>
   <si>
     <t>Ищет дублирующиеся идентификаторы ruleSetов в рамках одного ruleNode.</t>
@@ -561,9 +552,6 @@
     <t>Проверка для формул. Taxis в explitDimension или Axis в typedDimension</t>
   </si>
   <si>
-    <t xml:space="preserve">Инумераторы. enumlinkrole или enum2linkrole указана в инумираторе, но не описана в definition словаря. </t>
-  </si>
-  <si>
     <t>Формулы. В OR фильтре присутствует aspectCover</t>
   </si>
   <si>
@@ -961,9 +949,6 @@
     <t>98</t>
   </si>
   <si>
-    <t>Неправильные называния элементов Taxis, Axis, Member, Enimerator, Enumerator2</t>
-  </si>
-  <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",name,id,qname,string_agg(distinct def_rinok,';') "Рынки",string_agg(distinct def_entity,';') "Файлы definition",string_agg(distinct def_role,';') "Роли definition"
 from
 (
@@ -1088,38 +1073,9 @@
 and abstract!='true'</t>
   </si>
   <si>
-    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",id "ID элемента",LENGTH(id)-LENGTH(split_part(id,'_',1)) "Длина ID"
-from elements
-where LENGTH(id)-LENGTH(split_part(id,'_',1))&gt;256
-</t>
-  </si>
-  <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",targetnamespace 
 from tables
 where split_part(entity,'.xsd',1)!=split_part(targetnamespace,'/',-1)</t>
-  </si>
-  <si>
-    <t>select distinct version "Версия",entity "Файл",parentrole "Роль",id "ID" from
-(
-select version,entity,parentrole,id,'va_edimensions' chto from va_edimensions  union all
-select version,entity,parentrole,id,'va_tdimensions' from va_tdimensions  union all
-select version,entity,parentrole,id,'va_concepts' from va_concepts  union all
-select version,entity,parentrole,id,'va_factvars' from va_factvars  union all
-select version,entity,parentrole,id,'va_assertions' from va_assertions  union all
-select version,entity,parentrole,id,'va_generals' from va_generals  union all
-select version,entity,parentrole,id,'va_aspectcovers' from va_aspectcovers  union all
-select version,entity,parentrole,id,'va_assertionsets' from va_assertionsets  union all
-select version,entity,parentrole,id,'tableschemas' from tableschemas  union all
-select version,entity,parentrole,id,'labels' from labels  union all
-select version,entity,parentrole,id,'rend_edimensions' from rend_edimensions  union all
-select version,entity,parentrole,id,'rulenodes' from rulenodes union all
-select version,entity,parentrole,id,'aspectnodes' from aspectnodes union all
-select version,entity,parentrole,id,'preconditions' from preconditions union all
-select version,entity,parentrole,id,'messages' from messages
-) all_id
-where entity in 
-(select href from linkbaserefs)
-and id SIMILAR TO '%[\u0410-\u044f]%'</t>
   </si>
   <si>
     <t>select version "Версия",rinok "Рынок",entity "Файл",qname "Qname",type "Тип элемента",enumdomain,enum2domain 
@@ -1956,16 +1912,6 @@
 where href_id is null</t>
   </si>
   <si>
-    <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
-max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) "Сообщение"
-from (select * from va_assertions order by version,entity,rinok,parentrole) va
-left join (select * from locators order by version,entity,rinok,parentrole) l on  l.entity=va.entity and l.rinok=va.rinok and l.href_id=va.id
-left join (select * from arcs order by version,entity,rinok,parentrole) a on  a.entity=va.entity and a.rinok=va.rinok and a.arcfrom=coalesce(l.label,va.label)
-left join (select * from messages order by version,entity,rinok,parentrole) m on  a.rinok=m.rinok and a.entity=m.entity and a.parentrole=m.parentrole and m.label=a.arcto and m.lang='ru'
-group by va.version ,va.rinok,va.entity,va.parentrole,va.id
-having max(case when arcrole = 'http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' then text else null end) is null</t>
-  </si>
-  <si>
     <t xml:space="preserve">with ll as 
 (
 select l.version,l.entity,l.rinok,l.parentrole,l.href_id,l.entity,split_part(href,'#',1) entity_rend,max(la.text) text,lang
@@ -2305,45 +2251,11 @@
 </t>
   </si>
   <si>
-    <t>with ee as
-(
-select version,entity,id,enum2linkrole linkrole 
-from elements e 
-where type in ('enum2:enumerationSetItemType') 
-union all
-select version,entity,id,enumlinkrole from elements e 
-where type in ('enum:enumerationItemType') 
-)
-select ee.entity "Файл",ee.linkrole "Linkrole",
-  case WHEN REGEXP_LIKE(ee.linkrole, '[а-яА-Я]')
-         then 'Кириллица в link role'
-         else a.parentrole
-      end as  "Роль листа в definition"
-from ee
-left join arcs a on a.parentrole=ee.linkrole
-where a.parentrole is null
-order by 3 desc;</t>
-  </si>
-  <si>
     <t xml:space="preserve">select r.version "Версия",r.rinok "Рынок",r.entity "Файл",r.parentrole "Раздел",abstract,merge,r.label "Рулнод",an.label "Аспектнод" 
 from rulenodes r
 join arcs a on a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcfrom=r.label
 left join aspectnodes an on an.rinok=a.rinok and an.entity=a.entity and an.parentrole=a.parentrole and an.label=a.arcto
 where an.id is not null and abstract='true' and merge='true'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with fv as 
-(
-select distinct fv.version "Версия",fv.rinok "Рынок",fv.entity "Файл",fv.parentrole "Роль",fv.id "FactVarible",
-coalesce(a.arcto,aa.arcto) "Дети",l.label "Лейбл локатора"
-from va_factvars fv
-left join locators l on l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
-left join arcs a on l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and a.arcfrom=l.label 
-left join arcs aa on fv.rinok=aa.rinok and fv.entity=aa.entity and aa.parentrole=fv.parentrole and aa.arcfrom=fv.label 
-)
-select fv.*,case when "FactVarible" in (select distinct "FactVarible" from fv where "Дети" is not null ) then 'Лейбл локатора не используется в арке' else null end "Тип ошибки" from fv 
-where "Дети" is null  
 </t>
   </si>
   <si>
@@ -2528,18 +2440,6 @@
 order by "URI definition" nulls last,taxis nulls last</t>
   </si>
   <si>
-    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",
-l.href_id "ID элемента",LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1)) "Длина ID элемента",text "shortLabel"
-from arcs a
-join tableparts tp on tp.rinok=a.rinok
-join locators l on l.label=a.arcto and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
-left join elements_labels es on es.id=l.href_id  and lower(es.role) like '%shortlabel'
-left join linkbaserefs lr on lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-and LENGTH(l.href_id)-LENGTH(split_part(l.href_id,'_',1))&gt;64
-</t>
-  </si>
-  <si>
     <t>select tp.version "Версия",tp.rinok "Рынок",tp.entity "Файл",tp.uri_table "URI таблицы",tp.uri_razdel "URI раздела",uo_gen 
 from tableparts tp
 join roletypes rt on  rt.rinok=tp.rinok and rt.roleuri=uri_razdel
@@ -2599,23 +2499,6 @@
 </t>
   </si>
   <si>
-    <t>select e.version "Версия",df.rinok "Рынок",role_razdel "Раздел",qname "QName",coalesce(enumlinkrole,enum2linkrole) "linkrole в инумераторе",a.parentrole "linkrole в definition"
-from elements e
-left join arcs a on a.parentrole = coalesce(enumlinkrole,enum2linkrole)
-left join 
-(
-select distinct a.rinok,e2.qname element_qname,tp.entity table_entity,tp.uri_razdel role_razdel
-from arcs a
-join tableparts tp on  tp.rinok=a.rinok
-join locators l on l.label=a.arcto and  l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole 
-join elements e2 on e2.id=l.href_id
-where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-order by e2.qname 
-) df on df.element_qname=e.qname 
-where (enumlinkrole is not null or enum2linkrole is not null)
-and parentrole is null</t>
-  </si>
-  <si>
     <t xml:space="preserve">select vo.version "Версия",vo.rinok "Рынок",vo.entity "Файл",vo.parentrole "Роль",vo.id "OrFilter",va.id "AspectCover",va.aspects "Аспекты"
 from va_orfilters vo 
 join arcs a on a.rinok =vo.rinok and a.entity =vo.entity and a.parentrole =vo.parentrole and a.arcfrom = vo.label
@@ -2638,92 +2521,6 @@
 where rulenode_id=id 
 group by r.version,entity,rinok,parentrole,r.id,tag
 having count(*)&gt;1</t>
-  </si>
-  <si>
-    <t>with recursive_hierarchy as (
- WITH RECURSIVE recursive_hierarchy as
-        (
-        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes
-        from
-        ( 
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
-        from rulenodes r
-        left join arcs a on  a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on  aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
-  --and r.parentrole in ('http://www.cbr.ru/xbrl/nso/purcb/rep/2025-11-15/tab/SR_0420458_r5_q','http://www.cbr.ru/xbrl/nso/npf/rep/2025-11-15/tab/sr_0420254_r_8_p2')
-        union all
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type from aspectnodes r
-        left join arcs a on  a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on  aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
-  --and r.parentrole in ('http://www.cbr.ru/xbrl/nso/purcb/rep/2025-11-15/tab/SR_0420458_r5_q','http://www.cbr.ru/xbrl/nso/npf/rep/2025-11-15/tab/sr_0420254_r_8_p2')
-        order by 1,2,3,4
-        ) p
-         union all
-        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
-         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.label
-        from
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
-        from rulenodes r
-        left join arcs a on a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
-  --and r.parentrole in ('http://www.cbr.ru/xbrl/nso/purcb/rep/2025-11-15/tab/SR_0420458_r5_q','http://www.cbr.ru/xbrl/nso/npf/rep/2025-11-15/tab/sr_0420254_r_8_p2')
-        union all
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type 
-         from aspectnodes r
-        left join arcs a on  a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
-        left join arcs aa on aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
-        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
-  --and r.parentrole in ('http://www.cbr.ru/xbrl/nso/purcb/rep/2025-11-15/tab/SR_0420458_r5_q','http://www.cbr.ru/xbrl/nso/npf/rep/2025-11-15/tab/sr_0420254_r_8_p2')
-        order by 1,2,3,4
-        ) c 
-        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
-        where c.arcfrom is not null
-  ) 
-  select * from recursive_hierarchy
-  order by 1,2,3,4,7),
-        cc as
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,r.parent_label,rc.value concept,re.dimension||'#'||re.member dimension,
-        rp.start,rp.end,r.level,rc.parent_tag,r.rulenodes,e.periodtype period_type,tagselector,rp.tag
-        from recursive_hierarchy r 
-        join (select * from rulenodes_c) rc on rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and (rc.tag=tagselector or rc.rulenode_id=r.child_id)
-        join (select version,qname,abstract,periodtype from elements) e  on e.qname=rc.value and coalesce(abstract,'false')='false'
-        left join (select * from rulenodes_e) re on re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and (re.tag=tagselector or re.rulenode_id=r.child_id)
-        left join (select * from rulenodes_p) rp on rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id) and rp.period_type=e.periodtype
-        ),
-        pp as
-        (
-        select distinct r.version,r.rinok,r.entity,r.parentrole,rp.start,rp.end,rp.tag,period_type,
-        case when cc.parent_label is null then 0 else 1 end is_parent,parent_label,tagselector
-        from recursive_hierarchy r
-        left join (select distinct version,rinok,entity,parentrole,parent_label 
-       from cc where parent_tag!='table:ruleset') cc using(rinok,entity,parentrole,parent_label)
-        join rulenodes_p rp on  rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id)
-        )
-  select version,rinok "Рынок",entity "Файл",cc.parentrole "Роль",concept "Концепт",cc.period_type "Тип периода",
-  period_start,period_end,
-  case when typetag_ is null or coalesce(tag,tagselector) is null then '1' else typetag_ end = ANY (array['1',coalesce(tag,tagselector)]) "Правильный период",
-  period_start is not null "Выставлен период"
-  from
-  (
-        select distinct cc.version,cc.rinok,cc.entity,cc.parentrole,concept,cc.period_type,
-  tagselector,cc.tag,
-        coalesce(coalesce(cc.start,pp.start),pp2.start) period_start,
-  coalesce(coalesce(cc.end,pp.end),pp2.end) period_end,
-  case when cc.start is not null then 'cc' when cc.start is null and pp.start is not null then 'pp' when cc.start is null and pp.start is null and pp2.start is not null then 'pp2' else 'ERROR' end type_,
-  case when cc.start is not null then cc.tag when cc.start is null and pp.start is not null then pp.tag when cc.start is null and pp.start is null and pp2.start is not null then pp2.tag else 'ERROR' end typetag_    
-  from cc
-        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end,parent_label,tag from pp where is_parent=1) pp on  pp.rinok=cc.rinok and pp.entity=cc.entity 
-        and pp.parentrole=cc.parentrole and pp.period_type=cc.period_type and cc.start is null and ((pp.parent_label=cc.parent_label and pp.tag is null) or pp.tag=cc.tagselector)
-        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end,tag from pp where is_parent=0) pp2 on  pp2.rinok=cc.rinok and pp2.entity=cc.entity 
-        and pp2.parentrole=cc.parentrole and pp2.period_type=cc.period_type and cc.start is null
-  ) cc
-  where (case when typetag_ is null or coalesce(tag,tagselector) is null then '1' else typetag_ end = ANY (array['1',coalesce(tag,tagselector)])) = false  or period_start is null = true
-  order by 1,2,3,4,5</t>
   </si>
   <si>
     <t>select distinct version "Версия",rinok "Рынок",entity "Файл",lb.prefix "Префикс",link "Ссылка в файле",rinok_namespace "Ссылка в справочнике" 
@@ -3266,9 +3063,6 @@
 where vg.test like '%max%xs:date(.)%'</t>
   </si>
   <si>
-    <t>Проверка gv на выражениие max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.))</t>
-  </si>
-  <si>
     <t>with temp_t as (
 select count(prefix) over (partition by rinok, entity, link) cnt_link, rinok, entity, prefix, link
   from linkbases
@@ -3312,11 +3106,172 @@
     <t>Проверка слоя formula. Фильтры factVarible, orFilter, andFilter не имеют дочерних элементов (пустые)</t>
   </si>
   <si>
-    <t xml:space="preserve">with 
+    <t>108</t>
+  </si>
+  <si>
+    <t>select  'Проверка тестируется' "TEST", rinok  "Рынок", entity "Файл", roleuri, SPLIT_PART(href, '#', 2) "Id"
+ from  public.rolerefs 
+ where rolefrom = 'definition'
+and roleuri like '%tab%'
+and roleuri not like '%'||SPLIT_PART(href, '#', 2)
+order by 2,3,4</t>
+  </si>
+  <si>
+    <t>Провекрка roleUri и его ID</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>select distinct va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
+ case when vg.test like '%max%xs:date(.)%' then a.name else null end  "Имя переменной",
+ case when vg.test like '%max%xs:date(.)%' then vg.test else null end "Выражение generalVariable",
+ case when pp.test_prec like '%max%xs:date(.)%' then pp.test_prec else null end "Precondition",
+ case when va.test like '%max%xs:date(.)%' then va.test else null end "Формула"
+from va_assertions va
+left join arcs a on a.entity=va.entity and a.rinok=va.rinok and a.parentrole=va.parentrole and a.arcfrom=va.label and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+left join va_generals vg on  a.entity=vg.entity and a.rinok=vg.rinok and a.parentrole=vg.parentrole and a.arcto=vg.label
+left join (select aa.*, p.id, p.test test_prec
+   from preconditions p
+   left join (select * from arcs where arcrole = 'http://xbrl.org/arcrole/2008/variable-set-precondition'
+        ) aa on aa.entity=p.entity and aa.rinok=p.rinok and aa.arcto=p.id
+      ) pp on a.entity=pp.entity and a.rinok=pp.rinok and a.arcfrom=pp.arcfrom
+where vg.test like '%max%xs:date(.)%' or va.test like '%max%xs:date(.)%' or test_prec like '%max%xs:date(.)%';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка в формульном слое xpath на выражениие max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.)) и max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:endDate/xs:date(.)) </t>
+  </si>
+  <si>
+    <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "Роль",va.id "ID КС",count(distinct m.text) "Кол-во сообщений",string_agg(m.text,';') "Сообщение"
+from va_assertions va
+left join (select * from locators  order by rinok,entity,href_id )l on  l.rinok=va.rinok and l.entity=va.entity and l.href_id=va.id  
+left join (select * from arcs where arctype='formula' and arcrole='http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' order by rinok,entity,parentrole,arcfrom) a 
+on a.rinok=va.rinok and a.entity=va.entity and a.arcfrom=coalesce(l.label,va.label) and case when l.label is not null then l.parentrole else '1' end = ANY (array['1',a.parentrole])
+left join (select * from messages order by rinok,entity,label) m on m.rinok=va.rinok and m.entity=va.entity and m.label=a.arcto 
+group by va.version,va.rinok,va.entity,va.parentrole,va.label,va.id
+having count(distinct m.text)&gt;1 or string_agg(m.text,';')  is null</t>
+  </si>
+  <si>
+    <t>with recursive_hierarchy as (
+ WITH RECURSIVE recursive_hierarchy as
+        (
+        select version,rinok,entity,parentrole,id parent_id,label parent_label,id child_id,label child_label,tagselector,dimension,arcfrom,arcto,cell_type,0 level,p.label rulenodes
+        from
+        ( 
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
+        from rulenodes r
+        left join arcs a on  a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on  aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+ -- and r.parentrole in ('http://www.cbr.ru/xbrl/nso/ins/rep/2025-11-15/tab/sr_0420155/R2_P_2_25_UG')
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type from aspectnodes r
+        left join arcs a on  a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on  aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole='http://xbrl.org/arcrole/2014/breakdown-tree'
+--  and r.parentrole in ('http://www.cbr.ru/xbrl/nso/ins/rep/2025-11-15/tab/sr_0420155/R2_P_2_25_UG')
+        order by 1,2,3,4
+        ) p
+         union all
+        select c.version,c.rinok,c.entity,c.parentrole,parent_id,parent_label,c.id child_id,c.label child_label,case when c.tagselector is null then p.tagselector else c.tagselector end tagselector,c.dimension,
+         c.arcfrom,c.arcto,c.cell_type,level+1,rulenodes||';'||c.label
+        from
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,r.tagselector,null dimension,a.arcfrom,a.arcto,'rulenode' cell_type
+        from rulenodes r
+        left join arcs a on a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+ -- and r.parentrole in ('http://www.cbr.ru/xbrl/nso/ins/rep/2025-11-15/tab/sr_0420155/R2_P_2_25_UG')
+        union all
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.id,r.label,null tagselector,dimension,a.arcfrom,a.arcto,'aspectnode' cell_type 
+         from aspectnodes r
+        left join arcs a on  a.rinok=r.rinok and a.entity=r.entity and a.parentrole=r.parentrole and a.arcto=r.label
+        left join arcs aa on aa.rinok=r.rinok and aa.entity=r.entity and aa.parentrole=r.parentrole and aa.arcfrom=r.label
+        where a.arcrole!='http://xbrl.org/arcrole/2014/breakdown-tree'
+ -- and r.parentrole in ('http://www.cbr.ru/xbrl/nso/ins/rep/2025-11-15/tab/sr_0420155/R2_P_2_25_UG')
+        order by 1,2,3,4
+        ) c 
+        inner join recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole
+        where c.arcfrom is not null
+  ) 
+  select * from recursive_hierarchy
+  order by 1,2,3,4,7),
+        cc as
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,r.parent_label,rc.value concept,re.dimension||'#'||re.member dimension,
+        rp.start,rp.end,r.level,rc.parent_tag,r.rulenodes,e.periodtype period_type,tagselector,rp.tag
+        from recursive_hierarchy r 
+        join (select * from rulenodes_c) rc on rc.rinok=r.rinok and rc.entity=r.entity and rc.parentrole=r.parentrole and (rc.tag=tagselector or rc.rulenode_id=r.child_id)
+        join (select version,qname,abstract,periodtype from elements) e  on e.qname=rc.value and coalesce(abstract,'false')='false'
+        left join (select * from rulenodes_e) re on re.rinok=r.rinok and re.entity=r.entity and re.parentrole=r.parentrole and (re.tag=tagselector or re.rulenode_id=r.child_id)
+        left join (select * from rulenodes_p) rp on rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id) and rp.period_type=e.periodtype
+        ),
+        pp as
+        (
+        select distinct r.version,r.rinok,r.entity,r.parentrole,rp.start,rp.end,rp.tag,period_type,
+        case when cc.parent_label is null then 0 else 1 end is_parent,parent_label,tagselector
+        from recursive_hierarchy r
+        left join (select distinct version,rinok,entity,parentrole,parent_label 
+       from cc where parent_tag!='table:ruleset') cc using(rinok,entity,parentrole,parent_label)
+        join rulenodes_p rp on  rp.rinok=r.rinok and rp.entity=r.entity and rp.parentrole=r.parentrole and (rp.tag=tagselector or rp.rulenode_id=r.child_id)
+        )
+  select version,rinok "Рынок",entity "Файл",cc.parentrole "Роль",concept "Концепт",cc.period_type "Тип периода",
+  period_start,period_end,
+  case when typetag_ is null or coalesce(tag,tagselector) is null then '1' else typetag_ end = ANY (array['1',coalesce(tag,tagselector)]) "Правильный период",
+  period_start is not null "Выставлен период"
+  from
+  (
+        select distinct cc.version,cc.rinok,cc.entity,cc.parentrole,concept,cc.period_type,
+  tagselector,cc.tag,
+        coalesce(coalesce(cc.start,pp.start),pp2.start) period_start,
+  coalesce(coalesce(cc.end,pp.end),pp2.end) period_end,
+  case when cc.start is not null then 'cc' when cc.start is null and pp.start is not null then 'pp' when cc.start is null and pp.start is null and pp2.start is not null then 'pp2' else 'ERROR' end type_,
+  case when cc.start is not null then cc.tag when cc.start is null and pp.start is not null then pp.tag when cc.start is null and pp.start is null and pp2.start is not null then pp2.tag else 'ERROR' end typetag_    
+  from cc
+        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end,parent_label,tag from pp where is_parent=1) pp on  pp.rinok=cc.rinok and pp.entity=cc.entity 
+        and pp.parentrole=cc.parentrole and pp.period_type=cc.period_type and cc.start is null and ((pp.parent_label=cc.parent_label and pp.tag is null) or pp.tag=cc.tagselector)
+        left join (select distinct version,rinok,entity,parentrole,period_type,pp.start,pp.end,tag from pp where is_parent=0 and tag is null) pp2 on  pp2.rinok=cc.rinok and pp2.entity=cc.entity 
+        and pp2.parentrole=cc.parentrole and pp2.period_type=cc.period_type and cc.start is null
+  ) cc
+  where (case when typetag_ is null or coalesce(tag,tagselector) is null then '1' else typetag_ end = ANY (array['1',coalesce(tag,tagselector)])) = false  or period_start is null = true
+  order by 1,2,3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select distinct version "Версия",entity "Файл",parentrole "Роль",id "ID" from
+(
+select version,entity,parentrole,id,'va_edimensions' chto from va_edimensions  union all
+select version,entity,parentrole,id,'va_tdimensions' from va_tdimensions  union all
+select version,entity,parentrole,id,'va_concepts' from va_concepts  union all
+select version,entity,parentrole,id,'va_factvars' from va_factvars  union all
+select version,entity,parentrole,id,'va_assertions' from va_assertions  union all
+select version,entity,parentrole,id,'va_generals' from va_generals  union all
+select version,entity,parentrole,id,'va_aspectcovers' from va_aspectcovers  union all
+select version,entity,parentrole,id,'va_assertionsets' from va_assertionsets  union all
+select version,entity,parentrole,id,'va_generals' from va_generals  union all
+select version,entity,parentrole,id,'va_fgenerals' from va_fgenerals  union all
+select version,entity,parentrole,id,'va_mdimensions' from va_mdimensions  union all
+select version,entity,parentrole,id,'va_orfilters' from va_orfilters  union all
+select version,entity,parentrole,id,'va_periods' from va_periods union all
+select version,entity,parentrole,id,'tableschemas' from tableschemas union all
+select version,entity,parentrole,id,'labels' from labels union all
+select version,entity,parentrole,id,'rend_edimensions' from rend_edimensions union all
+select version,entity,parentrole,id,'rulenodes' from rulenodes union all
+select version,entity,parentrole,id,'aspectnodes' from aspectnodes union all
+select version,entity,parentrole,id,'preconditions' from preconditions union all
+select version,entity,parentrole,id,'messages' from messages
+) all_id
+where entity in 
+(select href from linkbaserefs)
+and id SIMILAR TO '%[\u0410-\u044f]%'
+</t>
+  </si>
+  <si>
+    <t>with 
 loc as not materialized
 (
 select distinct rinok,entity,parentrole,label,href_id 
-from locators where locfrom='formula' --and rinok='ins'
+from locators where locfrom='formula' --and rinok='uk'
 order by rinok,entity,parentrole,label
 ),
 arc as 
@@ -3324,11 +3279,11 @@
 select distinct va.rinok,va.entity,va.parentrole,split_part(va.parentrole,'/',-1) arcfrom,va.label arcto,name,arcrole,a.title,'formula' arctype,complement,cover
 from va_assertions va
 join arcs a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label 
-where arctype='formula' --and va.rinok='ins'
+where arctype='formula' --and va.rinok='uk'
 union all
 select distinct rinok,entity,parentrole,arcfrom,arcto,name,arcrole,title,arctype,complement,cover
 from arcs
-where arctype='formula' --and rinok='ins'
+where arctype='formula' --and rinok='uk'
 order by 1,2,3,4
 ),
 assert_all as 
@@ -3423,7 +3378,7 @@
 join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
 order by 1,2,3,4
 ),
-roles as
+roles as not materialized 
 (
 select distinct fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
 fallbackvalue
@@ -3444,6 +3399,7 @@
 union all 
 select * from roles_t  
 ) r
+ order by rinok,entity,parentrole,label
 ),
 assert_rec as 
 (
@@ -3466,6 +3422,840 @@
 ),
 res as not materialized
 (
+select distinct version,rinok,entity,prole,base_type,base_type_line,parent_id,child_id,fv_id,c_id,value,case when base_type in ('c','fv') then c_name else null end c_name, 
+period,tag_type,gv_test,fallbackvalue,msg
+from assert_rec
+order by entity,parent_id,base_type
+)
+select version "Версия",rinok "Рынок",entity "Файл",parent_id "ID КС",child_id "ID FV",c_name "Переменная",fallbackvalue "FallbackValue"
+from
+(
+select version,gg.rinok,gg.entity,gg.parent_id,child_id,mm,c_name,fallbackvalue,gv_test
+from
+(
+select distinct version,rinok,entity,parent_id,child_id,gv_test,'$'||unnest(regexp_matches(gv_test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm 
+from res
+where base_type='g'
+order by rinok,entity,parent_id,mm
+) gg
+left join
+(
+select rinok,entity,parent_id,'$'||c_name c_name,fallbackvalue
+from res
+where base_type='fv' and fallbackvalue is not null
+) ff on ff.rinok=gg.rinok and ff.entity=gg.entity and ff.parent_id=gg.parent_id and ff.c_name=gg.mm
+) zz where fallbackvalue is not null</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>select version "Версия",xsd "EP",ep_name "Наименование EP",
+  array_length(array_remove(string_to_array(delete_space_and_tab(ep_descr),'.'),''),1) "Кол-во фраз",array_remove(string_to_array(delete_space_and_tab(ep_descr),'.'),'') "Фразы" 
+  from taxpackage
+  where array_length(array_remove(string_to_array(delete_space_and_tab(ep_descr),'.'),''),1)!=3 and ep_name not like '%support%'</t>
+  </si>
+  <si>
+    <t>Корректность словесного описания (entry_point).  Словесное описание точки входа должно быть заполнено на русском языке и состоять из трёх частей (рынок, тип отчётности, периодичность)</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version "Версия",xsd "XSD",ep_name,rn "Кол-во повторений" from
+(
+select version,xsd,ep_name,dense_rank() OVER (
+    PARTITION BY ep_name
+    ORDER BY ep_name DESC
+  ) rn from taxpackage
+) t where rn!=1
+union all
+select version "Версия",xsd "XSD",ep_href,rn "Кол-во повторений" from
+(
+select version,xsd,ep_href,dense_rank() OVER (
+    PARTITION BY ep_href
+    ORDER BY ep_href DESC
+  ) rn from taxpackage
+) t where rn!=1  
+</t>
+  </si>
+  <si>
+    <t>Проверка уникальности объявления точки входа в taxonomyPackage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with ee as
+(
+select version,entity,id,enum2domain,enum2linkrole linkrole 
+from elements e 
+where type in ('enum2:enumerationSetItemType') 
+union all
+select version,entity,id,enumdomain,enumlinkrole from elements e 
+where type in ('enum:enumerationItemType') 
+)
+select distinct ee.version "Версия",ee.entity "Файл",ee.enum2domain "List",e.entity "Файл List",ee.linkrole "Роль",arcfrom "definition"
+from (select * from ee order by linkrole) ee
+left join (select distinct parentrole,arcfrom from arcs where arctype='definition' order by parentrole) a on a.parentrole=linkrole
+left join elements e on e.qname=ee.enum2domain
+where arcfrom is null or e.entity is null
+</t>
+  </si>
+  <si>
+    <t>Проверка enumlinkrole и enum2linkrole. Роли должны быть задекларированы в definition и List задекларирован в словаре.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Применяемые пространства имён приведены в третьей строке инстанс-файлов; они используются для того, чтобы обеспечить уникальность имён элементов в XML - документе, паразитные префиксы образуются путем автоматического изменения реальных префиксов, используемых в ссылках на словари файлов схем и точек входа, что приводит к некорректной работе измененных файлов из-за невозможности отражения элементов словарей с измененными префиксами (обычно причина - некоррекный уровень вложенности подгружаемых в схему словарей).</t>
+  </si>
+  <si>
+    <t>URI - ссылки не должны содержать пробелов.</t>
+  </si>
+  <si>
+    <t>URI в теге PathToXsd должен указывать на реальную схему.</t>
+  </si>
+  <si>
+    <t>Файл taxonomyPackage должен содержать ссылки на реальные точки входа.</t>
+  </si>
+  <si>
+    <t>Проверка существования папок в верхней папке таксономии (META-INF, www.cbr.ru и тд).</t>
+  </si>
+  <si>
+    <t>Проверка наличия в пространствах имен ссылок на все словари, элементы которых используются в схеме.</t>
+  </si>
+  <si>
+    <t>В файле entry_point должны быть задекларированы все точки входа, предусмотренные в таксономии, кроме support_ep_all (так как файл entry_point предназначен для построения дерева точек входа в программном обеспечении, предоставляемом Банком России для конвертации отчетных данных в формат xbrl).</t>
+  </si>
+  <si>
+    <t>В файле tanonomyPackage должны быть задекларированы все точки входа, предусмотренные в таксономии, включая support_ep_all.</t>
+  </si>
+  <si>
+    <t>Проверка корректности простановки для RuleNode значения атрибута merge при наличии подчиненных RuleSet-ов в слое Table.</t>
+  </si>
+  <si>
+    <t>Данная проверка группирует все преферды элементов в рамках раздела таблицы, если количество префердов на 1 элемент больше одного (за исключением префердов типа periodStartLabel и periodEndLabel), то проверка срабатывает на ошибку. Таким образом, у каждого элемента должно быть не более 1 preferredLabel.</t>
+  </si>
+  <si>
+    <t>Недопустимо, чтобы у одной и той же закрытой оси через arcrole dimension-default были указаны разные дефолтные мемберы. Дефолтные мемберы указываются в справочниках рынков для закрытых осей через роль http://xbrl.org/int/dim/arcrole/dimension-default их количество на одну ось должно быть = 1.</t>
+  </si>
+  <si>
+    <t>Каждый гиперкуб должен иметь значение true для атрибута closed и значение scenario для атрибута contextElement.</t>
+  </si>
+  <si>
+    <t>Описанная в схеме targetRole должна существовать в definiton (в словаре рынка (локального или НФО) должна существовать отдельная роль, к которой крепится соответствующая ось, на ось - специфический абстрактный элемент данного рынка для закрытой оси и уже на этот абстракт - перечень элементов оси = мемберы).</t>
+  </si>
+  <si>
+    <t>На одну роль может быть навешано не более одного гиперкуба.</t>
+  </si>
+  <si>
+    <t>Код элемента может быть составлен только на латинице и с использованием цифр (в кодах элементов, созданных до 30.05.2023, встречается символ "_" - для создания новых элементов его использование недопустимо).</t>
+  </si>
+  <si>
+    <t>Проверка, что у всех инумераторов enum:linkrole ссылка на лист ( перечень значений показателя типа инум) начинается с http в Dict.</t>
+  </si>
+  <si>
+    <t>Количество открывающих скобок должно соответствовать количеству закрывающих скобок.</t>
+  </si>
+  <si>
+    <t>Для отображения таблицы в слое Table Link должно быть использовано минимум 2 оси (ось X и ось Y).</t>
+  </si>
+  <si>
+    <t>Под абстрактным ruleNode (с атрибутом abstract = "true") должны находиться другие (подчиненные) ruleNode.</t>
+  </si>
+  <si>
+    <t>атрибут merge = "true" может быть проставлен только для абстрактного ruleNode (с атрибутом abstract = "true").</t>
+  </si>
+  <si>
+    <t>Проверка на наличие "мусора" (неиспользуемых фильтров и переменных) в слое Formula Link.</t>
+  </si>
+  <si>
+    <t>Проверка по точкам входа на наличие дублей точек данных (показателей с одинаковыми разрезами) НСО.</t>
+  </si>
+  <si>
+    <t>Проверка по точкам входа на наличие дублей точек данных (показателей с одинаковыми разрезами) БФО.</t>
+  </si>
+  <si>
+    <t>выявление в каждом файле точки входа несоответствия ссылки в пространстве имен targetNamespace на данную точку входа (наименование и путь).</t>
+  </si>
+  <si>
+    <t>В каждом файле -formula найдены элементы таксономии (показатели, оси, мемберы), которые не предусмотрены словарями, объявленными в пространстве имен данного файла.</t>
+  </si>
+  <si>
+    <t>Абстрактный List, указанный в параметре enum:domain инумератора, должен существовать в Definition</t>
+  </si>
+  <si>
+    <t>В контролях не должно быть фильтров по осям, у которых есть дефолтный мембер, с проставленным атрибутом complement, потому что из-за дефолтности компонента такая конструкция не работает для запрещения подбора в переменную отчетных фактов с такой осью и мембером.</t>
+  </si>
+  <si>
+    <t>aspectNode может использоваться в сочетании с закрытой осью только, если эта ось определена в слое Definition как target role, для корректной работы такой оси в слое Table на aspectNode должен быть установлен dimension filter, который должен задавать ссылки на эту ось с подчиненными мемберами в словаре.</t>
+  </si>
+  <si>
+    <t>Все идентификаторы Table- и Formula-слоя должны иметь наименования на латинице.</t>
+  </si>
+  <si>
+    <t>Enum:linkrole - один из атрибутов инумератора, в котором прописывается роль словаря, на которой определен list с перечнем значений для этого инумератора. Его определение допустимо только на уровне словаря рынка, к которому относится инумератор (определение атрибута на уровне схемы ОКУД или в словере другого рынка не допускается).</t>
+  </si>
+  <si>
+    <t>Аналогично предыдущей проверке.</t>
+  </si>
+  <si>
+    <t>Дублей элементов типа Member в рамках одного дерева слоя Definition быть не должно.
+Дерево - иерархия родитель (ось/лист) - ребенок (мемберы). Проверяются все иерархии в Definition слое вне зависимости от того лист это или ось.</t>
+  </si>
+  <si>
+    <t>Дублей элементов типа Member в рамках одного дерева слоя Presentation быть не должно.
+Дерево - иерархия родитель (ось/лист) - ребенок (мемберы). Проверяются все иерархии в Definition слое вне зависимости от того лист это или ось.</t>
+  </si>
+  <si>
+    <t>Выводит все элементы (домены TypedName открытых осей и показатели) с масками и сами маски.</t>
+  </si>
+  <si>
+    <t>Заполненность обязательных для открытой оси параметров:
+- minlength (минимальная длина для значения открытой оси);
+- pattern (атрибут типа данных домена открытой оси, в котором устанавливается маска на значения этой оси)
+Для открытой оси должен быть установлен либо параметр minlength, либо параметр pattern.</t>
+  </si>
+  <si>
+    <t>Так звучала постановка к проверке.</t>
+  </si>
+  <si>
+    <t>ID каждого КС должен быть уникален на уровне всей таксономии.</t>
+  </si>
+  <si>
+    <t>Проверяет наличие цифрового кода ОКУД в URI раздела и в URI таблицы.</t>
+  </si>
+  <si>
+    <t>Несоответствие наименования (name) и идентификатора (id) элемента в словаре (id элемента может отличаться от его name только на префикс соответствующего словаря).</t>
+  </si>
+  <si>
+    <t>от порядка следования ссылок на файлы -rend и -lab соответствующих разделов (подразделов) формы в файле .xsd схемы этой формы зависит порядок визуализации этих разделов (подразделов) в используемом ПО (Xwand-Reporter, ином) при заполнении инстанса.</t>
+  </si>
+  <si>
+    <t>для targetrole в Definition ссылка на роль в словаре, где определены элементы (мемберы) этой закрытой оси, должна совпадать с ссылкой, указанной в атрибуте linkrole фильтра dimension filter, который задается при указании этой targetrole в Table.</t>
+  </si>
+  <si>
+    <t>в технической точке входа support_ep_all не должно быть схем, по которым не предусмотрено представление отчетности в "боевых" точках входа.</t>
+  </si>
+  <si>
+    <t>Каждая таблица слоя Table определенной схемы должна быть описана одним файлом -lab и одним файлом -rend в папке этой схемы.</t>
+  </si>
+  <si>
+    <t>Проверка выдаёт ошибку в следующих случаях: схема есть в support, но нет в других ep, схемы нет ни в одной ep.</t>
+  </si>
+  <si>
+    <t>При срабатывании проверки необходимо вынести aspectCover за пределы orFilter. orFilter не может быть родительским элементом для aspectCover.</t>
+  </si>
+  <si>
+    <t>Атрибут terseMessage в КС должен отсутствовать</t>
+  </si>
+  <si>
+    <t>Проверка соответствия типа данных в fallback типу данных переменной из выражения КС или precondition ("0" и "string 0").</t>
+  </si>
+  <si>
+    <t>Все preferred labels слоя Presentation должны быть прописаны в Generic lable рулнодов таблицы соответствующей роли в слое Table. Проверяет наличие в таблице и соответствие концепта, для которого установлен preferred label, концепту, заданному для этого рулнода.</t>
+  </si>
+  <si>
+    <t>Часть названия файлов, определяющих слои Definition, Presentation, Formula схемы, предшествующая "-definition", "-presentation" и "-formula" соответственно должна совпадать с названием файла, содержащего схему.</t>
+  </si>
+  <si>
+    <t>выгрузка используется для последующего самостоятельного анализа контролей на корректность проставленных значений fallback.</t>
+  </si>
+  <si>
+    <t>Проверка на наличие всех необходимых тегов (описаний) точки входа, а именно: 'reporttype', 'pathtoxsd', 'reportperiodtype', 'nfotyperus', 'reporttyperus', 'reportperiodtyperus', 'nfotype'.</t>
+  </si>
+  <si>
+    <t>В ссылках таксономии должны использоваться только прямые слэши, при нахождении обратных их необходимо исправить.</t>
+  </si>
+  <si>
+    <t>Проверка ищет id добавленного в файл -rend элемента во всех словарях таксономии. Выдаёт ошибку в случае, если этот элемент не был найден.</t>
+  </si>
+  <si>
+    <t>При нахождении некорректного места реализации контроля его необходимо перенести в файл -formula.</t>
+  </si>
+  <si>
+    <t>в файле taxonomyPackage папки META_INF в наименовании точки входа должно присутствовать расширение .xsd, при выявлении в результате проверки его отсутствия необходимо проставить расширение вручную.</t>
+  </si>
+  <si>
+    <t>Постфикс элемента должен начинаться с заглавной буквы, последующие буквы должны быть строчными. В наименовании каждого из типов элементов должен присутствовать уникальный для этого типа постфикс (аналитическому признаку соответствует постфикс Member; группе аналитических признаков - Axis и Taxis для закрытой и открытой ГАП соответственно; инумератору с единственным и множественным выбором - Enumerator и Enumerator2 соответственно).</t>
+  </si>
+  <si>
+    <t>Проверяются все уникальные tag и все уникальные tagselector. Они должны совпадать.</t>
+  </si>
+  <si>
+    <t>В каждом словаре определен его targetNamespace, при импорте словаря в схему, ссылаться нужно на него. Пример, словарь purcb - targetNamespace="http://www.cbr.ru/xbrl/nso/purcb/dic/purcb-dic" ссылка на словарь должна быть: xmlns:purcb-dic="http://www.cbr.ru/xbrl/nso/purcb/dic/purcb-dic", любая другая ссылка считается неправильной, например http://www.cbr.ru/xbrl/nso/purcb/dic.</t>
+  </si>
+  <si>
+    <t>Возможные типы reportPeriodType: m (для ежемесячной отчётности), q (для ежеквартальной), y (для годовой), r (для нерегулярной отчётности).</t>
+  </si>
+  <si>
+    <t>Этот тег используется для определения message - текста сообщения об ошибке при срабатывании контроля на false.</t>
+  </si>
+  <si>
+    <t>Все ссылки на namespace таксономии в пространстве имен и в roleURI должны содержать дату, соответствующую актуальной дате валидируемой версии таксономии.</t>
+  </si>
+  <si>
+    <t>Enumdomain или enmum2domain являются атрибутами только для инумераторов (простых или инум2); под "обычными элементами" подразумеваются элементы всех типов данных за исключением enum:enumerationItemType и  enum2:enumerationSetItemType (например, monetary, integer).</t>
+  </si>
+  <si>
+    <t>Использование данного xpath-выражения в переменной типа general variable для поиска отчетной даты в инстансе увеличивает время работы контроля, поэтому в целях оптимизации вместо него нужно использовать выражение max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant).</t>
+  </si>
+  <si>
+    <t>Указанные элементы не могут быть пустыми, иначе они - мусорные (неиспользуемые).</t>
+  </si>
+  <si>
+    <t>Несоответствие наименования (name) и идентификатора (id) элемента</t>
+  </si>
+  <si>
+    <t>Проверка gv на выражение max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.))</t>
+  </si>
+  <si>
+    <t>Проверка наличия во всех схемах и базах паразитных префиксов пространств имен вида fp1, ins-dic1, npf-dic1, uk-dic1, purcb-dic1, brk-dic1, kra-dic1 и пр., где вместо 1 может быть любая цифра</t>
+  </si>
+  <si>
+    <t>Значение dimension-default допустимо только для атрибута arcrole закрытой оси и её дефолтного мембера. Дефолтные мемберы указываются в справочниках рынков для закрытых осей через роль http://xbrl.org/int/dim/arcrole/dimension-default .</t>
+  </si>
+  <si>
+    <t>В слое формул в фильтрах типа explisitDimension не может указываться открытая ось (Taxis), а в фильтрах типа typedDimension не может указываться закрытая ось (Axis ).</t>
+  </si>
+  <si>
+    <t>Паразитные - теги которые появляются сами по себе в результате работы xwand. Проверка срабатывает при обнаружении тегов, не соответствующих перечню допустимых тегов. Допустимые: ('acf:aspect',
+'acf:aspectcover',
+'arcroleref',
+'asf:aspect',
+'asf:aspectcover',
+'asf:dimension',
+'asf:excludedimension',
+'asf:qname',
+'bf:andfilter',
+'bf:orfilter',
+'cf:concept',
+'cf:conceptname',
+'cf:conceptperiodtype',
+'cf:qname',
+'df:arcrole',
+'df:axis',
+'df:dimension',
+'df:explicitdimension',
+'df:linkrole',
+'df:member',
+'df:qname',
+'df:typeddimension',
+'ea:existenceassertion',
+'formula:concept',
+'formula:duration',
+'formula:explicitdimension',
+'formula:instant',
+'formula:member',
+'formula:multiplyby',
+'formula:period',
+'formula:qname',
+'formula:unit',
+'gen:arc',
+'gen:link',
+'gf:general',
+'label:label',
+'link:arcroleref',
+'link:definition',
+'link:definitionarc',
+'link:definitionlink',
+'link:label',
+'link:labelarc',
+'link:labellink',
+'link:linkbaseref',
+'link:loc',
+'link:presentationarc',
+'link:presentationlink',
+'link:roleref',
+'link:roletype',
+'link:usedon',
+'loc',
+'mf:matchconcept',
+'mf:matchdimension',
+'mf:matchperiod',
+'msg:message',
+'pf:periodend',
+'pf:periodinstant',
+'pf:periodstart',
+'presentationarc',
+'presentationlink',
+'roleref',
+'table:arcrole',
+'table:aspectnode',
+'table:aspectnodefilterarc',
+'table:breakdown',
+'table:breakdowntreearc',
+'table:conceptrelationshipnode',
+'table:definitionnodesubtreearc',
+'table:dimensionaspect',
+'table:formulaaxis',
+'table:generations',
+'table:linkrole',
+'table:periodaspect',
+'table:relationshipsource',
+'table:rulenode',
+'table:ruleset',
+'table:table',
+'table:tablebreakdownarc',
+'va:valueassertion',
+'validation:assertionset',
+'variable:factvariable',
+'variable:generalvariable',
+'variable:parameter',
+'variable:precondition',
+'variable:variablearc',
+'variable:variablefilterarc',
+'variable:variablesetfilterarc',
+'xs:annotation',
+'xs:appinfo',
+'xs:import',
+'xsd:annotation',
+'xsd:appinfo',
+'xsd:import',
+'definitionlink',
+'definitionarc',
+'definition',
+'roletype',
+'usedon',
+'linkbaseref',
+'import',
+'appinfo',
+'annotation')</t>
+  </si>
+  <si>
+    <t>Неправильные названия элементов Taxis, Axis, Member, Enumerator, Enumerator2</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>with vs as (select distinct va.version, va.entity, va.rinok, va.parentrole, va.label, va.id, test, regexp_matches(test, '''[^'']*''', 'g') AS matches,
+							a.arcfrom, a.arcto, 'formula 'type_
+ 			 from va_assertions va
+			 left join arcs a on a.entity=va.entity and a.rinok=va.rinok and a.parentrole=va.parentrole 
+			  							and a.arcfrom=va.label and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+			union all
+			 select distinct va.version, va.entity, va.rinok, va.parentrole, va.label, va.id, vg.test, regexp_matches(vg.test, '''[^'']*''', 'g') AS matches,
+							a.arcfrom, a.arcto, a.name type_
+ 			 from va_assertions va
+			 left join arcs a on a.entity=va.entity and a.rinok=va.rinok and a.parentrole=va.parentrole 
+			  							and a.arcfrom=va.label and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
+			 left join va_generals vg on  a.entity=vg.entity and a.rinok=vg.rinok and a.parentrole=vg.parentrole and a.arcto=vg.label
+			union all
+			 select distinct va.version, va.entity, va.rinok, va.parentrole, va.label, va.id, pp.test_prec, regexp_matches(test_prec, '''[^'']*''', 'g') AS matches,
+							a.arcfrom, a.arcto, 'precondition'type_
+ 			 from va_assertions va
+			 left join (select distinct entity,rinok,parentrole,arcto,arcfrom
+						 from arcs
+						  where arcrole = 'http://xbrl.org/arcrole/2008/variable-set-precondition'
+						  ) a on a.entity=va.entity and a.rinok=va.rinok and a.parentrole=va.parentrole and a.arcfrom=va.label 
+			 left join (select aa.*, p.id, p.test test_prec
+						   from preconditions p
+						   left join (select distinct entity,rinok,arcto,arcfrom 
+						   				from arcs where arcrole = 'http://xbrl.org/arcrole/2008/variable-set-precondition'
+						        		) aa on aa.entity=p.entity and aa.rinok=p.rinok and aa.arcto=p.id
+						      ) pp  on  a.entity=pp.entity and a.rinok=pp.rinok and a.arcfrom=pp.arcfrom)
+select distinct vs.version "Версия", vs.entity "Файл", vs.rinok "Рынок", vs.parentrole "Роль", 
+		vs.id "КС", type_  "Тип выражения", test "Выражение", matches "Часть выражения с пробелом"
+from vs
+where matches[1] ~ '''\s.*''' OR matches[1] ~ '''.*\s''' and matches[1] &lt;&gt; ''', '''
+order by 2,3,4,5,6;</t>
+  </si>
+  <si>
+    <t>Проверка пробельных символов внутри ковычек ''(в начале или конце) в precondition, test, gv формульного слоя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with ll as
+(
+select distinct l.version,l.rinok,l.entity,l.parentrole,l.label,l.href_id from locators l
+join (select * from elements where abstract='true' and type='xbrli:stringItemType' and substitutiongroup='xbrli:item') e on e.id=l.href_id
+join arcs a on a.parentrole=l.parentrole and a.entity=l.entity and a.arcfrom=l.label
+where  l.href_id like '%List' and locfrom='definition'
+)
+-- select * from elements
+-- where enumlinkrole in (select parentrole from ll) or enum2linkrole in (select parentrole from ll)
+select ll.version "Версия",ll.rinok "Рынок",ll.entity "Файл",ll.parentrole "Роль List",ll.href_id "ID List",ee.id "ID Enumerator" from ll
+left join (select rinok,entity,id,coalesce(enumlinkrole,enum2linkrole) linkrole from elements where enumlinkrole is not null or enum2linkrole is not null) ee on ee.rinok=ll.rinok and ee.linkrole=ll.parentrole
+where ee.id is null
+</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select a.version "Версия",a.rinok "Рынок",uri_table "URI таблицы",a.parentrole "URI раздела",
+l.href_id "ID элемента",LENGTH(l.href_id) "Длина ID элемента",text "shortLabel"
+from arcs a
+join tableparts tp on tp.rinok=a.rinok
+join locators l on l.label=a.arcto and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+left join elements_labels es on es.id=l.href_id  and lower(es.role) like '%shortlabel'
+left join linkbaserefs lr on lr.rinok=tp.rinok and lr.targetnamespace=tp.uri_table and lr.href ~ 'presentation'
+where arctype='definition' and (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+and LENGTH(l.href_id)&gt;64
+</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>select distinct l.version "Версия",l.rinok "Рынок",l.entity "Файл",l.parentrole "Роль",l.href_id "ID Axis",ll.href_id "ID abstract",ll.abstract,a.usable
+from (select * from locators where locfrom='definition' and href_id in (select id from elements where substitutiongroup='xbrldt:dimensionItem' and typeddomainref is null) order by entity,parentrole,label ) l
+join (select * from arcs where arctype='definition' order by entity,parentrole,arcto) a on a.entity=l.entity and a.parentrole=l.parentrole and a.arcfrom=l.label
+join 
+(
+select distinct l.entity,l.parentrole,l.label,l.href_id,e.abstract 
+from 
+(select * from locators where locfrom='definition' order by href_id) l
+join (select * from elements where type='xbrli:stringItemType' and substitutiongroup='xbrli:item' and abstract='true' order by id) e on e.id=l.href_id
+) ll on a.arcto=ll.label and a.parentrole=ll.parentrole and a.entity=ll.entity
+where coalesce(a.usable,'')=''
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t>У абстрактного элемента закрытой оси не выставлен usable=false</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",roleuri,definition 
+from roletypes where definition is null
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>У роли таксономии не заполнено текстовое описание (Role Definition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS loc;
+CREATE TEMP TABLE loc as 
+select distinct rinok,entity,parentrole,label,href_id 
+from locators where locfrom='formula' --and entity='sr_0420154-formula.xml'
+order by rinok,entity,parentrole,label
+;
+DROP TABLE IF EXISTS arc;
+CREATE TEMP TABLE arc as 
+select distinct va.rinok,va.entity,va.parentrole,split_part(va.parentrole,'/',-1) arcfrom,va.label arcto,name,arcrole,a.title,'formula' arctype,complement,cover
+from va_assertions va
+join arcs a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label 
+where arctype='formula' --and va.entity='sr_0420154-formula.xml'
+union all
+select distinct rinok,entity,parentrole,arcfrom,arcto,name,arcrole,title,arctype,complement,cover
+from arcs
+where arctype='formula' --and entity='sr_0420154-formula.xml'
+order by 1,2,3,4
+;
+DROP TABLE IF EXISTS assert_all;
+CREATE TEMP TABLE assert_all as
+select version,rinok,entity,parentrole,label,id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from
+( 
+select version,rinok,entity,parentrole,label,id,'t' base_type,value,null period,null tag_type,test gv_test,null fallbackvalue
+from va_tdimensions 
+union all
+select version,e.rinok,e.entity,e.parentrole,e.label,e.id,'e' base_type,dimension||case when member is not null then '#'||member else '' end dimension,null,null,null,null fallbackvalue
+from va_edimensions e
+left join 
+(select distinct rinok,entity,parentrole,dimension_id,member 
+from va_edmembers
+) m on m.rinok=e.rinok and m.entity=e.entity and m.parentrole=e.parentrole and m.dimension_id=e.id
+union all
+select version,rinok,entity,parentrole,label,id,'md' base_type,dimension value,null,null,'$'||variable null,null  
+from va_mdimensions
+union all
+select version,cc.rinok,cc.entity,cc.parentrole,cc.label,cc.id,'c' base_type,cc.value,null,null,null,null fallbackvalue
+from va_concepts cc
+union all
+select version,rinok,entity,parentrole,label,id,'pr' base_type,null,null,null,test,null fallbackvalue
+from preconditions
+union all
+select version,rinok,entity,parentrole,label,id,'ac' base_type,dims,null,null,null,null fallbackvalue
+from va_aspectcovers
+union all
+select version,rinok,entity,parentrole,label,id,'fv' base_type,null,null,null,null,fallbackvalue
+from va_factvars
+union all
+select version,rinok,entity,parentrole,label,id,'as' base_type,null,null,null,null,null fallbackvalue
+from va_assertionsets
+union all
+select version,rinok,entity,parentrole,label,id,'of' base_type,null,null,null,null,null fallbackvalue
+from va_orfilters
+union all
+select version,rinok,entity,parentrole,label,id,'af' base_type,null,null,null,null,null fallbackvalue
+from va_andfilters
+union all
+select version,rinok,entity,parentrole,label,id,'g' base_type,null,null,null,test,null fallbackvalue
+from va_generals
+union all
+select version,rinok,entity,parentrole,label,id,'gf' base_type,null,null,null,test,null fallbackvalue
+from va_fgenerals
+union all
+select va.version,va.rinok,va.entity,va.parentrole,va.label,va.id,'va' base_type,m.lang||'|'||m.text,null,null,test,null fallbackvalue
+from va_assertions va
+left join (select * from loc  order by rinok,entity,href_id )l on  l.rinok=va.rinok and l.entity=va.entity and l.href_id=va.id  
+left join (select * from arcs where arctype='formula' and arcrole='http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' order by rinok,entity,parentrole,arcfrom) a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=l.parentrole and a.arcfrom=coalesce(l.label,va.label)
+left join (select * from messages order by rinok,entity,label) m on m.rinok=va.rinok and m.entity=va.entity and m.label=a.arcto 
+where va.assert_type !='existenceassertion'
+union all
+select version,rinok,entity,parentrole,label,id,'p' base_type,null,date,tag_type,date,null fallbackvalue
+from va_periods
+) zz
+order by rinok,entity,parentrole,label
+;
+DROP TABLE IF EXISTS assert_loc;
+CREATE TEMP TABLE assert_loc as
+select a.version,a.rinok,a.entity,l.parentrole,a.parentrole role_elem,l.label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+join loc l on l.rinok=a.rinok and l.entity=a.entity and l.href_id=a.id 
+where base_type!='va'
+order by a.rinok,a.entity,l.parentrole,l.label
+;
+DROP TABLE IF EXISTS assert_loc_agg;
+CREATE TEMP TABLE  assert_loc_agg as
+select rinok,entity,parentrole,role_elem role_agg,array_agg(distinct label) labels
+from assert_loc
+group by rinok,entity,parentrole,role_elem
+having array_length(array_agg(distinct label),1)&gt;1
+;
+DROP TABLE IF EXISTS assert_cl;
+CREATE TEMP TABLE  assert_cl as
+select a.version,a.rinok,a.entity,a.parentrole,a.parentrole role_elem,coalesce(l.label,a.label) label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+left join (select * from loc order by rinok,entity,parentrole,href_id) l on l.rinok=a.rinok and l.entity=a.entity and l.parentrole=a.parentrole and l.href_id=a.id 
+order by a.version,a.rinok,a.entity,a.parentrole
+;
+DROP TABLE IF EXISTS roles_t;
+CREATE TEMP TABLE  roles_t as
+select 'loc' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,a.arcfrom,a.arcto,
+ coalesce(aa.arcfrom,a.arcfrom) arcfrom_elem,coalesce(aa.arcto,a.arcto) arcto_elem,fallbackvalue
+from assert_loc l
+left join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+left join arc aa on a.rinok=l.rinok and aa.entity=l.entity and aa.parentrole=l.role_elem and aa.arcto=l.label_elem
+union all
+select 'cl' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,arcfrom,arcto,arcfrom arcfrom_elem,arcto arcto_elem,fallbackvalue  
+from assert_cl l
+join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+order by 1,2,3,4
+;
+DROP TABLE IF EXISTS roles;
+CREATE TEMP TABLE roles as 
+select distinct fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
+fallbackvalue
+from
+(
+select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,labels arcto,arcfrom_elem,labels arcto_elem,
+fallbackvalue
+from
+(
+select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
+fallbackvalue,unnest(labels) labels
+from roles_t r
+join (select distinct rinok,entity,parentrole,href_id id,array_agg(distinct label) labels from loc l
+group by rinok,entity,parentrole,href_id) l using (rinok,entity,parentrole,id)
+where fromtype='loc' 
+order by base_type
+) l 
+union all 
+select * from roles_t  
+) r
+ order by rinok,entity,parentrole,label
+;
+DROP TABLE IF EXISTS assert_rec;
+CREATE TEMP TABLE assert_rec as 
+WITH 
+ RECURSIVE recursive_hierarchy AS ( 
+ select parentrole prole,fromtype,version,rinok,entity,parentrole parentrole,role_elem,label,id c_id,id fv_id,id parent_id,id child_id,base_type,base_type base_type_line,value,name c_name,period,tag_type,gv_test,
+ arcfrom,arcto,arcfrom_elem,arcto_elem,fallbackvalue,split_part(value,'|',-1) msg
+ from roles p
+ WHERE  base_type = 'va'
+ UNION ALL
+ select prole,c.fromtype,c.version,c.rinok,c.entity,c.parentrole,c.role_elem,c.label,child_id,case when c.base_type='fv' then c.id else fv_id end fv_id,parent_id,c.id child_id,c.base_type,p.base_type_line||' - '||c.base_type,c.value,case when c.name is null then c_name else c.name end c_name,c.period,c.tag_type,
+  c.gv_test,c.arcfrom,c.arcto,c.arcfrom_elem,c.arcto_elem,case when c.fallbackvalue is not null then c.fallbackvalue else p.fallbackvalue end fallbackvalue,msg
+ from roles c
+ INNER JOIN recursive_hierarchy p on p.rinok=c.rinok and p.entity=c.entity
+ and (c.arcfrom=case when p.fromtype='loc' then p.arcto_elem else p.arcto end)
+ and (c.parentrole=ANY(array[p.role_elem,p.parentrole])) 
+ where c.base_type!='va'
+ )
+ select distinct * from recursive_hierarchy 
+;
+with res as 
+(
+select distinct version,rinok,entity,prole,base_type,base_type_line,parent_id,child_id,fv_id,c_id,value,case when base_type in ('c','g') then c_name else null end c_name, 
+period,tag_type,gv_test,fallbackvalue,msg
+from assert_rec
+order by entity,parent_id,base_type
+)
+select nn.version "Версия",nn.rinok "Рынок",nn.entity "Файл",nn.parent_id "ID КС",nn.c_name "Переменная" from 
+(
+select distinct version,rinok,entity,parent_id,'$'||c_name c_name,msg from res
+where c_name is not null 
+) nn
+left join 
+(
+select parent_id,string_agg(gv_test,'|') tests from res where gv_test is not null
+group by parent_id
+) tt using(parent_id)
+where tests||'|'||msg not similar to '%'||c_name||'%'
+order by 1,2,3,4
+</t>
+  </si>
+  <si>
+    <t>В справочнике рынка есть List, роль которого не используется как enum/enum2linkrole ни в одном из enumerator/enumerator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP TABLE IF EXISTS loc;
+CREATE TEMP TABLE loc as 
+select distinct rinok,entity,parentrole,label,href_id 
+from locators where locfrom='formula'
+order by rinok,entity,parentrole,label
+;
+DROP TABLE IF EXISTS arc;
+CREATE TEMP TABLE arc as 
+select distinct va.rinok,va.entity,va.parentrole,split_part(va.parentrole,'/',-1) arcfrom,va.label arcto,name,arcrole,a.title,'formula' arctype,complement,cover
+from va_assertions va
+join arcs a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label 
+where arctype='formula' 
+union all
+select distinct rinok,entity,parentrole,arcfrom,arcto,name,arcrole,title,arctype,complement,cover
+from arcs
+where arctype='formula' 
+order by 1,2,3,4
+;
+DROP TABLE IF EXISTS assert_all;
+CREATE TEMP TABLE assert_all as
+select version,rinok,entity,parentrole,label,id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from
+( 
+select version,rinok,entity,parentrole,label,id,'t' base_type,value,null period,null tag_type,test gv_test,null fallbackvalue
+from va_tdimensions 
+union all
+select version,e.rinok,e.entity,e.parentrole,e.label,e.id,'e' base_type,dimension||case when member is not null then '#'||member else '' end dimension,null,null,null,null fallbackvalue
+from va_edimensions e
+left join 
+(select distinct rinok,entity,parentrole,dimension_id,member 
+from va_edmembers
+) m on m.rinok=e.rinok and m.entity=e.entity and m.parentrole=e.parentrole and m.dimension_id=e.id
+union all
+select version,rinok,entity,parentrole,label,id,'md' base_type,dimension value,null,null,'$'||variable null,null  
+from va_mdimensions
+union all
+select version,cc.rinok,cc.entity,cc.parentrole,cc.label,cc.id,'c' base_type,cc.value,null,null,null,null fallbackvalue
+from va_concepts cc
+union all
+select version,rinok,entity,parentrole,label,id,'pr' base_type,null,null,null,test,null fallbackvalue
+from preconditions
+union all
+select version,rinok,entity,parentrole,label,id,'ac' base_type,dims,null,null,null,null fallbackvalue
+from va_aspectcovers
+union all
+select version,rinok,entity,parentrole,label,id,'fv' base_type,null,null,null,null,fallbackvalue
+from va_factvars
+union all
+select version,rinok,entity,parentrole,label,id,'as' base_type,null,null,null,null,null fallbackvalue
+from va_assertionsets
+union all
+select version,rinok,entity,parentrole,label,id,'of' base_type,null,null,null,null,null fallbackvalue
+from va_orfilters
+union all
+select version,rinok,entity,parentrole,label,id,'af' base_type,null,null,null,null,null fallbackvalue
+from va_andfilters
+union all
+select version,rinok,entity,parentrole,label,id,'g' base_type,null,null,null,test,null fallbackvalue
+from va_generals
+union all
+select version,rinok,entity,parentrole,label,id,'gf' base_type,null,null,null,test,null fallbackvalue
+from va_fgenerals
+union all
+select va.version,va.rinok,va.entity,va.parentrole,va.label,va.id,'va' base_type,m.lang||'|'||m.text,null,null,test,null fallbackvalue
+from va_assertions va
+left join (select * from loc  order by rinok,entity,href_id )l on  l.rinok=va.rinok and l.entity=va.entity and l.href_id=va.id  
+left join (select * from arcs where arctype='formula' and arcrole='http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' order by rinok,entity,parentrole,arcfrom) a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=l.parentrole and a.arcfrom=coalesce(l.label,va.label)
+left join (select * from messages order by rinok,entity,label) m on m.rinok=va.rinok and m.entity=va.entity and m.label=a.arcto 
+where va.assert_type !='existenceassertion'
+union all
+select version,rinok,entity,parentrole,label,id,'p' base_type,null,date,tag_type,date,null fallbackvalue
+from va_periods
+) zz
+order by rinok,entity,parentrole,label
+;
+DROP TABLE IF EXISTS assert_loc;
+CREATE TEMP TABLE assert_loc as
+select a.version,a.rinok,a.entity,l.parentrole,a.parentrole role_elem,l.label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+join loc l on l.rinok=a.rinok and l.entity=a.entity and l.href_id=a.id 
+where base_type!='va'
+order by a.rinok,a.entity,l.parentrole,l.label
+;
+DROP TABLE IF EXISTS assert_loc_agg;
+CREATE TEMP TABLE  assert_loc_agg as
+select rinok,entity,parentrole,role_elem role_agg,array_agg(distinct label) labels
+from assert_loc
+group by rinok,entity,parentrole,role_elem
+having array_length(array_agg(distinct label),1)&gt;1
+;
+DROP TABLE IF EXISTS assert_cl;
+CREATE TEMP TABLE  assert_cl as
+select a.version,a.rinok,a.entity,a.parentrole,a.parentrole role_elem,coalesce(l.label,a.label) label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+left join (select * from loc order by rinok,entity,parentrole,href_id) l on l.rinok=a.rinok and l.entity=a.entity and l.parentrole=a.parentrole and l.href_id=a.id 
+order by a.version,a.rinok,a.entity,a.parentrole
+;
+DROP TABLE IF EXISTS roles_t;
+CREATE TEMP TABLE  roles_t as
+select 'loc' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,a.arcfrom,a.arcto,
+ coalesce(aa.arcfrom,a.arcfrom) arcfrom_elem,coalesce(aa.arcto,a.arcto) arcto_elem,fallbackvalue
+from assert_loc l
+left join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+left join arc aa on a.rinok=l.rinok and aa.entity=l.entity and aa.parentrole=l.role_elem and aa.arcto=l.label_elem
+union all
+select 'cl' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,arcfrom,arcto,arcfrom arcfrom_elem,arcto arcto_elem,fallbackvalue  
+from assert_cl l
+join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+order by 1,2,3,4
+;
+DROP TABLE IF EXISTS roles;
+CREATE TEMP TABLE roles as 
+select distinct fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
+fallbackvalue
+from
+(
+select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,labels arcto,arcfrom_elem,labels arcto_elem,
+fallbackvalue
+from
+(
+select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
+fallbackvalue,unnest(labels) labels
+from roles_t r
+join (select distinct rinok,entity,parentrole,href_id id,array_agg(distinct label) labels from loc l
+group by rinok,entity,parentrole,href_id) l using (rinok,entity,parentrole,id)
+where fromtype='loc' 
+order by base_type
+) l 
+union all 
+select * from roles_t  
+) r
+ order by rinok,entity,parentrole,label
+;
+DROP TABLE IF EXISTS assert_rec;
+CREATE TEMP TABLE assert_rec as 
+WITH 
+ RECURSIVE recursive_hierarchy AS ( 
+ select parentrole prole,fromtype,version,rinok,entity,parentrole parentrole,role_elem,label,id c_id,id fv_id,id parent_id,id child_id,base_type,base_type base_type_line,value,name c_name,period,tag_type,gv_test,
+ arcfrom,arcto,arcfrom_elem,arcto_elem,fallbackvalue,split_part(value,'|',-1) msg
+ from roles p
+ WHERE  base_type = 'va'
+ UNION ALL
+ select prole,c.fromtype,c.version,c.rinok,c.entity,c.parentrole,c.role_elem,c.label,child_id,case when c.base_type='fv' then c.id else fv_id end fv_id,parent_id,c.id child_id,c.base_type,p.base_type_line||' - '||c.base_type,c.value,case when c.name is null then c_name else c.name end c_name,c.period,c.tag_type,
+  c.gv_test,c.arcfrom,c.arcto,c.arcfrom_elem,c.arcto_elem,case when c.fallbackvalue is not null then c.fallbackvalue else p.fallbackvalue end fallbackvalue,msg
+ from roles c
+ INNER JOIN recursive_hierarchy p on p.rinok=c.rinok and p.entity=c.entity
+ and (c.arcfrom=case when p.fromtype='loc' then p.arcto_elem else p.arcto end)
+ and (c.parentrole=ANY(array[p.role_elem,p.parentrole])) 
+ where c.base_type!='va'
+ )
+ select distinct * from recursive_hierarchy 
+;
+with res as not materialized
+(
 select distinct version,rinok,entity,prole,base_type,base_type_line,parent_id,child_id,fv_id,c_id,value,case when base_type='c' then c_name else null end c_name, 
 period,tag_type,gv_test,fallbackvalue,msg
 from assert_rec
@@ -3487,49 +4277,22 @@
 where cc.c_id is null
  </t>
   </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>select  'Проверка тестируется' "TEST", rinok  "Рынок", entity "Файл", roleuri, SPLIT_PART(href, '#', 2) "Id"
- from  public.rolerefs 
- where rolefrom = 'definition'
-and roleuri like '%tab%'
-and roleuri not like '%'||SPLIT_PART(href, '#', 2)
-order by 2,3,4</t>
-  </si>
-  <si>
-    <t>Провекрка roleUri и его ID</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>select distinct va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",
- case when vg.test like '%max%xs:date(.)%' then a.name else null end  "Имя переменной",
- case when vg.test like '%max%xs:date(.)%' then vg.test else null end "Выражение generalVariable",
- case when pp.test_prec like '%max%xs:date(.)%' then pp.test_prec else null end "Precondition",
- case when va.test like '%max%xs:date(.)%' then va.test else null end "Формула"
-from va_assertions va
-left join arcs a on a.entity=va.entity and a.rinok=va.rinok and a.parentrole=va.parentrole and a.arcfrom=va.label and a.arcrole='http://xbrl.org/arcrole/2008/variable-set'
-left join va_generals vg on  a.entity=vg.entity and a.rinok=vg.rinok and a.parentrole=vg.parentrole and a.arcto=vg.label
-left join (select aa.*, p.id, p.test test_prec
-   from preconditions p
-   left join (select * from arcs where arcrole = 'http://xbrl.org/arcrole/2008/variable-set-precondition'
-        ) aa on aa.entity=p.entity and aa.rinok=p.rinok and aa.arcto=p.id
-      ) pp on a.entity=pp.entity and a.rinok=pp.rinok and a.arcfrom=pp.arcfrom
-where vg.test like '%max%xs:date(.)%' or va.test like '%max%xs:date(.)%' or test_prec like '%max%xs:date(.)%';</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка в формульном слое xpath на выражениие max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.)) и max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:endDate/xs:date(.)) </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3584,7 +4347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3600,12 +4363,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3613,6 +4370,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3930,1062 +4705,1312 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="240" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="146.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="90.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="95.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>40</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>41</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>46</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>52</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>54</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>55</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>56</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>57</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>58</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>59</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>64</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>66</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>68</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>70</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>71</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>72</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>74</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>76</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
         <v>77</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B63" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>79</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>81</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>82</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>83</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>84</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>86</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B76" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>41</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>42</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>44</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>46</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>48</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>52</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>54</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>55</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>56</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>57</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>58</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>59</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>64</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>66</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>68</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>70</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>71</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>72</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>74</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>76</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>77</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>78</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>79</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>81</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>82</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>83</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>84</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>85</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>86</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>237</v>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4998,6 +6023,66 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист7"/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="125.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист8"/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист9"/>
   <dimension ref="A1:C1"/>
@@ -5016,10 +6101,10 @@
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5027,8 +6112,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист11"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5038,8 +6124,35 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>103</v>
+      <c r="A1" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист12"/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5049,6 +6162,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D15:D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист10"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5059,13 +6222,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5073,7 +6236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C1"/>
@@ -5089,10 +6252,10 @@
         <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5100,7 +6263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C1"/>
@@ -5116,10 +6279,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5127,7 +6290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:C1"/>
@@ -5143,10 +6306,10 @@
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5154,7 +6317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:C1"/>
@@ -5170,10 +6333,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5181,7 +6344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:C1"/>
@@ -5197,70 +6360,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист7"/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="125.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7">
-        <v>49</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист8"/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="75.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -3267,186 +3267,6 @@
 </t>
   </si>
   <si>
-    <t>with 
-loc as not materialized
-(
-select distinct rinok,entity,parentrole,label,href_id 
-from locators where locfrom='formula' --and rinok='uk'
-order by rinok,entity,parentrole,label
-),
-arc as 
-(
-select distinct va.rinok,va.entity,va.parentrole,split_part(va.parentrole,'/',-1) arcfrom,va.label arcto,name,arcrole,a.title,'formula' arctype,complement,cover
-from va_assertions va
-join arcs a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label 
-where arctype='formula' --and va.rinok='uk'
-union all
-select distinct rinok,entity,parentrole,arcfrom,arcto,name,arcrole,title,arctype,complement,cover
-from arcs
-where arctype='formula' --and rinok='uk'
-order by 1,2,3,4
-),
-assert_all as 
-(
-select version,rinok,entity,parentrole,label,id,base_type,value,period,tag_type,gv_test,fallbackvalue
-from
-( 
-select version,rinok,entity,parentrole,label,id,'t' base_type,value,null period,null tag_type,null gv_test,null fallbackvalue
-from va_tdimensions 
-union all
-select version,e.rinok,e.entity,e.parentrole,e.label,e.id,'e' base_type,dimension||case when member is not null then '#'||member else '' end dimension,null,null,null,null fallbackvalue
-from va_edimensions e
-left join 
-(select distinct rinok,entity,parentrole,dimension_id,member 
-from va_edmembers
-) m on m.rinok=e.rinok and m.entity=e.entity and m.parentrole=e.parentrole and m.dimension_id=e.id
-union all
-select version,rinok,entity,parentrole,label,id,'md' base_type,dimension value,null,null,'$'||variable null,null  
-from va_mdimensions
-union all
-select version,cc.rinok,cc.entity,cc.parentrole,cc.label,cc.id,'c' base_type,cc.value,null,null,null,null fallbackvalue
-from va_concepts cc
-union all
-select version,rinok,entity,parentrole,label,id,'pr' base_type,null,null,null,test,null fallbackvalue
-from preconditions
-union all
-select version,rinok,entity,parentrole,label,id,'ac' base_type,dims,null,null,null,null fallbackvalue
-from va_aspectcovers
-union all
-select version,rinok,entity,parentrole,label,id,'fv' base_type,null,null,null,null,fallbackvalue
-from va_factvars
-union all
-select version,rinok,entity,parentrole,label,id,'as' base_type,null,null,null,null,null fallbackvalue
-from va_assertionsets
-union all
-select version,rinok,entity,parentrole,label,id,'of' base_type,null,null,null,null,null fallbackvalue
-from va_orfilters
-union all
-select version,rinok,entity,parentrole,label,id,'af' base_type,null,null,null,null,null fallbackvalue
-from va_andfilters
-union all
-select version,rinok,entity,parentrole,label,id,'g' base_type,null,null,null,test,null fallbackvalue
-from va_generals
-union all
-select version,rinok,entity,parentrole,label,id,'gf' base_type,null,null,null,test,null fallbackvalue
-from va_fgenerals
-union all
-select va.version,va.rinok,va.entity,va.parentrole,va.label,va.id,'va' base_type,m.lang||'|'||m.text,null,null,test,null fallbackvalue
-from va_assertions va
-left join (select * from loc  order by rinok,entity,href_id )l on  l.rinok=va.rinok and l.entity=va.entity and l.href_id=va.id  
-left join (select * from arcs where arctype='formula' and arcrole='http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' order by rinok,entity,parentrole,arcfrom) a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=l.parentrole and a.arcfrom=coalesce(l.label,va.label)
-left join (select * from messages order by rinok,entity,label) m on m.rinok=va.rinok and m.entity=va.entity and m.label=a.arcto 
-union all
-select version,rinok,entity,parentrole,label,id,'p' base_type,null,date,tag_type,null,null fallbackvalue
-from va_periods
-) zz
-order by rinok,entity,parentrole,label
-),
-assert_loc as
-(
-select a.version,a.rinok,a.entity,l.parentrole,a.parentrole role_elem,l.label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
-from assert_all a
-join loc l on l.rinok=a.rinok and l.entity=a.entity and l.href_id=a.id 
-order by a.rinok,a.entity,l.parentrole,l.label
-),
-assert_loc_agg as not materialized
-(
-select rinok,entity,parentrole,role_elem role_agg,array_agg(distinct label) labels
-from assert_loc
-group by rinok,entity,parentrole,role_elem
-having array_length(array_agg(distinct label),1)&gt;1
-)
-,
-assert_cl as
-(
-select a.version,a.rinok,a.entity,a.parentrole,a.parentrole role_elem,coalesce(l.label,a.label) label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
-from assert_all a
-left join (select * from loc order by rinok,entity,parentrole,href_id) l on l.rinok=a.rinok and l.entity=a.entity and l.parentrole=a.parentrole and l.href_id=a.id 
-order by a.version,a.rinok,a.entity,a.parentrole
-)
-,
-roles_t as
-(
-select 'loc' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,a.arcfrom,a.arcto,
- coalesce(aa.arcfrom,a.arcfrom) arcfrom_elem,coalesce(aa.arcto,a.arcto) arcto_elem,fallbackvalue
-from assert_loc l
-left join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
-left join arc aa on a.rinok=l.rinok and aa.entity=l.entity and aa.parentrole=l.role_elem and aa.arcto=l.label_elem
-union all
-select 'cl' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,arcfrom,arcto,arcfrom arcfrom_elem,arcto arcto_elem,fallbackvalue  
-from assert_cl l
-join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
-order by 1,2,3,4
-),
-roles as not materialized 
-(
-select distinct fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
-fallbackvalue
-from
-(
-select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,labels arcto,arcfrom_elem,labels arcto_elem,
-fallbackvalue
-from
-(
-select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
-fallbackvalue,unnest(labels) labels
-from roles_t r
-join (select distinct rinok,entity,parentrole,href_id id,array_agg(distinct label) labels from loc l
-group by rinok,entity,parentrole,href_id) l using (rinok,entity,parentrole,id)
-where fromtype='loc' 
-order by base_type
-) l 
-union all 
-select * from roles_t  
-) r
- order by rinok,entity,parentrole,label
-),
-assert_rec as 
-(
-WITH 
- RECURSIVE recursive_hierarchy AS ( 
- select parentrole prole,fromtype,version,rinok,entity,parentrole parentrole,role_elem,label,id c_id,id fv_id,id parent_id,id child_id,base_type,base_type base_type_line,value,name c_name,period,tag_type,gv_test,
- arcfrom,arcto,arcfrom_elem,arcto_elem,fallbackvalue,split_part(value,'|',-1) msg
- from roles p
- WHERE  base_type = 'va'
- UNION ALL
- select prole,c.fromtype,c.version,c.rinok,c.entity,c.parentrole,c.role_elem,c.label,child_id,case when c.base_type='fv' then c.id else fv_id end fv_id,parent_id,c.id child_id,c.base_type,p.base_type_line||' - '||c.base_type,c.value,case when c.name is null then c_name else c.name end c_name,c.period,c.tag_type,
-  c.gv_test,c.arcfrom,c.arcto,c.arcfrom_elem,c.arcto_elem,case when c.fallbackvalue is not null then c.fallbackvalue else p.fallbackvalue end fallbackvalue,msg
- from roles c
- INNER JOIN recursive_hierarchy p on p.rinok=c.rinok and p.entity=c.entity
- and (c.arcfrom=case when p.fromtype='loc' then p.arcto_elem else p.arcto end)
- and (c.parentrole=ANY(array[p.role_elem,p.parentrole]))
- where c.base_type!='va'
- )
- select distinct * from recursive_hierarchy 
-),
-res as not materialized
-(
-select distinct version,rinok,entity,prole,base_type,base_type_line,parent_id,child_id,fv_id,c_id,value,case when base_type in ('c','fv') then c_name else null end c_name, 
-period,tag_type,gv_test,fallbackvalue,msg
-from assert_rec
-order by entity,parent_id,base_type
-)
-select version "Версия",rinok "Рынок",entity "Файл",parent_id "ID КС",child_id "ID FV",c_name "Переменная",fallbackvalue "FallbackValue"
-from
-(
-select version,gg.rinok,gg.entity,gg.parent_id,child_id,mm,c_name,fallbackvalue,gv_test
-from
-(
-select distinct version,rinok,entity,parent_id,child_id,gv_test,'$'||unnest(regexp_matches(gv_test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm 
-from res
-where base_type='g'
-order by rinok,entity,parent_id,mm
-) gg
-left join
-(
-select rinok,entity,parent_id,'$'||c_name c_name,fallbackvalue
-from res
-where base_type='fv' and fallbackvalue is not null
-) ff on ff.rinok=gg.rinok and ff.entity=gg.entity and ff.parent_id=gg.parent_id and ff.c_name=gg.mm
-) zz where fallbackvalue is not null</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
@@ -4276,6 +4096,186 @@
 ) cc on cc.rinok=oo.rinok and cc.entity=oo.entity and cc.parent_id=oo.parent_id and cc.c_id=oo.filter_id
 where cc.c_id is null
  </t>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS loc;
+CREATE TEMP TABLE loc as 
+select distinct rinok,entity,parentrole,label,href_id 
+from locators where locfrom='formula'
+order by rinok,entity,parentrole,label
+;
+DROP TABLE IF EXISTS arc;
+CREATE TEMP TABLE arc as 
+select distinct va.rinok,va.entity,va.parentrole,split_part(va.parentrole,'/',-1) arcfrom,va.label arcto,name,arcrole,a.title,'formula' arctype,complement,cover
+from va_assertions va
+join arcs a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=va.parentrole and a.arcfrom=va.label 
+where arctype='formula' 
+union all
+select distinct rinok,entity,parentrole,arcfrom,arcto,name,arcrole,title,arctype,complement,cover
+from arcs
+where arctype='formula' 
+order by 1,2,3,4
+;
+DROP TABLE IF EXISTS assert_all;
+CREATE TEMP TABLE assert_all as
+select version,rinok,entity,parentrole,label,id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from
+( 
+select version,rinok,entity,parentrole,label,id,'t' base_type,value,null period,null tag_type,test gv_test,null fallbackvalue
+from va_tdimensions 
+union all
+select version,e.rinok,e.entity,e.parentrole,e.label,e.id,'e' base_type,dimension||case when member is not null then '#'||member else '' end dimension,null,null,null,null fallbackvalue
+from va_edimensions e
+left join 
+(select distinct rinok,entity,parentrole,dimension_id,member 
+from va_edmembers
+) m on m.rinok=e.rinok and m.entity=e.entity and m.parentrole=e.parentrole and m.dimension_id=e.id
+union all
+select version,rinok,entity,parentrole,label,id,'md' base_type,dimension value,null,null,'$'||variable null,null  
+from va_mdimensions
+union all
+select version,cc.rinok,cc.entity,cc.parentrole,cc.label,cc.id,'c' base_type,cc.value,null,null,null,null fallbackvalue
+from va_concepts cc
+union all
+select version,rinok,entity,parentrole,label,id,'pr' base_type,null,null,null,test,null fallbackvalue
+from preconditions
+union all
+select version,rinok,entity,parentrole,label,id,'ac' base_type,dims,null,null,null,null fallbackvalue
+from va_aspectcovers
+union all
+select version,rinok,entity,parentrole,label,id,'fv' base_type,null,null,null,null,fallbackvalue
+from va_factvars
+union all
+select version,rinok,entity,parentrole,label,id,'as' base_type,null,null,null,null,null fallbackvalue
+from va_assertionsets
+union all
+select version,rinok,entity,parentrole,label,id,'of' base_type,null,null,null,null,null fallbackvalue
+from va_orfilters
+union all
+select version,rinok,entity,parentrole,label,id,'af' base_type,null,null,null,null,null fallbackvalue
+from va_andfilters
+union all
+select version,rinok,entity,parentrole,label,id,'g' base_type,null,null,null,test,null fallbackvalue
+from va_generals
+union all
+select version,rinok,entity,parentrole,label,id,'gf' base_type,null,null,null,test,null fallbackvalue
+from va_fgenerals
+union all
+select va.version,va.rinok,va.entity,va.parentrole,va.label,va.id,'va' base_type,m.lang||'|'||m.text,null,null,test,null fallbackvalue
+from va_assertions va
+left join (select * from loc  order by rinok,entity,href_id )l on  l.rinok=va.rinok and l.entity=va.entity and l.href_id=va.id  
+left join (select * from arcs where arctype='formula' and arcrole='http://xbrl.org/arcrole/2010/assertion-unsatisfied-message' order by rinok,entity,parentrole,arcfrom) a on a.rinok=va.rinok and a.entity=va.entity and a.parentrole=l.parentrole and a.arcfrom=coalesce(l.label,va.label)
+left join (select * from messages order by rinok,entity,label) m on m.rinok=va.rinok and m.entity=va.entity and m.label=a.arcto 
+where va.assert_type !='existenceassertion'
+union all
+select version,rinok,entity,parentrole,label,id,'p' base_type,null,date,tag_type,date,null fallbackvalue
+from va_periods
+) zz
+order by rinok,entity,parentrole,label
+;
+DROP TABLE IF EXISTS assert_loc;
+CREATE TEMP TABLE assert_loc as
+select a.version,a.rinok,a.entity,l.parentrole,a.parentrole role_elem,l.label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+join loc l on l.rinok=a.rinok and l.entity=a.entity and l.href_id=a.id 
+where base_type!='va'
+order by a.rinok,a.entity,l.parentrole,l.label
+;
+DROP TABLE IF EXISTS assert_loc_agg;
+CREATE TEMP TABLE  assert_loc_agg as
+select rinok,entity,parentrole,role_elem role_agg,array_agg(distinct label) labels
+from assert_loc
+group by rinok,entity,parentrole,role_elem
+having array_length(array_agg(distinct label),1)&gt;1
+;
+DROP TABLE IF EXISTS assert_cl;
+CREATE TEMP TABLE  assert_cl as
+select a.version,a.rinok,a.entity,a.parentrole,a.parentrole role_elem,coalesce(l.label,a.label) label,a.label label_elem,a.id,base_type,value,period,tag_type,gv_test,fallbackvalue
+from assert_all a
+left join (select * from loc order by rinok,entity,parentrole,href_id) l on l.rinok=a.rinok and l.entity=a.entity and l.parentrole=a.parentrole and l.href_id=a.id 
+order by a.version,a.rinok,a.entity,a.parentrole
+;
+DROP TABLE IF EXISTS roles_t;
+CREATE TEMP TABLE  roles_t as
+select 'loc' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,a.arcfrom,a.arcto,
+ coalesce(aa.arcfrom,a.arcfrom) arcfrom_elem,coalesce(aa.arcto,a.arcto) arcto_elem,fallbackvalue
+from assert_loc l
+left join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+left join arc aa on a.rinok=l.rinok and aa.entity=l.entity and aa.parentrole=l.role_elem and aa.arcto=l.label_elem
+union all
+select 'cl' fromtype,l.version,l.rinok,l.entity,a.parentrole,role_elem,l.label,label_elem,l.id,base_type,value,a.name,period,tag_type,gv_test,arcfrom,arcto,arcfrom arcfrom_elem,arcto arcto_elem,fallbackvalue  
+from assert_cl l
+join arc a on a.rinok=l.rinok and a.entity=l.entity and a.parentrole=l.parentrole and a.arcto=l.label
+order by 1,2,3,4
+;
+DROP TABLE IF EXISTS roles;
+CREATE TEMP TABLE roles as 
+select distinct fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
+fallbackvalue
+from
+(
+select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,labels arcto,arcfrom_elem,labels arcto_elem,
+fallbackvalue
+from
+(
+select fromtype,version,rinok,entity,parentrole,role_elem,label,label_elem,id,base_type,value,name,period,tag_type,gv_test,arcfrom,arcto,arcfrom_elem,arcto_elem,
+fallbackvalue,unnest(labels) labels
+from roles_t r
+join (select distinct rinok,entity,parentrole,href_id id,array_agg(distinct label) labels from loc l
+group by rinok,entity,parentrole,href_id) l using (rinok,entity,parentrole,id)
+where fromtype='loc' 
+order by base_type
+) l 
+union all 
+select * from roles_t  
+) r
+ order by rinok,entity,parentrole,label
+;
+DROP TABLE IF EXISTS assert_rec;
+CREATE TEMP TABLE assert_rec as 
+WITH 
+ RECURSIVE recursive_hierarchy AS ( 
+ select parentrole prole,fromtype,version,rinok,entity,parentrole parentrole,role_elem,label,id c_id,id fv_id,id parent_id,id child_id,base_type,base_type base_type_line,value,name c_name,period,tag_type,gv_test,
+ arcfrom,arcto,arcfrom_elem,arcto_elem,fallbackvalue,split_part(value,'|',-1) msg
+ from roles p
+ WHERE  base_type = 'va'
+ UNION ALL
+ select prole,c.fromtype,c.version,c.rinok,c.entity,c.parentrole,c.role_elem,c.label,child_id,case when c.base_type='fv' then c.id else fv_id end fv_id,parent_id,c.id child_id,c.base_type,p.base_type_line||' - '||c.base_type,c.value,case when c.name is null then c_name else c.name end c_name,c.period,c.tag_type,
+  c.gv_test,c.arcfrom,c.arcto,c.arcfrom_elem,c.arcto_elem,case when c.fallbackvalue is not null then c.fallbackvalue else p.fallbackvalue end fallbackvalue,msg
+ from roles c
+ INNER JOIN recursive_hierarchy p on p.rinok=c.rinok and p.entity=c.entity
+ and (c.arcfrom=case when p.fromtype='loc' then p.arcto_elem else p.arcto end)
+ and (c.parentrole=ANY(array[p.role_elem,p.parentrole])) 
+ where c.base_type!='va'
+ )
+ select distinct * from recursive_hierarchy 
+;
+with
+res as not materialized
+(
+select distinct version,rinok,entity,prole,base_type,base_type_line,parent_id,child_id,fv_id,c_id,value,case when base_type in ('c','fv') then c_name else null end c_name, 
+period,tag_type,gv_test,fallbackvalue,msg
+from assert_rec
+order by entity,parent_id,base_type
+)
+select version "Версия",rinok "Рынок",entity "Файл",parent_id "ID КС",child_id "ID FV",c_name "Переменная",fallbackvalue "FallbackValue"
+from
+(
+select version,gg.rinok,gg.entity,gg.parent_id,child_id,mm,c_name,fallbackvalue,gv_test
+from
+(
+select distinct version,rinok,entity,parent_id,child_id,gv_test,'$'||unnest(regexp_matches(gv_test, '\$([a-zA-Z_][a-zA-Z0-9_]*)', 'g')) mm 
+from res
+where base_type='g'
+order by rinok,entity,parent_id,mm
+) gg
+left join
+(
+select rinok,entity,parent_id,'$'||c_name c_name,fallbackvalue
+from res
+where base_type='fv' and fallbackvalue is not null
+) ff on ff.rinok=gg.rinok and ff.entity=gg.entity and ff.parent_id=gg.parent_id and ff.c_name=gg.mm
+) zz where fallbackvalue is not null</t>
   </si>
 </sst>
 </file>
@@ -4707,8 +4707,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,7 +4730,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4741,10 +4741,10 @@
         <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4772,7 +4772,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -4786,7 +4786,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -4800,7 +4800,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -4814,7 +4814,7 @@
         <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4842,7 +4842,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4856,7 +4856,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -4918,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -4946,7 +4946,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -4974,7 +4974,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5122,7 +5122,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -5148,7 +5148,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -5162,7 +5162,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -5190,7 +5190,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -5204,7 +5204,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5212,13 +5212,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
         <v>62</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5246,7 +5246,7 @@
         <v>59</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -5272,7 +5272,7 @@
         <v>38</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
         <v>51</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -5294,13 +5294,13 @@
         <v>48</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5326,7 +5326,7 @@
         <v>54</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -5340,7 +5340,7 @@
         <v>42</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5354,7 +5354,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5368,7 +5368,7 @@
         <v>44</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5382,7 +5382,7 @@
         <v>45</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5408,7 +5408,7 @@
         <v>57</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
         <v>58</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="390" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
         <v>56</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5450,7 +5450,7 @@
         <v>132</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -5470,13 +5470,13 @@
         <v>68</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5490,7 +5490,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5504,7 +5504,7 @@
         <v>107</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5515,10 +5515,10 @@
         <v>145</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5544,7 +5544,7 @@
         <v>60</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5558,7 +5558,7 @@
         <v>65</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -5572,7 +5572,7 @@
         <v>67</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5586,7 +5586,7 @@
         <v>68</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5600,7 +5600,7 @@
         <v>76</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5626,7 +5626,7 @@
         <v>81</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -5640,7 +5640,7 @@
         <v>83</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5654,7 +5654,7 @@
         <v>84</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -5668,7 +5668,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5682,7 +5682,7 @@
         <v>88</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
         <v>94</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5722,7 +5722,7 @@
         <v>152</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5730,13 +5730,13 @@
         <v>108</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -5750,7 +5750,7 @@
         <v>112</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5764,7 +5764,7 @@
         <v>116</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -5778,7 +5778,7 @@
         <v>119</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5792,7 +5792,7 @@
         <v>122</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5806,7 +5806,7 @@
         <v>125</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5817,10 +5817,10 @@
         <v>127</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5834,7 +5834,7 @@
         <v>129</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -5848,7 +5848,7 @@
         <v>189</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5862,7 +5862,7 @@
         <v>194</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -5876,7 +5876,7 @@
         <v>195</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5890,7 +5890,7 @@
         <v>212</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -5904,7 +5904,7 @@
         <v>199</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5912,13 +5912,13 @@
         <v>213</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>214</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5947,70 +5947,70 @@
     </row>
     <row r="92" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6178,10 +6178,10 @@
         <v>210</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Ищет элементы, которые есть в роли definition, но нет в аналогичной роли в presentation.</t>
-  </si>
-  <si>
-    <t>Автоматическая проверка длины кода элементов, которые используются в слое definition. Максимум - 64 символа без префикса.</t>
   </si>
   <si>
     <t>Проверка, что каждый ID контрольного соотношения уникален.</t>
@@ -3139,9 +3136,6 @@
 where vg.test like '%max%xs:date(.)%' or va.test like '%max%xs:date(.)%' or test_prec like '%max%xs:date(.)%';</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка в формульном слое xpath на выражениие max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.)) и max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:endDate/xs:date(.)) </t>
-  </si>
-  <si>
     <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "Роль",va.id "ID КС",count(distinct m.text) "Кол-во сообщений",string_agg(m.text,';') "Сообщение"
 from va_assertions va
 left join (select * from locators  order by rinok,entity,href_id )l on  l.rinok=va.rinok and l.entity=va.entity and l.href_id=va.id  
@@ -4276,6 +4270,12 @@
 where base_type='fv' and fallbackvalue is not null
 ) ff on ff.rinok=gg.rinok and ff.entity=gg.entity and ff.parent_id=gg.parent_id and ff.c_name=gg.mm
 ) zz where fallbackvalue is not null</t>
+  </si>
+  <si>
+    <t>Автоматическая проверка длины кода элементов, которые используются в слое definition. Максимум - 64 символа с учетом префикса.</t>
+  </si>
+  <si>
+    <t>Проверка в формульном слое xpath на выражениие max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.)) и max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:endDate/xs:date(.)) использовать «max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant)»</t>
   </si>
 </sst>
 </file>
@@ -4707,8 +4707,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,16 +4721,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4738,13 +4738,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4752,13 +4752,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4766,13 +4766,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -4780,13 +4780,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -4794,13 +4794,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,13 +4808,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4822,13 +4822,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4836,13 +4836,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4850,60 +4850,60 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -4912,13 +4912,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -4926,13 +4926,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -4940,13 +4940,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -4954,13 +4954,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -4968,13 +4968,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4982,10 +4982,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -4994,10 +4994,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -5006,10 +5006,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -5018,13 +5018,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5032,7 +5032,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -5044,7 +5044,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -5056,10 +5056,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -5068,7 +5068,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -5080,10 +5080,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -5092,7 +5092,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>9</v>
@@ -5104,7 +5104,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
@@ -5116,13 +5116,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -5130,7 +5130,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
@@ -5142,13 +5142,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -5156,13 +5156,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5170,13 +5170,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -5184,13 +5184,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -5198,13 +5198,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5212,13 +5212,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5226,13 +5226,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5240,13 +5240,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -5254,7 +5254,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>17</v>
@@ -5266,13 +5266,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -5280,13 +5280,13 @@
         <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -5294,13 +5294,13 @@
         <v>48</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5308,10 +5308,10 @@
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -5320,13 +5320,13 @@
         <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -5334,13 +5334,13 @@
         <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5348,13 +5348,13 @@
         <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5362,13 +5362,13 @@
         <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5376,13 +5376,13 @@
         <v>58</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5390,39 +5390,39 @@
         <v>59</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="390" x14ac:dyDescent="0.25">
@@ -5430,27 +5430,27 @@
         <v>64</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -5458,10 +5458,10 @@
         <v>66</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" s="3"/>
     </row>
@@ -5470,13 +5470,13 @@
         <v>68</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5484,13 +5484,13 @@
         <v>70</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5498,13 +5498,13 @@
         <v>71</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5512,13 +5512,13 @@
         <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5526,10 +5526,10 @@
         <v>74</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="3"/>
     </row>
@@ -5538,13 +5538,13 @@
         <v>76</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5552,13 +5552,13 @@
         <v>77</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -5566,13 +5566,13 @@
         <v>78</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5580,13 +5580,13 @@
         <v>79</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5594,13 +5594,13 @@
         <v>81</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5608,10 +5608,10 @@
         <v>82</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -5620,13 +5620,13 @@
         <v>83</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -5634,13 +5634,13 @@
         <v>84</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5648,369 +5648,369 @@
         <v>86</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="D75" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D76" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C82" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="D83" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="D88" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="C91" s="3" t="s">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6041,10 +6041,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6071,10 +6071,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6101,10 +6101,10 @@
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6125,7 +6125,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -6146,13 +6146,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6170,18 +6170,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +6201,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6222,13 +6222,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6252,7 +6252,7 @@
         <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -6279,7 +6279,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -6306,10 +6306,10 @@
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6333,10 +6333,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6360,10 +6360,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/checkList.xlsx
+++ b/checkList.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="106 delete" sheetId="16" r:id="rId2"/>
-    <sheet name="40 old" sheetId="15" r:id="rId3"/>
-    <sheet name="101-доделать" sheetId="12" r:id="rId4"/>
-    <sheet name="61 (old)" sheetId="11" r:id="rId5"/>
-    <sheet name="14 (old)" sheetId="10" r:id="rId6"/>
-    <sheet name="80 (old)" sheetId="9" r:id="rId7"/>
-    <sheet name="13 (old)" sheetId="8" r:id="rId8"/>
-    <sheet name="12 (old)" sheetId="7" r:id="rId9"/>
-    <sheet name="49" sheetId="6" r:id="rId10"/>
-    <sheet name="75" sheetId="3" r:id="rId11"/>
-    <sheet name="67" sheetId="4" r:id="rId12"/>
-    <sheet name="88 old" sheetId="13" r:id="rId13"/>
-    <sheet name="92 old" sheetId="14" r:id="rId14"/>
+    <sheet name="89-old" sheetId="17" r:id="rId2"/>
+    <sheet name="106 delete" sheetId="16" r:id="rId3"/>
+    <sheet name="40 old" sheetId="15" r:id="rId4"/>
+    <sheet name="101-доделать" sheetId="12" r:id="rId5"/>
+    <sheet name="61 (old)" sheetId="11" r:id="rId6"/>
+    <sheet name="14 (old)" sheetId="10" r:id="rId7"/>
+    <sheet name="80 (old)" sheetId="9" r:id="rId8"/>
+    <sheet name="13 (old)" sheetId="8" r:id="rId9"/>
+    <sheet name="12 (old)" sheetId="7" r:id="rId10"/>
+    <sheet name="49" sheetId="6" r:id="rId11"/>
+    <sheet name="75" sheetId="3" r:id="rId12"/>
+    <sheet name="67" sheetId="4" r:id="rId13"/>
+    <sheet name="88 old" sheetId="13" r:id="rId14"/>
+    <sheet name="92 old" sheetId="14" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$93</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="331">
   <si>
     <t>Проверка того, что targetRole ссылается на существующую роль в Definition</t>
   </si>
@@ -64,9 +65,6 @@
   </si>
   <si>
     <t>Проверка наличия стандартного русского лейбла у показателей в словаре</t>
-  </si>
-  <si>
-    <t>Проверка на наличие лишних пробелов в лейблах элементов</t>
   </si>
   <si>
     <t>Проверка в Formula link  наличия severityLevel у всех контролей</t>
@@ -782,22 +780,6 @@
     <t>91</t>
   </si>
   <si>
-    <t>select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",id,value 
-from va_concepts
-where value not in (select qname from elements 
-       )
-union all
-select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",id,dimension 
-from va_edimensions
-where dimension not in (select qname from elements 
-        )
-union all
-select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",dimension_id,member 
-from va_edmembers
-where member not in (select qname from elements 
-     )</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -944,34 +926,6 @@
   </si>
   <si>
     <t>98</t>
-  </si>
-  <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",name,id,qname,string_agg(distinct def_rinok,';') "Рынки",string_agg(distinct def_entity,';') "Файлы definition",string_agg(distinct def_role,';') "Роли definition"
-from
-(
-select version,rinok,entity,name,id,qname,
-case when type='enum2:enumerationSetItemType' and name not like '%Enumerator2' then 'Error enumerator2'
-when type='enum:enumerationItemType' and name not like '%Enumerator' then 'Error enumerator'
-when substitutiongroup='xbrldt:dimensionItem' and typeddomainref is null and name not like '%Axis' then 'Error Axis'
-when typeddomainref is not null and name not like '%Taxis' then 'Error Taxis'
-when type='nonnum:domainItemType' and name not like '%Member' then 'Error Member'
-else '' 
-end error_name
-from elements
-where type in ('enum2:enumerationSetItemType','enum:enumerationItemType','nonnum:domainItemType')
-or substitutiongroup='xbrldt:dimensionItem'
-) zz
-left join 
-(
-select distinct l.href_id element_id,l.entity def_entity,l.parentrole def_role,l.rinok def_rinok
-from
-(select * from locators l where l.locfrom='definition' order by version,rinok,entity,parentrole) l
-join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole) a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto
-order by l.href_id
-) df on df.element_id=id
-where error_name!=''
-group by version,rinok,entity,name,id,qname
-order by 7 nulls last,2 desc,1,3,4</t>
   </si>
   <si>
     <t>100</t>
@@ -1873,31 +1827,6 @@
 and e.rinok='bfo'</t>
   </si>
   <si>
-    <t>select version "Версия",rinok "Рынок",entity "Файл",table_entity,role_razdel,id "ID элемента",
-case when element_id is not null then 'да' else 'нет' end "Используется в definition",
-text "Текуший",text_final "Корректный"
-from
-(
-select version,rinok,entity,lang,text,id,
-delete_space_and_tab(text) text_final
-from elements_labels
-where text is not null
-order by id
-) l
-left join 
-(
-select distinct l.href_id element_id,tp.entity table_entity,tp.uri_razdel role_razdel 
-from
-(select * from locators l where l.locfrom='definition' order by version,rinok,entity,parentrole) l
-join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole) a on l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto
-join tableparts tp on tp.rinok=a.rinok
-where (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
-order by l.href_id
-) df on df.element_id=id
-where text!=text_final
-order by table_entity,case when element_id is not null then 'да' else 'нет' end</t>
-  </si>
-  <si>
     <t>select va.version "Версия",va.rinok "Рынок",va.entity "Файл",va.parentrole "URI",va.id "ID КС",href_id "severity"
 from va_assertions va
 left join (
@@ -2601,61 +2530,6 @@
 having count(*)&gt;1
 order by a.rinok,a.parentrole,l.href_id
 </t>
-  </si>
-  <si>
-    <t>with df as 
-(
- select distinct replace(entity,'.xsd','-formula.xml') entity,array_agg(distinct dim_def) dim_def
-        from
-        (
-        select tp.entity,unnest(dim_def) dim_def
-        from tableparts tp 
-        join tables t on t.namespace=tp.uri_table and t.rinok=tp.rinok
-        left join (
-                select dict_entity,array_agg(dim||'#'||mem) dim_def
-                from
-                (
-                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
-                from locators l 
-                join arcs a on a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
-                join locators lm on a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
-                join elements e on e.id=l.href_id
-                join elements em on em.id=lm.href_id
-                ) z
-                group by dict_entity
-                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
-        ) ee 
-        group by entity
-),
-dim as not materialized
-(
-select ve.rinok,ve.version,ve.entity,ve.parentrole,ve.id,coalesce(l.label,ve.label) label,
-dimension||'#'||member dim
-from (select ve.*,member from  (select * from va_edimensions ve order by rinok,entity,parentrole,id) ve join (select * from va_edmembers vm order by rinok,entity,parentrole,dimension_id) vm
-on vm.entity=ve.entity and vm.rinok=ve.rinok and vm.parentrole=ve.parentrole and vm.dimension_id=ve.id order by ve.rinok,ve.entity,ve.id) ve
-left join (select * from locators where locfrom='formula' order by rinok,entity,href_id) l on l.rinok=ve.rinok and l.entity=ve.entity and l.href_id=ve.id
-join df on df.entity=ve.entity and dimension||'#'||member = ANY(dim_def) 
-order by ve.rinok,ve.entity,ve.parentrole,coalesce(l.label,ve.label)
-),
-fv as
-(
-select fv.rinok "Рыное",fv.version "Версия",fv.entity "Файл",fv.parentrole "Роль",fv.id "factVarible",dim,complement
-from
-(
-select fv.rinok,fv.version,fv.entity,fv.parentrole,fv.id,coalesce(l.label,fv.label) label
-from (select rinok,version,entity,parentrole,id,label
-    from va_factvars 
-   order by rinok, entity,id)fv
-left join (select version, rinok, entity,href_id,label
-   from locators where locfrom='formula' 
-     order by  rinok, entity,href_id )l on l.rinok=fv.rinok and l.entity=fv.entity and l.href_id=fv.id
-order by fv.rinok,fv.entity,fv.parentrole,fv.label
-) fv
-join (select * from arcs where arctype='formula' and arcrole='http://xbrl.org/arcrole/2008/variable-filter' and complement='true' 
-  order by rinok,entity,parentrole,arcfrom) a on a.rinok=fv.rinok and a.entity=fv.entity and a.parentrole=fv.parentrole and a.arcfrom=fv.label 
-left join dim on dim.rinok=a.rinok and dim.entity=a.entity and dim.parentrole=fv.parentrole and dim.label=a.arcto 
-)
-select * from fv where coalesce(dim,'1') != '1'</t>
   </si>
   <si>
     <t>with def as
@@ -3636,9 +3510,6 @@
 'annotation')</t>
   </si>
   <si>
-    <t>Неправильные названия элементов Taxis, Axis, Member, Enumerator, Enumerator2</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
@@ -4275,7 +4146,204 @@
     <t>Автоматическая проверка длины кода элементов, которые используются в слое definition. Максимум - 64 символа с учетом префикса.</t>
   </si>
   <si>
-    <t>Проверка в формульном слое xpath на выражениие max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.)) и max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:endDate/xs:date(.)) использовать «max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant)»</t>
+    <t>Проверка в формульном слое xpath на выражениие max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant/xs:date(.)) и max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:endDate/xs:date(.)) использовать max(/xbrli:xbrl/xbrli:context/xbrli:period/xbrli:instant)</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",table_entity,role_razdel,id "ID элемента",
+case when element_id is not null then 'да' else 'нет' end "Используется в definition",
+text "Текуший",text_final "Корректный"
+from
+(
+select version,rinok,entity,lang,text,id,
+delete_space_and_tab(text) text_final
+from elements_labels
+where text is not null
+order by id
+) l
+left join 
+(
+select distinct l.href_id element_id,tp.entity table_entity,tp.uri_razdel role_razdel 
+from
+(select * from locators l where l.locfrom='definition' order by version,rinok,entity,parentrole) l
+join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole) a on l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto
+join tableparts tp on tp.rinok=a.rinok
+where (tp.uri_table=a.parentrole or tp.uri_razdel=a.parentrole)
+order by l.href_id
+) df on df.element_id=id
+where text!=text_final and element_id is not null
+order by table_entity,case when element_id is not null then 'да' else 'нет' end</t>
+  </si>
+  <si>
+    <t>Проверка на наличие лишних пробелов в лейблах элементов (элементы используются в definitions)</t>
+  </si>
+  <si>
+    <t>select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",id,value 
+from (
+select *, unnest(string_to_array(value, ';')) AS val2 from va_concepts) tt
+where val2 not in (select qname from elements 
+       )
+union all
+select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",id,dimension 
+from va_edimensions
+where dimension not in (select qname from elements 
+        )
+union all
+select distinct version "Версия",rinok "Рынок",entity "Файл",parentrole "Роль",dimension_id,member 
+from va_edmembers
+where member not in (select qname from elements 
+     )</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок",entity "Файл",name,id,qname,string_agg(distinct def_rinok,';') "Рынки",string_agg(distinct def_entity,';') "Файлы definition",string_agg(distinct def_role,';') "Роли definition"
+from
+(
+select version,rinok,entity,name,id,qname,
+case when type='enum2:enumerationSetItemType' and name not like '%Enumerator2' then 'Error enumerator2'
+when type='enum:enumerationItemType' and name not like '%Enumerator' then 'Error enumerator'
+when substitutiongroup='xbrldt:dimensionItem' and typeddomainref is null and name not like '%Axis' then 'Error Axis'
+when typeddomainref is not null and name not like '%Taxis' then 'Error Taxis'
+when type='nonnum:domainItemType' and name not like '%Member' then 'Error Member'
+else '' 
+end error_name
+from elements
+where type in ('enum2:enumerationSetItemType','enum:enumerationItemType','nonnum:domainItemType')
+or substitutiongroup='xbrldt:dimensionItem'
+) zz
+left join 
+(
+select distinct l.href_id element_id,l.entity def_entity,l.parentrole def_role,l.rinok def_rinok
+from
+(select * from locators l where l.locfrom='definition' order by version,rinok,entity,parentrole) l
+join (select * from arcs where arctype='definition' order by version,rinok,entity,parentrole) a on l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole and l.label=a.arcto
+order by l.href_id
+) df on df.element_id=id
+where error_name!='' and def_role like '%/tab/%'
+group by version,rinok,entity,name,id,qname
+order by 7 nulls last,2 desc,1,3,4</t>
+  </si>
+  <si>
+    <t>Неправильные названия элементов Taxis, Axis, Member, Enumerator, Enumerator2 (элементы используются в definitions)</t>
+  </si>
+  <si>
+    <t>with pl as
+(
+select distinct entity,version,pl.rinok,qname,role_table,parentrole pl_role,array_unique(array[text]) pl_texts,type,substitutiongroup
+from preferred_labels pl
+join roles_table_definition rr on rr.role_definition=pl.parentrole
+where pl.role not in ('http://www.xbrl.org/2003/role/periodEndLabel','http://www.xbrl.org/2003/role/periodStartLabel')
+and substitutiongroup != 'xbrldt:dimensionItem' 
+--and pl.parentrole='http://www.cbr.ru/xbrl/nso/operatory/rep/2025-12-30/tab/sr_0420934_r1_p2'
+),
+rn as
+(
+select l.entity lab_entity,rend_entity,rn.parentrole,rn.value,array_unique(array_agg(l.text)) rn_texts,l.rulenode_id from
+(
+select l.entity,split_part(l.href,'#',1) rend_entity,href_id rulenode_id,text
+from (select * from locators where locfrom='lab') l
+left join (select * from arcs where arctype='gen:arc' and arcrole='http://xbrl.org/arcrole/2008/element-label') a on a.entity=l.entity and a.arcfrom=l.label
+left join labels la on la.entity=a.entity and la.label=a.arcto and la.role='http://www.xbrl.org/2008/role/label'
+) l
+join
+(
+select version,rinok,entity,parentrole,rulenode_id,value from rulenodes_c rn
+union all
+select version,rinok,entity,parentrole,rulenode_id,member from rulenodes_e rn
+) rn on rn.rulenode_id=l.rulenode_id and rn.entity=rend_entity
+where value not in (select qname from elements where substitutiongroup = 'xbrldt:dimensionItem')
+--and rn.parentrole='http://www.cbr.ru/xbrl/nso/operatory/rep/2025-12-30/tab/sr_0420934_r1_p2'
+group by l.entity,rend_entity,rn.parentrole,rn.value,l.rulenode_id
+)
+select distinct version "Версия",rinok "Рынок",pl.entity "файл presentation",lab_entity "Файл table",pl.role_table "Роль table",
+string_agg(distinct pl_role,';') "Роли presentation",qname,
+array_to_string(pl_texts,'|') "Лэйбл pres",array_to_string(rn_texts,'|') "Лэйбл tab",rulenode_id,
+arr1_in_arr2_hard(pl_texts,rn_texts) "Жесткое сопоставление",
+arr1_in_arr2_light(pl_texts,rn_texts) "Сопоставление без учета пробелов и регистра"
+from rn
+join pl on rn.parentrole=pl.role_table and pl.qname=rn.value
+where arr1_in_arr2_hard(pl_texts,rn_texts)=0
+group by rulenode_id,version,rinok,pl.entity,lab_entity,pl.role_table,qname,array_to_string(pl_texts,'|'),array_to_string(rn_texts,'|'),arr1_in_arr2_hard(pl_texts,rn_texts),arr1_in_arr2_light(pl_texts,rn_texts)
+order by rinok,entity,qname
+--select * from aspectnodes</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select l.version "Версия",l.rinok "Рынок",l.entity "Файл",l.parentrole "Роль",l.href "Ссылка локатора",value "Импортированный элемент",vc.entity "Схема"
+from locators l
+join va_concepts vc on vc.id=l.label  and vc.fullpath like '%'||split_part(split_part(href,'/',-1),'#',1)||'%'
+where href like '%../%' and locfrom='formula'
+</t>
+  </si>
+  <si>
+    <t>В формулу импортирован элемент из другой схемы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select version "Версия",rinok "Рынок",entity "Файл",imports "Импорт"
+from
+(
+select distinct version,rinok,entity,unnest(string_to_array(imports,';')) imports
+from tableparts 
+) zz
+where imports in (select distinct entity from tableparts)
+and imports!=entity
+</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>В схему формы импортирована другая форма.</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Проверка ссылок на внешний справочник. Носит информационный характер</t>
+  </si>
+  <si>
+    <t>select version "Версия",rinok "Рынок", entity "Файл формулы", id, select_text,
+case when select_text like '%http://www.cbr.ru/Content/Document/File/%' then 'На сайт БР' 
+  when select_text like '%xwand/tax/localSources%' then 'На сервере' else 'Ошибка' end "Куда ссылка"
+from public.va_parameters
+where select_text like '%if (fn:doc-available%'--id = 'base_resource'
+order by 1,2,3,4</t>
+  </si>
+  <si>
+    <t>Если ссылка на сервер валидатора или ошибка выделяется красным цветом</t>
+  </si>
+  <si>
+    <t>with df as 
+(
+ select distinct replace(entity,'.xsd','-formula.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id
+                join elements em on em.id=lm.href_id
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by entity
+)
+select ve.version "Версия",ve.rinok "Рынок",ve.entity "Файл",ve.parentrole "Роль",ve.dimension||'#'||vem.member "Ось#Мембер",ve.id "ID",a.complement
+from va_edimensions ve
+join arcs a on a.entity=ve.entity and a.rinok=ve.rinok and a.parentrole=ve.parentrole and a.arcto=ve.label
+join va_edmembers vem on vem.dimension_id=ve.id and vem.parentrole=ve.parentrole and vem.entity=ve.entity
+join df on df.entity=ve.entity and dimension||'#'||vem.member = ANY(dim_def) 
+where complement='true'
+order by 1,2,3,4</t>
   </si>
 </sst>
 </file>
@@ -4705,10 +4773,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,16 +4789,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" s="16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4738,13 +4806,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4752,13 +4820,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4766,13 +4834,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -4780,13 +4848,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -4794,13 +4862,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,13 +4876,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4822,13 +4890,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4836,13 +4904,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4850,60 +4918,60 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -4912,13 +4980,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -4926,13 +4994,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -4940,13 +5008,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -4954,13 +5022,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -4968,13 +5036,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4982,10 +5050,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -4994,10 +5062,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -5006,10 +5074,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -5018,13 +5086,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5032,7 +5100,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -5044,7 +5112,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -5056,10 +5124,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -5068,10 +5136,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -5080,10 +5148,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -5092,10 +5160,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -5104,10 +5172,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -5116,13 +5184,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="240" x14ac:dyDescent="0.25">
@@ -5130,10 +5198,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3"/>
     </row>
@@ -5142,13 +5210,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -5156,13 +5224,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5170,13 +5238,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -5184,13 +5252,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -5198,13 +5266,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5212,13 +5280,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5226,13 +5294,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5240,13 +5308,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -5254,10 +5322,10 @@
         <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="3"/>
     </row>
@@ -5266,27 +5334,27 @@
         <v>44</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="255" x14ac:dyDescent="0.25">
@@ -5294,13 +5362,13 @@
         <v>48</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5308,10 +5376,10 @@
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -5320,13 +5388,13 @@
         <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>201</v>
+        <v>330</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -5334,13 +5402,13 @@
         <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5348,13 +5416,13 @@
         <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5362,13 +5430,13 @@
         <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5376,13 +5444,13 @@
         <v>58</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5390,39 +5458,39 @@
         <v>59</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="390" x14ac:dyDescent="0.25">
@@ -5430,27 +5498,27 @@
         <v>64</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -5458,10 +5526,10 @@
         <v>66</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D56" s="3"/>
     </row>
@@ -5470,13 +5538,13 @@
         <v>68</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5484,13 +5552,13 @@
         <v>70</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5498,13 +5566,13 @@
         <v>71</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5512,13 +5580,13 @@
         <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5526,10 +5594,10 @@
         <v>74</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61" s="3"/>
     </row>
@@ -5538,13 +5606,13 @@
         <v>76</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5552,13 +5620,13 @@
         <v>77</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -5566,13 +5634,13 @@
         <v>78</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -5580,13 +5648,13 @@
         <v>79</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5594,13 +5662,13 @@
         <v>81</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -5608,10 +5676,10 @@
         <v>82</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -5620,13 +5688,13 @@
         <v>83</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -5634,13 +5702,13 @@
         <v>84</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5648,369 +5716,411 @@
         <v>86</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="D86" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>304</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>315</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6023,6 +6133,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист6"/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:C1"/>
@@ -6041,10 +6178,10 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6052,7 +6189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:C1"/>
@@ -6071,10 +6208,10 @@
         <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6082,7 +6219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист9"/>
   <dimension ref="A1:C1"/>
@@ -6101,10 +6238,10 @@
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6112,7 +6249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист11"/>
   <dimension ref="A1"/>
@@ -6125,7 +6262,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6133,7 +6270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист12"/>
   <dimension ref="A1:C1"/>
@@ -6146,13 +6283,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6161,6 +6298,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -6172,16 +6327,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -6189,7 +6344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6201,7 +6356,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +6364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист10"/>
   <dimension ref="A1:C1"/>
@@ -6222,13 +6377,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6236,7 +6391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:C1"/>
@@ -6252,10 +6407,10 @@
         <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6263,7 +6418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C1"/>
@@ -6279,7 +6434,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -6290,7 +6445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:C1"/>
@@ -6306,10 +6461,10 @@
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6317,7 +6472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:C1"/>
@@ -6333,37 +6488,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист6"/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
